--- a/Findings.xlsx
+++ b/Findings.xlsx
@@ -24,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="32">
-  <si>
-    <t>Coding</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="37">
   <si>
     <t>Farbe</t>
   </si>
@@ -121,13 +118,39 @@
   <si>
     <t>Organisation, Selbständigkeit</t>
   </si>
+  <si>
+    <t>beide</t>
+  </si>
+  <si>
+    <t>Sorgearbeit</t>
+  </si>
+  <si>
+    <t>Kategorie</t>
+  </si>
+  <si>
+    <t>AV</t>
+  </si>
+  <si>
+    <t>SV</t>
+  </si>
+  <si>
+    <t>Pflichtbewusstsein</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -343,7 +366,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -444,6 +467,43 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -471,6 +531,1157 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>absolute Vorkommen im Vergleich</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$AS$23:$AS$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D636-40C6-885E-E9B856DBB766}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:alpha val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$AU$23:$AU$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D636-40C6-885E-E9B856DBB766}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="65"/>
+        <c:axId val="437742056"/>
+        <c:axId val="437742384"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent2">
+                      <a:alpha val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Tabelle1!$AT$23:$AT$40</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="18"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-D636-40C6-885E-E9B856DBB766}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="437742056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="437742384"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="437742384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="437742056"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="39000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="39000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="288">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:sp3d/>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr/>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>6723</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>66</xdr:col>
+      <xdr:colOff>59764</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>14941</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6BD792B-F511-43D6-8906-735031434FF2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -770,12 +1981,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BA41"/>
+  <dimension ref="A1:BA62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozenSplit"/>
       <selection sqref="A1 C1:C1048576"/>
-      <selection pane="topRight" activeCell="AR36" sqref="AR36"/>
+      <selection pane="topRight" activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -798,7 +2009,8 @@
     <col min="38" max="38" width="4.81640625" customWidth="1"/>
     <col min="39" max="44" width="5.1796875" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="46" max="52" width="5.1796875" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="5.1796875" customWidth="1"/>
+    <col min="47" max="52" width="5.1796875" bestFit="1" customWidth="1"/>
     <col min="53" max="53" width="9.26953125" bestFit="1" customWidth="1"/>
     <col min="54" max="70" width="3.81640625" customWidth="1"/>
     <col min="71" max="71" width="3.90625" customWidth="1"/>
@@ -809,10 +2021,10 @@
   <sheetData>
     <row r="1" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="C1" s="11">
         <v>1</v>
@@ -890,7 +2102,7 @@
         <v>2.7</v>
       </c>
       <c r="AB1" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AC1" s="1">
         <v>3.1</v>
@@ -920,7 +2132,7 @@
         <v>3.9</v>
       </c>
       <c r="AL1" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AM1" s="2">
         <v>3.11</v>
@@ -950,7 +2162,7 @@
         <v>3.19</v>
       </c>
       <c r="AV1" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AW1" s="2">
         <v>3.21</v>
@@ -965,13 +2177,13 @@
         <v>3.24</v>
       </c>
       <c r="BA1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A2" s="14"/>
       <c r="B2" s="10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" s="15"/>
       <c r="D2" s="16">
@@ -1030,14 +2242,14 @@
       <c r="AY2" s="5"/>
       <c r="AZ2" s="6"/>
       <c r="BA2">
-        <f t="shared" ref="BA2:BA17" si="0">SUM(C2:AZ2)</f>
+        <f>SUM(C2:AZ2)</f>
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A3" s="18"/>
       <c r="B3" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" s="15"/>
       <c r="D3" s="16">
@@ -1108,14 +2320,14 @@
       <c r="AY3" s="5"/>
       <c r="AZ3" s="6"/>
       <c r="BA3">
-        <f t="shared" si="0"/>
+        <f>SUM(C3:AZ3)</f>
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A4" s="19"/>
       <c r="B4" s="10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" s="15"/>
       <c r="D4" s="16">
@@ -1170,14 +2382,14 @@
       <c r="AY4" s="5"/>
       <c r="AZ4" s="6"/>
       <c r="BA4">
-        <f t="shared" si="0"/>
+        <f>SUM(C4:AZ4)</f>
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A5" s="20"/>
       <c r="B5" s="10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" s="15"/>
       <c r="D5" s="16"/>
@@ -1234,14 +2446,14 @@
       <c r="AY5" s="5"/>
       <c r="AZ5" s="6"/>
       <c r="BA5">
-        <f t="shared" si="0"/>
+        <f>SUM(C5:AZ5)</f>
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A6" s="21"/>
       <c r="B6" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" s="15"/>
       <c r="D6" s="16"/>
@@ -1326,14 +2538,14 @@
       <c r="AY6" s="5"/>
       <c r="AZ6" s="6"/>
       <c r="BA6">
-        <f t="shared" si="0"/>
+        <f>SUM(C6:AZ6)</f>
         <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A7" s="22"/>
       <c r="B7" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7" s="15"/>
       <c r="D7" s="16"/>
@@ -1402,14 +2614,14 @@
       <c r="AY7" s="5"/>
       <c r="AZ7" s="6"/>
       <c r="BA7">
-        <f t="shared" si="0"/>
+        <f>SUM(C7:AZ7)</f>
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A8" s="23"/>
       <c r="B8" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" s="15"/>
       <c r="D8" s="16"/>
@@ -1474,16 +2686,16 @@
       <c r="AY8" s="5"/>
       <c r="AZ8" s="6"/>
       <c r="BA8">
-        <f t="shared" si="0"/>
+        <f>SUM(C8:AZ8)</f>
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A9" s="24" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" s="15"/>
       <c r="D9" s="16"/>
@@ -1550,14 +2762,14 @@
       <c r="AY9" s="5"/>
       <c r="AZ9" s="6"/>
       <c r="BA9">
-        <f t="shared" si="0"/>
+        <f>SUM(C9:AZ9)</f>
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A10" s="25"/>
       <c r="B10" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10" s="15"/>
       <c r="D10" s="16"/>
@@ -1640,16 +2852,16 @@
       </c>
       <c r="AZ10" s="6"/>
       <c r="BA10">
-        <f t="shared" si="0"/>
+        <f>SUM(C10:AZ10)</f>
         <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A11" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C11" s="15"/>
       <c r="D11" s="16"/>
@@ -1704,16 +2916,16 @@
       <c r="AY11" s="5"/>
       <c r="AZ11" s="6"/>
       <c r="BA11">
-        <f t="shared" si="0"/>
+        <f>SUM(C11:AZ11)</f>
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A12" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="10" t="s">
         <v>8</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>9</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="16"/>
@@ -1770,16 +2982,16 @@
       <c r="AY12" s="5"/>
       <c r="AZ12" s="6"/>
       <c r="BA12">
-        <f t="shared" si="0"/>
+        <f>SUM(C12:AZ12)</f>
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A13" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="10" t="s">
         <v>10</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>11</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="16"/>
@@ -1852,16 +3064,16 @@
         <v>1</v>
       </c>
       <c r="BA13">
-        <f t="shared" si="0"/>
+        <f>SUM(C13:AZ13)</f>
         <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A14" s="28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="16"/>
@@ -1916,14 +3128,14 @@
       <c r="AY14" s="5"/>
       <c r="AZ14" s="6"/>
       <c r="BA14">
-        <f t="shared" si="0"/>
+        <f>SUM(C14:AZ14)</f>
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A15" s="29"/>
       <c r="B15" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15" s="15"/>
       <c r="D15" s="16"/>
@@ -1986,16 +3198,16 @@
       <c r="AY15" s="5"/>
       <c r="AZ15" s="6"/>
       <c r="BA15">
-        <f t="shared" si="0"/>
+        <f>SUM(C15:AZ15)</f>
         <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A16" s="30" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="16"/>
@@ -2058,14 +3270,14 @@
       <c r="AY16" s="5"/>
       <c r="AZ16" s="6"/>
       <c r="BA16">
-        <f t="shared" si="0"/>
+        <f>SUM(C16:AZ16)</f>
         <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A17" s="31"/>
       <c r="B17" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="16"/>
@@ -2124,14 +3336,14 @@
       <c r="AY17" s="5"/>
       <c r="AZ17" s="6"/>
       <c r="BA17">
-        <f t="shared" si="0"/>
+        <f>SUM(C17:AZ17)</f>
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A18" s="32"/>
       <c r="B18" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="16"/>
@@ -2186,13 +3398,14 @@
       <c r="AY18" s="5"/>
       <c r="AZ18" s="6"/>
       <c r="BA18">
-        <v>0</v>
+        <f>SUM(C18:AZ18)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A19" s="33"/>
       <c r="B19" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C19" s="34"/>
       <c r="D19" s="35"/>
@@ -2249,17 +3462,23 @@
       </c>
     </row>
     <row r="20" spans="1:53" x14ac:dyDescent="0.35">
+      <c r="C20" s="16"/>
+      <c r="T20" s="16"/>
+      <c r="U20" s="5"/>
+      <c r="AB20" s="5"/>
+      <c r="AC20" s="5"/>
+      <c r="AZ20" s="5"/>
       <c r="BA20">
         <f>SUM(BA2:BA19)</f>
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="22" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A22" s="10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="C22" s="11">
         <v>4.2</v>
@@ -2313,7 +3532,7 @@
         <v>5.9</v>
       </c>
       <c r="T22" s="38" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="U22" s="2">
         <v>6.1</v>
@@ -2343,7 +3562,7 @@
         <v>6.9</v>
       </c>
       <c r="AD22" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AE22" s="2">
         <v>6.11</v>
@@ -2388,13 +3607,19 @@
         <v>7.8</v>
       </c>
       <c r="AS22" t="s">
-        <v>28</v>
+        <v>27</v>
+      </c>
+      <c r="AU22" s="40">
+        <v>36</v>
+      </c>
+      <c r="AW22" s="40" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A23" s="14"/>
       <c r="B23" s="10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C23" s="15"/>
       <c r="D23" s="16"/>
@@ -2448,11 +3673,19 @@
         <f>SUM(C23:AR23)</f>
         <v>3</v>
       </c>
+      <c r="AU23">
+        <f>SUM(C2:AZ2)</f>
+        <v>3</v>
+      </c>
+      <c r="AW23">
+        <f>SUM(BA2,AS23)</f>
+        <v>6</v>
+      </c>
     </row>
     <row r="24" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A24" s="18"/>
       <c r="B24" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C24" s="15"/>
       <c r="D24" s="16"/>
@@ -2514,11 +3747,19 @@
         <f>SUM(C24:AR24)</f>
         <v>7</v>
       </c>
+      <c r="AU24">
+        <f>SUM(C3:AZ3)</f>
+        <v>10</v>
+      </c>
+      <c r="AW24" s="40">
+        <f>SUM(BA3,AS24)</f>
+        <v>17</v>
+      </c>
     </row>
     <row r="25" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A25" s="19"/>
       <c r="B25" s="10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C25" s="15"/>
       <c r="D25" s="16"/>
@@ -2565,11 +3806,19 @@
       <c r="AS25">
         <v>0</v>
       </c>
+      <c r="AU25">
+        <f t="shared" ref="AU25:AU40" si="0">SUM(C4:AZ4)</f>
+        <v>1</v>
+      </c>
+      <c r="AW25">
+        <f>SUM(AS25,BA4)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="26" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A26" s="20"/>
       <c r="B26" s="10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C26" s="15"/>
       <c r="D26" s="16"/>
@@ -2616,11 +3865,19 @@
       <c r="AS26">
         <v>0</v>
       </c>
+      <c r="AU26">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AW26">
+        <f>SUM(AS26,BA5)</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="27" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A27" s="21"/>
       <c r="B27" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C27" s="15"/>
       <c r="D27" s="16"/>
@@ -2674,11 +3931,19 @@
         <f>SUM(C27:AR27)</f>
         <v>3</v>
       </c>
+      <c r="AU27">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="AW27">
+        <f>SUM(BA6,AS27)</f>
+        <v>22</v>
+      </c>
     </row>
     <row r="28" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A28" s="22"/>
       <c r="B28" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C28" s="15"/>
       <c r="D28" s="16"/>
@@ -2730,11 +3995,19 @@
         <f>SUM(C28:AR28)</f>
         <v>2</v>
       </c>
+      <c r="AU28">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="AW28">
+        <f>SUM(BA7,AS28)</f>
+        <v>10</v>
+      </c>
     </row>
     <row r="29" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A29" s="23"/>
       <c r="B29" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C29" s="15">
         <v>1</v>
@@ -2802,13 +4075,21 @@
         <f>SUM(C29:AR29)</f>
         <v>11</v>
       </c>
+      <c r="AU29">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="AW29" s="40">
+        <f>SUM(AS29,BA8)</f>
+        <v>18</v>
+      </c>
     </row>
     <row r="30" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A30" s="39" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C30" s="15"/>
       <c r="D30" s="16"/>
@@ -2862,11 +4143,19 @@
         <f>SUM(C30:AR30)</f>
         <v>4</v>
       </c>
+      <c r="AU30">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="AW30">
+        <f>SUM(AS30,BA9)</f>
+        <v>13</v>
+      </c>
     </row>
     <row r="31" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A31" s="25"/>
       <c r="B31" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C31" s="15"/>
       <c r="D31" s="16"/>
@@ -2942,13 +4231,21 @@
         <f>SUM(C31:AR31)</f>
         <v>15</v>
       </c>
+      <c r="AU31">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="AW31" s="40">
+        <f>SUM(BA10,AS31)</f>
+        <v>32</v>
+      </c>
     </row>
     <row r="32" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A32" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D32" s="16"/>
       <c r="E32" s="16"/>
@@ -2994,13 +4291,21 @@
       <c r="AS32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="AU32">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AW32">
+        <f>SUM(BA11,AS32)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A33" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" s="10" t="s">
         <v>8</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>9</v>
       </c>
       <c r="C33" s="15"/>
       <c r="D33" s="16"/>
@@ -3047,13 +4352,21 @@
       <c r="AS33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="AU33">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AW33">
+        <f>SUM(AS33,BA12)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A34" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" s="10" t="s">
         <v>10</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>11</v>
       </c>
       <c r="C34" s="15"/>
       <c r="D34" s="16"/>
@@ -3115,13 +4428,21 @@
         <f t="shared" ref="AS34:AS40" si="1">SUM(C34:AR34)</f>
         <v>8</v>
       </c>
-    </row>
-    <row r="35" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="AU34">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="AW34" s="40">
+        <f>SUM(AS34,BA13)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A35" s="28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C35" s="15">
         <v>1</v>
@@ -3171,11 +4492,19 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="AU35">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AW35">
+        <f>SUM(BA14,AS35)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A36" s="29"/>
       <c r="B36" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C36" s="15"/>
       <c r="D36" s="16"/>
@@ -3229,13 +4558,21 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="AU36">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="AW36">
+        <f>SUM(BA15,AS36)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A37" s="30" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C37" s="15">
         <v>2</v>
@@ -3287,11 +4624,19 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="38" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="AU37">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="AW37">
+        <f>SUM(AS37,BA16)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A38" s="31"/>
       <c r="B38" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C38" s="15"/>
       <c r="D38" s="16"/>
@@ -3369,11 +4714,19 @@
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="39" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="AU38">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="AW38" s="40">
+        <f>SUM(AS38,BA17)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A39" s="32"/>
       <c r="B39" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C39" s="15">
         <v>1</v>
@@ -3429,11 +4782,19 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="40" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="AU39">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AW39">
+        <f>SUM(BA18,AS39)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A40" s="33"/>
       <c r="B40" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C40" s="34">
         <v>1</v>
@@ -3485,15 +4846,666 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="41" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="AU40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AW40">
+        <f>SUM(BA19,AS40)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:49" x14ac:dyDescent="0.35">
       <c r="AS41">
         <f>SUM(AS23:AS40)</f>
         <v>82</v>
       </c>
+      <c r="AU41">
+        <f>SUM(AU23:AU40)</f>
+        <v>108</v>
+      </c>
+      <c r="AW41">
+        <f>SUM(AS41,BA20)</f>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="42" spans="1:49" x14ac:dyDescent="0.35">
+      <c r="C42" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="D42" s="43"/>
+      <c r="E42" s="43"/>
+      <c r="F42" s="44"/>
+      <c r="G42" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="H42" s="43"/>
+      <c r="I42" s="43"/>
+      <c r="J42" s="44"/>
+      <c r="K42" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="L42" s="43"/>
+      <c r="M42" s="43"/>
+      <c r="N42" s="44"/>
+      <c r="O42" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="P42" s="43"/>
+      <c r="Q42" s="43"/>
+      <c r="R42" s="44"/>
+      <c r="S42" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="T42" s="43"/>
+      <c r="U42" s="43"/>
+      <c r="V42" s="44"/>
+    </row>
+    <row r="43" spans="1:49" x14ac:dyDescent="0.35">
+      <c r="C43" s="45">
+        <v>36</v>
+      </c>
+      <c r="D43" s="46"/>
+      <c r="E43" s="46">
+        <v>41</v>
+      </c>
+      <c r="F43" s="47"/>
+      <c r="G43" s="45">
+        <v>36</v>
+      </c>
+      <c r="H43" s="46"/>
+      <c r="I43" s="46">
+        <v>41</v>
+      </c>
+      <c r="J43" s="47"/>
+      <c r="K43" s="45">
+        <v>36</v>
+      </c>
+      <c r="L43" s="46"/>
+      <c r="M43" s="46">
+        <v>41</v>
+      </c>
+      <c r="N43" s="47"/>
+      <c r="O43" s="45">
+        <v>36</v>
+      </c>
+      <c r="P43" s="46"/>
+      <c r="Q43" s="46">
+        <v>41</v>
+      </c>
+      <c r="R43" s="47"/>
+      <c r="S43" s="45">
+        <v>36</v>
+      </c>
+      <c r="T43" s="46"/>
+      <c r="U43" s="46">
+        <v>41</v>
+      </c>
+      <c r="V43" s="47"/>
+    </row>
+    <row r="44" spans="1:49" x14ac:dyDescent="0.35">
+      <c r="B44" s="41"/>
+      <c r="C44" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="D44" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="E44" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="F44" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="G44" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="H44" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="I44" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="J44" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="K44" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="L44" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="M44" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="N44" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="O44" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="P44" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q44" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="R44" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="S44" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="T44" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="U44" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="V44" s="50" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="45" spans="1:49" x14ac:dyDescent="0.35">
+      <c r="A45" s="14"/>
+      <c r="B45" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" s="15"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="15"/>
+      <c r="H45" s="16"/>
+      <c r="I45" s="16"/>
+      <c r="J45" s="17"/>
+      <c r="K45" s="15"/>
+      <c r="L45" s="16"/>
+      <c r="M45" s="16"/>
+      <c r="N45" s="17"/>
+      <c r="O45" s="15"/>
+      <c r="P45" s="16"/>
+      <c r="Q45" s="16"/>
+      <c r="R45" s="17"/>
+      <c r="S45" s="15"/>
+      <c r="T45" s="16"/>
+      <c r="U45" s="5"/>
+      <c r="V45" s="6"/>
+    </row>
+    <row r="46" spans="1:49" x14ac:dyDescent="0.35">
+      <c r="A46" s="18"/>
+      <c r="B46" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C46" s="15"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="15"/>
+      <c r="H46" s="16"/>
+      <c r="I46" s="16"/>
+      <c r="J46" s="17"/>
+      <c r="K46" s="15"/>
+      <c r="L46" s="16"/>
+      <c r="M46" s="16"/>
+      <c r="N46" s="17"/>
+      <c r="O46" s="15"/>
+      <c r="P46" s="16"/>
+      <c r="Q46" s="16"/>
+      <c r="R46" s="17"/>
+      <c r="S46" s="15"/>
+      <c r="T46" s="16"/>
+      <c r="U46" s="5"/>
+      <c r="V46" s="6"/>
+    </row>
+    <row r="47" spans="1:49" x14ac:dyDescent="0.35">
+      <c r="A47" s="19"/>
+      <c r="B47" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C47" s="15"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="15"/>
+      <c r="H47" s="16"/>
+      <c r="I47" s="16"/>
+      <c r="J47" s="17"/>
+      <c r="K47" s="15"/>
+      <c r="L47" s="16"/>
+      <c r="M47" s="16"/>
+      <c r="N47" s="17"/>
+      <c r="O47" s="15"/>
+      <c r="P47" s="16"/>
+      <c r="Q47" s="16"/>
+      <c r="R47" s="17"/>
+      <c r="S47" s="15"/>
+      <c r="T47" s="16"/>
+      <c r="U47" s="5"/>
+      <c r="V47" s="6"/>
+    </row>
+    <row r="48" spans="1:49" x14ac:dyDescent="0.35">
+      <c r="A48" s="20"/>
+      <c r="B48" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C48" s="15"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="16"/>
+      <c r="F48" s="17"/>
+      <c r="G48" s="15"/>
+      <c r="H48" s="16"/>
+      <c r="I48" s="16"/>
+      <c r="J48" s="17"/>
+      <c r="K48" s="15"/>
+      <c r="L48" s="16"/>
+      <c r="M48" s="16"/>
+      <c r="N48" s="17"/>
+      <c r="O48" s="15"/>
+      <c r="P48" s="16"/>
+      <c r="Q48" s="16"/>
+      <c r="R48" s="17"/>
+      <c r="S48" s="15"/>
+      <c r="T48" s="16"/>
+      <c r="U48" s="5"/>
+      <c r="V48" s="6"/>
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A49" s="21"/>
+      <c r="B49" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49" s="15"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="17"/>
+      <c r="G49" s="15"/>
+      <c r="H49" s="16"/>
+      <c r="I49" s="16"/>
+      <c r="J49" s="17"/>
+      <c r="K49" s="15"/>
+      <c r="L49" s="16"/>
+      <c r="M49" s="16"/>
+      <c r="N49" s="17"/>
+      <c r="O49" s="15"/>
+      <c r="P49" s="16"/>
+      <c r="Q49" s="16"/>
+      <c r="R49" s="17"/>
+      <c r="S49" s="15"/>
+      <c r="T49" s="16"/>
+      <c r="U49" s="5"/>
+      <c r="V49" s="6"/>
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A50" s="22"/>
+      <c r="B50" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C50" s="15"/>
+      <c r="D50" s="16"/>
+      <c r="E50" s="16"/>
+      <c r="F50" s="17"/>
+      <c r="G50" s="15"/>
+      <c r="H50" s="16"/>
+      <c r="I50" s="16"/>
+      <c r="J50" s="17"/>
+      <c r="K50" s="15"/>
+      <c r="L50" s="16"/>
+      <c r="M50" s="16"/>
+      <c r="N50" s="17"/>
+      <c r="O50" s="15"/>
+      <c r="P50" s="16"/>
+      <c r="Q50" s="16"/>
+      <c r="R50" s="17"/>
+      <c r="S50" s="15"/>
+      <c r="T50" s="16"/>
+      <c r="U50" s="5"/>
+      <c r="V50" s="6"/>
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A51" s="23"/>
+      <c r="B51" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C51" s="15"/>
+      <c r="D51" s="16"/>
+      <c r="E51" s="16"/>
+      <c r="F51" s="17"/>
+      <c r="G51" s="15"/>
+      <c r="H51" s="16"/>
+      <c r="I51" s="16"/>
+      <c r="J51" s="17"/>
+      <c r="K51" s="15"/>
+      <c r="L51" s="16"/>
+      <c r="M51" s="16"/>
+      <c r="N51" s="17"/>
+      <c r="O51" s="15"/>
+      <c r="P51" s="16"/>
+      <c r="Q51" s="16"/>
+      <c r="R51" s="17"/>
+      <c r="S51" s="15"/>
+      <c r="T51" s="16"/>
+      <c r="U51" s="5"/>
+      <c r="V51" s="6"/>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A52" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C52" s="15"/>
+      <c r="D52" s="16"/>
+      <c r="E52" s="16"/>
+      <c r="F52" s="17"/>
+      <c r="G52" s="15"/>
+      <c r="H52" s="16"/>
+      <c r="I52" s="16"/>
+      <c r="J52" s="17"/>
+      <c r="K52" s="15"/>
+      <c r="L52" s="16"/>
+      <c r="M52" s="16"/>
+      <c r="N52" s="17"/>
+      <c r="O52" s="15"/>
+      <c r="P52" s="16"/>
+      <c r="Q52" s="16"/>
+      <c r="R52" s="17"/>
+      <c r="S52" s="15"/>
+      <c r="T52" s="16"/>
+      <c r="U52" s="5"/>
+      <c r="V52" s="6"/>
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A53" s="25"/>
+      <c r="B53" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" s="15"/>
+      <c r="D53" s="16"/>
+      <c r="E53" s="16"/>
+      <c r="F53" s="17"/>
+      <c r="G53" s="15"/>
+      <c r="H53" s="16"/>
+      <c r="I53" s="16"/>
+      <c r="J53" s="17"/>
+      <c r="K53" s="15"/>
+      <c r="L53" s="16"/>
+      <c r="M53" s="16"/>
+      <c r="N53" s="17"/>
+      <c r="O53" s="15"/>
+      <c r="P53" s="16"/>
+      <c r="Q53" s="16"/>
+      <c r="R53" s="17"/>
+      <c r="S53" s="15"/>
+      <c r="T53" s="16"/>
+      <c r="U53" s="5"/>
+      <c r="V53" s="6"/>
+    </row>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A54" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C54" s="15"/>
+      <c r="D54" s="16"/>
+      <c r="E54" s="16"/>
+      <c r="F54" s="17"/>
+      <c r="G54" s="15"/>
+      <c r="H54" s="16"/>
+      <c r="I54" s="16"/>
+      <c r="J54" s="17"/>
+      <c r="K54" s="15"/>
+      <c r="L54" s="16"/>
+      <c r="M54" s="16"/>
+      <c r="N54" s="17"/>
+      <c r="O54" s="15"/>
+      <c r="P54" s="16"/>
+      <c r="Q54" s="16"/>
+      <c r="R54" s="17"/>
+      <c r="S54" s="15"/>
+      <c r="T54" s="16"/>
+      <c r="U54" s="5"/>
+      <c r="V54" s="6"/>
+    </row>
+    <row r="55" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A55" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" s="15"/>
+      <c r="D55" s="16"/>
+      <c r="E55" s="16"/>
+      <c r="F55" s="17"/>
+      <c r="G55" s="15"/>
+      <c r="H55" s="16"/>
+      <c r="I55" s="16"/>
+      <c r="J55" s="17"/>
+      <c r="K55" s="15"/>
+      <c r="L55" s="16"/>
+      <c r="M55" s="16"/>
+      <c r="N55" s="17"/>
+      <c r="O55" s="15"/>
+      <c r="P55" s="16"/>
+      <c r="Q55" s="16"/>
+      <c r="R55" s="17"/>
+      <c r="S55" s="15"/>
+      <c r="T55" s="16"/>
+      <c r="U55" s="5"/>
+      <c r="V55" s="6"/>
+    </row>
+    <row r="56" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A56" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C56" s="15"/>
+      <c r="D56" s="16"/>
+      <c r="E56" s="16"/>
+      <c r="F56" s="17"/>
+      <c r="G56" s="15"/>
+      <c r="H56" s="16"/>
+      <c r="I56" s="16"/>
+      <c r="J56" s="17"/>
+      <c r="K56" s="15"/>
+      <c r="L56" s="16"/>
+      <c r="M56" s="16"/>
+      <c r="N56" s="17"/>
+      <c r="O56" s="15"/>
+      <c r="P56" s="16"/>
+      <c r="Q56" s="16"/>
+      <c r="R56" s="17"/>
+      <c r="S56" s="15"/>
+      <c r="T56" s="16"/>
+      <c r="U56" s="5"/>
+      <c r="V56" s="6"/>
+    </row>
+    <row r="57" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A57" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C57" s="15"/>
+      <c r="D57" s="16"/>
+      <c r="E57" s="16"/>
+      <c r="F57" s="17"/>
+      <c r="G57" s="15"/>
+      <c r="H57" s="16"/>
+      <c r="I57" s="16"/>
+      <c r="J57" s="17"/>
+      <c r="K57" s="15"/>
+      <c r="L57" s="16"/>
+      <c r="M57" s="16"/>
+      <c r="N57" s="17"/>
+      <c r="O57" s="15"/>
+      <c r="P57" s="16"/>
+      <c r="Q57" s="16"/>
+      <c r="R57" s="17"/>
+      <c r="S57" s="15"/>
+      <c r="T57" s="16"/>
+      <c r="U57" s="5"/>
+      <c r="V57" s="6"/>
+    </row>
+    <row r="58" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A58" s="29"/>
+      <c r="B58" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C58" s="15"/>
+      <c r="D58" s="16"/>
+      <c r="E58" s="16"/>
+      <c r="F58" s="17"/>
+      <c r="G58" s="15"/>
+      <c r="H58" s="16"/>
+      <c r="I58" s="16"/>
+      <c r="J58" s="17"/>
+      <c r="K58" s="15"/>
+      <c r="L58" s="16"/>
+      <c r="M58" s="16"/>
+      <c r="N58" s="17"/>
+      <c r="O58" s="15"/>
+      <c r="P58" s="16"/>
+      <c r="Q58" s="16"/>
+      <c r="R58" s="17"/>
+      <c r="S58" s="15"/>
+      <c r="T58" s="16"/>
+      <c r="U58" s="5"/>
+      <c r="V58" s="6"/>
+    </row>
+    <row r="59" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A59" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C59" s="15"/>
+      <c r="D59" s="16"/>
+      <c r="E59" s="16"/>
+      <c r="F59" s="17"/>
+      <c r="G59" s="15"/>
+      <c r="H59" s="16"/>
+      <c r="I59" s="16"/>
+      <c r="J59" s="17"/>
+      <c r="K59" s="15"/>
+      <c r="L59" s="16"/>
+      <c r="M59" s="16"/>
+      <c r="N59" s="17"/>
+      <c r="O59" s="15"/>
+      <c r="P59" s="16"/>
+      <c r="Q59" s="16"/>
+      <c r="R59" s="17"/>
+      <c r="S59" s="15"/>
+      <c r="T59" s="16"/>
+      <c r="U59" s="5"/>
+      <c r="V59" s="6"/>
+    </row>
+    <row r="60" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A60" s="31"/>
+      <c r="B60" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C60" s="15"/>
+      <c r="D60" s="16"/>
+      <c r="E60" s="16"/>
+      <c r="F60" s="17"/>
+      <c r="G60" s="15"/>
+      <c r="H60" s="16"/>
+      <c r="I60" s="16"/>
+      <c r="J60" s="17"/>
+      <c r="K60" s="15"/>
+      <c r="L60" s="16"/>
+      <c r="M60" s="16"/>
+      <c r="N60" s="17"/>
+      <c r="O60" s="15"/>
+      <c r="P60" s="16"/>
+      <c r="Q60" s="16"/>
+      <c r="R60" s="17"/>
+      <c r="S60" s="15"/>
+      <c r="T60" s="16"/>
+      <c r="U60" s="5"/>
+      <c r="V60" s="6"/>
+    </row>
+    <row r="61" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A61" s="32"/>
+      <c r="B61" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C61" s="15"/>
+      <c r="D61" s="16"/>
+      <c r="E61" s="16"/>
+      <c r="F61" s="17"/>
+      <c r="G61" s="15"/>
+      <c r="H61" s="16"/>
+      <c r="I61" s="16"/>
+      <c r="J61" s="17"/>
+      <c r="K61" s="15"/>
+      <c r="L61" s="16"/>
+      <c r="M61" s="16"/>
+      <c r="N61" s="17"/>
+      <c r="O61" s="15"/>
+      <c r="P61" s="16"/>
+      <c r="Q61" s="16"/>
+      <c r="R61" s="17"/>
+      <c r="S61" s="15"/>
+      <c r="T61" s="16"/>
+      <c r="U61" s="5"/>
+      <c r="V61" s="6"/>
+    </row>
+    <row r="62" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A62" s="33"/>
+      <c r="B62" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C62" s="34"/>
+      <c r="D62" s="35"/>
+      <c r="E62" s="35"/>
+      <c r="F62" s="36"/>
+      <c r="G62" s="34"/>
+      <c r="H62" s="35"/>
+      <c r="I62" s="35"/>
+      <c r="J62" s="36"/>
+      <c r="K62" s="34"/>
+      <c r="L62" s="35"/>
+      <c r="M62" s="35"/>
+      <c r="N62" s="36"/>
+      <c r="O62" s="34"/>
+      <c r="P62" s="35"/>
+      <c r="Q62" s="35"/>
+      <c r="R62" s="36"/>
+      <c r="S62" s="34"/>
+      <c r="T62" s="35"/>
+      <c r="U62" s="8"/>
+      <c r="V62" s="9"/>
     </row>
   </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="K42:N42"/>
+    <mergeCell ref="O42:R42"/>
+    <mergeCell ref="S42:V42"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="O43:P43"/>
+    <mergeCell ref="Q43:R43"/>
+    <mergeCell ref="S43:T43"/>
+    <mergeCell ref="U43:V43"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="G42:J42"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Findings.xlsx
+++ b/Findings.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Astrid\Dropbox\Laclau Mouffe\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Astrid\Dropbox\Laclau Mouffe\HA_RuG\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -158,7 +158,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="20">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -273,6 +273,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -366,7 +378,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -471,6 +483,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -495,15 +516,20 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -631,7 +657,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$AS$23:$AS$40</c:f>
+              <c:f>Tabelle1!$AT$23:$AT$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
@@ -669,25 +695,25 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -720,7 +746,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$AU$23:$AU$40</c:f>
+              <c:f>Tabelle1!$AV$23:$AV$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
@@ -770,7 +796,7 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>1</c:v>
@@ -826,13 +852,67 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Tabelle1!$AT$23:$AT$40</c15:sqref>
+                          <c15:sqref>Tabelle1!$AU$23:$AU$40</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="18"/>
+                      <c:pt idx="0">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>3</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -1647,13 +1727,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>50</xdr:col>
+      <xdr:col>51</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>6723</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>66</xdr:col>
+      <xdr:col>67</xdr:col>
       <xdr:colOff>59764</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>14941</xdr:rowOff>
@@ -1981,45 +2061,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BA62"/>
+  <dimension ref="A1:BB62"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A39" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozenSplit"/>
       <selection sqref="A1 C1:C1048576"/>
-      <selection pane="topRight" activeCell="D46" sqref="D46"/>
+      <selection pane="topRight" activeCell="AE48" sqref="AE48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10.90625" style="10"/>
     <col min="2" max="2" width="35.453125" style="10" customWidth="1"/>
-    <col min="3" max="3" width="4.81640625" style="10" customWidth="1"/>
-    <col min="4" max="6" width="5.26953125" style="10" customWidth="1"/>
-    <col min="7" max="7" width="4.81640625" style="10" customWidth="1"/>
-    <col min="8" max="8" width="5.26953125" style="10" customWidth="1"/>
-    <col min="9" max="9" width="5.7265625" style="10" customWidth="1"/>
-    <col min="10" max="13" width="4.81640625" style="10" customWidth="1"/>
-    <col min="14" max="19" width="4.1796875" style="10" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="4.81640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="21" max="27" width="4.1796875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="6.08984375" customWidth="1"/>
-    <col min="29" max="29" width="4.1796875" bestFit="1" customWidth="1"/>
-    <col min="30" max="36" width="5.1796875" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="4.1796875" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="4.81640625" customWidth="1"/>
-    <col min="39" max="44" width="5.1796875" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="5.1796875" customWidth="1"/>
-    <col min="47" max="52" width="5.1796875" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="54" max="70" width="3.81640625" customWidth="1"/>
-    <col min="71" max="71" width="3.90625" customWidth="1"/>
-    <col min="72" max="80" width="3.81640625" customWidth="1"/>
-    <col min="81" max="87" width="4.81640625" customWidth="1"/>
-    <col min="88" max="95" width="3.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="4.81640625" style="10" customWidth="1"/>
+    <col min="5" max="7" width="5.26953125" style="10" customWidth="1"/>
+    <col min="8" max="8" width="4.81640625" style="10" customWidth="1"/>
+    <col min="9" max="9" width="5.26953125" style="10" customWidth="1"/>
+    <col min="10" max="10" width="5.7265625" style="10" customWidth="1"/>
+    <col min="11" max="14" width="4.81640625" style="10" customWidth="1"/>
+    <col min="15" max="20" width="4.1796875" style="10" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="4.81640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="22" max="28" width="4.1796875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="6.08984375" customWidth="1"/>
+    <col min="30" max="30" width="4.1796875" bestFit="1" customWidth="1"/>
+    <col min="31" max="37" width="5.1796875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="4.1796875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="4.81640625" customWidth="1"/>
+    <col min="40" max="45" width="5.1796875" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="5.1796875" customWidth="1"/>
+    <col min="48" max="53" width="5.1796875" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="55" max="71" width="3.81640625" customWidth="1"/>
+    <col min="72" max="72" width="3.90625" customWidth="1"/>
+    <col min="73" max="81" width="3.81640625" customWidth="1"/>
+    <col min="82" max="88" width="4.81640625" customWidth="1"/>
+    <col min="89" max="96" width="3.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -2029,167 +2109,168 @@
       <c r="C1" s="11">
         <v>1</v>
       </c>
-      <c r="D1" s="12">
-        <v>2</v>
-      </c>
+      <c r="D1" s="12"/>
       <c r="E1" s="12">
+        <v>2</v>
+      </c>
+      <c r="F1" s="12">
         <v>3</v>
       </c>
-      <c r="F1" s="12">
+      <c r="G1" s="12">
         <v>4</v>
       </c>
-      <c r="G1" s="12">
+      <c r="H1" s="12">
         <v>5</v>
       </c>
-      <c r="H1" s="12">
+      <c r="I1" s="12">
         <v>6</v>
       </c>
-      <c r="I1" s="12">
+      <c r="J1" s="12">
         <v>7</v>
       </c>
-      <c r="J1" s="12">
+      <c r="K1" s="12">
         <v>8</v>
       </c>
-      <c r="K1" s="12">
+      <c r="L1" s="12">
         <v>9</v>
       </c>
-      <c r="L1" s="12">
+      <c r="M1" s="12">
         <v>10</v>
       </c>
-      <c r="M1" s="12">
+      <c r="N1" s="12">
         <v>11</v>
       </c>
-      <c r="N1" s="12">
+      <c r="O1" s="12">
         <v>12</v>
       </c>
-      <c r="O1" s="12">
+      <c r="P1" s="12">
         <v>13</v>
       </c>
-      <c r="P1" s="12">
+      <c r="Q1" s="12">
         <v>14</v>
       </c>
-      <c r="Q1" s="12">
+      <c r="R1" s="12">
         <v>15</v>
       </c>
-      <c r="R1" s="12">
+      <c r="S1" s="12">
         <v>16</v>
       </c>
-      <c r="S1" s="12">
+      <c r="T1" s="12">
         <v>17</v>
       </c>
-      <c r="T1" s="13">
+      <c r="U1" s="13">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
+      <c r="V1" s="1">
         <v>2.1</v>
       </c>
-      <c r="V1" s="2">
+      <c r="W1" s="2">
         <v>2.2000000000000002</v>
       </c>
-      <c r="W1" s="2">
+      <c r="X1" s="2">
         <v>2.2999999999999998</v>
       </c>
-      <c r="X1" s="2">
+      <c r="Y1" s="2">
         <v>2.4</v>
       </c>
-      <c r="Y1" s="2">
+      <c r="Z1" s="2">
         <v>2.5</v>
       </c>
-      <c r="Z1" s="2">
+      <c r="AA1" s="2">
         <v>2.6</v>
       </c>
-      <c r="AA1" s="2">
+      <c r="AB1" s="2">
         <v>2.7</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="AC1" s="1">
+      <c r="AD1" s="1">
         <v>3.1</v>
       </c>
-      <c r="AD1" s="2">
+      <c r="AE1" s="2">
         <v>3.2</v>
       </c>
-      <c r="AE1" s="2">
+      <c r="AF1" s="2">
         <v>3.3</v>
       </c>
-      <c r="AF1" s="2">
+      <c r="AG1" s="2">
         <v>3.4</v>
       </c>
-      <c r="AG1" s="2">
+      <c r="AH1" s="2">
         <v>3.5</v>
       </c>
-      <c r="AH1" s="2">
+      <c r="AI1" s="2">
         <v>3.6</v>
       </c>
-      <c r="AI1" s="2">
+      <c r="AJ1" s="2">
         <v>3.7</v>
       </c>
-      <c r="AJ1" s="2">
+      <c r="AK1" s="2">
         <v>3.8</v>
       </c>
-      <c r="AK1" s="2">
+      <c r="AL1" s="2">
         <v>3.9</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AM1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="AM1" s="2">
+      <c r="AN1" s="2">
         <v>3.11</v>
       </c>
-      <c r="AN1" s="2">
+      <c r="AO1" s="2">
         <v>3.12</v>
       </c>
-      <c r="AO1" s="2">
+      <c r="AP1" s="2">
         <v>3.13</v>
       </c>
-      <c r="AP1" s="2">
+      <c r="AQ1" s="2">
         <v>3.14</v>
       </c>
-      <c r="AQ1" s="2">
+      <c r="AR1" s="2">
         <v>3.15</v>
       </c>
-      <c r="AR1" s="2">
+      <c r="AS1" s="2">
         <v>3.16</v>
       </c>
-      <c r="AS1" s="2">
+      <c r="AT1" s="2">
         <v>3.17</v>
       </c>
-      <c r="AT1" s="2">
+      <c r="AU1" s="2">
         <v>3.18</v>
       </c>
-      <c r="AU1" s="2">
+      <c r="AV1" s="2">
         <v>3.19</v>
       </c>
-      <c r="AV1" s="2" t="s">
+      <c r="AW1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="AW1" s="2">
+      <c r="AX1" s="2">
         <v>3.21</v>
       </c>
-      <c r="AX1" s="2">
+      <c r="AY1" s="2">
         <v>3.22</v>
       </c>
-      <c r="AY1" s="2">
+      <c r="AZ1" s="2">
         <v>3.23</v>
       </c>
-      <c r="AZ1" s="3">
+      <c r="BA1" s="3">
         <v>3.24</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BB1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A2" s="14"/>
       <c r="B2" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="15"/>
-      <c r="D2" s="16">
-        <v>1</v>
-      </c>
-      <c r="E2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16">
+        <v>1</v>
+      </c>
       <c r="F2" s="16"/>
       <c r="G2" s="16"/>
       <c r="H2" s="16"/>
@@ -2202,23 +2283,23 @@
       <c r="O2" s="16"/>
       <c r="P2" s="16"/>
       <c r="Q2" s="16"/>
-      <c r="R2" s="16">
-        <v>1</v>
-      </c>
-      <c r="S2" s="16"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="4"/>
-      <c r="V2" s="5"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="16">
+        <v>1</v>
+      </c>
+      <c r="T2" s="16"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="4"/>
       <c r="W2" s="5"/>
-      <c r="X2" s="5">
-        <v>1</v>
-      </c>
-      <c r="Y2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5">
+        <v>1</v>
+      </c>
       <c r="Z2" s="5"/>
       <c r="AA2" s="5"/>
-      <c r="AB2" s="6"/>
-      <c r="AC2" s="4"/>
-      <c r="AD2" s="5"/>
+      <c r="AB2" s="5"/>
+      <c r="AC2" s="6"/>
+      <c r="AD2" s="4"/>
       <c r="AE2" s="5"/>
       <c r="AF2" s="5"/>
       <c r="AG2" s="5"/>
@@ -2240,28 +2321,29 @@
       <c r="AW2" s="5"/>
       <c r="AX2" s="5"/>
       <c r="AY2" s="5"/>
-      <c r="AZ2" s="6"/>
-      <c r="BA2">
-        <f>SUM(C2:AZ2)</f>
+      <c r="AZ2" s="5"/>
+      <c r="BA2" s="6"/>
+      <c r="BB2">
+        <f t="shared" ref="BB2:BB18" si="0">SUM(C2:BA2)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A3" s="18"/>
       <c r="B3" s="10" t="s">
         <v>26</v>
       </c>
       <c r="C3" s="15"/>
-      <c r="D3" s="16">
-        <v>1</v>
-      </c>
-      <c r="E3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16">
+        <v>1</v>
+      </c>
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
-      <c r="H3" s="16">
-        <v>1</v>
-      </c>
-      <c r="I3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16">
+        <v>1</v>
+      </c>
       <c r="J3" s="16"/>
       <c r="K3" s="16"/>
       <c r="L3" s="16"/>
@@ -2272,68 +2354,69 @@
       <c r="Q3" s="16"/>
       <c r="R3" s="16"/>
       <c r="S3" s="16"/>
-      <c r="T3" s="17"/>
-      <c r="U3" s="4">
-        <v>1</v>
-      </c>
-      <c r="V3" s="5"/>
+      <c r="T3" s="16"/>
+      <c r="U3" s="17"/>
+      <c r="V3" s="4">
+        <v>1</v>
+      </c>
       <c r="W3" s="5"/>
       <c r="X3" s="5"/>
       <c r="Y3" s="5"/>
       <c r="Z3" s="5"/>
       <c r="AA3" s="5"/>
-      <c r="AB3" s="6">
-        <v>1</v>
-      </c>
-      <c r="AC3" s="4"/>
-      <c r="AD3" s="5"/>
+      <c r="AB3" s="5"/>
+      <c r="AC3" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD3" s="4"/>
       <c r="AE3" s="5"/>
-      <c r="AF3" s="5">
-        <v>2</v>
-      </c>
-      <c r="AG3" s="5"/>
+      <c r="AF3" s="5"/>
+      <c r="AG3" s="5">
+        <v>2</v>
+      </c>
       <c r="AH3" s="5"/>
       <c r="AI3" s="5"/>
       <c r="AJ3" s="5"/>
       <c r="AK3" s="5"/>
       <c r="AL3" s="5"/>
-      <c r="AM3" s="5">
-        <v>1</v>
-      </c>
+      <c r="AM3" s="5"/>
       <c r="AN3" s="5">
         <v>1</v>
       </c>
-      <c r="AO3" s="5"/>
-      <c r="AP3" s="5">
-        <v>1</v>
-      </c>
-      <c r="AQ3" s="5"/>
+      <c r="AO3" s="5">
+        <v>1</v>
+      </c>
+      <c r="AP3" s="5"/>
+      <c r="AQ3" s="5">
+        <v>1</v>
+      </c>
       <c r="AR3" s="5"/>
       <c r="AS3" s="5"/>
       <c r="AT3" s="5"/>
       <c r="AU3" s="5"/>
       <c r="AV3" s="5"/>
       <c r="AW3" s="5"/>
-      <c r="AX3" s="5">
-        <v>1</v>
-      </c>
-      <c r="AY3" s="5"/>
-      <c r="AZ3" s="6"/>
-      <c r="BA3">
-        <f>SUM(C3:AZ3)</f>
+      <c r="AX3" s="5"/>
+      <c r="AY3" s="5">
+        <v>1</v>
+      </c>
+      <c r="AZ3" s="5"/>
+      <c r="BA3" s="6"/>
+      <c r="BB3">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A4" s="19"/>
       <c r="B4" s="10" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="15"/>
-      <c r="D4" s="16">
-        <v>1</v>
-      </c>
-      <c r="E4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16">
+        <v>1</v>
+      </c>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
       <c r="H4" s="16"/>
@@ -2348,17 +2431,17 @@
       <c r="Q4" s="16"/>
       <c r="R4" s="16"/>
       <c r="S4" s="16"/>
-      <c r="T4" s="17"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="5"/>
+      <c r="T4" s="16"/>
+      <c r="U4" s="17"/>
+      <c r="V4" s="4"/>
       <c r="W4" s="5"/>
       <c r="X4" s="5"/>
       <c r="Y4" s="5"/>
       <c r="Z4" s="5"/>
       <c r="AA4" s="5"/>
-      <c r="AB4" s="6"/>
-      <c r="AC4" s="4"/>
-      <c r="AD4" s="5"/>
+      <c r="AB4" s="5"/>
+      <c r="AC4" s="6"/>
+      <c r="AD4" s="4"/>
       <c r="AE4" s="5"/>
       <c r="AF4" s="5"/>
       <c r="AG4" s="5"/>
@@ -2380,31 +2463,32 @@
       <c r="AW4" s="5"/>
       <c r="AX4" s="5"/>
       <c r="AY4" s="5"/>
-      <c r="AZ4" s="6"/>
-      <c r="BA4">
-        <f>SUM(C4:AZ4)</f>
+      <c r="AZ4" s="5"/>
+      <c r="BA4" s="6"/>
+      <c r="BB4">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A5" s="20"/>
       <c r="B5" s="10" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="15"/>
       <c r="D5" s="16"/>
-      <c r="E5" s="16">
-        <v>1</v>
-      </c>
-      <c r="F5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16">
+        <v>1</v>
+      </c>
       <c r="G5" s="16"/>
       <c r="H5" s="16"/>
       <c r="I5" s="16"/>
       <c r="J5" s="16"/>
-      <c r="K5" s="16">
-        <v>1</v>
-      </c>
-      <c r="L5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16">
+        <v>1</v>
+      </c>
       <c r="M5" s="16"/>
       <c r="N5" s="16"/>
       <c r="O5" s="16"/>
@@ -2412,17 +2496,17 @@
       <c r="Q5" s="16"/>
       <c r="R5" s="16"/>
       <c r="S5" s="16"/>
-      <c r="T5" s="17"/>
-      <c r="U5" s="4"/>
-      <c r="V5" s="5"/>
+      <c r="T5" s="16"/>
+      <c r="U5" s="17"/>
+      <c r="V5" s="4"/>
       <c r="W5" s="5"/>
       <c r="X5" s="5"/>
       <c r="Y5" s="5"/>
       <c r="Z5" s="5"/>
       <c r="AA5" s="5"/>
-      <c r="AB5" s="6"/>
-      <c r="AC5" s="4"/>
-      <c r="AD5" s="5"/>
+      <c r="AB5" s="5"/>
+      <c r="AC5" s="6"/>
+      <c r="AD5" s="4"/>
       <c r="AE5" s="5"/>
       <c r="AF5" s="5"/>
       <c r="AG5" s="5"/>
@@ -2444,27 +2528,26 @@
       <c r="AW5" s="5"/>
       <c r="AX5" s="5"/>
       <c r="AY5" s="5"/>
-      <c r="AZ5" s="6"/>
-      <c r="BA5">
-        <f>SUM(C5:AZ5)</f>
+      <c r="AZ5" s="5"/>
+      <c r="BA5" s="6"/>
+      <c r="BB5">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A6" s="21"/>
       <c r="B6" s="10" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="15"/>
       <c r="D6" s="16"/>
-      <c r="E6" s="16">
-        <v>1</v>
-      </c>
-      <c r="F6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16">
+        <v>1</v>
+      </c>
       <c r="G6" s="16"/>
-      <c r="H6" s="16">
-        <v>1</v>
-      </c>
+      <c r="H6" s="16"/>
       <c r="I6" s="16">
         <v>1</v>
       </c>
@@ -2475,74 +2558,77 @@
         <v>1</v>
       </c>
       <c r="L6" s="16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M6" s="16">
         <v>2</v>
       </c>
       <c r="N6" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O6" s="16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P6" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q6" s="16">
         <v>1</v>
       </c>
-      <c r="R6" s="16"/>
+      <c r="R6" s="16">
+        <v>1</v>
+      </c>
       <c r="S6" s="16"/>
-      <c r="T6" s="17"/>
-      <c r="U6" s="4"/>
-      <c r="V6" s="5"/>
+      <c r="T6" s="16"/>
+      <c r="U6" s="17"/>
+      <c r="V6" s="4"/>
       <c r="W6" s="5"/>
       <c r="X6" s="5"/>
       <c r="Y6" s="5"/>
       <c r="Z6" s="5"/>
-      <c r="AA6" s="5">
-        <v>1</v>
-      </c>
-      <c r="AB6" s="6"/>
-      <c r="AC6" s="4"/>
-      <c r="AD6" s="5"/>
+      <c r="AA6" s="5"/>
+      <c r="AB6" s="5">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="6"/>
+      <c r="AD6" s="4"/>
       <c r="AE6" s="5"/>
       <c r="AF6" s="5"/>
       <c r="AG6" s="5"/>
       <c r="AH6" s="5"/>
       <c r="AI6" s="5"/>
-      <c r="AJ6" s="5">
-        <v>1</v>
-      </c>
-      <c r="AK6" s="5"/>
+      <c r="AJ6" s="5"/>
+      <c r="AK6" s="5">
+        <v>1</v>
+      </c>
       <c r="AL6" s="5"/>
-      <c r="AM6" s="5">
-        <v>1</v>
-      </c>
+      <c r="AM6" s="5"/>
       <c r="AN6" s="5">
         <v>1</v>
       </c>
-      <c r="AO6" s="5"/>
+      <c r="AO6" s="5">
+        <v>1</v>
+      </c>
       <c r="AP6" s="5"/>
       <c r="AQ6" s="5"/>
       <c r="AR6" s="5"/>
       <c r="AS6" s="5"/>
       <c r="AT6" s="5"/>
       <c r="AU6" s="5"/>
-      <c r="AV6" s="5">
-        <v>1</v>
-      </c>
-      <c r="AW6" s="5"/>
+      <c r="AV6" s="5"/>
+      <c r="AW6" s="5">
+        <v>1</v>
+      </c>
       <c r="AX6" s="5"/>
       <c r="AY6" s="5"/>
-      <c r="AZ6" s="6"/>
-      <c r="BA6">
-        <f>SUM(C6:AZ6)</f>
+      <c r="AZ6" s="5"/>
+      <c r="BA6" s="6"/>
+      <c r="BB6">
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A7" s="22"/>
       <c r="B7" s="10" t="s">
         <v>30</v>
@@ -2550,39 +2636,39 @@
       <c r="C7" s="15"/>
       <c r="D7" s="16"/>
       <c r="E7" s="16"/>
-      <c r="F7" s="16">
-        <v>1</v>
-      </c>
-      <c r="G7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16">
+        <v>1</v>
+      </c>
       <c r="H7" s="16"/>
       <c r="I7" s="16"/>
       <c r="J7" s="16"/>
       <c r="K7" s="16"/>
-      <c r="L7" s="16">
-        <v>1</v>
-      </c>
+      <c r="L7" s="16"/>
       <c r="M7" s="16">
         <v>1</v>
       </c>
-      <c r="N7" s="16"/>
+      <c r="N7" s="16">
+        <v>1</v>
+      </c>
       <c r="O7" s="16"/>
       <c r="P7" s="16"/>
       <c r="Q7" s="16"/>
       <c r="R7" s="16"/>
       <c r="S7" s="16"/>
-      <c r="T7" s="17"/>
-      <c r="U7" s="4">
-        <v>1</v>
-      </c>
-      <c r="V7" s="5"/>
+      <c r="T7" s="16"/>
+      <c r="U7" s="17"/>
+      <c r="V7" s="4">
+        <v>1</v>
+      </c>
       <c r="W7" s="5"/>
       <c r="X7" s="5"/>
       <c r="Y7" s="5"/>
       <c r="Z7" s="5"/>
       <c r="AA7" s="5"/>
-      <c r="AB7" s="6"/>
-      <c r="AC7" s="4"/>
-      <c r="AD7" s="5"/>
+      <c r="AB7" s="5"/>
+      <c r="AC7" s="6"/>
+      <c r="AD7" s="4"/>
       <c r="AE7" s="5"/>
       <c r="AF7" s="5"/>
       <c r="AG7" s="5"/>
@@ -2592,77 +2678,78 @@
       <c r="AK7" s="5"/>
       <c r="AL7" s="5"/>
       <c r="AM7" s="5"/>
-      <c r="AN7" s="5">
-        <v>1</v>
-      </c>
+      <c r="AN7" s="5"/>
       <c r="AO7" s="5">
         <v>1</v>
       </c>
       <c r="AP7" s="5">
         <v>1</v>
       </c>
-      <c r="AQ7" s="5"/>
+      <c r="AQ7" s="5">
+        <v>1</v>
+      </c>
       <c r="AR7" s="5"/>
       <c r="AS7" s="5"/>
       <c r="AT7" s="5"/>
-      <c r="AU7" s="5">
-        <v>1</v>
-      </c>
-      <c r="AV7" s="5"/>
+      <c r="AU7" s="5"/>
+      <c r="AV7" s="5">
+        <v>1</v>
+      </c>
       <c r="AW7" s="5"/>
       <c r="AX7" s="5"/>
       <c r="AY7" s="5"/>
-      <c r="AZ7" s="6"/>
-      <c r="BA7">
-        <f>SUM(C7:AZ7)</f>
+      <c r="AZ7" s="5"/>
+      <c r="BA7" s="6"/>
+      <c r="BB7">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A8" s="23"/>
       <c r="B8" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="15"/>
       <c r="D8" s="16"/>
-      <c r="E8" s="16">
-        <v>1</v>
-      </c>
+      <c r="E8" s="16"/>
       <c r="F8" s="16">
         <v>1</v>
       </c>
-      <c r="G8" s="16"/>
+      <c r="G8" s="16">
+        <v>1</v>
+      </c>
       <c r="H8" s="16"/>
-      <c r="I8" s="16">
-        <v>1</v>
-      </c>
-      <c r="J8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16">
+        <v>1</v>
+      </c>
       <c r="K8" s="16"/>
-      <c r="L8" s="16">
-        <v>1</v>
-      </c>
-      <c r="M8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16">
+        <v>1</v>
+      </c>
       <c r="N8" s="16"/>
-      <c r="O8" s="16">
-        <v>1</v>
-      </c>
-      <c r="P8" s="16"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16">
+        <v>1</v>
+      </c>
       <c r="Q8" s="16"/>
       <c r="R8" s="16"/>
       <c r="S8" s="16"/>
-      <c r="T8" s="17"/>
-      <c r="U8" s="4"/>
-      <c r="V8" s="5"/>
+      <c r="T8" s="16"/>
+      <c r="U8" s="17"/>
+      <c r="V8" s="4"/>
       <c r="W8" s="5"/>
       <c r="X8" s="5"/>
-      <c r="Y8" s="5">
-        <v>2</v>
-      </c>
-      <c r="Z8" s="5"/>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="5">
+        <v>2</v>
+      </c>
       <c r="AA8" s="5"/>
-      <c r="AB8" s="6"/>
-      <c r="AC8" s="4"/>
-      <c r="AD8" s="5"/>
+      <c r="AB8" s="5"/>
+      <c r="AC8" s="6"/>
+      <c r="AD8" s="4"/>
       <c r="AE8" s="5"/>
       <c r="AF8" s="5"/>
       <c r="AG8" s="5"/>
@@ -2684,13 +2771,14 @@
       <c r="AW8" s="5"/>
       <c r="AX8" s="5"/>
       <c r="AY8" s="5"/>
-      <c r="AZ8" s="6"/>
-      <c r="BA8">
-        <f>SUM(C8:AZ8)</f>
+      <c r="AZ8" s="5"/>
+      <c r="BA8" s="6"/>
+      <c r="BB8">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A9" s="24" t="s">
         <v>3</v>
       </c>
@@ -2700,55 +2788,55 @@
       <c r="C9" s="15"/>
       <c r="D9" s="16"/>
       <c r="E9" s="16"/>
-      <c r="F9" s="16">
-        <v>1</v>
-      </c>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16">
-        <v>1</v>
-      </c>
-      <c r="I9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16">
+        <v>1</v>
+      </c>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16">
+        <v>1</v>
+      </c>
       <c r="J9" s="16"/>
       <c r="K9" s="16"/>
-      <c r="L9" s="16">
-        <v>2</v>
-      </c>
-      <c r="M9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16">
+        <v>2</v>
+      </c>
       <c r="N9" s="16"/>
       <c r="O9" s="16"/>
       <c r="P9" s="16"/>
       <c r="Q9" s="16"/>
       <c r="R9" s="16"/>
       <c r="S9" s="16"/>
-      <c r="T9" s="17"/>
-      <c r="U9" s="4"/>
-      <c r="V9" s="5"/>
+      <c r="T9" s="16"/>
+      <c r="U9" s="17"/>
+      <c r="V9" s="4"/>
       <c r="W9" s="5"/>
       <c r="X9" s="5"/>
       <c r="Y9" s="5"/>
       <c r="Z9" s="5"/>
       <c r="AA9" s="5"/>
-      <c r="AB9" s="6"/>
-      <c r="AC9" s="4"/>
-      <c r="AD9" s="5"/>
+      <c r="AB9" s="5"/>
+      <c r="AC9" s="6"/>
+      <c r="AD9" s="4"/>
       <c r="AE9" s="5"/>
       <c r="AF9" s="5"/>
       <c r="AG9" s="5"/>
-      <c r="AH9" s="5">
-        <v>2</v>
-      </c>
-      <c r="AI9" s="5"/>
-      <c r="AJ9" s="5">
-        <v>1</v>
-      </c>
-      <c r="AK9" s="5"/>
+      <c r="AH9" s="5"/>
+      <c r="AI9" s="5">
+        <v>2</v>
+      </c>
+      <c r="AJ9" s="5"/>
+      <c r="AK9" s="5">
+        <v>1</v>
+      </c>
       <c r="AL9" s="5"/>
       <c r="AM9" s="5"/>
       <c r="AN9" s="5"/>
-      <c r="AO9" s="5">
-        <v>1</v>
-      </c>
-      <c r="AP9" s="5"/>
+      <c r="AO9" s="5"/>
+      <c r="AP9" s="5">
+        <v>1</v>
+      </c>
       <c r="AQ9" s="5"/>
       <c r="AR9" s="5"/>
       <c r="AS9" s="5"/>
@@ -2756,17 +2844,18 @@
       <c r="AU9" s="5"/>
       <c r="AV9" s="5"/>
       <c r="AW9" s="5"/>
-      <c r="AX9" s="5">
-        <v>1</v>
-      </c>
-      <c r="AY9" s="5"/>
-      <c r="AZ9" s="6"/>
-      <c r="BA9">
-        <f>SUM(C9:AZ9)</f>
+      <c r="AX9" s="5"/>
+      <c r="AY9" s="5">
+        <v>1</v>
+      </c>
+      <c r="AZ9" s="5"/>
+      <c r="BA9" s="6"/>
+      <c r="BB9">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A10" s="25"/>
       <c r="B10" s="10" t="s">
         <v>6</v>
@@ -2774,47 +2863,45 @@
       <c r="C10" s="15"/>
       <c r="D10" s="16"/>
       <c r="E10" s="16"/>
-      <c r="F10" s="16">
-        <v>1</v>
-      </c>
-      <c r="G10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16">
+        <v>1</v>
+      </c>
       <c r="H10" s="16"/>
-      <c r="I10" s="16">
-        <v>1</v>
-      </c>
-      <c r="J10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16">
+        <v>1</v>
+      </c>
       <c r="K10" s="16"/>
-      <c r="L10" s="16">
-        <v>1</v>
-      </c>
+      <c r="L10" s="16"/>
       <c r="M10" s="16">
         <v>1</v>
       </c>
-      <c r="N10" s="16"/>
+      <c r="N10" s="16">
+        <v>1</v>
+      </c>
       <c r="O10" s="16"/>
       <c r="P10" s="16"/>
       <c r="Q10" s="16"/>
       <c r="R10" s="16"/>
       <c r="S10" s="16"/>
-      <c r="T10" s="17"/>
-      <c r="U10" s="4">
-        <v>1</v>
-      </c>
-      <c r="V10" s="5"/>
+      <c r="T10" s="16"/>
+      <c r="U10" s="17"/>
+      <c r="V10" s="4">
+        <v>1</v>
+      </c>
       <c r="W10" s="5"/>
       <c r="X10" s="5"/>
       <c r="Y10" s="5"/>
       <c r="Z10" s="5"/>
       <c r="AA10" s="5"/>
-      <c r="AB10" s="6"/>
-      <c r="AC10" s="4"/>
-      <c r="AD10" s="5"/>
+      <c r="AB10" s="5"/>
+      <c r="AC10" s="6"/>
+      <c r="AD10" s="4"/>
       <c r="AE10" s="5"/>
       <c r="AF10" s="5"/>
       <c r="AG10" s="5"/>
-      <c r="AH10" s="5">
-        <v>1</v>
-      </c>
+      <c r="AH10" s="5"/>
       <c r="AI10" s="5">
         <v>1</v>
       </c>
@@ -2822,41 +2909,44 @@
         <v>1</v>
       </c>
       <c r="AK10" s="5">
-        <v>2</v>
-      </c>
-      <c r="AL10" s="5"/>
+        <v>1</v>
+      </c>
+      <c r="AL10" s="5">
+        <v>2</v>
+      </c>
       <c r="AM10" s="5"/>
       <c r="AN10" s="5"/>
       <c r="AO10" s="5"/>
-      <c r="AP10" s="5">
-        <v>1</v>
-      </c>
+      <c r="AP10" s="5"/>
       <c r="AQ10" s="5">
         <v>1</v>
       </c>
       <c r="AR10" s="5">
         <v>1</v>
       </c>
-      <c r="AS10" s="5"/>
+      <c r="AS10" s="5">
+        <v>1</v>
+      </c>
       <c r="AT10" s="5"/>
-      <c r="AU10" s="5">
-        <v>1</v>
-      </c>
+      <c r="AU10" s="5"/>
       <c r="AV10" s="5">
-        <v>2</v>
-      </c>
-      <c r="AW10" s="5"/>
+        <v>1</v>
+      </c>
+      <c r="AW10" s="5">
+        <v>2</v>
+      </c>
       <c r="AX10" s="5"/>
-      <c r="AY10" s="5">
-        <v>1</v>
-      </c>
-      <c r="AZ10" s="6"/>
-      <c r="BA10">
-        <f>SUM(C10:AZ10)</f>
+      <c r="AY10" s="5"/>
+      <c r="AZ10" s="5">
+        <v>1</v>
+      </c>
+      <c r="BA10" s="6"/>
+      <c r="BB10">
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A11" s="10" t="s">
         <v>29</v>
       </c>
@@ -2880,17 +2970,17 @@
       <c r="Q11" s="16"/>
       <c r="R11" s="16"/>
       <c r="S11" s="16"/>
-      <c r="T11" s="17"/>
-      <c r="U11" s="4"/>
-      <c r="V11" s="5"/>
+      <c r="T11" s="16"/>
+      <c r="U11" s="17"/>
+      <c r="V11" s="4"/>
       <c r="W11" s="5"/>
       <c r="X11" s="5"/>
       <c r="Y11" s="5"/>
       <c r="Z11" s="5"/>
       <c r="AA11" s="5"/>
-      <c r="AB11" s="6"/>
-      <c r="AC11" s="4"/>
-      <c r="AD11" s="5"/>
+      <c r="AB11" s="5"/>
+      <c r="AC11" s="6"/>
+      <c r="AD11" s="4"/>
       <c r="AE11" s="5"/>
       <c r="AF11" s="5"/>
       <c r="AG11" s="5"/>
@@ -2899,10 +2989,10 @@
       <c r="AJ11" s="5"/>
       <c r="AK11" s="5"/>
       <c r="AL11" s="5"/>
-      <c r="AM11" s="5">
-        <v>1</v>
-      </c>
-      <c r="AN11" s="5"/>
+      <c r="AM11" s="5"/>
+      <c r="AN11" s="5">
+        <v>1</v>
+      </c>
       <c r="AO11" s="5"/>
       <c r="AP11" s="5"/>
       <c r="AQ11" s="5"/>
@@ -2914,13 +3004,14 @@
       <c r="AW11" s="5"/>
       <c r="AX11" s="5"/>
       <c r="AY11" s="5"/>
-      <c r="AZ11" s="6"/>
-      <c r="BA11">
-        <f>SUM(C11:AZ11)</f>
+      <c r="AZ11" s="5"/>
+      <c r="BA11" s="6"/>
+      <c r="BB11">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A12" s="26" t="s">
         <v>7</v>
       </c>
@@ -2937,28 +3028,28 @@
       <c r="J12" s="16"/>
       <c r="K12" s="16"/>
       <c r="L12" s="16"/>
-      <c r="M12" s="16">
-        <v>1</v>
-      </c>
+      <c r="M12" s="16"/>
       <c r="N12" s="16">
         <v>1</v>
       </c>
-      <c r="O12" s="16"/>
+      <c r="O12" s="16">
+        <v>1</v>
+      </c>
       <c r="P12" s="16"/>
       <c r="Q12" s="16"/>
       <c r="R12" s="16"/>
       <c r="S12" s="16"/>
-      <c r="T12" s="17"/>
-      <c r="U12" s="4"/>
-      <c r="V12" s="5"/>
+      <c r="T12" s="16"/>
+      <c r="U12" s="17"/>
+      <c r="V12" s="4"/>
       <c r="W12" s="5"/>
       <c r="X12" s="5"/>
       <c r="Y12" s="5"/>
       <c r="Z12" s="5"/>
       <c r="AA12" s="5"/>
-      <c r="AB12" s="6"/>
-      <c r="AC12" s="4"/>
-      <c r="AD12" s="5"/>
+      <c r="AB12" s="5"/>
+      <c r="AC12" s="6"/>
+      <c r="AD12" s="4"/>
       <c r="AE12" s="5"/>
       <c r="AF12" s="5"/>
       <c r="AG12" s="5"/>
@@ -2980,13 +3071,14 @@
       <c r="AW12" s="5"/>
       <c r="AX12" s="5"/>
       <c r="AY12" s="5"/>
-      <c r="AZ12" s="6"/>
-      <c r="BA12">
-        <f>SUM(C12:AZ12)</f>
+      <c r="AZ12" s="5"/>
+      <c r="BA12" s="6"/>
+      <c r="BB12">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A13" s="27" t="s">
         <v>9</v>
       </c>
@@ -3004,48 +3096,48 @@
       <c r="K13" s="16"/>
       <c r="L13" s="16"/>
       <c r="M13" s="16"/>
-      <c r="N13" s="16">
-        <v>2</v>
-      </c>
+      <c r="N13" s="16"/>
       <c r="O13" s="16">
         <v>2</v>
       </c>
-      <c r="P13" s="16"/>
+      <c r="P13" s="16">
+        <v>2</v>
+      </c>
       <c r="Q13" s="16"/>
-      <c r="R13" s="16">
-        <v>1</v>
-      </c>
-      <c r="S13" s="16"/>
-      <c r="T13" s="17">
-        <v>1</v>
-      </c>
-      <c r="U13" s="4"/>
-      <c r="V13" s="5"/>
+      <c r="R13" s="16"/>
+      <c r="S13" s="16">
+        <v>1</v>
+      </c>
+      <c r="T13" s="16"/>
+      <c r="U13" s="17">
+        <v>1</v>
+      </c>
+      <c r="V13" s="4"/>
       <c r="W13" s="5"/>
       <c r="X13" s="5"/>
-      <c r="Y13" s="5">
-        <v>1</v>
-      </c>
-      <c r="Z13" s="5"/>
-      <c r="AA13" s="5">
-        <v>1</v>
-      </c>
-      <c r="AB13" s="6"/>
-      <c r="AC13" s="4"/>
-      <c r="AD13" s="5"/>
+      <c r="Y13" s="5"/>
+      <c r="Z13" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA13" s="5"/>
+      <c r="AB13" s="5">
+        <v>1</v>
+      </c>
+      <c r="AC13" s="6"/>
+      <c r="AD13" s="4"/>
       <c r="AE13" s="5"/>
       <c r="AF13" s="5"/>
       <c r="AG13" s="5"/>
       <c r="AH13" s="5"/>
       <c r="AI13" s="5"/>
       <c r="AJ13" s="5"/>
-      <c r="AK13" s="5">
-        <v>2</v>
-      </c>
+      <c r="AK13" s="5"/>
       <c r="AL13" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM13" s="5"/>
+        <v>2</v>
+      </c>
+      <c r="AM13" s="5">
+        <v>1</v>
+      </c>
       <c r="AN13" s="5"/>
       <c r="AO13" s="5"/>
       <c r="AP13" s="5"/>
@@ -3057,18 +3149,19 @@
       <c r="AV13" s="5"/>
       <c r="AW13" s="5"/>
       <c r="AX13" s="5"/>
-      <c r="AY13" s="5">
-        <v>1</v>
-      </c>
-      <c r="AZ13" s="6">
-        <v>1</v>
-      </c>
-      <c r="BA13">
-        <f>SUM(C13:AZ13)</f>
+      <c r="AY13" s="5"/>
+      <c r="AZ13" s="5">
+        <v>1</v>
+      </c>
+      <c r="BA13" s="6">
+        <v>1</v>
+      </c>
+      <c r="BB13">
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A14" s="28" t="s">
         <v>14</v>
       </c>
@@ -3092,19 +3185,19 @@
       <c r="Q14" s="16"/>
       <c r="R14" s="16"/>
       <c r="S14" s="16"/>
-      <c r="T14" s="17"/>
-      <c r="U14" s="4">
-        <v>1</v>
-      </c>
-      <c r="V14" s="5"/>
+      <c r="T14" s="16"/>
+      <c r="U14" s="17"/>
+      <c r="V14" s="4">
+        <v>1</v>
+      </c>
       <c r="W14" s="5"/>
       <c r="X14" s="5"/>
       <c r="Y14" s="5"/>
       <c r="Z14" s="5"/>
       <c r="AA14" s="5"/>
-      <c r="AB14" s="6"/>
-      <c r="AC14" s="4"/>
-      <c r="AD14" s="5"/>
+      <c r="AB14" s="5"/>
+      <c r="AC14" s="6"/>
+      <c r="AD14" s="4"/>
       <c r="AE14" s="5"/>
       <c r="AF14" s="5"/>
       <c r="AG14" s="5"/>
@@ -3126,13 +3219,14 @@
       <c r="AW14" s="5"/>
       <c r="AX14" s="5"/>
       <c r="AY14" s="5"/>
-      <c r="AZ14" s="6"/>
-      <c r="BA14">
-        <f>SUM(C14:AZ14)</f>
+      <c r="AZ14" s="5"/>
+      <c r="BA14" s="6"/>
+      <c r="BB14">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A15" s="29"/>
       <c r="B15" s="10" t="s">
         <v>19</v>
@@ -3154,55 +3248,56 @@
       <c r="Q15" s="16"/>
       <c r="R15" s="16"/>
       <c r="S15" s="16"/>
-      <c r="T15" s="17"/>
-      <c r="U15" s="4"/>
-      <c r="V15" s="5"/>
+      <c r="T15" s="16"/>
+      <c r="U15" s="17"/>
+      <c r="V15" s="4"/>
       <c r="W15" s="5"/>
-      <c r="X15" s="5">
-        <v>1</v>
-      </c>
-      <c r="Y15" s="5"/>
+      <c r="X15" s="5"/>
+      <c r="Y15" s="5">
+        <v>1</v>
+      </c>
       <c r="Z15" s="5"/>
       <c r="AA15" s="5"/>
-      <c r="AB15" s="6"/>
-      <c r="AC15" s="4"/>
-      <c r="AD15" s="5"/>
-      <c r="AE15" s="5">
-        <v>1</v>
-      </c>
-      <c r="AF15" s="5"/>
+      <c r="AB15" s="5"/>
+      <c r="AC15" s="6"/>
+      <c r="AD15" s="4"/>
+      <c r="AE15" s="5"/>
+      <c r="AF15" s="5">
+        <v>1</v>
+      </c>
       <c r="AG15" s="5"/>
       <c r="AH15" s="5"/>
       <c r="AI15" s="5"/>
       <c r="AJ15" s="5"/>
       <c r="AK15" s="5"/>
-      <c r="AL15" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM15" s="5"/>
+      <c r="AL15" s="5"/>
+      <c r="AM15" s="5">
+        <v>1</v>
+      </c>
       <c r="AN15" s="5"/>
       <c r="AO15" s="5"/>
       <c r="AP15" s="5"/>
       <c r="AQ15" s="5"/>
-      <c r="AR15" s="5">
-        <v>1</v>
-      </c>
-      <c r="AS15" s="5"/>
-      <c r="AT15" s="5">
-        <v>1</v>
-      </c>
-      <c r="AU15" s="5"/>
+      <c r="AR15" s="5"/>
+      <c r="AS15" s="5">
+        <v>1</v>
+      </c>
+      <c r="AT15" s="5"/>
+      <c r="AU15" s="5">
+        <v>1</v>
+      </c>
       <c r="AV15" s="5"/>
       <c r="AW15" s="5"/>
       <c r="AX15" s="5"/>
       <c r="AY15" s="5"/>
-      <c r="AZ15" s="6"/>
-      <c r="BA15">
-        <f>SUM(C15:AZ15)</f>
+      <c r="AZ15" s="5"/>
+      <c r="BA15" s="6"/>
+      <c r="BB15">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A16" s="30" t="s">
         <v>21</v>
       </c>
@@ -3226,37 +3321,37 @@
       <c r="Q16" s="16"/>
       <c r="R16" s="16"/>
       <c r="S16" s="16"/>
-      <c r="T16" s="17"/>
-      <c r="U16" s="4">
-        <v>1</v>
-      </c>
-      <c r="V16" s="5"/>
+      <c r="T16" s="16"/>
+      <c r="U16" s="17"/>
+      <c r="V16" s="4">
+        <v>1</v>
+      </c>
       <c r="W16" s="5"/>
       <c r="X16" s="5"/>
       <c r="Y16" s="5"/>
       <c r="Z16" s="5"/>
       <c r="AA16" s="5"/>
-      <c r="AB16" s="6"/>
-      <c r="AC16" s="4"/>
-      <c r="AD16" s="5"/>
+      <c r="AB16" s="5"/>
+      <c r="AC16" s="6"/>
+      <c r="AD16" s="4"/>
       <c r="AE16" s="5"/>
-      <c r="AF16" s="5">
-        <v>2</v>
-      </c>
-      <c r="AG16" s="5"/>
+      <c r="AF16" s="5"/>
+      <c r="AG16" s="5">
+        <v>2</v>
+      </c>
       <c r="AH16" s="5"/>
       <c r="AI16" s="5"/>
       <c r="AJ16" s="5"/>
-      <c r="AK16" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL16" s="5"/>
+      <c r="AK16" s="5"/>
+      <c r="AL16" s="5">
+        <v>1</v>
+      </c>
       <c r="AM16" s="5"/>
       <c r="AN16" s="5"/>
-      <c r="AO16" s="5">
-        <v>1</v>
-      </c>
-      <c r="AP16" s="5"/>
+      <c r="AO16" s="5"/>
+      <c r="AP16" s="5">
+        <v>1</v>
+      </c>
       <c r="AQ16" s="5"/>
       <c r="AR16" s="5"/>
       <c r="AS16" s="5"/>
@@ -3264,17 +3359,18 @@
       <c r="AU16" s="5"/>
       <c r="AV16" s="5"/>
       <c r="AW16" s="5"/>
-      <c r="AX16" s="5">
-        <v>1</v>
-      </c>
-      <c r="AY16" s="5"/>
-      <c r="AZ16" s="6"/>
-      <c r="BA16">
-        <f>SUM(C16:AZ16)</f>
+      <c r="AX16" s="5"/>
+      <c r="AY16" s="5">
+        <v>1</v>
+      </c>
+      <c r="AZ16" s="5"/>
+      <c r="BA16" s="6"/>
+      <c r="BB16">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A17" s="31"/>
       <c r="B17" s="10" t="s">
         <v>18</v>
@@ -3296,17 +3392,17 @@
       <c r="Q17" s="16"/>
       <c r="R17" s="16"/>
       <c r="S17" s="16"/>
-      <c r="T17" s="17"/>
-      <c r="U17" s="4"/>
-      <c r="V17" s="5"/>
+      <c r="T17" s="16"/>
+      <c r="U17" s="17"/>
+      <c r="V17" s="4"/>
       <c r="W17" s="5"/>
       <c r="X17" s="5"/>
       <c r="Y17" s="5"/>
       <c r="Z17" s="5"/>
       <c r="AA17" s="5"/>
-      <c r="AB17" s="6"/>
-      <c r="AC17" s="4"/>
-      <c r="AD17" s="5"/>
+      <c r="AB17" s="5"/>
+      <c r="AC17" s="6"/>
+      <c r="AD17" s="4"/>
       <c r="AE17" s="5"/>
       <c r="AF17" s="5"/>
       <c r="AG17" s="5"/>
@@ -3318,29 +3414,30 @@
       <c r="AM17" s="5"/>
       <c r="AN17" s="5"/>
       <c r="AO17" s="5"/>
-      <c r="AP17" s="5">
-        <v>1</v>
-      </c>
+      <c r="AP17" s="5"/>
       <c r="AQ17" s="5">
         <v>1</v>
       </c>
-      <c r="AR17" s="5"/>
-      <c r="AS17" s="5">
-        <v>1</v>
-      </c>
-      <c r="AT17" s="5"/>
+      <c r="AR17" s="5">
+        <v>2</v>
+      </c>
+      <c r="AS17" s="5"/>
+      <c r="AT17" s="5">
+        <v>1</v>
+      </c>
       <c r="AU17" s="5"/>
       <c r="AV17" s="5"/>
       <c r="AW17" s="5"/>
       <c r="AX17" s="5"/>
       <c r="AY17" s="5"/>
-      <c r="AZ17" s="6"/>
-      <c r="BA17">
-        <f>SUM(C17:AZ17)</f>
-        <v>3</v>
+      <c r="AZ17" s="5"/>
+      <c r="BA17" s="6"/>
+      <c r="BB17">
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A18" s="32"/>
       <c r="B18" s="10" t="s">
         <v>22</v>
@@ -3355,26 +3452,26 @@
       <c r="J18" s="16"/>
       <c r="K18" s="16"/>
       <c r="L18" s="16"/>
-      <c r="M18" s="16">
-        <v>1</v>
-      </c>
-      <c r="N18" s="16"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="16">
+        <v>1</v>
+      </c>
       <c r="O18" s="16"/>
       <c r="P18" s="16"/>
       <c r="Q18" s="16"/>
       <c r="R18" s="16"/>
       <c r="S18" s="16"/>
-      <c r="T18" s="17"/>
-      <c r="U18" s="4"/>
-      <c r="V18" s="5"/>
+      <c r="T18" s="16"/>
+      <c r="U18" s="17"/>
+      <c r="V18" s="4"/>
       <c r="W18" s="5"/>
       <c r="X18" s="5"/>
       <c r="Y18" s="5"/>
       <c r="Z18" s="5"/>
       <c r="AA18" s="5"/>
-      <c r="AB18" s="6"/>
-      <c r="AC18" s="4"/>
-      <c r="AD18" s="5"/>
+      <c r="AB18" s="5"/>
+      <c r="AC18" s="6"/>
+      <c r="AD18" s="4"/>
       <c r="AE18" s="5"/>
       <c r="AF18" s="5"/>
       <c r="AG18" s="5"/>
@@ -3396,13 +3493,14 @@
       <c r="AW18" s="5"/>
       <c r="AX18" s="5"/>
       <c r="AY18" s="5"/>
-      <c r="AZ18" s="6"/>
-      <c r="BA18">
-        <f>SUM(C18:AZ18)</f>
+      <c r="AZ18" s="5"/>
+      <c r="BA18" s="6"/>
+      <c r="BB18">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A19" s="33"/>
       <c r="B19" s="10" t="s">
         <v>23</v>
@@ -3424,17 +3522,17 @@
       <c r="Q19" s="35"/>
       <c r="R19" s="35"/>
       <c r="S19" s="35"/>
-      <c r="T19" s="36"/>
-      <c r="U19" s="7"/>
-      <c r="V19" s="8"/>
+      <c r="T19" s="35"/>
+      <c r="U19" s="36"/>
+      <c r="V19" s="7"/>
       <c r="W19" s="8"/>
       <c r="X19" s="8"/>
       <c r="Y19" s="8"/>
       <c r="Z19" s="8"/>
       <c r="AA19" s="8"/>
-      <c r="AB19" s="9"/>
-      <c r="AC19" s="7"/>
-      <c r="AD19" s="8"/>
+      <c r="AB19" s="8"/>
+      <c r="AC19" s="9"/>
+      <c r="AD19" s="7"/>
       <c r="AE19" s="8"/>
       <c r="AF19" s="8"/>
       <c r="AG19" s="8"/>
@@ -3456,24 +3554,26 @@
       <c r="AW19" s="8"/>
       <c r="AX19" s="8"/>
       <c r="AY19" s="8"/>
-      <c r="AZ19" s="9"/>
-      <c r="BA19">
+      <c r="AZ19" s="8"/>
+      <c r="BA19" s="9"/>
+      <c r="BB19">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:54" x14ac:dyDescent="0.35">
       <c r="C20" s="16"/>
-      <c r="T20" s="16"/>
-      <c r="U20" s="5"/>
-      <c r="AB20" s="5"/>
+      <c r="D20" s="16"/>
+      <c r="U20" s="16"/>
+      <c r="V20" s="5"/>
       <c r="AC20" s="5"/>
-      <c r="AZ20" s="5"/>
-      <c r="BA20">
-        <f>SUM(BA2:BA19)</f>
-        <v>108</v>
+      <c r="AD20" s="5"/>
+      <c r="BA20" s="5"/>
+      <c r="BB20">
+        <f>SUM(BB2:BB19)</f>
+        <v>109</v>
       </c>
     </row>
-    <row r="22" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A22" s="10" t="s">
         <v>0</v>
       </c>
@@ -3481,171 +3581,174 @@
         <v>33</v>
       </c>
       <c r="C22" s="11">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D22" s="12">
         <v>4.2</v>
       </c>
-      <c r="D22" s="12">
+      <c r="E22" s="12">
         <v>4.3</v>
       </c>
-      <c r="E22" s="12">
+      <c r="F22" s="12">
         <v>4.4000000000000004</v>
       </c>
-      <c r="F22" s="12">
+      <c r="G22" s="12">
         <v>4.5</v>
       </c>
-      <c r="G22" s="12">
+      <c r="H22" s="12">
         <v>4.5999999999999996</v>
       </c>
-      <c r="H22" s="12">
+      <c r="I22" s="12">
         <v>4.7</v>
       </c>
-      <c r="I22" s="12">
+      <c r="J22" s="12">
         <v>4.8</v>
       </c>
-      <c r="J22" s="13">
+      <c r="K22" s="13">
         <v>4.9000000000000004</v>
       </c>
-      <c r="K22" s="11">
+      <c r="L22" s="11">
         <v>5.0999999999999996</v>
       </c>
-      <c r="L22" s="12">
+      <c r="M22" s="12">
         <v>5.2</v>
       </c>
-      <c r="M22" s="12">
+      <c r="N22" s="12">
         <v>5.3</v>
       </c>
-      <c r="N22" s="37">
+      <c r="O22" s="37">
         <v>5.4</v>
       </c>
-      <c r="O22" s="37">
+      <c r="P22" s="37">
         <v>5.5</v>
       </c>
-      <c r="P22" s="37">
+      <c r="Q22" s="37">
         <v>5.6</v>
       </c>
-      <c r="Q22" s="37">
+      <c r="R22" s="37">
         <v>5.7</v>
       </c>
-      <c r="R22" s="37">
+      <c r="S22" s="37">
         <v>5.8</v>
       </c>
-      <c r="S22" s="37">
+      <c r="T22" s="37">
         <v>5.9</v>
       </c>
-      <c r="T22" s="38" t="s">
+      <c r="U22" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="U22" s="2">
+      <c r="V22" s="2">
         <v>6.1</v>
       </c>
-      <c r="V22" s="2">
+      <c r="W22" s="2">
         <v>6.2</v>
       </c>
-      <c r="W22" s="2">
+      <c r="X22" s="2">
         <v>6.3</v>
       </c>
-      <c r="X22" s="2">
+      <c r="Y22" s="2">
         <v>6.4</v>
       </c>
-      <c r="Y22" s="2">
+      <c r="Z22" s="2">
         <v>6.5</v>
       </c>
-      <c r="Z22" s="2">
+      <c r="AA22" s="2">
         <v>6.6</v>
       </c>
-      <c r="AA22" s="2">
+      <c r="AB22" s="2">
         <v>6.7</v>
       </c>
-      <c r="AB22" s="2">
+      <c r="AC22" s="2">
         <v>6.8</v>
       </c>
-      <c r="AC22" s="2">
+      <c r="AD22" s="2">
         <v>6.9</v>
       </c>
-      <c r="AD22" s="2" t="s">
+      <c r="AE22" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AE22" s="2">
+      <c r="AF22" s="2">
         <v>6.11</v>
       </c>
-      <c r="AF22" s="2">
+      <c r="AG22" s="2">
         <v>6.12</v>
       </c>
-      <c r="AG22" s="2">
+      <c r="AH22" s="2">
         <v>6.13</v>
       </c>
-      <c r="AH22" s="2">
+      <c r="AI22" s="2">
         <v>6.14</v>
       </c>
-      <c r="AI22" s="2">
+      <c r="AJ22" s="2">
         <v>6.15</v>
       </c>
-      <c r="AJ22" s="3">
+      <c r="AK22" s="3">
         <v>6.16</v>
       </c>
-      <c r="AK22" s="1">
+      <c r="AL22" s="1">
         <v>7.1</v>
       </c>
-      <c r="AL22" s="2">
+      <c r="AM22" s="2">
         <v>7.2</v>
       </c>
-      <c r="AM22" s="2">
+      <c r="AN22" s="2">
         <v>7.3</v>
       </c>
-      <c r="AN22" s="2">
+      <c r="AO22" s="2">
         <v>7.4</v>
       </c>
-      <c r="AO22" s="2">
+      <c r="AP22" s="2">
         <v>7.5</v>
       </c>
-      <c r="AP22" s="2">
+      <c r="AQ22" s="2">
         <v>7.6</v>
       </c>
-      <c r="AQ22" s="2">
+      <c r="AR22" s="2">
         <v>7.7</v>
       </c>
-      <c r="AR22" s="3">
+      <c r="AS22" s="3">
         <v>7.8</v>
       </c>
-      <c r="AS22" t="s">
+      <c r="AT22" t="s">
         <v>27</v>
       </c>
-      <c r="AU22" s="40">
+      <c r="AV22" s="40">
         <v>36</v>
       </c>
-      <c r="AW22" s="40" t="s">
+      <c r="AX22" s="40" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A23" s="14"/>
       <c r="B23" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C23" s="15"/>
       <c r="D23" s="16"/>
-      <c r="E23" s="16">
-        <v>1</v>
-      </c>
-      <c r="F23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16">
+        <v>1</v>
+      </c>
       <c r="G23" s="16"/>
       <c r="H23" s="16"/>
       <c r="I23" s="16"/>
-      <c r="J23" s="17">
-        <v>1</v>
-      </c>
-      <c r="K23" s="15"/>
-      <c r="L23" s="16"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="17">
+        <v>1</v>
+      </c>
+      <c r="L23" s="15"/>
       <c r="M23" s="16"/>
       <c r="N23" s="16"/>
-      <c r="O23" s="16">
-        <v>1</v>
-      </c>
-      <c r="P23" s="16"/>
+      <c r="O23" s="16"/>
+      <c r="P23" s="16">
+        <v>1</v>
+      </c>
       <c r="Q23" s="16"/>
       <c r="R23" s="16"/>
       <c r="S23" s="16"/>
-      <c r="T23" s="17"/>
-      <c r="U23" s="5"/>
+      <c r="T23" s="16"/>
+      <c r="U23" s="17"/>
       <c r="V23" s="5"/>
       <c r="W23" s="5"/>
       <c r="X23" s="5"/>
@@ -3660,29 +3763,36 @@
       <c r="AG23" s="5"/>
       <c r="AH23" s="5"/>
       <c r="AI23" s="5"/>
-      <c r="AJ23" s="6"/>
-      <c r="AK23" s="4"/>
-      <c r="AL23" s="5"/>
+      <c r="AJ23" s="5"/>
+      <c r="AK23" s="6"/>
+      <c r="AL23" s="4"/>
       <c r="AM23" s="5"/>
       <c r="AN23" s="5"/>
       <c r="AO23" s="5"/>
       <c r="AP23" s="5"/>
       <c r="AQ23" s="5"/>
-      <c r="AR23" s="6"/>
-      <c r="AS23">
-        <f>SUM(C23:AR23)</f>
+      <c r="AR23" s="5"/>
+      <c r="AS23" s="6"/>
+      <c r="AT23">
+        <f>SUM(C23:AS23)</f>
         <v>3</v>
       </c>
       <c r="AU23">
-        <f>SUM(C2:AZ2)</f>
         <v>3</v>
       </c>
+      <c r="AV23">
+        <f>SUM(C2:BA2)</f>
+        <v>3</v>
+      </c>
       <c r="AW23">
-        <f>SUM(BA2,AS23)</f>
+        <v>3</v>
+      </c>
+      <c r="AX23">
+        <f>SUM(BB2,AT23)</f>
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A24" s="18"/>
       <c r="B24" s="10" t="s">
         <v>26</v>
@@ -3694,11 +3804,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="16"/>
       <c r="I24" s="16"/>
-      <c r="J24" s="17">
-        <v>1</v>
-      </c>
-      <c r="K24" s="15"/>
-      <c r="L24" s="16"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="17">
+        <v>1</v>
+      </c>
+      <c r="L24" s="15"/>
       <c r="M24" s="16"/>
       <c r="N24" s="16"/>
       <c r="O24" s="16"/>
@@ -3706,57 +3816,64 @@
       <c r="Q24" s="16"/>
       <c r="R24" s="16"/>
       <c r="S24" s="16"/>
-      <c r="T24" s="17">
-        <v>1</v>
-      </c>
-      <c r="U24" s="5"/>
-      <c r="V24" s="5">
-        <v>1</v>
-      </c>
-      <c r="W24" s="5"/>
-      <c r="X24" s="5">
-        <v>1</v>
-      </c>
+      <c r="T24" s="16"/>
+      <c r="U24" s="17">
+        <v>1</v>
+      </c>
+      <c r="V24" s="5"/>
+      <c r="W24" s="5">
+        <v>1</v>
+      </c>
+      <c r="X24" s="5"/>
       <c r="Y24" s="5">
         <v>1</v>
       </c>
-      <c r="Z24" s="5"/>
+      <c r="Z24" s="5">
+        <v>1</v>
+      </c>
       <c r="AA24" s="5"/>
       <c r="AB24" s="5"/>
-      <c r="AC24" s="5">
-        <v>1</v>
-      </c>
-      <c r="AD24" s="5"/>
+      <c r="AC24" s="5"/>
+      <c r="AD24" s="5">
+        <v>1</v>
+      </c>
       <c r="AE24" s="5"/>
       <c r="AF24" s="5"/>
       <c r="AG24" s="5"/>
       <c r="AH24" s="5"/>
       <c r="AI24" s="5"/>
-      <c r="AJ24" s="6"/>
-      <c r="AK24" s="4"/>
-      <c r="AL24" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM24" s="5"/>
+      <c r="AJ24" s="5"/>
+      <c r="AK24" s="6"/>
+      <c r="AL24" s="4"/>
+      <c r="AM24" s="5">
+        <v>1</v>
+      </c>
       <c r="AN24" s="5"/>
       <c r="AO24" s="5"/>
       <c r="AP24" s="5"/>
       <c r="AQ24" s="5"/>
-      <c r="AR24" s="6"/>
-      <c r="AS24">
-        <f>SUM(C24:AR24)</f>
+      <c r="AR24" s="5"/>
+      <c r="AS24" s="6"/>
+      <c r="AT24">
+        <f>SUM(C24:AS24)</f>
         <v>7</v>
       </c>
       <c r="AU24">
-        <f>SUM(C3:AZ3)</f>
+        <v>7</v>
+      </c>
+      <c r="AV24">
+        <f>SUM(C3:BA3)</f>
         <v>10</v>
       </c>
-      <c r="AW24" s="40">
-        <f>SUM(BA3,AS24)</f>
+      <c r="AW24">
+        <v>10</v>
+      </c>
+      <c r="AX24" s="40">
+        <f>SUM(BB3,AT24)</f>
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A25" s="19"/>
       <c r="B25" s="10" t="s">
         <v>4</v>
@@ -3768,9 +3885,9 @@
       <c r="G25" s="16"/>
       <c r="H25" s="16"/>
       <c r="I25" s="16"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="15"/>
-      <c r="L25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="15"/>
       <c r="M25" s="16"/>
       <c r="N25" s="16"/>
       <c r="O25" s="16"/>
@@ -3778,8 +3895,8 @@
       <c r="Q25" s="16"/>
       <c r="R25" s="16"/>
       <c r="S25" s="16"/>
-      <c r="T25" s="17"/>
-      <c r="U25" s="5"/>
+      <c r="T25" s="16"/>
+      <c r="U25" s="17"/>
       <c r="V25" s="5"/>
       <c r="W25" s="5"/>
       <c r="X25" s="5"/>
@@ -3794,28 +3911,35 @@
       <c r="AG25" s="5"/>
       <c r="AH25" s="5"/>
       <c r="AI25" s="5"/>
-      <c r="AJ25" s="6"/>
-      <c r="AK25" s="4"/>
-      <c r="AL25" s="5"/>
+      <c r="AJ25" s="5"/>
+      <c r="AK25" s="6"/>
+      <c r="AL25" s="4"/>
       <c r="AM25" s="5"/>
       <c r="AN25" s="5"/>
       <c r="AO25" s="5"/>
       <c r="AP25" s="5"/>
       <c r="AQ25" s="5"/>
-      <c r="AR25" s="6"/>
-      <c r="AS25">
+      <c r="AR25" s="5"/>
+      <c r="AS25" s="6"/>
+      <c r="AT25">
         <v>0</v>
       </c>
       <c r="AU25">
-        <f t="shared" ref="AU25:AU40" si="0">SUM(C4:AZ4)</f>
+        <v>0</v>
+      </c>
+      <c r="AV25">
+        <f>SUM(C4:BA4)</f>
         <v>1</v>
       </c>
       <c r="AW25">
-        <f>SUM(AS25,BA4)</f>
+        <v>1</v>
+      </c>
+      <c r="AX25">
+        <f>SUM(AT25,BB4)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A26" s="20"/>
       <c r="B26" s="10" t="s">
         <v>2</v>
@@ -3827,9 +3951,9 @@
       <c r="G26" s="16"/>
       <c r="H26" s="16"/>
       <c r="I26" s="16"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="15"/>
-      <c r="L26" s="16"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="15"/>
       <c r="M26" s="16"/>
       <c r="N26" s="16"/>
       <c r="O26" s="16"/>
@@ -3837,8 +3961,8 @@
       <c r="Q26" s="16"/>
       <c r="R26" s="16"/>
       <c r="S26" s="16"/>
-      <c r="T26" s="17"/>
-      <c r="U26" s="5"/>
+      <c r="T26" s="16"/>
+      <c r="U26" s="17"/>
       <c r="V26" s="5"/>
       <c r="W26" s="5"/>
       <c r="X26" s="5"/>
@@ -3853,28 +3977,35 @@
       <c r="AG26" s="5"/>
       <c r="AH26" s="5"/>
       <c r="AI26" s="5"/>
-      <c r="AJ26" s="6"/>
-      <c r="AK26" s="4"/>
-      <c r="AL26" s="5"/>
+      <c r="AJ26" s="5"/>
+      <c r="AK26" s="6"/>
+      <c r="AL26" s="4"/>
       <c r="AM26" s="5"/>
       <c r="AN26" s="5"/>
       <c r="AO26" s="5"/>
       <c r="AP26" s="5"/>
       <c r="AQ26" s="5"/>
-      <c r="AR26" s="6"/>
-      <c r="AS26">
+      <c r="AR26" s="5"/>
+      <c r="AS26" s="6"/>
+      <c r="AT26">
         <v>0</v>
       </c>
       <c r="AU26">
-        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AV26">
+        <f>SUM(C5:BA5)</f>
         <v>2</v>
       </c>
       <c r="AW26">
-        <f>SUM(AS26,BA5)</f>
+        <v>2</v>
+      </c>
+      <c r="AX26">
+        <f>SUM(AT26,BB5)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A27" s="21"/>
       <c r="B27" s="10" t="s">
         <v>5</v>
@@ -3886,9 +4017,9 @@
       <c r="G27" s="16"/>
       <c r="H27" s="16"/>
       <c r="I27" s="16"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="15"/>
-      <c r="L27" s="16"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="15"/>
       <c r="M27" s="16"/>
       <c r="N27" s="16"/>
       <c r="O27" s="16"/>
@@ -3896,51 +4027,58 @@
       <c r="Q27" s="16"/>
       <c r="R27" s="16"/>
       <c r="S27" s="16"/>
-      <c r="T27" s="17"/>
-      <c r="U27" s="5"/>
+      <c r="T27" s="16"/>
+      <c r="U27" s="17"/>
       <c r="V27" s="5"/>
       <c r="W27" s="5"/>
-      <c r="X27" s="5">
-        <v>1</v>
-      </c>
+      <c r="X27" s="5"/>
       <c r="Y27" s="5">
         <v>1</v>
       </c>
-      <c r="Z27" s="5"/>
+      <c r="Z27" s="5">
+        <v>1</v>
+      </c>
       <c r="AA27" s="5"/>
       <c r="AB27" s="5"/>
       <c r="AC27" s="5"/>
       <c r="AD27" s="5"/>
       <c r="AE27" s="5"/>
       <c r="AF27" s="5"/>
-      <c r="AG27" s="5">
-        <v>1</v>
-      </c>
-      <c r="AH27" s="5"/>
+      <c r="AG27" s="5"/>
+      <c r="AH27" s="5">
+        <v>1</v>
+      </c>
       <c r="AI27" s="5"/>
-      <c r="AJ27" s="6"/>
-      <c r="AK27" s="4"/>
-      <c r="AL27" s="5"/>
+      <c r="AJ27" s="5"/>
+      <c r="AK27" s="6"/>
+      <c r="AL27" s="4"/>
       <c r="AM27" s="5"/>
       <c r="AN27" s="5"/>
       <c r="AO27" s="5"/>
       <c r="AP27" s="5"/>
       <c r="AQ27" s="5"/>
-      <c r="AR27" s="6"/>
-      <c r="AS27">
-        <f>SUM(C27:AR27)</f>
+      <c r="AR27" s="5"/>
+      <c r="AS27" s="6"/>
+      <c r="AT27">
+        <f>SUM(C27:AS27)</f>
         <v>3</v>
       </c>
       <c r="AU27">
-        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="AV27">
+        <f>SUM(C6:BA6)</f>
         <v>19</v>
       </c>
       <c r="AW27">
-        <f>SUM(BA6,AS27)</f>
+        <v>19</v>
+      </c>
+      <c r="AX27">
+        <f>SUM(BB6,AT27)</f>
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A28" s="22"/>
       <c r="B28" s="10" t="s">
         <v>30</v>
@@ -3952,9 +4090,9 @@
       <c r="G28" s="16"/>
       <c r="H28" s="16"/>
       <c r="I28" s="16"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="15"/>
-      <c r="L28" s="16"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="15"/>
       <c r="M28" s="16"/>
       <c r="N28" s="16"/>
       <c r="O28" s="16"/>
@@ -3962,10 +4100,10 @@
       <c r="Q28" s="16"/>
       <c r="R28" s="16"/>
       <c r="S28" s="16"/>
-      <c r="T28" s="17">
-        <v>1</v>
-      </c>
-      <c r="U28" s="5"/>
+      <c r="T28" s="16"/>
+      <c r="U28" s="17">
+        <v>1</v>
+      </c>
       <c r="V28" s="5"/>
       <c r="W28" s="5"/>
       <c r="X28" s="5"/>
@@ -3980,111 +4118,125 @@
       <c r="AG28" s="5"/>
       <c r="AH28" s="5"/>
       <c r="AI28" s="5"/>
-      <c r="AJ28" s="6"/>
-      <c r="AK28" s="4"/>
-      <c r="AL28" s="5"/>
+      <c r="AJ28" s="5"/>
+      <c r="AK28" s="6"/>
+      <c r="AL28" s="4"/>
       <c r="AM28" s="5"/>
       <c r="AN28" s="5"/>
-      <c r="AO28" s="5">
-        <v>1</v>
-      </c>
-      <c r="AP28" s="5"/>
+      <c r="AO28" s="5"/>
+      <c r="AP28" s="5">
+        <v>1</v>
+      </c>
       <c r="AQ28" s="5"/>
-      <c r="AR28" s="6"/>
-      <c r="AS28">
-        <f>SUM(C28:AR28)</f>
+      <c r="AR28" s="5"/>
+      <c r="AS28" s="6"/>
+      <c r="AT28">
+        <f>SUM(C28:AS28)</f>
         <v>2</v>
       </c>
       <c r="AU28">
-        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AV28">
+        <f>SUM(C7:BA7)</f>
         <v>8</v>
       </c>
       <c r="AW28">
-        <f>SUM(BA7,AS28)</f>
+        <v>8</v>
+      </c>
+      <c r="AX28">
+        <f>SUM(BB7,AT28)</f>
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A29" s="23"/>
       <c r="B29" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C29" s="15">
-        <v>1</v>
-      </c>
-      <c r="D29" s="16"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="16">
+        <v>1</v>
+      </c>
       <c r="E29" s="16"/>
       <c r="F29" s="16"/>
       <c r="G29" s="16"/>
       <c r="H29" s="16"/>
       <c r="I29" s="16"/>
-      <c r="J29" s="17"/>
-      <c r="K29" s="15">
-        <v>1</v>
-      </c>
-      <c r="L29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="15">
+        <v>1</v>
+      </c>
       <c r="M29" s="16"/>
-      <c r="N29" s="16">
-        <v>1</v>
-      </c>
+      <c r="N29" s="16"/>
       <c r="O29" s="16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P29" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q29" s="16">
         <v>1</v>
       </c>
-      <c r="R29" s="16"/>
+      <c r="R29" s="16">
+        <v>1</v>
+      </c>
       <c r="S29" s="16"/>
-      <c r="T29" s="17">
-        <v>1</v>
-      </c>
-      <c r="U29" s="5"/>
+      <c r="T29" s="16"/>
+      <c r="U29" s="17">
+        <v>1</v>
+      </c>
       <c r="V29" s="5"/>
       <c r="W29" s="5"/>
       <c r="X29" s="5"/>
       <c r="Y29" s="5"/>
       <c r="Z29" s="5"/>
-      <c r="AA29" s="5">
-        <v>1</v>
-      </c>
-      <c r="AB29" s="5"/>
+      <c r="AA29" s="5"/>
+      <c r="AB29" s="5">
+        <v>1</v>
+      </c>
       <c r="AC29" s="5"/>
       <c r="AD29" s="5"/>
       <c r="AE29" s="5"/>
       <c r="AF29" s="5"/>
       <c r="AG29" s="5"/>
-      <c r="AH29" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI29" s="5"/>
-      <c r="AJ29" s="6"/>
-      <c r="AK29" s="4"/>
-      <c r="AL29" s="5"/>
-      <c r="AM29" s="5">
-        <v>1</v>
-      </c>
-      <c r="AN29" s="5"/>
+      <c r="AH29" s="5"/>
+      <c r="AI29" s="5">
+        <v>1</v>
+      </c>
+      <c r="AJ29" s="5"/>
+      <c r="AK29" s="6"/>
+      <c r="AL29" s="4"/>
+      <c r="AM29" s="5"/>
+      <c r="AN29" s="5">
+        <v>1</v>
+      </c>
       <c r="AO29" s="5"/>
       <c r="AP29" s="5"/>
       <c r="AQ29" s="5"/>
-      <c r="AR29" s="6"/>
-      <c r="AS29">
-        <f>SUM(C29:AR29)</f>
+      <c r="AR29" s="5"/>
+      <c r="AS29" s="6"/>
+      <c r="AT29">
+        <f>SUM(C29:AS29)</f>
         <v>11</v>
       </c>
       <c r="AU29">
-        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="AV29">
+        <f>SUM(C8:BA8)</f>
         <v>7</v>
       </c>
-      <c r="AW29" s="40">
-        <f>SUM(AS29,BA8)</f>
+      <c r="AW29">
+        <v>7</v>
+      </c>
+      <c r="AX29" s="40">
+        <f>SUM(AT29,BB8)</f>
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A30" s="39" t="s">
         <v>3</v>
       </c>
@@ -4098,20 +4250,20 @@
       <c r="G30" s="16"/>
       <c r="H30" s="16"/>
       <c r="I30" s="16"/>
-      <c r="J30" s="17"/>
-      <c r="K30" s="15"/>
-      <c r="L30" s="16"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="17"/>
+      <c r="L30" s="15"/>
       <c r="M30" s="16"/>
       <c r="N30" s="16"/>
-      <c r="O30" s="16">
-        <v>1</v>
-      </c>
-      <c r="P30" s="16"/>
+      <c r="O30" s="16"/>
+      <c r="P30" s="16">
+        <v>1</v>
+      </c>
       <c r="Q30" s="16"/>
       <c r="R30" s="16"/>
       <c r="S30" s="16"/>
-      <c r="T30" s="17"/>
-      <c r="U30" s="5"/>
+      <c r="T30" s="16"/>
+      <c r="U30" s="17"/>
       <c r="V30" s="5"/>
       <c r="W30" s="5"/>
       <c r="X30" s="5"/>
@@ -4123,139 +4275,152 @@
       <c r="AD30" s="5"/>
       <c r="AE30" s="5"/>
       <c r="AF30" s="5"/>
-      <c r="AG30" s="5">
-        <v>1</v>
-      </c>
-      <c r="AH30" s="5"/>
+      <c r="AG30" s="5"/>
+      <c r="AH30" s="5">
+        <v>1</v>
+      </c>
       <c r="AI30" s="5"/>
-      <c r="AJ30" s="6"/>
-      <c r="AK30" s="4"/>
-      <c r="AL30" s="5"/>
-      <c r="AM30" s="5">
-        <v>2</v>
-      </c>
-      <c r="AN30" s="5"/>
+      <c r="AJ30" s="5"/>
+      <c r="AK30" s="6"/>
+      <c r="AL30" s="4"/>
+      <c r="AM30" s="5"/>
+      <c r="AN30" s="5">
+        <v>2</v>
+      </c>
       <c r="AO30" s="5"/>
       <c r="AP30" s="5"/>
       <c r="AQ30" s="5"/>
-      <c r="AR30" s="6"/>
-      <c r="AS30">
-        <f>SUM(C30:AR30)</f>
+      <c r="AR30" s="5"/>
+      <c r="AS30" s="6"/>
+      <c r="AT30">
+        <f>SUM(C30:AS30)</f>
         <v>4</v>
       </c>
       <c r="AU30">
-        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="AV30">
+        <f>SUM(C9:BA9)</f>
         <v>9</v>
       </c>
       <c r="AW30">
-        <f>SUM(AS30,BA9)</f>
+        <v>9</v>
+      </c>
+      <c r="AX30">
+        <f>SUM(AT30,BB9)</f>
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A31" s="25"/>
       <c r="B31" s="10" t="s">
         <v>6</v>
       </c>
       <c r="C31" s="15"/>
       <c r="D31" s="16"/>
-      <c r="E31" s="16">
-        <v>1</v>
-      </c>
-      <c r="F31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16">
+        <v>1</v>
+      </c>
       <c r="G31" s="16"/>
       <c r="H31" s="16"/>
       <c r="I31" s="16"/>
-      <c r="J31" s="17"/>
-      <c r="K31" s="15"/>
-      <c r="L31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="15"/>
       <c r="M31" s="16"/>
       <c r="N31" s="16"/>
-      <c r="O31" s="16">
-        <v>1</v>
-      </c>
-      <c r="P31" s="16"/>
+      <c r="O31" s="16"/>
+      <c r="P31" s="16">
+        <v>1</v>
+      </c>
       <c r="Q31" s="16"/>
       <c r="R31" s="16"/>
       <c r="S31" s="16"/>
-      <c r="T31" s="17">
-        <v>1</v>
-      </c>
-      <c r="U31" s="5"/>
+      <c r="T31" s="16"/>
+      <c r="U31" s="17">
+        <v>1</v>
+      </c>
       <c r="V31" s="5"/>
       <c r="W31" s="5"/>
       <c r="X31" s="5"/>
       <c r="Y31" s="5"/>
       <c r="Z31" s="5"/>
-      <c r="AA31" s="5">
-        <v>1</v>
-      </c>
+      <c r="AA31" s="5"/>
       <c r="AB31" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC31" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD31" s="5">
         <v>1</v>
       </c>
-      <c r="AE31" s="5"/>
+      <c r="AE31" s="5">
+        <v>1</v>
+      </c>
       <c r="AF31" s="5"/>
       <c r="AG31" s="5"/>
-      <c r="AH31" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI31" s="5"/>
-      <c r="AJ31" s="6">
-        <v>1</v>
-      </c>
-      <c r="AK31" s="4">
-        <v>1</v>
-      </c>
-      <c r="AL31" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM31" s="5"/>
-      <c r="AN31" s="5">
-        <v>1</v>
-      </c>
+      <c r="AH31" s="5"/>
+      <c r="AI31" s="5">
+        <v>1</v>
+      </c>
+      <c r="AJ31" s="5"/>
+      <c r="AK31" s="6">
+        <v>1</v>
+      </c>
+      <c r="AL31" s="4">
+        <v>1</v>
+      </c>
+      <c r="AM31" s="5">
+        <v>1</v>
+      </c>
+      <c r="AN31" s="5"/>
       <c r="AO31" s="5">
         <v>1</v>
       </c>
-      <c r="AP31" s="5"/>
+      <c r="AP31" s="5">
+        <v>1</v>
+      </c>
       <c r="AQ31" s="5"/>
-      <c r="AR31" s="6">
-        <v>1</v>
-      </c>
-      <c r="AS31">
-        <f>SUM(C31:AR31)</f>
+      <c r="AR31" s="5"/>
+      <c r="AS31" s="6">
+        <v>1</v>
+      </c>
+      <c r="AT31">
+        <f>SUM(C31:AS31)</f>
         <v>15</v>
       </c>
       <c r="AU31">
-        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="AV31">
+        <f>SUM(C10:BA10)</f>
         <v>17</v>
       </c>
-      <c r="AW31" s="40">
-        <f>SUM(BA10,AS31)</f>
+      <c r="AW31">
+        <v>17</v>
+      </c>
+      <c r="AX31" s="40">
+        <f>SUM(BB10,AT31)</f>
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A32" s="10" t="s">
         <v>29</v>
       </c>
       <c r="B32" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D32" s="16"/>
       <c r="E32" s="16"/>
       <c r="F32" s="16"/>
       <c r="G32" s="16"/>
       <c r="H32" s="16"/>
       <c r="I32" s="16"/>
-      <c r="J32" s="17"/>
-      <c r="K32" s="15"/>
-      <c r="L32" s="16"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="15"/>
       <c r="M32" s="16"/>
       <c r="N32" s="16"/>
       <c r="O32" s="16"/>
@@ -4263,8 +4428,8 @@
       <c r="Q32" s="16"/>
       <c r="R32" s="16"/>
       <c r="S32" s="16"/>
-      <c r="T32" s="17"/>
-      <c r="U32" s="5"/>
+      <c r="T32" s="16"/>
+      <c r="U32" s="17"/>
       <c r="V32" s="5"/>
       <c r="W32" s="5"/>
       <c r="X32" s="5"/>
@@ -4279,28 +4444,35 @@
       <c r="AG32" s="5"/>
       <c r="AH32" s="5"/>
       <c r="AI32" s="5"/>
-      <c r="AJ32" s="6"/>
-      <c r="AK32" s="4"/>
-      <c r="AL32" s="5"/>
+      <c r="AJ32" s="5"/>
+      <c r="AK32" s="6"/>
+      <c r="AL32" s="4"/>
       <c r="AM32" s="5"/>
       <c r="AN32" s="5"/>
       <c r="AO32" s="5"/>
       <c r="AP32" s="5"/>
       <c r="AQ32" s="5"/>
-      <c r="AR32" s="6"/>
-      <c r="AS32">
+      <c r="AR32" s="5"/>
+      <c r="AS32" s="6"/>
+      <c r="AT32">
         <v>0</v>
       </c>
       <c r="AU32">
-        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AV32">
+        <f>SUM(C11:BA11)</f>
         <v>1</v>
       </c>
       <c r="AW32">
-        <f>SUM(BA11,AS32)</f>
+        <v>1</v>
+      </c>
+      <c r="AX32">
+        <f>SUM(BB11,AT32)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A33" s="26" t="s">
         <v>7</v>
       </c>
@@ -4314,9 +4486,9 @@
       <c r="G33" s="16"/>
       <c r="H33" s="16"/>
       <c r="I33" s="16"/>
-      <c r="J33" s="17"/>
-      <c r="K33" s="15"/>
-      <c r="L33" s="16"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="15"/>
       <c r="M33" s="16"/>
       <c r="N33" s="16"/>
       <c r="O33" s="16"/>
@@ -4324,8 +4496,8 @@
       <c r="Q33" s="16"/>
       <c r="R33" s="16"/>
       <c r="S33" s="16"/>
-      <c r="T33" s="17"/>
-      <c r="U33" s="5"/>
+      <c r="T33" s="16"/>
+      <c r="U33" s="17"/>
       <c r="V33" s="5"/>
       <c r="W33" s="5"/>
       <c r="X33" s="5"/>
@@ -4340,72 +4512,81 @@
       <c r="AG33" s="5"/>
       <c r="AH33" s="5"/>
       <c r="AI33" s="5"/>
-      <c r="AJ33" s="6"/>
-      <c r="AK33" s="4"/>
-      <c r="AL33" s="5"/>
+      <c r="AJ33" s="5"/>
+      <c r="AK33" s="6"/>
+      <c r="AL33" s="4"/>
       <c r="AM33" s="5"/>
       <c r="AN33" s="5"/>
       <c r="AO33" s="5"/>
       <c r="AP33" s="5"/>
       <c r="AQ33" s="5"/>
-      <c r="AR33" s="6"/>
-      <c r="AS33">
+      <c r="AR33" s="5"/>
+      <c r="AS33" s="6"/>
+      <c r="AT33">
         <v>0</v>
       </c>
       <c r="AU33">
-        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AV33">
+        <f>SUM(C12:BA12)</f>
         <v>2</v>
       </c>
       <c r="AW33">
-        <f>SUM(AS33,BA12)</f>
+        <v>2</v>
+      </c>
+      <c r="AX33">
+        <f>SUM(AT33,BB12)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A34" s="27" t="s">
         <v>9</v>
       </c>
       <c r="B34" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C34" s="15"/>
+      <c r="C34" s="15">
+        <v>1</v>
+      </c>
       <c r="D34" s="16"/>
       <c r="E34" s="16"/>
       <c r="F34" s="16"/>
       <c r="G34" s="16"/>
       <c r="H34" s="16"/>
       <c r="I34" s="16"/>
-      <c r="J34" s="17">
-        <v>1</v>
-      </c>
-      <c r="K34" s="15">
-        <v>1</v>
-      </c>
-      <c r="L34" s="16"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="17">
+        <v>1</v>
+      </c>
+      <c r="L34" s="15">
+        <v>1</v>
+      </c>
       <c r="M34" s="16"/>
       <c r="N34" s="16"/>
-      <c r="O34" s="16">
-        <v>2</v>
-      </c>
-      <c r="P34" s="16"/>
-      <c r="Q34" s="16">
-        <v>1</v>
-      </c>
-      <c r="R34" s="16"/>
+      <c r="O34" s="16"/>
+      <c r="P34" s="16">
+        <v>2</v>
+      </c>
+      <c r="Q34" s="16"/>
+      <c r="R34" s="16">
+        <v>1</v>
+      </c>
       <c r="S34" s="16"/>
-      <c r="T34" s="17">
-        <v>1</v>
-      </c>
-      <c r="U34" s="5"/>
+      <c r="T34" s="16"/>
+      <c r="U34" s="17">
+        <v>1</v>
+      </c>
       <c r="V34" s="5"/>
       <c r="W34" s="5"/>
       <c r="X34" s="5"/>
       <c r="Y34" s="5"/>
       <c r="Z34" s="5"/>
-      <c r="AA34" s="5">
-        <v>1</v>
-      </c>
-      <c r="AB34" s="5"/>
+      <c r="AA34" s="5"/>
+      <c r="AB34" s="5">
+        <v>1</v>
+      </c>
       <c r="AC34" s="5"/>
       <c r="AD34" s="5"/>
       <c r="AE34" s="5"/>
@@ -4413,31 +4594,38 @@
       <c r="AG34" s="5"/>
       <c r="AH34" s="5"/>
       <c r="AI34" s="5"/>
-      <c r="AJ34" s="6"/>
-      <c r="AK34" s="4"/>
-      <c r="AL34" s="5"/>
+      <c r="AJ34" s="5"/>
+      <c r="AK34" s="6"/>
+      <c r="AL34" s="4"/>
       <c r="AM34" s="5"/>
       <c r="AN34" s="5"/>
-      <c r="AO34" s="5">
-        <v>1</v>
-      </c>
-      <c r="AP34" s="5"/>
+      <c r="AO34" s="5"/>
+      <c r="AP34" s="5">
+        <v>1</v>
+      </c>
       <c r="AQ34" s="5"/>
-      <c r="AR34" s="6"/>
-      <c r="AS34">
-        <f t="shared" ref="AS34:AS40" si="1">SUM(C34:AR34)</f>
-        <v>8</v>
+      <c r="AR34" s="5"/>
+      <c r="AS34" s="6"/>
+      <c r="AT34">
+        <f>SUM(C34:AS34)</f>
+        <v>9</v>
       </c>
       <c r="AU34">
-        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="AV34">
+        <f>SUM(C13:BA13)</f>
         <v>13</v>
       </c>
-      <c r="AW34" s="40">
-        <f>SUM(AS34,BA13)</f>
-        <v>21</v>
+      <c r="AW34">
+        <v>13</v>
+      </c>
+      <c r="AX34" s="40">
+        <f>SUM(AT34,BB13)</f>
+        <v>22</v>
       </c>
     </row>
-    <row r="35" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A35" s="28" t="s">
         <v>14</v>
       </c>
@@ -4447,15 +4635,17 @@
       <c r="C35" s="15">
         <v>1</v>
       </c>
-      <c r="D35" s="16"/>
+      <c r="D35" s="16">
+        <v>1</v>
+      </c>
       <c r="E35" s="16"/>
       <c r="F35" s="16"/>
       <c r="G35" s="16"/>
       <c r="H35" s="16"/>
       <c r="I35" s="16"/>
-      <c r="J35" s="17"/>
-      <c r="K35" s="15"/>
-      <c r="L35" s="16"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="17"/>
+      <c r="L35" s="15"/>
       <c r="M35" s="16"/>
       <c r="N35" s="16"/>
       <c r="O35" s="16"/>
@@ -4463,8 +4653,8 @@
       <c r="Q35" s="16"/>
       <c r="R35" s="16"/>
       <c r="S35" s="16"/>
-      <c r="T35" s="17"/>
-      <c r="U35" s="5"/>
+      <c r="T35" s="16"/>
+      <c r="U35" s="17"/>
       <c r="V35" s="5"/>
       <c r="W35" s="5"/>
       <c r="X35" s="5"/>
@@ -4479,58 +4669,67 @@
       <c r="AG35" s="5"/>
       <c r="AH35" s="5"/>
       <c r="AI35" s="5"/>
-      <c r="AJ35" s="6"/>
-      <c r="AK35" s="4"/>
-      <c r="AL35" s="5"/>
+      <c r="AJ35" s="5"/>
+      <c r="AK35" s="6"/>
+      <c r="AL35" s="4"/>
       <c r="AM35" s="5"/>
       <c r="AN35" s="5"/>
       <c r="AO35" s="5"/>
       <c r="AP35" s="5"/>
       <c r="AQ35" s="5"/>
-      <c r="AR35" s="6"/>
-      <c r="AS35">
-        <f t="shared" si="1"/>
-        <v>1</v>
+      <c r="AR35" s="5"/>
+      <c r="AS35" s="6"/>
+      <c r="AT35">
+        <f>SUM(C35:AS35)</f>
+        <v>2</v>
       </c>
       <c r="AU35">
-        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AV35">
+        <f>SUM(C14:BA14)</f>
         <v>1</v>
       </c>
       <c r="AW35">
-        <f>SUM(BA14,AS35)</f>
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="AX35">
+        <f>SUM(BB14,AT35)</f>
+        <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A36" s="29"/>
       <c r="B36" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C36" s="15"/>
+      <c r="C36" s="15">
+        <v>1</v>
+      </c>
       <c r="D36" s="16"/>
       <c r="E36" s="16"/>
       <c r="F36" s="16"/>
       <c r="G36" s="16"/>
       <c r="H36" s="16"/>
       <c r="I36" s="16"/>
-      <c r="J36" s="17"/>
-      <c r="K36" s="15"/>
-      <c r="L36" s="16"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="17"/>
+      <c r="L36" s="15"/>
       <c r="M36" s="16"/>
-      <c r="N36" s="16">
-        <v>1</v>
-      </c>
+      <c r="N36" s="16"/>
       <c r="O36" s="16">
         <v>1</v>
       </c>
-      <c r="P36" s="16"/>
-      <c r="Q36" s="16">
-        <v>1</v>
-      </c>
-      <c r="R36" s="16"/>
+      <c r="P36" s="16">
+        <v>1</v>
+      </c>
+      <c r="Q36" s="16"/>
+      <c r="R36" s="16">
+        <v>1</v>
+      </c>
       <c r="S36" s="16"/>
-      <c r="T36" s="17"/>
-      <c r="U36" s="5"/>
+      <c r="T36" s="16"/>
+      <c r="U36" s="17"/>
       <c r="V36" s="5"/>
       <c r="W36" s="5"/>
       <c r="X36" s="5"/>
@@ -4545,29 +4744,36 @@
       <c r="AG36" s="5"/>
       <c r="AH36" s="5"/>
       <c r="AI36" s="5"/>
-      <c r="AJ36" s="6"/>
-      <c r="AK36" s="4"/>
-      <c r="AL36" s="5"/>
+      <c r="AJ36" s="5"/>
+      <c r="AK36" s="6"/>
+      <c r="AL36" s="4"/>
       <c r="AM36" s="5"/>
       <c r="AN36" s="5"/>
       <c r="AO36" s="5"/>
       <c r="AP36" s="5"/>
       <c r="AQ36" s="5"/>
-      <c r="AR36" s="6"/>
-      <c r="AS36">
-        <f t="shared" si="1"/>
-        <v>3</v>
+      <c r="AR36" s="5"/>
+      <c r="AS36" s="6"/>
+      <c r="AT36">
+        <f>SUM(C36:AS36)</f>
+        <v>4</v>
       </c>
       <c r="AU36">
-        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="AV36">
+        <f>SUM(C15:BA15)</f>
         <v>5</v>
       </c>
       <c r="AW36">
-        <f>SUM(BA15,AS36)</f>
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="AX36">
+        <f>SUM(BB15,AT36)</f>
+        <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A37" s="30" t="s">
         <v>21</v>
       </c>
@@ -4575,7 +4781,7 @@
         <v>16</v>
       </c>
       <c r="C37" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D37" s="16"/>
       <c r="E37" s="16"/>
@@ -4583,9 +4789,9 @@
       <c r="G37" s="16"/>
       <c r="H37" s="16"/>
       <c r="I37" s="16"/>
-      <c r="J37" s="17"/>
-      <c r="K37" s="15"/>
-      <c r="L37" s="16"/>
+      <c r="J37" s="16"/>
+      <c r="K37" s="17"/>
+      <c r="L37" s="15"/>
       <c r="M37" s="16"/>
       <c r="N37" s="16"/>
       <c r="O37" s="16"/>
@@ -4593,8 +4799,8 @@
       <c r="Q37" s="16"/>
       <c r="R37" s="16"/>
       <c r="S37" s="16"/>
-      <c r="T37" s="17"/>
-      <c r="U37" s="5"/>
+      <c r="T37" s="16"/>
+      <c r="U37" s="17"/>
       <c r="V37" s="5"/>
       <c r="W37" s="5"/>
       <c r="X37" s="5"/>
@@ -4609,31 +4815,38 @@
       <c r="AG37" s="5"/>
       <c r="AH37" s="5"/>
       <c r="AI37" s="5"/>
-      <c r="AJ37" s="6"/>
-      <c r="AK37" s="4"/>
-      <c r="AL37" s="5"/>
+      <c r="AJ37" s="5"/>
+      <c r="AK37" s="6"/>
+      <c r="AL37" s="4"/>
       <c r="AM37" s="5"/>
       <c r="AN37" s="5"/>
       <c r="AO37" s="5"/>
       <c r="AP37" s="5"/>
-      <c r="AQ37" s="5">
-        <v>1</v>
-      </c>
-      <c r="AR37" s="6"/>
-      <c r="AS37">
-        <f t="shared" si="1"/>
-        <v>3</v>
+      <c r="AQ37" s="5"/>
+      <c r="AR37" s="5">
+        <v>1</v>
+      </c>
+      <c r="AS37" s="6"/>
+      <c r="AT37">
+        <f>SUM(C37:AS37)</f>
+        <v>2</v>
       </c>
       <c r="AU37">
-        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AV37">
+        <f>SUM(C16:BA16)</f>
         <v>6</v>
       </c>
       <c r="AW37">
-        <f>SUM(AS37,BA16)</f>
-        <v>9</v>
+        <v>6</v>
+      </c>
+      <c r="AX37">
+        <f>SUM(AT37,BB16)</f>
+        <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A38" s="31"/>
       <c r="B38" s="10" t="s">
         <v>18</v>
@@ -4645,85 +4858,92 @@
       <c r="G38" s="16"/>
       <c r="H38" s="16"/>
       <c r="I38" s="16"/>
-      <c r="J38" s="17"/>
-      <c r="K38" s="15"/>
-      <c r="L38" s="16"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="17"/>
+      <c r="L38" s="15"/>
       <c r="M38" s="16"/>
       <c r="N38" s="16"/>
       <c r="O38" s="16"/>
-      <c r="P38" s="16">
-        <v>1</v>
-      </c>
-      <c r="Q38" s="16"/>
+      <c r="P38" s="16"/>
+      <c r="Q38" s="16">
+        <v>1</v>
+      </c>
       <c r="R38" s="16"/>
       <c r="S38" s="16"/>
-      <c r="T38" s="17"/>
-      <c r="U38" s="5"/>
+      <c r="T38" s="16"/>
+      <c r="U38" s="17"/>
       <c r="V38" s="5"/>
-      <c r="W38" s="5">
-        <v>1</v>
-      </c>
-      <c r="X38" s="5"/>
-      <c r="Y38" s="5">
-        <v>1</v>
-      </c>
-      <c r="Z38" s="5"/>
-      <c r="AA38" s="5">
-        <v>1</v>
-      </c>
-      <c r="AB38" s="5"/>
+      <c r="W38" s="5"/>
+      <c r="X38" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y38" s="5"/>
+      <c r="Z38" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA38" s="5"/>
+      <c r="AB38" s="5">
+        <v>1</v>
+      </c>
       <c r="AC38" s="5"/>
-      <c r="AD38" s="5">
-        <v>1</v>
-      </c>
+      <c r="AD38" s="5"/>
       <c r="AE38" s="5">
         <v>1</v>
       </c>
-      <c r="AF38" s="5"/>
-      <c r="AG38" s="5">
-        <v>1</v>
-      </c>
+      <c r="AF38" s="5">
+        <v>1</v>
+      </c>
+      <c r="AG38" s="5"/>
       <c r="AH38" s="5">
         <v>1</v>
       </c>
       <c r="AI38" s="5">
         <v>1</v>
       </c>
-      <c r="AJ38" s="6"/>
-      <c r="AK38" s="4">
-        <v>1</v>
-      </c>
-      <c r="AL38" s="5">
+      <c r="AJ38" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK38" s="6"/>
+      <c r="AL38" s="4">
         <v>1</v>
       </c>
       <c r="AM38" s="5">
         <v>1</v>
       </c>
-      <c r="AN38" s="5"/>
-      <c r="AO38" s="5">
-        <v>1</v>
-      </c>
+      <c r="AN38" s="5">
+        <v>1</v>
+      </c>
+      <c r="AO38" s="5"/>
       <c r="AP38" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AQ38" s="5">
-        <v>1</v>
-      </c>
-      <c r="AR38" s="6"/>
-      <c r="AS38">
-        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="AR38" s="5">
+        <v>1</v>
+      </c>
+      <c r="AS38" s="6"/>
+      <c r="AT38">
+        <f>SUM(C38:AS38)</f>
         <v>16</v>
       </c>
       <c r="AU38">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="AW38" s="40">
-        <f>SUM(AS38,BA17)</f>
-        <v>19</v>
+        <v>16</v>
+      </c>
+      <c r="AV38">
+        <f>SUM(C17:BA17)</f>
+        <v>4</v>
+      </c>
+      <c r="AW38">
+        <v>4</v>
+      </c>
+      <c r="AX38" s="40">
+        <f>SUM(AT38,BB17)</f>
+        <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A39" s="32"/>
       <c r="B39" s="10" t="s">
         <v>22</v>
@@ -4731,17 +4951,15 @@
       <c r="C39" s="15">
         <v>1</v>
       </c>
-      <c r="D39" s="16">
-        <v>1</v>
-      </c>
+      <c r="D39" s="16"/>
       <c r="E39" s="16"/>
       <c r="F39" s="16"/>
       <c r="G39" s="16"/>
       <c r="H39" s="16"/>
       <c r="I39" s="16"/>
-      <c r="J39" s="17"/>
-      <c r="K39" s="15"/>
-      <c r="L39" s="16"/>
+      <c r="J39" s="16"/>
+      <c r="K39" s="17"/>
+      <c r="L39" s="15"/>
       <c r="M39" s="16"/>
       <c r="N39" s="16"/>
       <c r="O39" s="16"/>
@@ -4749,49 +4967,56 @@
       <c r="Q39" s="16"/>
       <c r="R39" s="16"/>
       <c r="S39" s="16"/>
-      <c r="T39" s="17"/>
-      <c r="U39" s="5"/>
+      <c r="T39" s="16"/>
+      <c r="U39" s="17"/>
       <c r="V39" s="5"/>
       <c r="W39" s="5"/>
       <c r="X39" s="5"/>
       <c r="Y39" s="5"/>
       <c r="Z39" s="5"/>
-      <c r="AA39" s="5">
-        <v>1</v>
-      </c>
-      <c r="AB39" s="5"/>
+      <c r="AA39" s="5"/>
+      <c r="AB39" s="5">
+        <v>1</v>
+      </c>
       <c r="AC39" s="5"/>
       <c r="AD39" s="5"/>
       <c r="AE39" s="5"/>
       <c r="AF39" s="5"/>
       <c r="AG39" s="5"/>
       <c r="AH39" s="5"/>
-      <c r="AI39" s="5">
-        <v>1</v>
-      </c>
-      <c r="AJ39" s="6"/>
-      <c r="AK39" s="4"/>
-      <c r="AL39" s="5"/>
+      <c r="AI39" s="5"/>
+      <c r="AJ39" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK39" s="6"/>
+      <c r="AL39" s="4"/>
       <c r="AM39" s="5"/>
       <c r="AN39" s="5"/>
       <c r="AO39" s="5"/>
       <c r="AP39" s="5"/>
       <c r="AQ39" s="5"/>
-      <c r="AR39" s="6"/>
-      <c r="AS39">
-        <f t="shared" si="1"/>
+      <c r="AR39" s="5"/>
+      <c r="AS39" s="6"/>
+      <c r="AT39">
+        <f>SUM(C39:AS39)</f>
+        <v>3</v>
+      </c>
+      <c r="AU39">
+        <v>3</v>
+      </c>
+      <c r="AV39">
+        <f>SUM(C18:BA18)</f>
+        <v>1</v>
+      </c>
+      <c r="AW39">
+        <v>1</v>
+      </c>
+      <c r="AX39">
+        <f>SUM(BB18,AT39)</f>
         <v>4</v>
       </c>
-      <c r="AU39">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AW39">
-        <f>SUM(BA18,AS39)</f>
-        <v>5</v>
-      </c>
     </row>
-    <row r="40" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A40" s="33"/>
       <c r="B40" s="10" t="s">
         <v>23</v>
@@ -4802,14 +5027,16 @@
       <c r="D40" s="35">
         <v>1</v>
       </c>
-      <c r="E40" s="35"/>
+      <c r="E40" s="35">
+        <v>1</v>
+      </c>
       <c r="F40" s="35"/>
       <c r="G40" s="35"/>
       <c r="H40" s="35"/>
       <c r="I40" s="35"/>
-      <c r="J40" s="36"/>
-      <c r="K40" s="34"/>
-      <c r="L40" s="35"/>
+      <c r="J40" s="35"/>
+      <c r="K40" s="36"/>
+      <c r="L40" s="34"/>
       <c r="M40" s="35"/>
       <c r="N40" s="35"/>
       <c r="O40" s="35"/>
@@ -4817,8 +5044,8 @@
       <c r="Q40" s="35"/>
       <c r="R40" s="35"/>
       <c r="S40" s="35"/>
-      <c r="T40" s="36"/>
-      <c r="U40" s="8"/>
+      <c r="T40" s="35"/>
+      <c r="U40" s="36"/>
       <c r="V40" s="8"/>
       <c r="W40" s="8"/>
       <c r="X40" s="8"/>
@@ -4833,676 +5060,1475 @@
       <c r="AG40" s="8"/>
       <c r="AH40" s="8"/>
       <c r="AI40" s="8"/>
-      <c r="AJ40" s="9"/>
-      <c r="AK40" s="7"/>
-      <c r="AL40" s="8"/>
+      <c r="AJ40" s="8"/>
+      <c r="AK40" s="9"/>
+      <c r="AL40" s="7"/>
       <c r="AM40" s="8"/>
       <c r="AN40" s="8"/>
       <c r="AO40" s="8"/>
       <c r="AP40" s="8"/>
       <c r="AQ40" s="8"/>
-      <c r="AR40" s="9"/>
-      <c r="AS40">
-        <f t="shared" si="1"/>
-        <v>2</v>
+      <c r="AR40" s="8"/>
+      <c r="AS40" s="9"/>
+      <c r="AT40">
+        <f>SUM(C40:AS40)</f>
+        <v>3</v>
       </c>
       <c r="AU40">
-        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="AV40">
+        <f>SUM(C19:BA19)</f>
         <v>0</v>
       </c>
       <c r="AW40">
-        <f>SUM(BA19,AS40)</f>
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="AX40">
+        <f>SUM(BB19,AT40)</f>
+        <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="AS41">
-        <f>SUM(AS23:AS40)</f>
-        <v>82</v>
-      </c>
-      <c r="AU41">
-        <f>SUM(AU23:AU40)</f>
-        <v>108</v>
-      </c>
-      <c r="AW41">
-        <f>SUM(AS41,BA20)</f>
-        <v>190</v>
+    <row r="41" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="AT41">
+        <f>SUM(AT23:AT40)</f>
+        <v>84</v>
+      </c>
+      <c r="AV41">
+        <f>SUM(AV23:AV40)</f>
+        <v>109</v>
+      </c>
+      <c r="AX41">
+        <f>SUM(AT41,BB20)</f>
+        <v>193</v>
       </c>
     </row>
-    <row r="42" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="C42" s="42" t="s">
+    <row r="42" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="C42" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="D42" s="43"/>
-      <c r="E42" s="43"/>
-      <c r="F42" s="44"/>
-      <c r="G42" s="42" t="s">
+      <c r="D42" s="46"/>
+      <c r="E42" s="46"/>
+      <c r="F42" s="47"/>
+      <c r="H42" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="H42" s="43"/>
-      <c r="I42" s="43"/>
-      <c r="J42" s="44"/>
-      <c r="K42" s="42" t="s">
+      <c r="I42" s="46"/>
+      <c r="J42" s="46"/>
+      <c r="K42" s="47"/>
+      <c r="M42" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="L42" s="43"/>
-      <c r="M42" s="43"/>
-      <c r="N42" s="44"/>
-      <c r="O42" s="42" t="s">
+      <c r="N42" s="46"/>
+      <c r="O42" s="46"/>
+      <c r="P42" s="47"/>
+      <c r="R42" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="P42" s="43"/>
-      <c r="Q42" s="43"/>
-      <c r="R42" s="44"/>
-      <c r="S42" s="42" t="s">
+      <c r="S42" s="46"/>
+      <c r="T42" s="46"/>
+      <c r="U42" s="47"/>
+      <c r="W42" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="T42" s="43"/>
-      <c r="U42" s="43"/>
-      <c r="V42" s="44"/>
+      <c r="X42" s="46"/>
+      <c r="Y42" s="46"/>
+      <c r="Z42" s="47"/>
     </row>
-    <row r="43" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="C43" s="45">
+    <row r="43" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="C43" s="48">
         <v>36</v>
       </c>
-      <c r="D43" s="46"/>
-      <c r="E43" s="46">
+      <c r="D43" s="49"/>
+      <c r="E43" s="49">
         <v>41</v>
       </c>
-      <c r="F43" s="47"/>
-      <c r="G43" s="45">
+      <c r="F43" s="50"/>
+      <c r="H43" s="48">
         <v>36</v>
       </c>
-      <c r="H43" s="46"/>
-      <c r="I43" s="46">
+      <c r="I43" s="50"/>
+      <c r="J43" s="48">
         <v>41</v>
       </c>
-      <c r="J43" s="47"/>
-      <c r="K43" s="45">
+      <c r="K43" s="50"/>
+      <c r="M43" s="48">
         <v>36</v>
       </c>
-      <c r="L43" s="46"/>
-      <c r="M43" s="46">
+      <c r="N43" s="50"/>
+      <c r="O43" s="48">
         <v>41</v>
       </c>
-      <c r="N43" s="47"/>
-      <c r="O43" s="45">
+      <c r="P43" s="50"/>
+      <c r="R43" s="48">
         <v>36</v>
       </c>
-      <c r="P43" s="46"/>
-      <c r="Q43" s="46">
+      <c r="S43" s="50"/>
+      <c r="T43" s="48">
         <v>41</v>
       </c>
-      <c r="R43" s="47"/>
-      <c r="S43" s="45">
+      <c r="U43" s="50"/>
+      <c r="W43" s="48">
         <v>36</v>
       </c>
-      <c r="T43" s="46"/>
-      <c r="U43" s="46">
+      <c r="X43" s="50"/>
+      <c r="Y43" s="48">
         <v>41</v>
       </c>
-      <c r="V43" s="47"/>
+      <c r="Z43" s="50"/>
     </row>
-    <row r="44" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:50" x14ac:dyDescent="0.35">
       <c r="B44" s="41"/>
-      <c r="C44" s="48" t="s">
+      <c r="C44" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="D44" s="49" t="s">
+      <c r="D44" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="E44" s="49" t="s">
+      <c r="E44" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="F44" s="50" t="s">
+      <c r="F44" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="G44" s="48" t="s">
+      <c r="H44" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="H44" s="49" t="s">
+      <c r="I44" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="I44" s="49" t="s">
+      <c r="J44" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="J44" s="50" t="s">
+      <c r="K44" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="K44" s="48" t="s">
+      <c r="M44" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="L44" s="49" t="s">
+      <c r="N44" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="M44" s="49" t="s">
+      <c r="O44" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="N44" s="50" t="s">
+      <c r="P44" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="O44" s="48" t="s">
+      <c r="R44" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="P44" s="49" t="s">
+      <c r="S44" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="Q44" s="49" t="s">
+      <c r="T44" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="R44" s="50" t="s">
+      <c r="U44" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="S44" s="48" t="s">
+      <c r="W44" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="T44" s="49" t="s">
+      <c r="X44" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="U44" s="49" t="s">
+      <c r="Y44" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="V44" s="50" t="s">
+      <c r="Z44" s="44" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="45" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A45" s="14"/>
-      <c r="B45" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C45" s="15"/>
-      <c r="D45" s="16"/>
-      <c r="E45" s="16"/>
-      <c r="F45" s="17"/>
-      <c r="G45" s="15"/>
-      <c r="H45" s="16"/>
-      <c r="I45" s="16"/>
-      <c r="J45" s="17"/>
-      <c r="K45" s="15"/>
-      <c r="L45" s="16"/>
-      <c r="M45" s="16"/>
-      <c r="N45" s="17"/>
-      <c r="O45" s="15"/>
-      <c r="P45" s="16"/>
-      <c r="Q45" s="16"/>
-      <c r="R45" s="17"/>
-      <c r="S45" s="15"/>
-      <c r="T45" s="16"/>
-      <c r="U45" s="5"/>
-      <c r="V45" s="6"/>
+      <c r="B45" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" s="52">
+        <v>3</v>
+      </c>
+      <c r="D45" s="53">
+        <v>1</v>
+      </c>
+      <c r="E45" s="52">
+        <v>3</v>
+      </c>
+      <c r="F45" s="53">
+        <v>2</v>
+      </c>
+      <c r="G45" s="57"/>
+      <c r="H45" s="54">
+        <v>3</v>
+      </c>
+      <c r="I45" s="53">
+        <v>1</v>
+      </c>
+      <c r="J45" s="55">
+        <v>3</v>
+      </c>
+      <c r="K45" s="53">
+        <v>2</v>
+      </c>
+      <c r="L45" s="57"/>
+      <c r="M45" s="54">
+        <v>3</v>
+      </c>
+      <c r="N45" s="53">
+        <v>0</v>
+      </c>
+      <c r="O45" s="55">
+        <v>3</v>
+      </c>
+      <c r="P45" s="53">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="57"/>
+      <c r="R45" s="54">
+        <v>3</v>
+      </c>
+      <c r="S45" s="53">
+        <v>0</v>
+      </c>
+      <c r="T45" s="55">
+        <v>3</v>
+      </c>
+      <c r="U45" s="53">
+        <v>1</v>
+      </c>
+      <c r="V45" s="58"/>
+      <c r="W45" s="54">
+        <v>3</v>
+      </c>
+      <c r="X45" s="53">
+        <v>1</v>
+      </c>
+      <c r="Y45" s="55">
+        <v>3</v>
+      </c>
+      <c r="Z45" s="56">
+        <v>1</v>
+      </c>
     </row>
-    <row r="46" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A46" s="18"/>
       <c r="B46" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C46" s="15"/>
-      <c r="D46" s="16"/>
-      <c r="E46" s="16"/>
-      <c r="F46" s="17"/>
-      <c r="G46" s="15"/>
-      <c r="H46" s="16"/>
-      <c r="I46" s="16"/>
-      <c r="J46" s="17"/>
-      <c r="K46" s="15"/>
-      <c r="L46" s="16"/>
-      <c r="M46" s="16"/>
-      <c r="N46" s="17"/>
-      <c r="O46" s="15"/>
-      <c r="P46" s="16"/>
-      <c r="Q46" s="16"/>
-      <c r="R46" s="17"/>
-      <c r="S46" s="15"/>
-      <c r="T46" s="16"/>
-      <c r="U46" s="5"/>
-      <c r="V46" s="6"/>
+      <c r="C46">
+        <v>10</v>
+      </c>
+      <c r="D46" s="17">
+        <v>2</v>
+      </c>
+      <c r="E46">
+        <v>7</v>
+      </c>
+      <c r="F46" s="17">
+        <v>2</v>
+      </c>
+      <c r="G46" s="57"/>
+      <c r="H46" s="4">
+        <v>10</v>
+      </c>
+      <c r="I46" s="17">
+        <v>0</v>
+      </c>
+      <c r="J46" s="5">
+        <v>7</v>
+      </c>
+      <c r="K46" s="17">
+        <v>1</v>
+      </c>
+      <c r="L46" s="57"/>
+      <c r="M46" s="4">
+        <v>10</v>
+      </c>
+      <c r="N46" s="17">
+        <v>0</v>
+      </c>
+      <c r="O46" s="5">
+        <v>7</v>
+      </c>
+      <c r="P46" s="17">
+        <v>2</v>
+      </c>
+      <c r="Q46" s="57"/>
+      <c r="R46" s="4">
+        <v>10</v>
+      </c>
+      <c r="S46" s="17">
+        <v>0</v>
+      </c>
+      <c r="T46" s="5">
+        <v>7</v>
+      </c>
+      <c r="U46" s="17">
+        <v>0</v>
+      </c>
+      <c r="V46" s="58"/>
+      <c r="W46" s="4">
+        <v>10</v>
+      </c>
+      <c r="X46" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y46" s="5">
+        <v>7</v>
+      </c>
+      <c r="Z46" s="6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="47" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A47" s="19"/>
-      <c r="B47" s="10" t="s">
+      <c r="B47" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="C47" s="15"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="17"/>
-      <c r="G47" s="15"/>
-      <c r="H47" s="16"/>
-      <c r="I47" s="16"/>
-      <c r="J47" s="17"/>
-      <c r="K47" s="15"/>
-      <c r="L47" s="16"/>
-      <c r="M47" s="16"/>
-      <c r="N47" s="17"/>
-      <c r="O47" s="15"/>
-      <c r="P47" s="16"/>
-      <c r="Q47" s="16"/>
-      <c r="R47" s="17"/>
-      <c r="S47" s="15"/>
-      <c r="T47" s="16"/>
-      <c r="U47" s="5"/>
-      <c r="V47" s="6"/>
+      <c r="C47" s="52">
+        <v>1</v>
+      </c>
+      <c r="D47" s="53">
+        <v>1</v>
+      </c>
+      <c r="E47" s="52">
+        <v>0</v>
+      </c>
+      <c r="F47" s="53">
+        <v>0</v>
+      </c>
+      <c r="G47" s="57"/>
+      <c r="H47" s="54">
+        <v>1</v>
+      </c>
+      <c r="I47" s="53">
+        <v>0</v>
+      </c>
+      <c r="J47" s="55">
+        <v>0</v>
+      </c>
+      <c r="K47" s="53">
+        <v>0</v>
+      </c>
+      <c r="L47" s="57"/>
+      <c r="M47" s="54">
+        <v>1</v>
+      </c>
+      <c r="N47" s="53">
+        <v>0</v>
+      </c>
+      <c r="O47" s="55">
+        <v>0</v>
+      </c>
+      <c r="P47" s="53">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="57"/>
+      <c r="R47" s="54">
+        <v>1</v>
+      </c>
+      <c r="S47" s="53">
+        <v>0</v>
+      </c>
+      <c r="T47" s="55">
+        <v>0</v>
+      </c>
+      <c r="U47" s="53">
+        <v>0</v>
+      </c>
+      <c r="V47" s="58"/>
+      <c r="W47" s="54">
+        <v>1</v>
+      </c>
+      <c r="X47" s="53">
+        <v>1</v>
+      </c>
+      <c r="Y47" s="55">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="56">
+        <v>0</v>
+      </c>
     </row>
-    <row r="48" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A48" s="20"/>
       <c r="B48" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C48" s="15"/>
-      <c r="D48" s="16"/>
-      <c r="E48" s="16"/>
-      <c r="F48" s="17"/>
-      <c r="G48" s="15"/>
-      <c r="H48" s="16"/>
-      <c r="I48" s="16"/>
-      <c r="J48" s="17"/>
-      <c r="K48" s="15"/>
-      <c r="L48" s="16"/>
-      <c r="M48" s="16"/>
-      <c r="N48" s="17"/>
-      <c r="O48" s="15"/>
-      <c r="P48" s="16"/>
-      <c r="Q48" s="16"/>
-      <c r="R48" s="17"/>
-      <c r="S48" s="15"/>
-      <c r="T48" s="16"/>
-      <c r="U48" s="5"/>
-      <c r="V48" s="6"/>
+      <c r="C48">
+        <v>2</v>
+      </c>
+      <c r="D48" s="17">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48" s="17">
+        <v>0</v>
+      </c>
+      <c r="G48" s="57"/>
+      <c r="H48" s="4">
+        <v>2</v>
+      </c>
+      <c r="I48" s="17">
+        <v>0</v>
+      </c>
+      <c r="J48" s="5">
+        <v>0</v>
+      </c>
+      <c r="K48" s="17">
+        <v>0</v>
+      </c>
+      <c r="L48" s="57"/>
+      <c r="M48" s="4">
+        <v>2</v>
+      </c>
+      <c r="N48" s="17">
+        <v>0</v>
+      </c>
+      <c r="O48" s="5">
+        <v>0</v>
+      </c>
+      <c r="P48" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="57"/>
+      <c r="R48" s="4">
+        <v>2</v>
+      </c>
+      <c r="S48" s="17">
+        <v>0</v>
+      </c>
+      <c r="T48" s="5">
+        <v>0</v>
+      </c>
+      <c r="U48" s="17">
+        <v>0</v>
+      </c>
+      <c r="V48" s="58"/>
+      <c r="W48" s="4">
+        <v>2</v>
+      </c>
+      <c r="X48" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y48" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z48" s="6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A49" s="21"/>
-      <c r="B49" s="10" t="s">
+      <c r="B49" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="C49" s="15"/>
-      <c r="D49" s="16"/>
-      <c r="E49" s="16"/>
-      <c r="F49" s="17"/>
-      <c r="G49" s="15"/>
-      <c r="H49" s="16"/>
-      <c r="I49" s="16"/>
-      <c r="J49" s="17"/>
-      <c r="K49" s="15"/>
-      <c r="L49" s="16"/>
-      <c r="M49" s="16"/>
-      <c r="N49" s="17"/>
-      <c r="O49" s="15"/>
-      <c r="P49" s="16"/>
-      <c r="Q49" s="16"/>
-      <c r="R49" s="17"/>
-      <c r="S49" s="15"/>
-      <c r="T49" s="16"/>
-      <c r="U49" s="5"/>
-      <c r="V49" s="6"/>
+      <c r="C49" s="52">
+        <v>19</v>
+      </c>
+      <c r="D49" s="53">
+        <v>4</v>
+      </c>
+      <c r="E49" s="52">
+        <v>3</v>
+      </c>
+      <c r="F49" s="53">
+        <v>0</v>
+      </c>
+      <c r="G49" s="57"/>
+      <c r="H49" s="54">
+        <v>19</v>
+      </c>
+      <c r="I49" s="53">
+        <v>4</v>
+      </c>
+      <c r="J49" s="55">
+        <v>3</v>
+      </c>
+      <c r="K49" s="53">
+        <v>0</v>
+      </c>
+      <c r="L49" s="57"/>
+      <c r="M49" s="54">
+        <v>19</v>
+      </c>
+      <c r="N49" s="53">
+        <v>0</v>
+      </c>
+      <c r="O49" s="55">
+        <v>3</v>
+      </c>
+      <c r="P49" s="53">
+        <v>2</v>
+      </c>
+      <c r="Q49" s="57"/>
+      <c r="R49" s="54">
+        <v>19</v>
+      </c>
+      <c r="S49" s="53">
+        <v>4</v>
+      </c>
+      <c r="T49" s="55">
+        <v>3</v>
+      </c>
+      <c r="U49" s="53">
+        <v>0</v>
+      </c>
+      <c r="V49" s="58"/>
+      <c r="W49" s="54">
+        <v>19</v>
+      </c>
+      <c r="X49" s="53">
+        <v>2</v>
+      </c>
+      <c r="Y49" s="55">
+        <v>3</v>
+      </c>
+      <c r="Z49" s="56">
+        <v>2</v>
+      </c>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A50" s="22"/>
       <c r="B50" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C50" s="15"/>
-      <c r="D50" s="16"/>
-      <c r="E50" s="16"/>
-      <c r="F50" s="17"/>
-      <c r="G50" s="15"/>
-      <c r="H50" s="16"/>
-      <c r="I50" s="16"/>
-      <c r="J50" s="17"/>
-      <c r="K50" s="15"/>
-      <c r="L50" s="16"/>
-      <c r="M50" s="16"/>
-      <c r="N50" s="17"/>
-      <c r="O50" s="15"/>
-      <c r="P50" s="16"/>
-      <c r="Q50" s="16"/>
-      <c r="R50" s="17"/>
-      <c r="S50" s="15"/>
-      <c r="T50" s="16"/>
-      <c r="U50" s="5"/>
-      <c r="V50" s="6"/>
+      <c r="C50">
+        <v>8</v>
+      </c>
+      <c r="D50" s="17">
+        <v>4</v>
+      </c>
+      <c r="E50">
+        <v>2</v>
+      </c>
+      <c r="F50" s="17">
+        <v>1</v>
+      </c>
+      <c r="G50" s="57"/>
+      <c r="H50" s="4">
+        <v>8</v>
+      </c>
+      <c r="I50" s="17">
+        <v>0</v>
+      </c>
+      <c r="J50" s="5">
+        <v>2</v>
+      </c>
+      <c r="K50" s="17">
+        <v>2</v>
+      </c>
+      <c r="L50" s="57"/>
+      <c r="M50" s="4">
+        <v>8</v>
+      </c>
+      <c r="N50" s="17">
+        <v>0</v>
+      </c>
+      <c r="O50" s="5">
+        <v>2</v>
+      </c>
+      <c r="P50" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="57"/>
+      <c r="R50" s="4">
+        <v>8</v>
+      </c>
+      <c r="S50" s="17">
+        <v>2</v>
+      </c>
+      <c r="T50" s="5">
+        <v>2</v>
+      </c>
+      <c r="U50" s="17">
+        <v>1</v>
+      </c>
+      <c r="V50" s="58"/>
+      <c r="W50" s="4">
+        <v>8</v>
+      </c>
+      <c r="X50" s="17">
+        <v>2</v>
+      </c>
+      <c r="Y50" s="5">
+        <v>2</v>
+      </c>
+      <c r="Z50" s="6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A51" s="23"/>
-      <c r="B51" s="10" t="s">
+      <c r="B51" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="C51" s="15"/>
-      <c r="D51" s="16"/>
-      <c r="E51" s="16"/>
-      <c r="F51" s="17"/>
-      <c r="G51" s="15"/>
-      <c r="H51" s="16"/>
-      <c r="I51" s="16"/>
-      <c r="J51" s="17"/>
-      <c r="K51" s="15"/>
-      <c r="L51" s="16"/>
-      <c r="M51" s="16"/>
-      <c r="N51" s="17"/>
-      <c r="O51" s="15"/>
-      <c r="P51" s="16"/>
-      <c r="Q51" s="16"/>
-      <c r="R51" s="17"/>
-      <c r="S51" s="15"/>
-      <c r="T51" s="16"/>
-      <c r="U51" s="5"/>
-      <c r="V51" s="6"/>
+      <c r="C51" s="52">
+        <v>7</v>
+      </c>
+      <c r="D51" s="53">
+        <v>3</v>
+      </c>
+      <c r="E51" s="52">
+        <v>11</v>
+      </c>
+      <c r="F51" s="53">
+        <v>3</v>
+      </c>
+      <c r="G51" s="57"/>
+      <c r="H51" s="54">
+        <v>7</v>
+      </c>
+      <c r="I51" s="53">
+        <v>3</v>
+      </c>
+      <c r="J51" s="55">
+        <v>11</v>
+      </c>
+      <c r="K51" s="53">
+        <v>6</v>
+      </c>
+      <c r="L51" s="57"/>
+      <c r="M51" s="54">
+        <v>7</v>
+      </c>
+      <c r="N51" s="53">
+        <v>0</v>
+      </c>
+      <c r="O51" s="55">
+        <v>11</v>
+      </c>
+      <c r="P51" s="53">
+        <v>3</v>
+      </c>
+      <c r="Q51" s="57"/>
+      <c r="R51" s="54">
+        <v>7</v>
+      </c>
+      <c r="S51" s="53">
+        <v>0</v>
+      </c>
+      <c r="T51" s="55">
+        <v>11</v>
+      </c>
+      <c r="U51" s="53">
+        <v>3</v>
+      </c>
+      <c r="V51" s="58"/>
+      <c r="W51" s="54">
+        <v>7</v>
+      </c>
+      <c r="X51" s="53">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="55">
+        <v>11</v>
+      </c>
+      <c r="Z51" s="56">
+        <v>0</v>
+      </c>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A52" s="39" t="s">
         <v>3</v>
       </c>
       <c r="B52" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C52" s="15"/>
-      <c r="D52" s="16"/>
-      <c r="E52" s="16"/>
-      <c r="F52" s="17"/>
-      <c r="G52" s="15"/>
-      <c r="H52" s="16"/>
-      <c r="I52" s="16"/>
-      <c r="J52" s="17"/>
-      <c r="K52" s="15"/>
-      <c r="L52" s="16"/>
-      <c r="M52" s="16"/>
-      <c r="N52" s="17"/>
-      <c r="O52" s="15"/>
-      <c r="P52" s="16"/>
-      <c r="Q52" s="16"/>
-      <c r="R52" s="17"/>
-      <c r="S52" s="15"/>
-      <c r="T52" s="16"/>
-      <c r="U52" s="5"/>
-      <c r="V52" s="6"/>
+      <c r="C52">
+        <v>9</v>
+      </c>
+      <c r="D52" s="17">
+        <v>3</v>
+      </c>
+      <c r="E52">
+        <v>4</v>
+      </c>
+      <c r="F52" s="17">
+        <v>1</v>
+      </c>
+      <c r="G52" s="57"/>
+      <c r="H52" s="4">
+        <v>9</v>
+      </c>
+      <c r="I52" s="17">
+        <v>0</v>
+      </c>
+      <c r="J52" s="5">
+        <v>4</v>
+      </c>
+      <c r="K52" s="17">
+        <v>2</v>
+      </c>
+      <c r="L52" s="57"/>
+      <c r="M52" s="4">
+        <v>9</v>
+      </c>
+      <c r="N52" s="17">
+        <v>0</v>
+      </c>
+      <c r="O52" s="5">
+        <v>4</v>
+      </c>
+      <c r="P52" s="17">
+        <v>3</v>
+      </c>
+      <c r="Q52" s="57"/>
+      <c r="R52" s="4">
+        <v>9</v>
+      </c>
+      <c r="S52" s="17">
+        <v>2</v>
+      </c>
+      <c r="T52" s="5">
+        <v>4</v>
+      </c>
+      <c r="U52" s="17">
+        <v>3</v>
+      </c>
+      <c r="V52" s="58"/>
+      <c r="W52" s="4">
+        <v>9</v>
+      </c>
+      <c r="X52" s="17">
+        <v>3</v>
+      </c>
+      <c r="Y52" s="5">
+        <v>4</v>
+      </c>
+      <c r="Z52" s="6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A53" s="25"/>
-      <c r="B53" s="10" t="s">
+      <c r="B53" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="C53" s="15"/>
-      <c r="D53" s="16"/>
-      <c r="E53" s="16"/>
-      <c r="F53" s="17"/>
-      <c r="G53" s="15"/>
-      <c r="H53" s="16"/>
-      <c r="I53" s="16"/>
-      <c r="J53" s="17"/>
-      <c r="K53" s="15"/>
-      <c r="L53" s="16"/>
-      <c r="M53" s="16"/>
-      <c r="N53" s="17"/>
-      <c r="O53" s="15"/>
-      <c r="P53" s="16"/>
-      <c r="Q53" s="16"/>
-      <c r="R53" s="17"/>
-      <c r="S53" s="15"/>
-      <c r="T53" s="16"/>
-      <c r="U53" s="5"/>
-      <c r="V53" s="6"/>
+      <c r="C53" s="52">
+        <v>17</v>
+      </c>
+      <c r="D53" s="53">
+        <v>0</v>
+      </c>
+      <c r="E53" s="52">
+        <v>15</v>
+      </c>
+      <c r="F53" s="53">
+        <v>0</v>
+      </c>
+      <c r="G53" s="57"/>
+      <c r="H53" s="54">
+        <v>17</v>
+      </c>
+      <c r="I53" s="53">
+        <v>3</v>
+      </c>
+      <c r="J53" s="55">
+        <v>15</v>
+      </c>
+      <c r="K53" s="53">
+        <v>2</v>
+      </c>
+      <c r="L53" s="57"/>
+      <c r="M53" s="54">
+        <v>17</v>
+      </c>
+      <c r="N53" s="53">
+        <v>2</v>
+      </c>
+      <c r="O53" s="55">
+        <v>15</v>
+      </c>
+      <c r="P53" s="53">
+        <v>6</v>
+      </c>
+      <c r="Q53" s="57"/>
+      <c r="R53" s="54">
+        <v>17</v>
+      </c>
+      <c r="S53" s="53">
+        <v>3</v>
+      </c>
+      <c r="T53" s="55">
+        <v>15</v>
+      </c>
+      <c r="U53" s="53">
+        <v>0</v>
+      </c>
+      <c r="V53" s="58"/>
+      <c r="W53" s="54">
+        <v>17</v>
+      </c>
+      <c r="X53" s="53">
+        <v>2</v>
+      </c>
+      <c r="Y53" s="55">
+        <v>15</v>
+      </c>
+      <c r="Z53" s="56">
+        <v>2</v>
+      </c>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A54" s="10" t="s">
         <v>29</v>
       </c>
       <c r="B54" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C54" s="15"/>
-      <c r="D54" s="16"/>
-      <c r="E54" s="16"/>
-      <c r="F54" s="17"/>
-      <c r="G54" s="15"/>
-      <c r="H54" s="16"/>
-      <c r="I54" s="16"/>
-      <c r="J54" s="17"/>
-      <c r="K54" s="15"/>
-      <c r="L54" s="16"/>
-      <c r="M54" s="16"/>
-      <c r="N54" s="17"/>
-      <c r="O54" s="15"/>
-      <c r="P54" s="16"/>
-      <c r="Q54" s="16"/>
-      <c r="R54" s="17"/>
-      <c r="S54" s="15"/>
-      <c r="T54" s="16"/>
-      <c r="U54" s="5"/>
-      <c r="V54" s="6"/>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54" s="17">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54" s="17">
+        <v>0</v>
+      </c>
+      <c r="G54" s="57"/>
+      <c r="H54" s="4">
+        <v>1</v>
+      </c>
+      <c r="I54" s="17">
+        <v>0</v>
+      </c>
+      <c r="J54" s="5">
+        <v>0</v>
+      </c>
+      <c r="K54" s="17">
+        <v>0</v>
+      </c>
+      <c r="L54" s="57"/>
+      <c r="M54" s="4">
+        <v>1</v>
+      </c>
+      <c r="N54" s="17">
+        <v>0</v>
+      </c>
+      <c r="O54" s="5">
+        <v>0</v>
+      </c>
+      <c r="P54" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="57"/>
+      <c r="R54" s="4">
+        <v>1</v>
+      </c>
+      <c r="S54" s="17">
+        <v>0</v>
+      </c>
+      <c r="T54" s="5">
+        <v>0</v>
+      </c>
+      <c r="U54" s="17">
+        <v>0</v>
+      </c>
+      <c r="V54" s="58"/>
+      <c r="W54" s="4">
+        <v>1</v>
+      </c>
+      <c r="X54" s="17">
+        <v>1</v>
+      </c>
+      <c r="Y54" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z54" s="6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A55" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B55" s="10" t="s">
+      <c r="B55" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="C55" s="15"/>
-      <c r="D55" s="16"/>
-      <c r="E55" s="16"/>
-      <c r="F55" s="17"/>
-      <c r="G55" s="15"/>
-      <c r="H55" s="16"/>
-      <c r="I55" s="16"/>
-      <c r="J55" s="17"/>
-      <c r="K55" s="15"/>
-      <c r="L55" s="16"/>
-      <c r="M55" s="16"/>
-      <c r="N55" s="17"/>
-      <c r="O55" s="15"/>
-      <c r="P55" s="16"/>
-      <c r="Q55" s="16"/>
-      <c r="R55" s="17"/>
-      <c r="S55" s="15"/>
-      <c r="T55" s="16"/>
-      <c r="U55" s="5"/>
-      <c r="V55" s="6"/>
+      <c r="C55" s="52">
+        <v>2</v>
+      </c>
+      <c r="D55" s="53">
+        <v>1</v>
+      </c>
+      <c r="E55" s="52">
+        <v>0</v>
+      </c>
+      <c r="F55" s="53">
+        <v>0</v>
+      </c>
+      <c r="G55" s="57"/>
+      <c r="H55" s="54">
+        <v>2</v>
+      </c>
+      <c r="I55" s="53">
+        <v>2</v>
+      </c>
+      <c r="J55" s="55">
+        <v>0</v>
+      </c>
+      <c r="K55" s="53">
+        <v>0</v>
+      </c>
+      <c r="L55" s="57"/>
+      <c r="M55" s="54">
+        <v>2</v>
+      </c>
+      <c r="N55" s="53">
+        <v>0</v>
+      </c>
+      <c r="O55" s="55">
+        <v>0</v>
+      </c>
+      <c r="P55" s="53">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="57"/>
+      <c r="R55" s="54">
+        <v>2</v>
+      </c>
+      <c r="S55" s="53">
+        <v>0</v>
+      </c>
+      <c r="T55" s="55">
+        <v>0</v>
+      </c>
+      <c r="U55" s="53">
+        <v>0</v>
+      </c>
+      <c r="V55" s="58"/>
+      <c r="W55" s="54">
+        <v>2</v>
+      </c>
+      <c r="X55" s="53">
+        <v>0</v>
+      </c>
+      <c r="Y55" s="55">
+        <v>0</v>
+      </c>
+      <c r="Z55" s="56">
+        <v>0</v>
+      </c>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A56" s="27" t="s">
         <v>9</v>
       </c>
       <c r="B56" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C56" s="15"/>
-      <c r="D56" s="16"/>
-      <c r="E56" s="16"/>
-      <c r="F56" s="17"/>
-      <c r="G56" s="15"/>
-      <c r="H56" s="16"/>
-      <c r="I56" s="16"/>
-      <c r="J56" s="17"/>
-      <c r="K56" s="15"/>
-      <c r="L56" s="16"/>
-      <c r="M56" s="16"/>
-      <c r="N56" s="17"/>
-      <c r="O56" s="15"/>
-      <c r="P56" s="16"/>
-      <c r="Q56" s="16"/>
-      <c r="R56" s="17"/>
-      <c r="S56" s="15"/>
-      <c r="T56" s="16"/>
-      <c r="U56" s="5"/>
-      <c r="V56" s="6"/>
+      <c r="C56">
+        <v>13</v>
+      </c>
+      <c r="D56" s="17">
+        <v>3</v>
+      </c>
+      <c r="E56">
+        <v>9</v>
+      </c>
+      <c r="F56" s="17">
+        <v>2</v>
+      </c>
+      <c r="G56" s="57"/>
+      <c r="H56" s="4">
+        <v>13</v>
+      </c>
+      <c r="I56" s="17">
+        <v>0</v>
+      </c>
+      <c r="J56" s="5">
+        <v>9</v>
+      </c>
+      <c r="K56" s="17">
+        <v>0</v>
+      </c>
+      <c r="L56" s="57"/>
+      <c r="M56" s="4">
+        <v>13</v>
+      </c>
+      <c r="N56" s="17">
+        <v>0</v>
+      </c>
+      <c r="O56" s="5">
+        <v>9</v>
+      </c>
+      <c r="P56" s="17">
+        <v>2</v>
+      </c>
+      <c r="Q56" s="57"/>
+      <c r="R56" s="4">
+        <v>13</v>
+      </c>
+      <c r="S56" s="17">
+        <v>3</v>
+      </c>
+      <c r="T56" s="5">
+        <v>9</v>
+      </c>
+      <c r="U56" s="17">
+        <v>6</v>
+      </c>
+      <c r="V56" s="58"/>
+      <c r="W56" s="4">
+        <v>13</v>
+      </c>
+      <c r="X56" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y56" s="5">
+        <v>9</v>
+      </c>
+      <c r="Z56" s="6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A57" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B57" s="10" t="s">
+      <c r="B57" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="C57" s="15"/>
-      <c r="D57" s="16"/>
-      <c r="E57" s="16"/>
-      <c r="F57" s="17"/>
-      <c r="G57" s="15"/>
-      <c r="H57" s="16"/>
-      <c r="I57" s="16"/>
-      <c r="J57" s="17"/>
-      <c r="K57" s="15"/>
-      <c r="L57" s="16"/>
-      <c r="M57" s="16"/>
-      <c r="N57" s="17"/>
-      <c r="O57" s="15"/>
-      <c r="P57" s="16"/>
-      <c r="Q57" s="16"/>
-      <c r="R57" s="17"/>
-      <c r="S57" s="15"/>
-      <c r="T57" s="16"/>
-      <c r="U57" s="5"/>
-      <c r="V57" s="6"/>
+      <c r="C57" s="52">
+        <v>1</v>
+      </c>
+      <c r="D57" s="53">
+        <v>1</v>
+      </c>
+      <c r="E57" s="52">
+        <v>2</v>
+      </c>
+      <c r="F57" s="53">
+        <v>0</v>
+      </c>
+      <c r="G57" s="57"/>
+      <c r="H57" s="54">
+        <v>1</v>
+      </c>
+      <c r="I57" s="53">
+        <v>0</v>
+      </c>
+      <c r="J57" s="55">
+        <v>2</v>
+      </c>
+      <c r="K57" s="53">
+        <v>1</v>
+      </c>
+      <c r="L57" s="57"/>
+      <c r="M57" s="54">
+        <v>1</v>
+      </c>
+      <c r="N57" s="53">
+        <v>0</v>
+      </c>
+      <c r="O57" s="55">
+        <v>2</v>
+      </c>
+      <c r="P57" s="53">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="57"/>
+      <c r="R57" s="54">
+        <v>1</v>
+      </c>
+      <c r="S57" s="53">
+        <v>0</v>
+      </c>
+      <c r="T57" s="55">
+        <v>2</v>
+      </c>
+      <c r="U57" s="53">
+        <v>0</v>
+      </c>
+      <c r="V57" s="58"/>
+      <c r="W57" s="54">
+        <v>1</v>
+      </c>
+      <c r="X57" s="53">
+        <v>1</v>
+      </c>
+      <c r="Y57" s="55">
+        <v>2</v>
+      </c>
+      <c r="Z57" s="56">
+        <v>0</v>
+      </c>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A58" s="29"/>
       <c r="B58" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C58" s="15"/>
-      <c r="D58" s="16"/>
-      <c r="E58" s="16"/>
-      <c r="F58" s="17"/>
-      <c r="G58" s="15"/>
-      <c r="H58" s="16"/>
-      <c r="I58" s="16"/>
-      <c r="J58" s="17"/>
-      <c r="K58" s="15"/>
-      <c r="L58" s="16"/>
-      <c r="M58" s="16"/>
-      <c r="N58" s="17"/>
-      <c r="O58" s="15"/>
-      <c r="P58" s="16"/>
-      <c r="Q58" s="16"/>
-      <c r="R58" s="17"/>
-      <c r="S58" s="15"/>
-      <c r="T58" s="16"/>
-      <c r="U58" s="5"/>
-      <c r="V58" s="6"/>
+      <c r="C58">
+        <v>5</v>
+      </c>
+      <c r="D58" s="17">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>4</v>
+      </c>
+      <c r="F58" s="17">
+        <v>2</v>
+      </c>
+      <c r="G58" s="57"/>
+      <c r="H58" s="4">
+        <v>5</v>
+      </c>
+      <c r="I58" s="17">
+        <v>1</v>
+      </c>
+      <c r="J58" s="5">
+        <v>4</v>
+      </c>
+      <c r="K58" s="17">
+        <v>4</v>
+      </c>
+      <c r="L58" s="57"/>
+      <c r="M58" s="4">
+        <v>5</v>
+      </c>
+      <c r="N58" s="17">
+        <v>0</v>
+      </c>
+      <c r="O58" s="5">
+        <v>4</v>
+      </c>
+      <c r="P58" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="57"/>
+      <c r="R58" s="4">
+        <v>5</v>
+      </c>
+      <c r="S58" s="17">
+        <v>0</v>
+      </c>
+      <c r="T58" s="5">
+        <v>4</v>
+      </c>
+      <c r="U58" s="17">
+        <v>3</v>
+      </c>
+      <c r="V58" s="58"/>
+      <c r="W58" s="4">
+        <v>5</v>
+      </c>
+      <c r="X58" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y58" s="5">
+        <v>4</v>
+      </c>
+      <c r="Z58" s="6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A59" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="B59" s="10" t="s">
+      <c r="B59" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="C59" s="15"/>
-      <c r="D59" s="16"/>
-      <c r="E59" s="16"/>
-      <c r="F59" s="17"/>
-      <c r="G59" s="15"/>
-      <c r="H59" s="16"/>
-      <c r="I59" s="16"/>
-      <c r="J59" s="17"/>
-      <c r="K59" s="15"/>
-      <c r="L59" s="16"/>
-      <c r="M59" s="16"/>
-      <c r="N59" s="17"/>
-      <c r="O59" s="15"/>
-      <c r="P59" s="16"/>
-      <c r="Q59" s="16"/>
-      <c r="R59" s="17"/>
-      <c r="S59" s="15"/>
-      <c r="T59" s="16"/>
-      <c r="U59" s="5"/>
-      <c r="V59" s="6"/>
+      <c r="C59" s="52">
+        <v>6</v>
+      </c>
+      <c r="D59" s="53">
+        <v>2</v>
+      </c>
+      <c r="E59" s="52">
+        <v>2</v>
+      </c>
+      <c r="F59" s="53">
+        <v>0</v>
+      </c>
+      <c r="G59" s="57"/>
+      <c r="H59" s="54">
+        <v>6</v>
+      </c>
+      <c r="I59" s="53">
+        <v>1</v>
+      </c>
+      <c r="J59" s="55">
+        <v>2</v>
+      </c>
+      <c r="K59" s="53">
+        <v>1</v>
+      </c>
+      <c r="L59" s="57"/>
+      <c r="M59" s="54">
+        <v>6</v>
+      </c>
+      <c r="N59" s="53">
+        <v>0</v>
+      </c>
+      <c r="O59" s="55">
+        <v>2</v>
+      </c>
+      <c r="P59" s="53">
+        <v>2</v>
+      </c>
+      <c r="Q59" s="57"/>
+      <c r="R59" s="54">
+        <v>6</v>
+      </c>
+      <c r="S59" s="53">
+        <v>0</v>
+      </c>
+      <c r="T59" s="55">
+        <v>2</v>
+      </c>
+      <c r="U59" s="53">
+        <v>0</v>
+      </c>
+      <c r="V59" s="58"/>
+      <c r="W59" s="54">
+        <v>6</v>
+      </c>
+      <c r="X59" s="53">
+        <v>3</v>
+      </c>
+      <c r="Y59" s="55">
+        <v>2</v>
+      </c>
+      <c r="Z59" s="56">
+        <v>0</v>
+      </c>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A60" s="31"/>
       <c r="B60" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C60" s="15"/>
-      <c r="D60" s="16"/>
-      <c r="E60" s="16"/>
-      <c r="F60" s="17"/>
-      <c r="G60" s="15"/>
-      <c r="H60" s="16"/>
-      <c r="I60" s="16"/>
-      <c r="J60" s="17"/>
-      <c r="K60" s="15"/>
-      <c r="L60" s="16"/>
-      <c r="M60" s="16"/>
-      <c r="N60" s="17"/>
-      <c r="O60" s="15"/>
-      <c r="P60" s="16"/>
-      <c r="Q60" s="16"/>
-      <c r="R60" s="17"/>
-      <c r="S60" s="15"/>
-      <c r="T60" s="16"/>
-      <c r="U60" s="5"/>
-      <c r="V60" s="6"/>
+      <c r="C60">
+        <v>4</v>
+      </c>
+      <c r="D60" s="17">
+        <v>2</v>
+      </c>
+      <c r="E60">
+        <v>16</v>
+      </c>
+      <c r="F60" s="17">
+        <v>5</v>
+      </c>
+      <c r="G60" s="57"/>
+      <c r="H60" s="4">
+        <v>4</v>
+      </c>
+      <c r="I60" s="17">
+        <v>0</v>
+      </c>
+      <c r="J60" s="5">
+        <v>16</v>
+      </c>
+      <c r="K60" s="17">
+        <v>2</v>
+      </c>
+      <c r="L60" s="57"/>
+      <c r="M60" s="4">
+        <v>4</v>
+      </c>
+      <c r="N60" s="17">
+        <v>0</v>
+      </c>
+      <c r="O60" s="5">
+        <v>16</v>
+      </c>
+      <c r="P60" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="57"/>
+      <c r="R60" s="4">
+        <v>4</v>
+      </c>
+      <c r="S60" s="17">
+        <v>0</v>
+      </c>
+      <c r="T60" s="5">
+        <v>16</v>
+      </c>
+      <c r="U60" s="17">
+        <v>3</v>
+      </c>
+      <c r="V60" s="58"/>
+      <c r="W60" s="4">
+        <v>4</v>
+      </c>
+      <c r="X60" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y60" s="5">
+        <v>16</v>
+      </c>
+      <c r="Z60" s="6">
+        <v>2</v>
+      </c>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A61" s="32"/>
-      <c r="B61" s="10" t="s">
+      <c r="B61" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="C61" s="15"/>
-      <c r="D61" s="16"/>
-      <c r="E61" s="16"/>
-      <c r="F61" s="17"/>
-      <c r="G61" s="15"/>
-      <c r="H61" s="16"/>
-      <c r="I61" s="16"/>
-      <c r="J61" s="17"/>
-      <c r="K61" s="15"/>
-      <c r="L61" s="16"/>
-      <c r="M61" s="16"/>
-      <c r="N61" s="17"/>
-      <c r="O61" s="15"/>
-      <c r="P61" s="16"/>
-      <c r="Q61" s="16"/>
-      <c r="R61" s="17"/>
-      <c r="S61" s="15"/>
-      <c r="T61" s="16"/>
-      <c r="U61" s="5"/>
-      <c r="V61" s="6"/>
+      <c r="C61" s="52">
+        <v>1</v>
+      </c>
+      <c r="D61" s="53">
+        <v>1</v>
+      </c>
+      <c r="E61" s="52">
+        <v>3</v>
+      </c>
+      <c r="F61" s="53">
+        <v>1</v>
+      </c>
+      <c r="G61" s="57"/>
+      <c r="H61" s="54">
+        <v>1</v>
+      </c>
+      <c r="I61" s="53">
+        <v>0</v>
+      </c>
+      <c r="J61" s="55">
+        <v>3</v>
+      </c>
+      <c r="K61" s="53">
+        <v>1</v>
+      </c>
+      <c r="L61" s="57"/>
+      <c r="M61" s="54">
+        <v>1</v>
+      </c>
+      <c r="N61" s="53">
+        <v>0</v>
+      </c>
+      <c r="O61" s="55">
+        <v>3</v>
+      </c>
+      <c r="P61" s="53">
+        <v>1</v>
+      </c>
+      <c r="Q61" s="57"/>
+      <c r="R61" s="54">
+        <v>1</v>
+      </c>
+      <c r="S61" s="53">
+        <v>0</v>
+      </c>
+      <c r="T61" s="55">
+        <v>3</v>
+      </c>
+      <c r="U61" s="53">
+        <v>0</v>
+      </c>
+      <c r="V61" s="58"/>
+      <c r="W61" s="54">
+        <v>1</v>
+      </c>
+      <c r="X61" s="53">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="55">
+        <v>3</v>
+      </c>
+      <c r="Z61" s="56">
+        <v>0</v>
+      </c>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A62" s="33"/>
       <c r="B62" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C62" s="34"/>
-      <c r="D62" s="35"/>
-      <c r="E62" s="35"/>
-      <c r="F62" s="36"/>
-      <c r="G62" s="34"/>
-      <c r="H62" s="35"/>
-      <c r="I62" s="35"/>
-      <c r="J62" s="36"/>
-      <c r="K62" s="34"/>
-      <c r="L62" s="35"/>
-      <c r="M62" s="35"/>
-      <c r="N62" s="36"/>
-      <c r="O62" s="34"/>
-      <c r="P62" s="35"/>
-      <c r="Q62" s="35"/>
-      <c r="R62" s="36"/>
-      <c r="S62" s="34"/>
-      <c r="T62" s="35"/>
-      <c r="U62" s="8"/>
-      <c r="V62" s="9"/>
+      <c r="C62" s="8">
+        <v>0</v>
+      </c>
+      <c r="D62" s="36">
+        <v>0</v>
+      </c>
+      <c r="E62" s="8">
+        <v>3</v>
+      </c>
+      <c r="F62" s="36">
+        <v>0</v>
+      </c>
+      <c r="G62" s="57"/>
+      <c r="H62" s="7">
+        <v>0</v>
+      </c>
+      <c r="I62" s="36">
+        <v>0</v>
+      </c>
+      <c r="J62" s="8">
+        <v>3</v>
+      </c>
+      <c r="K62" s="36">
+        <v>1</v>
+      </c>
+      <c r="L62" s="57"/>
+      <c r="M62" s="7">
+        <v>0</v>
+      </c>
+      <c r="N62" s="36">
+        <v>0</v>
+      </c>
+      <c r="O62" s="8">
+        <v>3</v>
+      </c>
+      <c r="P62" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="57"/>
+      <c r="R62" s="7">
+        <v>0</v>
+      </c>
+      <c r="S62" s="36">
+        <v>0</v>
+      </c>
+      <c r="T62" s="8">
+        <v>3</v>
+      </c>
+      <c r="U62" s="36">
+        <v>0</v>
+      </c>
+      <c r="V62" s="58"/>
+      <c r="W62" s="7">
+        <v>0</v>
+      </c>
+      <c r="X62" s="36">
+        <v>0</v>
+      </c>
+      <c r="Y62" s="8">
+        <v>3</v>
+      </c>
+      <c r="Z62" s="9">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="K42:N42"/>
-    <mergeCell ref="O42:R42"/>
-    <mergeCell ref="S42:V42"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="O43:P43"/>
-    <mergeCell ref="Q43:R43"/>
-    <mergeCell ref="S43:T43"/>
-    <mergeCell ref="U43:V43"/>
-    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="W42:Z42"/>
+    <mergeCell ref="W43:X43"/>
+    <mergeCell ref="Y43:Z43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="H42:K42"/>
     <mergeCell ref="C43:D43"/>
     <mergeCell ref="E43:F43"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="G42:J42"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="M42:P42"/>
+    <mergeCell ref="R43:S43"/>
+    <mergeCell ref="T43:U43"/>
+    <mergeCell ref="O43:P43"/>
+    <mergeCell ref="R42:U42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/Findings.xlsx
+++ b/Findings.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="38">
   <si>
     <t>Farbe</t>
   </si>
@@ -136,12 +136,15 @@
   <si>
     <t>Pflichtbewusstsein</t>
   </si>
+  <si>
+    <t>x</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,8 +160,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="22">
+  <fills count="26">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -285,6 +294,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -378,7 +411,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -519,7 +552,6 @@
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -530,6 +562,52 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -2066,7 +2144,7 @@
     <sheetView tabSelected="1" topLeftCell="A39" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozenSplit"/>
       <selection sqref="A1 C1:C1048576"/>
-      <selection pane="topRight" activeCell="AE48" sqref="AE48"/>
+      <selection pane="topRight" activeCell="I55" sqref="I55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5245,68 +5323,56 @@
       <c r="B45" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="C45" s="52">
+      <c r="C45" s="53">
         <v>3</v>
       </c>
-      <c r="D45" s="53">
-        <v>1</v>
-      </c>
-      <c r="E45" s="52">
+      <c r="D45" s="52">
+        <v>1</v>
+      </c>
+      <c r="E45" s="54">
         <v>3</v>
       </c>
-      <c r="F45" s="53">
-        <v>2</v>
-      </c>
-      <c r="G45" s="57"/>
-      <c r="H45" s="54">
+      <c r="F45" s="61">
+        <v>2</v>
+      </c>
+      <c r="G45" s="56"/>
+      <c r="H45" s="53">
         <v>3</v>
       </c>
-      <c r="I45" s="53">
-        <v>1</v>
-      </c>
-      <c r="J45" s="55">
+      <c r="I45" s="52">
+        <v>1</v>
+      </c>
+      <c r="J45" s="54">
         <v>3</v>
       </c>
-      <c r="K45" s="53">
-        <v>2</v>
-      </c>
-      <c r="L45" s="57"/>
-      <c r="M45" s="54">
+      <c r="K45" s="61">
+        <v>2</v>
+      </c>
+      <c r="L45" s="56"/>
+      <c r="M45" s="53"/>
+      <c r="N45" s="52"/>
+      <c r="O45" s="54"/>
+      <c r="P45" s="52"/>
+      <c r="Q45" s="56"/>
+      <c r="R45" s="53"/>
+      <c r="S45" s="52"/>
+      <c r="T45" s="54">
         <v>3</v>
       </c>
-      <c r="N45" s="53">
-        <v>0</v>
-      </c>
-      <c r="O45" s="55">
+      <c r="U45" s="52">
+        <v>1</v>
+      </c>
+      <c r="V45" s="57"/>
+      <c r="W45" s="53">
         <v>3</v>
       </c>
-      <c r="P45" s="53">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="57"/>
-      <c r="R45" s="54">
+      <c r="X45" s="52">
+        <v>1</v>
+      </c>
+      <c r="Y45" s="54">
         <v>3</v>
       </c>
-      <c r="S45" s="53">
-        <v>0</v>
-      </c>
-      <c r="T45" s="55">
-        <v>3</v>
-      </c>
-      <c r="U45" s="53">
-        <v>1</v>
-      </c>
-      <c r="V45" s="58"/>
-      <c r="W45" s="54">
-        <v>3</v>
-      </c>
-      <c r="X45" s="53">
-        <v>1</v>
-      </c>
-      <c r="Y45" s="55">
-        <v>3</v>
-      </c>
-      <c r="Z45" s="56">
+      <c r="Z45" s="55">
         <v>1</v>
       </c>
     </row>
@@ -5315,69 +5381,53 @@
       <c r="B46" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="4">
         <v>10</v>
       </c>
       <c r="D46" s="17">
         <v>2</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="5">
         <v>7</v>
       </c>
       <c r="F46" s="17">
         <v>2</v>
       </c>
-      <c r="G46" s="57"/>
-      <c r="H46" s="4">
-        <v>10</v>
-      </c>
-      <c r="I46" s="17">
-        <v>0</v>
-      </c>
+      <c r="G46" s="56"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="17"/>
       <c r="J46" s="5">
         <v>7</v>
       </c>
       <c r="K46" s="17">
         <v>1</v>
       </c>
-      <c r="L46" s="57"/>
-      <c r="M46" s="4">
-        <v>10</v>
-      </c>
-      <c r="N46" s="17">
-        <v>0</v>
-      </c>
+      <c r="L46" s="56"/>
+      <c r="M46" s="4"/>
+      <c r="N46" s="17"/>
       <c r="O46" s="5">
         <v>7</v>
       </c>
       <c r="P46" s="17">
         <v>2</v>
       </c>
-      <c r="Q46" s="57"/>
-      <c r="R46" s="4">
-        <v>10</v>
-      </c>
-      <c r="S46" s="17">
-        <v>0</v>
-      </c>
-      <c r="T46" s="5">
-        <v>7</v>
-      </c>
-      <c r="U46" s="17">
-        <v>0</v>
-      </c>
-      <c r="V46" s="58"/>
-      <c r="W46" s="4">
-        <v>10</v>
-      </c>
-      <c r="X46" s="17">
-        <v>0</v>
-      </c>
-      <c r="Y46" s="5">
-        <v>7</v>
-      </c>
-      <c r="Z46" s="6">
-        <v>0</v>
+      <c r="Q46" s="56"/>
+      <c r="R46" s="4"/>
+      <c r="S46" s="17"/>
+      <c r="T46" s="5"/>
+      <c r="U46" s="17"/>
+      <c r="V46" s="57"/>
+      <c r="W46" s="64" t="s">
+        <v>37</v>
+      </c>
+      <c r="X46" s="59" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y46" s="63" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z46" s="60" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="47" spans="1:50" x14ac:dyDescent="0.35">
@@ -5385,255 +5435,155 @@
       <c r="B47" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="C47" s="52">
-        <v>1</v>
-      </c>
-      <c r="D47" s="53">
-        <v>1</v>
-      </c>
-      <c r="E47" s="52">
-        <v>0</v>
-      </c>
-      <c r="F47" s="53">
-        <v>0</v>
-      </c>
-      <c r="G47" s="57"/>
-      <c r="H47" s="54">
-        <v>1</v>
-      </c>
-      <c r="I47" s="53">
-        <v>0</v>
-      </c>
-      <c r="J47" s="55">
-        <v>0</v>
-      </c>
-      <c r="K47" s="53">
-        <v>0</v>
-      </c>
-      <c r="L47" s="57"/>
-      <c r="M47" s="54">
-        <v>1</v>
-      </c>
-      <c r="N47" s="53">
-        <v>0</v>
-      </c>
-      <c r="O47" s="55">
-        <v>0</v>
-      </c>
-      <c r="P47" s="53">
-        <v>0</v>
-      </c>
-      <c r="Q47" s="57"/>
-      <c r="R47" s="54">
-        <v>1</v>
-      </c>
-      <c r="S47" s="53">
-        <v>0</v>
-      </c>
-      <c r="T47" s="55">
-        <v>0</v>
-      </c>
-      <c r="U47" s="53">
-        <v>0</v>
-      </c>
-      <c r="V47" s="58"/>
-      <c r="W47" s="54">
-        <v>1</v>
-      </c>
-      <c r="X47" s="53">
-        <v>1</v>
-      </c>
-      <c r="Y47" s="55">
-        <v>0</v>
-      </c>
-      <c r="Z47" s="56">
-        <v>0</v>
-      </c>
+      <c r="C47" s="53">
+        <v>1</v>
+      </c>
+      <c r="D47" s="52">
+        <v>1</v>
+      </c>
+      <c r="E47" s="54"/>
+      <c r="F47" s="52"/>
+      <c r="G47" s="56"/>
+      <c r="H47" s="53"/>
+      <c r="I47" s="52"/>
+      <c r="J47" s="54"/>
+      <c r="K47" s="52"/>
+      <c r="L47" s="56"/>
+      <c r="M47" s="53"/>
+      <c r="N47" s="52"/>
+      <c r="O47" s="54"/>
+      <c r="P47" s="52"/>
+      <c r="Q47" s="56"/>
+      <c r="R47" s="53"/>
+      <c r="S47" s="52"/>
+      <c r="T47" s="54"/>
+      <c r="U47" s="52"/>
+      <c r="V47" s="57"/>
+      <c r="W47" s="53">
+        <v>1</v>
+      </c>
+      <c r="X47" s="52">
+        <v>1</v>
+      </c>
+      <c r="Y47" s="54"/>
+      <c r="Z47" s="55"/>
     </row>
     <row r="48" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A48" s="20"/>
       <c r="B48" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C48">
-        <v>2</v>
-      </c>
-      <c r="D48" s="17">
-        <v>0</v>
-      </c>
-      <c r="E48">
-        <v>0</v>
-      </c>
-      <c r="F48" s="17">
-        <v>0</v>
-      </c>
-      <c r="G48" s="57"/>
-      <c r="H48" s="4">
-        <v>2</v>
-      </c>
-      <c r="I48" s="17">
-        <v>0</v>
-      </c>
-      <c r="J48" s="5">
-        <v>0</v>
-      </c>
-      <c r="K48" s="17">
-        <v>0</v>
-      </c>
-      <c r="L48" s="57"/>
-      <c r="M48" s="4">
-        <v>2</v>
-      </c>
-      <c r="N48" s="17">
-        <v>0</v>
-      </c>
-      <c r="O48" s="5">
-        <v>0</v>
-      </c>
-      <c r="P48" s="17">
-        <v>0</v>
-      </c>
-      <c r="Q48" s="57"/>
-      <c r="R48" s="4">
-        <v>2</v>
-      </c>
-      <c r="S48" s="17">
-        <v>0</v>
-      </c>
-      <c r="T48" s="5">
-        <v>0</v>
-      </c>
-      <c r="U48" s="17">
-        <v>0</v>
-      </c>
-      <c r="V48" s="58"/>
-      <c r="W48" s="4">
-        <v>2</v>
-      </c>
-      <c r="X48" s="17">
-        <v>0</v>
-      </c>
-      <c r="Y48" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z48" s="6">
-        <v>0</v>
-      </c>
+      <c r="C48" s="4"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="17"/>
+      <c r="G48" s="56"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="17"/>
+      <c r="J48" s="5"/>
+      <c r="K48" s="17"/>
+      <c r="L48" s="56"/>
+      <c r="M48" s="4"/>
+      <c r="N48" s="17"/>
+      <c r="O48" s="5"/>
+      <c r="P48" s="17"/>
+      <c r="Q48" s="56"/>
+      <c r="R48" s="4"/>
+      <c r="S48" s="17"/>
+      <c r="T48" s="5"/>
+      <c r="U48" s="17"/>
+      <c r="V48" s="57"/>
+      <c r="W48" s="4"/>
+      <c r="X48" s="17"/>
+      <c r="Y48" s="5"/>
+      <c r="Z48" s="6"/>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A49" s="21"/>
       <c r="B49" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="C49" s="52">
+      <c r="C49" s="53">
         <v>19</v>
       </c>
-      <c r="D49" s="53">
+      <c r="D49" s="52">
         <v>4</v>
       </c>
-      <c r="E49" s="52">
+      <c r="E49" s="54"/>
+      <c r="F49" s="52"/>
+      <c r="G49" s="56"/>
+      <c r="H49" s="53">
+        <v>19</v>
+      </c>
+      <c r="I49" s="52">
+        <v>4</v>
+      </c>
+      <c r="J49" s="54"/>
+      <c r="K49" s="52"/>
+      <c r="L49" s="56"/>
+      <c r="M49" s="53"/>
+      <c r="N49" s="52"/>
+      <c r="O49" s="54">
         <v>3</v>
       </c>
-      <c r="F49" s="53">
-        <v>0</v>
-      </c>
-      <c r="G49" s="57"/>
-      <c r="H49" s="54">
+      <c r="P49" s="61">
+        <v>2</v>
+      </c>
+      <c r="Q49" s="56"/>
+      <c r="R49" s="53">
         <v>19</v>
       </c>
-      <c r="I49" s="53">
+      <c r="S49" s="52">
         <v>4</v>
       </c>
-      <c r="J49" s="55">
+      <c r="T49" s="54"/>
+      <c r="U49" s="52"/>
+      <c r="V49" s="57"/>
+      <c r="W49" s="53">
+        <v>19</v>
+      </c>
+      <c r="X49" s="52">
+        <v>2</v>
+      </c>
+      <c r="Y49" s="54">
         <v>3</v>
       </c>
-      <c r="K49" s="53">
-        <v>0</v>
-      </c>
-      <c r="L49" s="57"/>
-      <c r="M49" s="54">
-        <v>19</v>
-      </c>
-      <c r="N49" s="53">
-        <v>0</v>
-      </c>
-      <c r="O49" s="55">
-        <v>3</v>
-      </c>
-      <c r="P49" s="53">
-        <v>2</v>
-      </c>
-      <c r="Q49" s="57"/>
-      <c r="R49" s="54">
-        <v>19</v>
-      </c>
-      <c r="S49" s="53">
-        <v>4</v>
-      </c>
-      <c r="T49" s="55">
-        <v>3</v>
-      </c>
-      <c r="U49" s="53">
-        <v>0</v>
-      </c>
-      <c r="V49" s="58"/>
-      <c r="W49" s="54">
-        <v>19</v>
-      </c>
-      <c r="X49" s="53">
-        <v>2</v>
-      </c>
-      <c r="Y49" s="55">
-        <v>3</v>
-      </c>
-      <c r="Z49" s="56">
+      <c r="Z49" s="62">
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A50" s="22"/>
       <c r="B50" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="4">
         <v>8</v>
       </c>
-      <c r="D50" s="17">
+      <c r="D50" s="61">
         <v>4</v>
       </c>
-      <c r="E50">
-        <v>2</v>
-      </c>
-      <c r="F50" s="17">
-        <v>1</v>
-      </c>
-      <c r="G50" s="57"/>
-      <c r="H50" s="4">
-        <v>8</v>
-      </c>
-      <c r="I50" s="17">
-        <v>0</v>
-      </c>
+      <c r="E50" s="5">
+        <v>2</v>
+      </c>
+      <c r="F50" s="61">
+        <v>1</v>
+      </c>
+      <c r="G50" s="56"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="17"/>
       <c r="J50" s="5">
         <v>2</v>
       </c>
       <c r="K50" s="17">
         <v>2</v>
       </c>
-      <c r="L50" s="57"/>
-      <c r="M50" s="4">
-        <v>8</v>
-      </c>
-      <c r="N50" s="17">
-        <v>0</v>
-      </c>
-      <c r="O50" s="5">
-        <v>2</v>
-      </c>
-      <c r="P50" s="17">
-        <v>0</v>
-      </c>
-      <c r="Q50" s="57"/>
+      <c r="L50" s="56"/>
+      <c r="M50" s="4"/>
+      <c r="N50" s="17"/>
+      <c r="O50" s="5"/>
+      <c r="P50" s="17"/>
+      <c r="Q50" s="56"/>
       <c r="R50" s="4">
         <v>8</v>
       </c>
@@ -5646,136 +5596,112 @@
       <c r="U50" s="17">
         <v>1</v>
       </c>
-      <c r="V50" s="58"/>
+      <c r="V50" s="57"/>
       <c r="W50" s="4">
         <v>8</v>
       </c>
       <c r="X50" s="17">
         <v>2</v>
       </c>
-      <c r="Y50" s="5">
-        <v>2</v>
-      </c>
-      <c r="Z50" s="6">
-        <v>0</v>
-      </c>
+      <c r="Y50" s="5"/>
+      <c r="Z50" s="6"/>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A51" s="23"/>
       <c r="B51" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="C51" s="52">
+      <c r="C51" s="53">
         <v>7</v>
       </c>
-      <c r="D51" s="53">
+      <c r="D51" s="61">
         <v>3</v>
       </c>
-      <c r="E51" s="52">
+      <c r="E51" s="54">
         <v>11</v>
       </c>
-      <c r="F51" s="53">
+      <c r="F51" s="52">
         <v>3</v>
       </c>
-      <c r="G51" s="57"/>
-      <c r="H51" s="54">
+      <c r="G51" s="56"/>
+      <c r="H51" s="53">
         <v>7</v>
       </c>
-      <c r="I51" s="53">
+      <c r="I51" s="61">
         <v>3</v>
       </c>
-      <c r="J51" s="55">
+      <c r="J51" s="54">
         <v>11</v>
       </c>
-      <c r="K51" s="53">
+      <c r="K51" s="69">
         <v>6</v>
       </c>
-      <c r="L51" s="57"/>
-      <c r="M51" s="54">
-        <v>7</v>
-      </c>
-      <c r="N51" s="53">
-        <v>0</v>
-      </c>
-      <c r="O51" s="55">
+      <c r="L51" s="56"/>
+      <c r="M51" s="53"/>
+      <c r="N51" s="52"/>
+      <c r="O51" s="54">
         <v>11</v>
       </c>
-      <c r="P51" s="53">
+      <c r="P51" s="68">
         <v>3</v>
       </c>
-      <c r="Q51" s="57"/>
-      <c r="R51" s="54">
-        <v>7</v>
-      </c>
-      <c r="S51" s="53">
-        <v>0</v>
-      </c>
-      <c r="T51" s="55">
-        <v>11</v>
-      </c>
-      <c r="U51" s="53">
-        <v>3</v>
-      </c>
-      <c r="V51" s="58"/>
-      <c r="W51" s="54">
-        <v>7</v>
-      </c>
-      <c r="X51" s="53">
-        <v>0</v>
-      </c>
-      <c r="Y51" s="55">
-        <v>11</v>
-      </c>
-      <c r="Z51" s="56">
-        <v>0</v>
-      </c>
+      <c r="Q51" s="56"/>
+      <c r="R51" s="66" t="s">
+        <v>37</v>
+      </c>
+      <c r="S51" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="T51" s="65" t="s">
+        <v>37</v>
+      </c>
+      <c r="U51" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="V51" s="57"/>
+      <c r="W51" s="53"/>
+      <c r="X51" s="52"/>
+      <c r="Y51" s="54"/>
+      <c r="Z51" s="55"/>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A52" s="39" t="s">
         <v>3</v>
       </c>
       <c r="B52" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="4">
         <v>9</v>
       </c>
       <c r="D52" s="17">
         <v>3</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="5">
         <v>4</v>
       </c>
       <c r="F52" s="17">
         <v>1</v>
       </c>
-      <c r="G52" s="57"/>
-      <c r="H52" s="4">
-        <v>9</v>
-      </c>
-      <c r="I52" s="17">
-        <v>0</v>
-      </c>
+      <c r="G52" s="56"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="17"/>
       <c r="J52" s="5">
         <v>4</v>
       </c>
-      <c r="K52" s="17">
-        <v>2</v>
-      </c>
-      <c r="L52" s="57"/>
-      <c r="M52" s="4">
-        <v>9</v>
-      </c>
-      <c r="N52" s="17">
-        <v>0</v>
-      </c>
+      <c r="K52" s="61">
+        <v>2</v>
+      </c>
+      <c r="L52" s="56"/>
+      <c r="M52" s="4"/>
+      <c r="N52" s="17"/>
       <c r="O52" s="5">
         <v>4</v>
       </c>
-      <c r="P52" s="17">
+      <c r="P52" s="61">
         <v>3</v>
       </c>
-      <c r="Q52" s="57"/>
+      <c r="Q52" s="56"/>
       <c r="R52" s="4">
         <v>9</v>
       </c>
@@ -5785,283 +5711,205 @@
       <c r="T52" s="5">
         <v>4</v>
       </c>
-      <c r="U52" s="17">
+      <c r="U52" s="61">
         <v>3</v>
       </c>
-      <c r="V52" s="58"/>
+      <c r="V52" s="57"/>
       <c r="W52" s="4">
         <v>9</v>
       </c>
       <c r="X52" s="17">
         <v>3</v>
       </c>
-      <c r="Y52" s="5">
-        <v>4</v>
-      </c>
-      <c r="Z52" s="6">
-        <v>0</v>
-      </c>
+      <c r="Y52" s="5"/>
+      <c r="Z52" s="6"/>
+      <c r="AE52" s="5"/>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A53" s="25"/>
       <c r="B53" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="C53" s="52">
+      <c r="C53" s="65" t="s">
+        <v>37</v>
+      </c>
+      <c r="D53" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="E53" s="66" t="s">
+        <v>37</v>
+      </c>
+      <c r="F53" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="G53" s="56"/>
+      <c r="H53" s="53">
         <v>17</v>
       </c>
-      <c r="D53" s="53">
-        <v>0</v>
-      </c>
-      <c r="E53" s="52">
+      <c r="I53" s="52">
+        <v>3</v>
+      </c>
+      <c r="J53" s="54">
         <v>15</v>
       </c>
-      <c r="F53" s="53">
-        <v>0</v>
-      </c>
-      <c r="G53" s="57"/>
-      <c r="H53" s="54">
+      <c r="K53" s="52">
+        <v>2</v>
+      </c>
+      <c r="L53" s="56"/>
+      <c r="M53" s="53">
         <v>17</v>
       </c>
-      <c r="I53" s="53">
+      <c r="N53" s="52">
+        <v>2</v>
+      </c>
+      <c r="O53" s="54">
+        <v>15</v>
+      </c>
+      <c r="P53" s="71">
+        <v>5</v>
+      </c>
+      <c r="Q53" s="56"/>
+      <c r="R53" s="53">
+        <v>17</v>
+      </c>
+      <c r="S53" s="52">
         <v>3</v>
       </c>
-      <c r="J53" s="55">
+      <c r="T53" s="54"/>
+      <c r="U53" s="52"/>
+      <c r="V53" s="57"/>
+      <c r="W53" s="53">
+        <v>17</v>
+      </c>
+      <c r="X53" s="52">
+        <v>2</v>
+      </c>
+      <c r="Y53" s="54">
         <v>15</v>
       </c>
-      <c r="K53" s="53">
-        <v>2</v>
-      </c>
-      <c r="L53" s="57"/>
-      <c r="M53" s="54">
-        <v>17</v>
-      </c>
-      <c r="N53" s="53">
-        <v>2</v>
-      </c>
-      <c r="O53" s="55">
-        <v>15</v>
-      </c>
-      <c r="P53" s="53">
-        <v>6</v>
-      </c>
-      <c r="Q53" s="57"/>
-      <c r="R53" s="54">
-        <v>17</v>
-      </c>
-      <c r="S53" s="53">
-        <v>3</v>
-      </c>
-      <c r="T53" s="55">
-        <v>15</v>
-      </c>
-      <c r="U53" s="53">
-        <v>0</v>
-      </c>
-      <c r="V53" s="58"/>
-      <c r="W53" s="54">
-        <v>17</v>
-      </c>
-      <c r="X53" s="53">
-        <v>2</v>
-      </c>
-      <c r="Y53" s="55">
-        <v>15</v>
-      </c>
-      <c r="Z53" s="56">
+      <c r="Z53" s="55">
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A54" s="10" t="s">
         <v>29</v>
       </c>
       <c r="B54" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C54">
-        <v>1</v>
-      </c>
-      <c r="D54" s="17">
-        <v>0</v>
-      </c>
-      <c r="E54">
-        <v>0</v>
-      </c>
-      <c r="F54" s="17">
-        <v>0</v>
-      </c>
-      <c r="G54" s="57"/>
-      <c r="H54" s="4">
-        <v>1</v>
-      </c>
-      <c r="I54" s="17">
-        <v>0</v>
-      </c>
-      <c r="J54" s="5">
-        <v>0</v>
-      </c>
-      <c r="K54" s="17">
-        <v>0</v>
-      </c>
-      <c r="L54" s="57"/>
-      <c r="M54" s="4">
-        <v>1</v>
-      </c>
-      <c r="N54" s="17">
-        <v>0</v>
-      </c>
-      <c r="O54" s="5">
-        <v>0</v>
-      </c>
-      <c r="P54" s="17">
-        <v>0</v>
-      </c>
-      <c r="Q54" s="57"/>
-      <c r="R54" s="4">
-        <v>1</v>
-      </c>
-      <c r="S54" s="17">
-        <v>0</v>
-      </c>
-      <c r="T54" s="5">
-        <v>0</v>
-      </c>
-      <c r="U54" s="17">
-        <v>0</v>
-      </c>
-      <c r="V54" s="58"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="17"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="17"/>
+      <c r="G54" s="56"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="17"/>
+      <c r="J54" s="5"/>
+      <c r="K54" s="17"/>
+      <c r="L54" s="56"/>
+      <c r="M54" s="4"/>
+      <c r="N54" s="17"/>
+      <c r="O54" s="5"/>
+      <c r="P54" s="17"/>
+      <c r="Q54" s="56"/>
+      <c r="R54" s="4"/>
+      <c r="S54" s="17"/>
+      <c r="T54" s="5"/>
+      <c r="U54" s="17"/>
+      <c r="V54" s="57"/>
       <c r="W54" s="4">
         <v>1</v>
       </c>
       <c r="X54" s="17">
         <v>1</v>
       </c>
-      <c r="Y54" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z54" s="6">
-        <v>0</v>
-      </c>
+      <c r="Y54" s="5"/>
+      <c r="Z54" s="6"/>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A55" s="26" t="s">
         <v>7</v>
       </c>
       <c r="B55" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="C55" s="52">
-        <v>2</v>
-      </c>
-      <c r="D55" s="53">
-        <v>1</v>
-      </c>
-      <c r="E55" s="52">
-        <v>0</v>
-      </c>
-      <c r="F55" s="53">
-        <v>0</v>
-      </c>
-      <c r="G55" s="57"/>
-      <c r="H55" s="54">
-        <v>2</v>
-      </c>
-      <c r="I55" s="53">
-        <v>2</v>
-      </c>
-      <c r="J55" s="55">
-        <v>0</v>
-      </c>
-      <c r="K55" s="53">
-        <v>0</v>
-      </c>
-      <c r="L55" s="57"/>
-      <c r="M55" s="54">
-        <v>2</v>
-      </c>
-      <c r="N55" s="53">
-        <v>0</v>
-      </c>
-      <c r="O55" s="55">
-        <v>0</v>
-      </c>
-      <c r="P55" s="53">
-        <v>0</v>
-      </c>
-      <c r="Q55" s="57"/>
-      <c r="R55" s="54">
-        <v>2</v>
-      </c>
-      <c r="S55" s="53">
-        <v>0</v>
-      </c>
-      <c r="T55" s="55">
-        <v>0</v>
-      </c>
-      <c r="U55" s="53">
-        <v>0</v>
-      </c>
-      <c r="V55" s="58"/>
-      <c r="W55" s="54">
-        <v>2</v>
-      </c>
-      <c r="X55" s="53">
-        <v>0</v>
-      </c>
-      <c r="Y55" s="55">
-        <v>0</v>
-      </c>
-      <c r="Z55" s="56">
-        <v>0</v>
-      </c>
+      <c r="C55" s="53">
+        <v>2</v>
+      </c>
+      <c r="D55" s="52">
+        <v>1</v>
+      </c>
+      <c r="E55" s="54"/>
+      <c r="F55" s="52"/>
+      <c r="G55" s="56"/>
+      <c r="H55" s="53">
+        <v>2</v>
+      </c>
+      <c r="I55" s="52">
+        <v>2</v>
+      </c>
+      <c r="J55" s="54"/>
+      <c r="K55" s="52"/>
+      <c r="L55" s="56"/>
+      <c r="M55" s="53"/>
+      <c r="N55" s="52"/>
+      <c r="O55" s="54"/>
+      <c r="P55" s="52"/>
+      <c r="Q55" s="56"/>
+      <c r="R55" s="53"/>
+      <c r="S55" s="52"/>
+      <c r="T55" s="54"/>
+      <c r="U55" s="52"/>
+      <c r="V55" s="57"/>
+      <c r="W55" s="53"/>
+      <c r="X55" s="52"/>
+      <c r="Y55" s="54"/>
+      <c r="Z55" s="55"/>
+      <c r="AF55" s="5"/>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A56" s="27" t="s">
         <v>9</v>
       </c>
       <c r="B56" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="4">
         <v>13</v>
       </c>
-      <c r="D56" s="17">
+      <c r="D56" s="67">
         <v>3</v>
       </c>
-      <c r="E56">
+      <c r="E56" s="5">
         <v>9</v>
       </c>
-      <c r="F56" s="17">
-        <v>2</v>
-      </c>
-      <c r="G56" s="57"/>
-      <c r="H56" s="4">
-        <v>13</v>
-      </c>
-      <c r="I56" s="17">
-        <v>0</v>
-      </c>
-      <c r="J56" s="5">
-        <v>9</v>
-      </c>
-      <c r="K56" s="17">
-        <v>0</v>
-      </c>
-      <c r="L56" s="57"/>
-      <c r="M56" s="4">
-        <v>13</v>
-      </c>
-      <c r="N56" s="17">
-        <v>0</v>
-      </c>
+      <c r="F56" s="67">
+        <v>2</v>
+      </c>
+      <c r="G56" s="56"/>
+      <c r="H56" s="64" t="s">
+        <v>37</v>
+      </c>
+      <c r="I56" s="59" t="s">
+        <v>37</v>
+      </c>
+      <c r="J56" s="63" t="s">
+        <v>37</v>
+      </c>
+      <c r="K56" s="59" t="s">
+        <v>37</v>
+      </c>
+      <c r="L56" s="56"/>
+      <c r="M56" s="4"/>
+      <c r="N56" s="17"/>
       <c r="O56" s="5">
         <v>9</v>
       </c>
-      <c r="P56" s="17">
-        <v>2</v>
-      </c>
-      <c r="Q56" s="57"/>
+      <c r="P56" s="68">
+        <v>2</v>
+      </c>
+      <c r="Q56" s="56"/>
       <c r="R56" s="4">
         <v>13</v>
       </c>
@@ -6071,16 +5919,12 @@
       <c r="T56" s="5">
         <v>9</v>
       </c>
-      <c r="U56" s="17">
+      <c r="U56" s="70">
         <v>6</v>
       </c>
-      <c r="V56" s="58"/>
-      <c r="W56" s="4">
-        <v>13</v>
-      </c>
-      <c r="X56" s="17">
-        <v>0</v>
-      </c>
+      <c r="V56" s="57"/>
+      <c r="W56" s="4"/>
+      <c r="X56" s="17"/>
       <c r="Y56" s="5">
         <v>9</v>
       </c>
@@ -6088,96 +5932,64 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A57" s="28" t="s">
         <v>14</v>
       </c>
       <c r="B57" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="C57" s="52">
-        <v>1</v>
-      </c>
-      <c r="D57" s="53">
-        <v>1</v>
-      </c>
-      <c r="E57" s="52">
-        <v>2</v>
-      </c>
-      <c r="F57" s="53">
-        <v>0</v>
-      </c>
-      <c r="G57" s="57"/>
-      <c r="H57" s="54">
-        <v>1</v>
-      </c>
-      <c r="I57" s="53">
-        <v>0</v>
-      </c>
-      <c r="J57" s="55">
-        <v>2</v>
-      </c>
-      <c r="K57" s="53">
-        <v>1</v>
-      </c>
-      <c r="L57" s="57"/>
-      <c r="M57" s="54">
-        <v>1</v>
-      </c>
-      <c r="N57" s="53">
-        <v>0</v>
-      </c>
-      <c r="O57" s="55">
-        <v>2</v>
-      </c>
-      <c r="P57" s="53">
-        <v>0</v>
-      </c>
-      <c r="Q57" s="57"/>
-      <c r="R57" s="54">
-        <v>1</v>
-      </c>
-      <c r="S57" s="53">
-        <v>0</v>
-      </c>
-      <c r="T57" s="55">
-        <v>2</v>
-      </c>
-      <c r="U57" s="53">
-        <v>0</v>
-      </c>
-      <c r="V57" s="58"/>
-      <c r="W57" s="54">
-        <v>1</v>
-      </c>
-      <c r="X57" s="53">
-        <v>1</v>
-      </c>
-      <c r="Y57" s="55">
-        <v>2</v>
-      </c>
-      <c r="Z57" s="56">
-        <v>0</v>
-      </c>
+      <c r="C57" s="53">
+        <v>1</v>
+      </c>
+      <c r="D57" s="52">
+        <v>1</v>
+      </c>
+      <c r="E57" s="54"/>
+      <c r="F57" s="52"/>
+      <c r="G57" s="56"/>
+      <c r="H57" s="53"/>
+      <c r="I57" s="52"/>
+      <c r="J57" s="54">
+        <v>2</v>
+      </c>
+      <c r="K57" s="52">
+        <v>1</v>
+      </c>
+      <c r="L57" s="56"/>
+      <c r="M57" s="53"/>
+      <c r="N57" s="52"/>
+      <c r="O57" s="54"/>
+      <c r="P57" s="52"/>
+      <c r="Q57" s="56"/>
+      <c r="R57" s="53"/>
+      <c r="S57" s="52"/>
+      <c r="T57" s="54"/>
+      <c r="U57" s="52"/>
+      <c r="V57" s="57"/>
+      <c r="W57" s="53">
+        <v>1</v>
+      </c>
+      <c r="X57" s="52">
+        <v>1</v>
+      </c>
+      <c r="Y57" s="54"/>
+      <c r="Z57" s="55"/>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A58" s="29"/>
       <c r="B58" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C58">
-        <v>5</v>
-      </c>
-      <c r="D58" s="17">
-        <v>0</v>
-      </c>
-      <c r="E58">
+      <c r="C58" s="4"/>
+      <c r="D58" s="17"/>
+      <c r="E58" s="5">
         <v>4</v>
       </c>
       <c r="F58" s="17">
         <v>2</v>
       </c>
-      <c r="G58" s="57"/>
+      <c r="G58" s="56"/>
       <c r="H58" s="4">
         <v>5</v>
       </c>
@@ -6187,184 +5999,132 @@
       <c r="J58" s="5">
         <v>4</v>
       </c>
-      <c r="K58" s="17">
+      <c r="K58" s="70">
         <v>4</v>
       </c>
-      <c r="L58" s="57"/>
-      <c r="M58" s="4">
-        <v>5</v>
-      </c>
-      <c r="N58" s="17">
-        <v>0</v>
-      </c>
-      <c r="O58" s="5">
-        <v>4</v>
-      </c>
-      <c r="P58" s="17">
-        <v>0</v>
-      </c>
-      <c r="Q58" s="57"/>
-      <c r="R58" s="4">
-        <v>5</v>
-      </c>
-      <c r="S58" s="17">
-        <v>0</v>
-      </c>
+      <c r="L58" s="56"/>
+      <c r="M58" s="4"/>
+      <c r="N58" s="17"/>
+      <c r="O58" s="5"/>
+      <c r="P58" s="17"/>
+      <c r="Q58" s="56"/>
+      <c r="R58" s="4"/>
+      <c r="S58" s="17"/>
       <c r="T58" s="5">
         <v>4</v>
       </c>
-      <c r="U58" s="17">
+      <c r="U58" s="70">
         <v>3</v>
       </c>
-      <c r="V58" s="58"/>
-      <c r="W58" s="4">
-        <v>5</v>
-      </c>
-      <c r="X58" s="17">
-        <v>0</v>
-      </c>
-      <c r="Y58" s="5">
-        <v>4</v>
-      </c>
-      <c r="Z58" s="6">
-        <v>0</v>
-      </c>
+      <c r="V58" s="57"/>
+      <c r="W58" s="4"/>
+      <c r="X58" s="17"/>
+      <c r="Y58" s="5"/>
+      <c r="Z58" s="6"/>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A59" s="30" t="s">
         <v>21</v>
       </c>
       <c r="B59" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="C59" s="52">
+      <c r="C59" s="53">
         <v>6</v>
       </c>
-      <c r="D59" s="53">
-        <v>2</v>
-      </c>
-      <c r="E59" s="52">
-        <v>2</v>
-      </c>
-      <c r="F59" s="53">
-        <v>0</v>
-      </c>
-      <c r="G59" s="57"/>
-      <c r="H59" s="54">
+      <c r="D59" s="52">
+        <v>2</v>
+      </c>
+      <c r="E59" s="54"/>
+      <c r="F59" s="52"/>
+      <c r="G59" s="56"/>
+      <c r="H59" s="53">
         <v>6</v>
       </c>
-      <c r="I59" s="53">
-        <v>1</v>
-      </c>
-      <c r="J59" s="55">
-        <v>2</v>
-      </c>
-      <c r="K59" s="53">
-        <v>1</v>
-      </c>
-      <c r="L59" s="57"/>
-      <c r="M59" s="54">
+      <c r="I59" s="52">
+        <v>1</v>
+      </c>
+      <c r="J59" s="54">
+        <v>2</v>
+      </c>
+      <c r="K59" s="52">
+        <v>1</v>
+      </c>
+      <c r="L59" s="56"/>
+      <c r="M59" s="53"/>
+      <c r="N59" s="52"/>
+      <c r="O59" s="54">
+        <v>2</v>
+      </c>
+      <c r="P59" s="61">
+        <v>2</v>
+      </c>
+      <c r="Q59" s="56"/>
+      <c r="R59" s="53"/>
+      <c r="S59" s="52"/>
+      <c r="T59" s="54"/>
+      <c r="U59" s="52"/>
+      <c r="V59" s="57"/>
+      <c r="W59" s="53">
         <v>6</v>
       </c>
-      <c r="N59" s="53">
-        <v>0</v>
-      </c>
-      <c r="O59" s="55">
-        <v>2</v>
-      </c>
-      <c r="P59" s="53">
-        <v>2</v>
-      </c>
-      <c r="Q59" s="57"/>
-      <c r="R59" s="54">
-        <v>6</v>
-      </c>
-      <c r="S59" s="53">
-        <v>0</v>
-      </c>
-      <c r="T59" s="55">
-        <v>2</v>
-      </c>
-      <c r="U59" s="53">
-        <v>0</v>
-      </c>
-      <c r="V59" s="58"/>
-      <c r="W59" s="54">
-        <v>6</v>
-      </c>
-      <c r="X59" s="53">
+      <c r="X59" s="61">
         <v>3</v>
       </c>
-      <c r="Y59" s="55">
-        <v>2</v>
-      </c>
-      <c r="Z59" s="56">
-        <v>0</v>
-      </c>
+      <c r="Y59" s="54"/>
+      <c r="Z59" s="55"/>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A60" s="31"/>
       <c r="B60" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="4">
         <v>4</v>
       </c>
-      <c r="D60" s="17">
-        <v>2</v>
-      </c>
-      <c r="E60">
+      <c r="D60" s="71">
+        <v>2</v>
+      </c>
+      <c r="E60" s="5">
         <v>16</v>
       </c>
       <c r="F60" s="17">
         <v>5</v>
       </c>
-      <c r="G60" s="57"/>
-      <c r="H60" s="4">
-        <v>4</v>
-      </c>
-      <c r="I60" s="17">
-        <v>0</v>
-      </c>
+      <c r="G60" s="56"/>
+      <c r="H60" s="4"/>
+      <c r="I60" s="17"/>
       <c r="J60" s="5">
         <v>16</v>
       </c>
-      <c r="K60" s="17">
-        <v>2</v>
-      </c>
-      <c r="L60" s="57"/>
-      <c r="M60" s="4">
-        <v>4</v>
-      </c>
-      <c r="N60" s="17">
-        <v>0</v>
-      </c>
-      <c r="O60" s="5">
-        <v>16</v>
-      </c>
-      <c r="P60" s="17">
-        <v>0</v>
-      </c>
-      <c r="Q60" s="57"/>
-      <c r="R60" s="4">
-        <v>4</v>
-      </c>
-      <c r="S60" s="17">
-        <v>0</v>
-      </c>
+      <c r="K60" s="68">
+        <v>2</v>
+      </c>
+      <c r="L60" s="56"/>
+      <c r="M60" s="64" t="s">
+        <v>37</v>
+      </c>
+      <c r="N60" s="59" t="s">
+        <v>37</v>
+      </c>
+      <c r="O60" s="63" t="s">
+        <v>37</v>
+      </c>
+      <c r="P60" s="59" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q60" s="56"/>
+      <c r="R60" s="4"/>
+      <c r="S60" s="17"/>
       <c r="T60" s="5">
         <v>16</v>
       </c>
-      <c r="U60" s="17">
+      <c r="U60" s="68">
         <v>3</v>
       </c>
-      <c r="V60" s="58"/>
-      <c r="W60" s="4">
-        <v>4</v>
-      </c>
-      <c r="X60" s="17">
-        <v>0</v>
-      </c>
+      <c r="V60" s="57"/>
+      <c r="W60" s="4"/>
+      <c r="X60" s="17"/>
       <c r="Y60" s="5">
         <v>16</v>
       </c>
@@ -6372,145 +6132,85 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A61" s="32"/>
       <c r="B61" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="C61" s="52">
-        <v>1</v>
-      </c>
-      <c r="D61" s="53">
-        <v>1</v>
-      </c>
-      <c r="E61" s="52">
+      <c r="C61" s="53">
+        <v>1</v>
+      </c>
+      <c r="D61" s="52">
+        <v>1</v>
+      </c>
+      <c r="E61" s="54">
         <v>3</v>
       </c>
-      <c r="F61" s="53">
-        <v>1</v>
-      </c>
-      <c r="G61" s="57"/>
-      <c r="H61" s="54">
-        <v>1</v>
-      </c>
-      <c r="I61" s="53">
-        <v>0</v>
-      </c>
-      <c r="J61" s="55">
+      <c r="F61" s="52">
+        <v>1</v>
+      </c>
+      <c r="G61" s="56"/>
+      <c r="H61" s="53"/>
+      <c r="I61" s="52"/>
+      <c r="J61" s="54">
         <v>3</v>
       </c>
-      <c r="K61" s="53">
-        <v>1</v>
-      </c>
-      <c r="L61" s="57"/>
-      <c r="M61" s="54">
-        <v>1</v>
-      </c>
-      <c r="N61" s="53">
-        <v>0</v>
-      </c>
-      <c r="O61" s="55">
+      <c r="K61" s="52">
+        <v>1</v>
+      </c>
+      <c r="L61" s="56"/>
+      <c r="M61" s="53"/>
+      <c r="N61" s="52"/>
+      <c r="O61" s="54">
         <v>3</v>
       </c>
-      <c r="P61" s="53">
-        <v>1</v>
-      </c>
-      <c r="Q61" s="57"/>
-      <c r="R61" s="54">
-        <v>1</v>
-      </c>
-      <c r="S61" s="53">
-        <v>0</v>
-      </c>
-      <c r="T61" s="55">
-        <v>3</v>
-      </c>
-      <c r="U61" s="53">
-        <v>0</v>
-      </c>
-      <c r="V61" s="58"/>
-      <c r="W61" s="54">
-        <v>1</v>
-      </c>
-      <c r="X61" s="53">
-        <v>0</v>
-      </c>
-      <c r="Y61" s="55">
-        <v>3</v>
-      </c>
-      <c r="Z61" s="56">
-        <v>0</v>
-      </c>
+      <c r="P61" s="52">
+        <v>1</v>
+      </c>
+      <c r="Q61" s="56"/>
+      <c r="R61" s="53"/>
+      <c r="S61" s="52"/>
+      <c r="T61" s="54"/>
+      <c r="U61" s="52"/>
+      <c r="V61" s="57"/>
+      <c r="W61" s="53"/>
+      <c r="X61" s="52"/>
+      <c r="Y61" s="54"/>
+      <c r="Z61" s="55"/>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A62" s="33"/>
       <c r="B62" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C62" s="8">
-        <v>0</v>
-      </c>
-      <c r="D62" s="36">
-        <v>0</v>
-      </c>
-      <c r="E62" s="8">
-        <v>3</v>
-      </c>
-      <c r="F62" s="36">
-        <v>0</v>
-      </c>
-      <c r="G62" s="57"/>
-      <c r="H62" s="7">
-        <v>0</v>
-      </c>
-      <c r="I62" s="36">
-        <v>0</v>
-      </c>
+      <c r="C62" s="7"/>
+      <c r="D62" s="36"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="36"/>
+      <c r="G62" s="56"/>
+      <c r="H62" s="7"/>
+      <c r="I62" s="36"/>
       <c r="J62" s="8">
         <v>3</v>
       </c>
       <c r="K62" s="36">
         <v>1</v>
       </c>
-      <c r="L62" s="57"/>
-      <c r="M62" s="7">
-        <v>0</v>
-      </c>
-      <c r="N62" s="36">
-        <v>0</v>
-      </c>
-      <c r="O62" s="8">
-        <v>3</v>
-      </c>
-      <c r="P62" s="36">
-        <v>0</v>
-      </c>
-      <c r="Q62" s="57"/>
-      <c r="R62" s="7">
-        <v>0</v>
-      </c>
-      <c r="S62" s="36">
-        <v>0</v>
-      </c>
-      <c r="T62" s="8">
-        <v>3</v>
-      </c>
-      <c r="U62" s="36">
-        <v>0</v>
-      </c>
-      <c r="V62" s="58"/>
-      <c r="W62" s="7">
-        <v>0</v>
-      </c>
-      <c r="X62" s="36">
-        <v>0</v>
-      </c>
-      <c r="Y62" s="8">
-        <v>3</v>
-      </c>
-      <c r="Z62" s="9">
-        <v>0</v>
-      </c>
+      <c r="L62" s="56"/>
+      <c r="M62" s="7"/>
+      <c r="N62" s="36"/>
+      <c r="O62" s="8"/>
+      <c r="P62" s="36"/>
+      <c r="Q62" s="56"/>
+      <c r="R62" s="7"/>
+      <c r="S62" s="36"/>
+      <c r="T62" s="8"/>
+      <c r="U62" s="36"/>
+      <c r="V62" s="57"/>
+      <c r="W62" s="7"/>
+      <c r="X62" s="36"/>
+      <c r="Y62" s="8"/>
+      <c r="Z62" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="15">

--- a/Findings.xlsx
+++ b/Findings.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17426"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17531"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Astrid\Dropbox\Laclau Mouffe\HA_RuG\"/>
@@ -525,30 +525,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -606,6 +582,30 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -2141,10 +2141,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozenSplit"/>
       <selection sqref="A1 C1:C1048576"/>
-      <selection pane="topRight" activeCell="I55" sqref="I55"/>
+      <selection pane="topRight" activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3859,7 +3859,7 @@
         <v>3</v>
       </c>
       <c r="AV23">
-        <f>SUM(C2:BA2)</f>
+        <f t="shared" ref="AV23:AV40" si="1">SUM(C2:BA2)</f>
         <v>3</v>
       </c>
       <c r="AW23">
@@ -3940,7 +3940,7 @@
         <v>7</v>
       </c>
       <c r="AV24">
-        <f>SUM(C3:BA3)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="AW24">
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="AV25">
-        <f>SUM(C4:BA4)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AW25">
@@ -4072,7 +4072,7 @@
         <v>0</v>
       </c>
       <c r="AV26">
-        <f>SUM(C5:BA5)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="AW26">
@@ -4145,7 +4145,7 @@
         <v>3</v>
       </c>
       <c r="AV27">
-        <f>SUM(C6:BA6)</f>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="AW27">
@@ -4216,7 +4216,7 @@
         <v>2</v>
       </c>
       <c r="AV28">
-        <f>SUM(C7:BA7)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="AW28">
@@ -4303,7 +4303,7 @@
         <v>11</v>
       </c>
       <c r="AV29">
-        <f>SUM(C8:BA8)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="AW29">
@@ -4378,7 +4378,7 @@
         <v>4</v>
       </c>
       <c r="AV30">
-        <f>SUM(C9:BA9)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="AW30">
@@ -4473,7 +4473,7 @@
         <v>15</v>
       </c>
       <c r="AV31">
-        <f>SUM(C10:BA10)</f>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="AW31">
@@ -4539,7 +4539,7 @@
         <v>0</v>
       </c>
       <c r="AV32">
-        <f>SUM(C11:BA11)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AW32">
@@ -4607,7 +4607,7 @@
         <v>0</v>
       </c>
       <c r="AV33">
-        <f>SUM(C12:BA12)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="AW33">
@@ -4685,14 +4685,14 @@
       <c r="AR34" s="5"/>
       <c r="AS34" s="6"/>
       <c r="AT34">
-        <f>SUM(C34:AS34)</f>
+        <f t="shared" ref="AT34:AT40" si="2">SUM(C34:AS34)</f>
         <v>9</v>
       </c>
       <c r="AU34">
         <v>9</v>
       </c>
       <c r="AV34">
-        <f>SUM(C13:BA13)</f>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="AW34">
@@ -4758,14 +4758,14 @@
       <c r="AR35" s="5"/>
       <c r="AS35" s="6"/>
       <c r="AT35">
-        <f>SUM(C35:AS35)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AU35">
         <v>2</v>
       </c>
       <c r="AV35">
-        <f>SUM(C14:BA14)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AW35">
@@ -4833,14 +4833,14 @@
       <c r="AR36" s="5"/>
       <c r="AS36" s="6"/>
       <c r="AT36">
-        <f>SUM(C36:AS36)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="AU36">
         <v>4</v>
       </c>
       <c r="AV36">
-        <f>SUM(C15:BA15)</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="AW36">
@@ -4906,14 +4906,14 @@
       </c>
       <c r="AS37" s="6"/>
       <c r="AT37">
-        <f>SUM(C37:AS37)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AU37">
         <v>2</v>
       </c>
       <c r="AV37">
-        <f>SUM(C16:BA16)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="AW37">
@@ -5003,14 +5003,14 @@
       </c>
       <c r="AS38" s="6"/>
       <c r="AT38">
-        <f>SUM(C38:AS38)</f>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="AU38">
         <v>16</v>
       </c>
       <c r="AV38">
-        <f>SUM(C17:BA17)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="AW38">
@@ -5076,14 +5076,14 @@
       <c r="AR39" s="5"/>
       <c r="AS39" s="6"/>
       <c r="AT39">
-        <f>SUM(C39:AS39)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="AU39">
         <v>3</v>
       </c>
       <c r="AV39">
-        <f>SUM(C18:BA18)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AW39">
@@ -5149,14 +5149,14 @@
       <c r="AR40" s="8"/>
       <c r="AS40" s="9"/>
       <c r="AT40">
-        <f>SUM(C40:AS40)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="AU40">
         <v>3</v>
       </c>
       <c r="AV40">
-        <f>SUM(C19:BA19)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AW40">
@@ -5182,78 +5182,78 @@
       </c>
     </row>
     <row r="42" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="C42" s="45" t="s">
+      <c r="C42" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="D42" s="46"/>
-      <c r="E42" s="46"/>
-      <c r="F42" s="47"/>
-      <c r="H42" s="45" t="s">
+      <c r="D42" s="67"/>
+      <c r="E42" s="67"/>
+      <c r="F42" s="68"/>
+      <c r="H42" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="I42" s="46"/>
-      <c r="J42" s="46"/>
-      <c r="K42" s="47"/>
-      <c r="M42" s="45" t="s">
+      <c r="I42" s="67"/>
+      <c r="J42" s="67"/>
+      <c r="K42" s="68"/>
+      <c r="M42" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="N42" s="46"/>
-      <c r="O42" s="46"/>
-      <c r="P42" s="47"/>
-      <c r="R42" s="45" t="s">
+      <c r="N42" s="67"/>
+      <c r="O42" s="67"/>
+      <c r="P42" s="68"/>
+      <c r="R42" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="S42" s="46"/>
-      <c r="T42" s="46"/>
-      <c r="U42" s="47"/>
-      <c r="W42" s="45" t="s">
+      <c r="S42" s="67"/>
+      <c r="T42" s="67"/>
+      <c r="U42" s="68"/>
+      <c r="W42" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="X42" s="46"/>
-      <c r="Y42" s="46"/>
-      <c r="Z42" s="47"/>
+      <c r="X42" s="67"/>
+      <c r="Y42" s="67"/>
+      <c r="Z42" s="68"/>
     </row>
     <row r="43" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="C43" s="48">
+      <c r="C43" s="69">
         <v>36</v>
       </c>
-      <c r="D43" s="49"/>
-      <c r="E43" s="49">
+      <c r="D43" s="71"/>
+      <c r="E43" s="71">
         <v>41</v>
       </c>
-      <c r="F43" s="50"/>
-      <c r="H43" s="48">
+      <c r="F43" s="70"/>
+      <c r="H43" s="69">
         <v>36</v>
       </c>
-      <c r="I43" s="50"/>
-      <c r="J43" s="48">
+      <c r="I43" s="70"/>
+      <c r="J43" s="69">
         <v>41</v>
       </c>
-      <c r="K43" s="50"/>
-      <c r="M43" s="48">
+      <c r="K43" s="70"/>
+      <c r="M43" s="69">
         <v>36</v>
       </c>
-      <c r="N43" s="50"/>
-      <c r="O43" s="48">
+      <c r="N43" s="70"/>
+      <c r="O43" s="69">
         <v>41</v>
       </c>
-      <c r="P43" s="50"/>
-      <c r="R43" s="48">
+      <c r="P43" s="70"/>
+      <c r="R43" s="69">
         <v>36</v>
       </c>
-      <c r="S43" s="50"/>
-      <c r="T43" s="48">
+      <c r="S43" s="70"/>
+      <c r="T43" s="69">
         <v>41</v>
       </c>
-      <c r="U43" s="50"/>
-      <c r="W43" s="48">
+      <c r="U43" s="70"/>
+      <c r="W43" s="69">
         <v>36</v>
       </c>
-      <c r="X43" s="50"/>
-      <c r="Y43" s="48">
+      <c r="X43" s="70"/>
+      <c r="Y43" s="69">
         <v>41</v>
       </c>
-      <c r="Z43" s="50"/>
+      <c r="Z43" s="70"/>
     </row>
     <row r="44" spans="1:50" x14ac:dyDescent="0.35">
       <c r="B44" s="41"/>
@@ -5320,59 +5320,59 @@
     </row>
     <row r="45" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A45" s="14"/>
-      <c r="B45" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="C45" s="53">
+      <c r="B45" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" s="47">
         <v>3</v>
       </c>
-      <c r="D45" s="52">
-        <v>1</v>
-      </c>
-      <c r="E45" s="54">
+      <c r="D45" s="46">
+        <v>1</v>
+      </c>
+      <c r="E45" s="48">
         <v>3</v>
       </c>
-      <c r="F45" s="61">
-        <v>2</v>
-      </c>
-      <c r="G45" s="56"/>
-      <c r="H45" s="53">
+      <c r="F45" s="55">
+        <v>2</v>
+      </c>
+      <c r="G45" s="50"/>
+      <c r="H45" s="47">
         <v>3</v>
       </c>
-      <c r="I45" s="52">
-        <v>1</v>
-      </c>
-      <c r="J45" s="54">
+      <c r="I45" s="46">
+        <v>1</v>
+      </c>
+      <c r="J45" s="48">
         <v>3</v>
       </c>
-      <c r="K45" s="61">
-        <v>2</v>
-      </c>
-      <c r="L45" s="56"/>
-      <c r="M45" s="53"/>
-      <c r="N45" s="52"/>
-      <c r="O45" s="54"/>
-      <c r="P45" s="52"/>
-      <c r="Q45" s="56"/>
-      <c r="R45" s="53"/>
-      <c r="S45" s="52"/>
-      <c r="T45" s="54">
+      <c r="K45" s="55">
+        <v>2</v>
+      </c>
+      <c r="L45" s="50"/>
+      <c r="M45" s="47"/>
+      <c r="N45" s="46"/>
+      <c r="O45" s="48"/>
+      <c r="P45" s="46"/>
+      <c r="Q45" s="50"/>
+      <c r="R45" s="47"/>
+      <c r="S45" s="46"/>
+      <c r="T45" s="48">
         <v>3</v>
       </c>
-      <c r="U45" s="52">
-        <v>1</v>
-      </c>
-      <c r="V45" s="57"/>
-      <c r="W45" s="53">
+      <c r="U45" s="46">
+        <v>1</v>
+      </c>
+      <c r="V45" s="51"/>
+      <c r="W45" s="47">
         <v>3</v>
       </c>
-      <c r="X45" s="52">
-        <v>1</v>
-      </c>
-      <c r="Y45" s="54">
+      <c r="X45" s="46">
+        <v>1</v>
+      </c>
+      <c r="Y45" s="48">
         <v>3</v>
       </c>
-      <c r="Z45" s="55">
+      <c r="Z45" s="49">
         <v>1</v>
       </c>
     </row>
@@ -5393,7 +5393,7 @@
       <c r="F46" s="17">
         <v>2</v>
       </c>
-      <c r="G46" s="56"/>
+      <c r="G46" s="50"/>
       <c r="H46" s="4"/>
       <c r="I46" s="17"/>
       <c r="J46" s="5">
@@ -5402,7 +5402,7 @@
       <c r="K46" s="17">
         <v>1</v>
       </c>
-      <c r="L46" s="56"/>
+      <c r="L46" s="50"/>
       <c r="M46" s="4"/>
       <c r="N46" s="17"/>
       <c r="O46" s="5">
@@ -5411,62 +5411,62 @@
       <c r="P46" s="17">
         <v>2</v>
       </c>
-      <c r="Q46" s="56"/>
+      <c r="Q46" s="50"/>
       <c r="R46" s="4"/>
       <c r="S46" s="17"/>
       <c r="T46" s="5"/>
       <c r="U46" s="17"/>
-      <c r="V46" s="57"/>
-      <c r="W46" s="64" t="s">
+      <c r="V46" s="51"/>
+      <c r="W46" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="X46" s="59" t="s">
+      <c r="X46" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="Y46" s="63" t="s">
+      <c r="Y46" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="Z46" s="60" t="s">
+      <c r="Z46" s="54" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="47" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A47" s="19"/>
-      <c r="B47" s="51" t="s">
+      <c r="B47" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="C47" s="53">
-        <v>1</v>
-      </c>
-      <c r="D47" s="52">
-        <v>1</v>
-      </c>
-      <c r="E47" s="54"/>
-      <c r="F47" s="52"/>
-      <c r="G47" s="56"/>
-      <c r="H47" s="53"/>
-      <c r="I47" s="52"/>
-      <c r="J47" s="54"/>
-      <c r="K47" s="52"/>
-      <c r="L47" s="56"/>
-      <c r="M47" s="53"/>
-      <c r="N47" s="52"/>
-      <c r="O47" s="54"/>
-      <c r="P47" s="52"/>
-      <c r="Q47" s="56"/>
-      <c r="R47" s="53"/>
-      <c r="S47" s="52"/>
-      <c r="T47" s="54"/>
-      <c r="U47" s="52"/>
-      <c r="V47" s="57"/>
-      <c r="W47" s="53">
-        <v>1</v>
-      </c>
-      <c r="X47" s="52">
-        <v>1</v>
-      </c>
-      <c r="Y47" s="54"/>
-      <c r="Z47" s="55"/>
+      <c r="C47" s="47">
+        <v>1</v>
+      </c>
+      <c r="D47" s="46">
+        <v>1</v>
+      </c>
+      <c r="E47" s="48"/>
+      <c r="F47" s="46"/>
+      <c r="G47" s="50"/>
+      <c r="H47" s="47"/>
+      <c r="I47" s="46"/>
+      <c r="J47" s="48"/>
+      <c r="K47" s="46"/>
+      <c r="L47" s="50"/>
+      <c r="M47" s="47"/>
+      <c r="N47" s="46"/>
+      <c r="O47" s="48"/>
+      <c r="P47" s="46"/>
+      <c r="Q47" s="50"/>
+      <c r="R47" s="47"/>
+      <c r="S47" s="46"/>
+      <c r="T47" s="48"/>
+      <c r="U47" s="46"/>
+      <c r="V47" s="51"/>
+      <c r="W47" s="47">
+        <v>1</v>
+      </c>
+      <c r="X47" s="46">
+        <v>1</v>
+      </c>
+      <c r="Y47" s="48"/>
+      <c r="Z47" s="49"/>
     </row>
     <row r="48" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A48" s="20"/>
@@ -5477,22 +5477,22 @@
       <c r="D48" s="17"/>
       <c r="E48" s="5"/>
       <c r="F48" s="17"/>
-      <c r="G48" s="56"/>
+      <c r="G48" s="50"/>
       <c r="H48" s="4"/>
       <c r="I48" s="17"/>
       <c r="J48" s="5"/>
       <c r="K48" s="17"/>
-      <c r="L48" s="56"/>
+      <c r="L48" s="50"/>
       <c r="M48" s="4"/>
       <c r="N48" s="17"/>
       <c r="O48" s="5"/>
       <c r="P48" s="17"/>
-      <c r="Q48" s="56"/>
+      <c r="Q48" s="50"/>
       <c r="R48" s="4"/>
       <c r="S48" s="17"/>
       <c r="T48" s="5"/>
       <c r="U48" s="17"/>
-      <c r="V48" s="57"/>
+      <c r="V48" s="51"/>
       <c r="W48" s="4"/>
       <c r="X48" s="17"/>
       <c r="Y48" s="5"/>
@@ -5500,55 +5500,55 @@
     </row>
     <row r="49" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A49" s="21"/>
-      <c r="B49" s="51" t="s">
+      <c r="B49" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="C49" s="53">
+      <c r="C49" s="47">
         <v>19</v>
       </c>
-      <c r="D49" s="52">
+      <c r="D49" s="46">
         <v>4</v>
       </c>
-      <c r="E49" s="54"/>
-      <c r="F49" s="52"/>
-      <c r="G49" s="56"/>
-      <c r="H49" s="53">
+      <c r="E49" s="48"/>
+      <c r="F49" s="46"/>
+      <c r="G49" s="50"/>
+      <c r="H49" s="47">
         <v>19</v>
       </c>
-      <c r="I49" s="52">
+      <c r="I49" s="46">
         <v>4</v>
       </c>
-      <c r="J49" s="54"/>
-      <c r="K49" s="52"/>
-      <c r="L49" s="56"/>
-      <c r="M49" s="53"/>
-      <c r="N49" s="52"/>
-      <c r="O49" s="54">
+      <c r="J49" s="48"/>
+      <c r="K49" s="46"/>
+      <c r="L49" s="50"/>
+      <c r="M49" s="47"/>
+      <c r="N49" s="46"/>
+      <c r="O49" s="48">
         <v>3</v>
       </c>
-      <c r="P49" s="61">
-        <v>2</v>
-      </c>
-      <c r="Q49" s="56"/>
-      <c r="R49" s="53">
+      <c r="P49" s="55">
+        <v>2</v>
+      </c>
+      <c r="Q49" s="50"/>
+      <c r="R49" s="47">
         <v>19</v>
       </c>
-      <c r="S49" s="52">
+      <c r="S49" s="46">
         <v>4</v>
       </c>
-      <c r="T49" s="54"/>
-      <c r="U49" s="52"/>
-      <c r="V49" s="57"/>
-      <c r="W49" s="53">
+      <c r="T49" s="48"/>
+      <c r="U49" s="46"/>
+      <c r="V49" s="51"/>
+      <c r="W49" s="47">
         <v>19</v>
       </c>
-      <c r="X49" s="52">
-        <v>2</v>
-      </c>
-      <c r="Y49" s="54">
+      <c r="X49" s="46">
+        <v>2</v>
+      </c>
+      <c r="Y49" s="48">
         <v>3</v>
       </c>
-      <c r="Z49" s="62">
+      <c r="Z49" s="56">
         <v>2</v>
       </c>
     </row>
@@ -5560,30 +5560,30 @@
       <c r="C50" s="4">
         <v>8</v>
       </c>
-      <c r="D50" s="61">
+      <c r="D50" s="55">
         <v>4</v>
       </c>
       <c r="E50" s="5">
         <v>2</v>
       </c>
-      <c r="F50" s="61">
-        <v>1</v>
-      </c>
-      <c r="G50" s="56"/>
+      <c r="F50" s="55">
+        <v>1</v>
+      </c>
+      <c r="G50" s="50"/>
       <c r="H50" s="4"/>
       <c r="I50" s="17"/>
       <c r="J50" s="5">
         <v>2</v>
       </c>
-      <c r="K50" s="17">
-        <v>2</v>
-      </c>
-      <c r="L50" s="56"/>
+      <c r="K50" s="55">
+        <v>2</v>
+      </c>
+      <c r="L50" s="50"/>
       <c r="M50" s="4"/>
       <c r="N50" s="17"/>
       <c r="O50" s="5"/>
       <c r="P50" s="17"/>
-      <c r="Q50" s="56"/>
+      <c r="Q50" s="50"/>
       <c r="R50" s="4">
         <v>8</v>
       </c>
@@ -5593,10 +5593,10 @@
       <c r="T50" s="5">
         <v>2</v>
       </c>
-      <c r="U50" s="17">
-        <v>1</v>
-      </c>
-      <c r="V50" s="57"/>
+      <c r="U50" s="55">
+        <v>1</v>
+      </c>
+      <c r="V50" s="51"/>
       <c r="W50" s="4">
         <v>8</v>
       </c>
@@ -5608,61 +5608,61 @@
     </row>
     <row r="51" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A51" s="23"/>
-      <c r="B51" s="51" t="s">
+      <c r="B51" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="C51" s="53">
+      <c r="C51" s="47">
         <v>7</v>
       </c>
-      <c r="D51" s="61">
+      <c r="D51" s="55">
         <v>3</v>
       </c>
-      <c r="E51" s="54">
+      <c r="E51" s="48">
         <v>11</v>
       </c>
-      <c r="F51" s="52">
+      <c r="F51" s="46">
         <v>3</v>
       </c>
-      <c r="G51" s="56"/>
-      <c r="H51" s="53">
+      <c r="G51" s="50"/>
+      <c r="H51" s="47">
         <v>7</v>
       </c>
-      <c r="I51" s="61">
+      <c r="I51" s="55">
         <v>3</v>
       </c>
-      <c r="J51" s="54">
+      <c r="J51" s="48">
         <v>11</v>
       </c>
-      <c r="K51" s="69">
+      <c r="K51" s="63">
         <v>6</v>
       </c>
-      <c r="L51" s="56"/>
-      <c r="M51" s="53"/>
-      <c r="N51" s="52"/>
-      <c r="O51" s="54">
+      <c r="L51" s="50"/>
+      <c r="M51" s="47"/>
+      <c r="N51" s="46"/>
+      <c r="O51" s="48">
         <v>11</v>
       </c>
-      <c r="P51" s="68">
+      <c r="P51" s="62">
         <v>3</v>
       </c>
-      <c r="Q51" s="56"/>
-      <c r="R51" s="66" t="s">
+      <c r="Q51" s="50"/>
+      <c r="R51" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="S51" s="58" t="s">
+      <c r="S51" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="T51" s="65" t="s">
+      <c r="T51" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="U51" s="58" t="s">
+      <c r="U51" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="V51" s="57"/>
-      <c r="W51" s="53"/>
-      <c r="X51" s="52"/>
-      <c r="Y51" s="54"/>
-      <c r="Z51" s="55"/>
+      <c r="V51" s="51"/>
+      <c r="W51" s="47"/>
+      <c r="X51" s="46"/>
+      <c r="Y51" s="48"/>
+      <c r="Z51" s="49"/>
     </row>
     <row r="52" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A52" s="39" t="s">
@@ -5683,25 +5683,25 @@
       <c r="F52" s="17">
         <v>1</v>
       </c>
-      <c r="G52" s="56"/>
+      <c r="G52" s="50"/>
       <c r="H52" s="4"/>
       <c r="I52" s="17"/>
       <c r="J52" s="5">
         <v>4</v>
       </c>
-      <c r="K52" s="61">
-        <v>2</v>
-      </c>
-      <c r="L52" s="56"/>
+      <c r="K52" s="55">
+        <v>2</v>
+      </c>
+      <c r="L52" s="50"/>
       <c r="M52" s="4"/>
       <c r="N52" s="17"/>
       <c r="O52" s="5">
         <v>4</v>
       </c>
-      <c r="P52" s="61">
+      <c r="P52" s="55">
         <v>3</v>
       </c>
-      <c r="Q52" s="56"/>
+      <c r="Q52" s="50"/>
       <c r="R52" s="4">
         <v>9</v>
       </c>
@@ -5711,10 +5711,10 @@
       <c r="T52" s="5">
         <v>4</v>
       </c>
-      <c r="U52" s="61">
+      <c r="U52" s="55">
         <v>3</v>
       </c>
-      <c r="V52" s="57"/>
+      <c r="V52" s="51"/>
       <c r="W52" s="4">
         <v>9</v>
       </c>
@@ -5727,67 +5727,67 @@
     </row>
     <row r="53" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A53" s="25"/>
-      <c r="B53" s="51" t="s">
+      <c r="B53" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="C53" s="65" t="s">
+      <c r="C53" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="D53" s="58" t="s">
+      <c r="D53" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="E53" s="66" t="s">
+      <c r="E53" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="F53" s="58" t="s">
+      <c r="F53" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="G53" s="56"/>
-      <c r="H53" s="53">
+      <c r="G53" s="50"/>
+      <c r="H53" s="47">
         <v>17</v>
       </c>
-      <c r="I53" s="52">
+      <c r="I53" s="46">
         <v>3</v>
       </c>
-      <c r="J53" s="54">
+      <c r="J53" s="48">
         <v>15</v>
       </c>
-      <c r="K53" s="52">
-        <v>2</v>
-      </c>
-      <c r="L53" s="56"/>
-      <c r="M53" s="53">
+      <c r="K53" s="46">
+        <v>2</v>
+      </c>
+      <c r="L53" s="50"/>
+      <c r="M53" s="47">
         <v>17</v>
       </c>
-      <c r="N53" s="52">
-        <v>2</v>
-      </c>
-      <c r="O53" s="54">
+      <c r="N53" s="46">
+        <v>2</v>
+      </c>
+      <c r="O53" s="48">
         <v>15</v>
       </c>
-      <c r="P53" s="71">
+      <c r="P53" s="65">
         <v>5</v>
       </c>
-      <c r="Q53" s="56"/>
-      <c r="R53" s="53">
+      <c r="Q53" s="50"/>
+      <c r="R53" s="47">
         <v>17</v>
       </c>
-      <c r="S53" s="52">
+      <c r="S53" s="46">
         <v>3</v>
       </c>
-      <c r="T53" s="54"/>
-      <c r="U53" s="52"/>
-      <c r="V53" s="57"/>
-      <c r="W53" s="53">
+      <c r="T53" s="48"/>
+      <c r="U53" s="46"/>
+      <c r="V53" s="51"/>
+      <c r="W53" s="47">
         <v>17</v>
       </c>
-      <c r="X53" s="52">
-        <v>2</v>
-      </c>
-      <c r="Y53" s="54">
+      <c r="X53" s="46">
+        <v>2</v>
+      </c>
+      <c r="Y53" s="48">
         <v>15</v>
       </c>
-      <c r="Z53" s="55">
+      <c r="Z53" s="49">
         <v>2</v>
       </c>
     </row>
@@ -5802,22 +5802,22 @@
       <c r="D54" s="17"/>
       <c r="E54" s="5"/>
       <c r="F54" s="17"/>
-      <c r="G54" s="56"/>
+      <c r="G54" s="50"/>
       <c r="H54" s="4"/>
       <c r="I54" s="17"/>
       <c r="J54" s="5"/>
       <c r="K54" s="17"/>
-      <c r="L54" s="56"/>
+      <c r="L54" s="50"/>
       <c r="M54" s="4"/>
       <c r="N54" s="17"/>
       <c r="O54" s="5"/>
       <c r="P54" s="17"/>
-      <c r="Q54" s="56"/>
+      <c r="Q54" s="50"/>
       <c r="R54" s="4"/>
       <c r="S54" s="17"/>
       <c r="T54" s="5"/>
       <c r="U54" s="17"/>
-      <c r="V54" s="57"/>
+      <c r="V54" s="51"/>
       <c r="W54" s="4">
         <v>1</v>
       </c>
@@ -5831,41 +5831,41 @@
       <c r="A55" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B55" s="51" t="s">
+      <c r="B55" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="C55" s="53">
-        <v>2</v>
-      </c>
-      <c r="D55" s="52">
-        <v>1</v>
-      </c>
-      <c r="E55" s="54"/>
-      <c r="F55" s="52"/>
-      <c r="G55" s="56"/>
-      <c r="H55" s="53">
-        <v>2</v>
-      </c>
-      <c r="I55" s="52">
-        <v>2</v>
-      </c>
-      <c r="J55" s="54"/>
-      <c r="K55" s="52"/>
-      <c r="L55" s="56"/>
-      <c r="M55" s="53"/>
-      <c r="N55" s="52"/>
-      <c r="O55" s="54"/>
-      <c r="P55" s="52"/>
-      <c r="Q55" s="56"/>
-      <c r="R55" s="53"/>
-      <c r="S55" s="52"/>
-      <c r="T55" s="54"/>
-      <c r="U55" s="52"/>
-      <c r="V55" s="57"/>
-      <c r="W55" s="53"/>
-      <c r="X55" s="52"/>
-      <c r="Y55" s="54"/>
-      <c r="Z55" s="55"/>
+      <c r="C55" s="47">
+        <v>2</v>
+      </c>
+      <c r="D55" s="46">
+        <v>1</v>
+      </c>
+      <c r="E55" s="48"/>
+      <c r="F55" s="46"/>
+      <c r="G55" s="50"/>
+      <c r="H55" s="47">
+        <v>2</v>
+      </c>
+      <c r="I55" s="46">
+        <v>2</v>
+      </c>
+      <c r="J55" s="48"/>
+      <c r="K55" s="46"/>
+      <c r="L55" s="50"/>
+      <c r="M55" s="47"/>
+      <c r="N55" s="46"/>
+      <c r="O55" s="48"/>
+      <c r="P55" s="46"/>
+      <c r="Q55" s="50"/>
+      <c r="R55" s="47"/>
+      <c r="S55" s="46"/>
+      <c r="T55" s="48"/>
+      <c r="U55" s="46"/>
+      <c r="V55" s="51"/>
+      <c r="W55" s="47"/>
+      <c r="X55" s="46"/>
+      <c r="Y55" s="48"/>
+      <c r="Z55" s="49"/>
       <c r="AF55" s="5"/>
     </row>
     <row r="56" spans="1:32" x14ac:dyDescent="0.35">
@@ -5878,38 +5878,38 @@
       <c r="C56" s="4">
         <v>13</v>
       </c>
-      <c r="D56" s="67">
+      <c r="D56" s="61">
         <v>3</v>
       </c>
       <c r="E56" s="5">
         <v>9</v>
       </c>
-      <c r="F56" s="67">
-        <v>2</v>
-      </c>
-      <c r="G56" s="56"/>
-      <c r="H56" s="64" t="s">
+      <c r="F56" s="61">
+        <v>2</v>
+      </c>
+      <c r="G56" s="50"/>
+      <c r="H56" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="I56" s="59" t="s">
+      <c r="I56" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="J56" s="63" t="s">
+      <c r="J56" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="K56" s="59" t="s">
+      <c r="K56" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="L56" s="56"/>
+      <c r="L56" s="50"/>
       <c r="M56" s="4"/>
       <c r="N56" s="17"/>
       <c r="O56" s="5">
         <v>9</v>
       </c>
-      <c r="P56" s="68">
-        <v>2</v>
-      </c>
-      <c r="Q56" s="56"/>
+      <c r="P56" s="62">
+        <v>2</v>
+      </c>
+      <c r="Q56" s="50"/>
       <c r="R56" s="4">
         <v>13</v>
       </c>
@@ -5919,10 +5919,10 @@
       <c r="T56" s="5">
         <v>9</v>
       </c>
-      <c r="U56" s="70">
+      <c r="U56" s="64">
         <v>6</v>
       </c>
-      <c r="V56" s="57"/>
+      <c r="V56" s="51"/>
       <c r="W56" s="4"/>
       <c r="X56" s="17"/>
       <c r="Y56" s="5">
@@ -5936,45 +5936,45 @@
       <c r="A57" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B57" s="51" t="s">
+      <c r="B57" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="C57" s="53">
-        <v>1</v>
-      </c>
-      <c r="D57" s="52">
-        <v>1</v>
-      </c>
-      <c r="E57" s="54"/>
-      <c r="F57" s="52"/>
-      <c r="G57" s="56"/>
-      <c r="H57" s="53"/>
-      <c r="I57" s="52"/>
-      <c r="J57" s="54">
-        <v>2</v>
-      </c>
-      <c r="K57" s="52">
-        <v>1</v>
-      </c>
-      <c r="L57" s="56"/>
-      <c r="M57" s="53"/>
-      <c r="N57" s="52"/>
-      <c r="O57" s="54"/>
-      <c r="P57" s="52"/>
-      <c r="Q57" s="56"/>
-      <c r="R57" s="53"/>
-      <c r="S57" s="52"/>
-      <c r="T57" s="54"/>
-      <c r="U57" s="52"/>
-      <c r="V57" s="57"/>
-      <c r="W57" s="53">
-        <v>1</v>
-      </c>
-      <c r="X57" s="52">
-        <v>1</v>
-      </c>
-      <c r="Y57" s="54"/>
-      <c r="Z57" s="55"/>
+      <c r="C57" s="47">
+        <v>1</v>
+      </c>
+      <c r="D57" s="46">
+        <v>1</v>
+      </c>
+      <c r="E57" s="48"/>
+      <c r="F57" s="46"/>
+      <c r="G57" s="50"/>
+      <c r="H57" s="47"/>
+      <c r="I57" s="46"/>
+      <c r="J57" s="48">
+        <v>2</v>
+      </c>
+      <c r="K57" s="46">
+        <v>1</v>
+      </c>
+      <c r="L57" s="50"/>
+      <c r="M57" s="47"/>
+      <c r="N57" s="46"/>
+      <c r="O57" s="48"/>
+      <c r="P57" s="46"/>
+      <c r="Q57" s="50"/>
+      <c r="R57" s="47"/>
+      <c r="S57" s="46"/>
+      <c r="T57" s="48"/>
+      <c r="U57" s="46"/>
+      <c r="V57" s="51"/>
+      <c r="W57" s="47">
+        <v>1</v>
+      </c>
+      <c r="X57" s="46">
+        <v>1</v>
+      </c>
+      <c r="Y57" s="48"/>
+      <c r="Z57" s="49"/>
     </row>
     <row r="58" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A58" s="29"/>
@@ -5989,7 +5989,7 @@
       <c r="F58" s="17">
         <v>2</v>
       </c>
-      <c r="G58" s="56"/>
+      <c r="G58" s="50"/>
       <c r="H58" s="4">
         <v>5</v>
       </c>
@@ -5999,24 +5999,24 @@
       <c r="J58" s="5">
         <v>4</v>
       </c>
-      <c r="K58" s="70">
+      <c r="K58" s="64">
         <v>4</v>
       </c>
-      <c r="L58" s="56"/>
+      <c r="L58" s="50"/>
       <c r="M58" s="4"/>
       <c r="N58" s="17"/>
       <c r="O58" s="5"/>
       <c r="P58" s="17"/>
-      <c r="Q58" s="56"/>
+      <c r="Q58" s="50"/>
       <c r="R58" s="4"/>
       <c r="S58" s="17"/>
       <c r="T58" s="5">
         <v>4</v>
       </c>
-      <c r="U58" s="70">
+      <c r="U58" s="64">
         <v>3</v>
       </c>
-      <c r="V58" s="57"/>
+      <c r="V58" s="51"/>
       <c r="W58" s="4"/>
       <c r="X58" s="17"/>
       <c r="Y58" s="5"/>
@@ -6026,53 +6026,53 @@
       <c r="A59" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="B59" s="51" t="s">
+      <c r="B59" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="C59" s="53">
+      <c r="C59" s="47">
         <v>6</v>
       </c>
-      <c r="D59" s="52">
-        <v>2</v>
-      </c>
-      <c r="E59" s="54"/>
-      <c r="F59" s="52"/>
-      <c r="G59" s="56"/>
-      <c r="H59" s="53">
+      <c r="D59" s="46">
+        <v>2</v>
+      </c>
+      <c r="E59" s="48"/>
+      <c r="F59" s="46"/>
+      <c r="G59" s="50"/>
+      <c r="H59" s="47">
         <v>6</v>
       </c>
-      <c r="I59" s="52">
-        <v>1</v>
-      </c>
-      <c r="J59" s="54">
-        <v>2</v>
-      </c>
-      <c r="K59" s="52">
-        <v>1</v>
-      </c>
-      <c r="L59" s="56"/>
-      <c r="M59" s="53"/>
-      <c r="N59" s="52"/>
-      <c r="O59" s="54">
-        <v>2</v>
-      </c>
-      <c r="P59" s="61">
-        <v>2</v>
-      </c>
-      <c r="Q59" s="56"/>
-      <c r="R59" s="53"/>
-      <c r="S59" s="52"/>
-      <c r="T59" s="54"/>
-      <c r="U59" s="52"/>
-      <c r="V59" s="57"/>
-      <c r="W59" s="53">
+      <c r="I59" s="46">
+        <v>1</v>
+      </c>
+      <c r="J59" s="48">
+        <v>2</v>
+      </c>
+      <c r="K59" s="46">
+        <v>1</v>
+      </c>
+      <c r="L59" s="50"/>
+      <c r="M59" s="47"/>
+      <c r="N59" s="46"/>
+      <c r="O59" s="48">
+        <v>2</v>
+      </c>
+      <c r="P59" s="55">
+        <v>2</v>
+      </c>
+      <c r="Q59" s="50"/>
+      <c r="R59" s="47"/>
+      <c r="S59" s="46"/>
+      <c r="T59" s="48"/>
+      <c r="U59" s="46"/>
+      <c r="V59" s="51"/>
+      <c r="W59" s="47">
         <v>6</v>
       </c>
-      <c r="X59" s="61">
+      <c r="X59" s="55">
         <v>3</v>
       </c>
-      <c r="Y59" s="54"/>
-      <c r="Z59" s="55"/>
+      <c r="Y59" s="48"/>
+      <c r="Z59" s="49"/>
     </row>
     <row r="60" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A60" s="31"/>
@@ -6082,7 +6082,7 @@
       <c r="C60" s="4">
         <v>4</v>
       </c>
-      <c r="D60" s="71">
+      <c r="D60" s="65">
         <v>2</v>
       </c>
       <c r="E60" s="5">
@@ -6091,38 +6091,38 @@
       <c r="F60" s="17">
         <v>5</v>
       </c>
-      <c r="G60" s="56"/>
+      <c r="G60" s="50"/>
       <c r="H60" s="4"/>
       <c r="I60" s="17"/>
       <c r="J60" s="5">
         <v>16</v>
       </c>
-      <c r="K60" s="68">
-        <v>2</v>
-      </c>
-      <c r="L60" s="56"/>
-      <c r="M60" s="64" t="s">
+      <c r="K60" s="62">
+        <v>2</v>
+      </c>
+      <c r="L60" s="50"/>
+      <c r="M60" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="N60" s="59" t="s">
+      <c r="N60" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="O60" s="63" t="s">
+      <c r="O60" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="P60" s="59" t="s">
+      <c r="P60" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="Q60" s="56"/>
+      <c r="Q60" s="50"/>
       <c r="R60" s="4"/>
       <c r="S60" s="17"/>
       <c r="T60" s="5">
         <v>16</v>
       </c>
-      <c r="U60" s="68">
+      <c r="U60" s="62">
         <v>3</v>
       </c>
-      <c r="V60" s="57"/>
+      <c r="V60" s="51"/>
       <c r="W60" s="4"/>
       <c r="X60" s="17"/>
       <c r="Y60" s="5">
@@ -6134,49 +6134,49 @@
     </row>
     <row r="61" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A61" s="32"/>
-      <c r="B61" s="51" t="s">
+      <c r="B61" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="C61" s="53">
-        <v>1</v>
-      </c>
-      <c r="D61" s="52">
-        <v>1</v>
-      </c>
-      <c r="E61" s="54">
+      <c r="C61" s="47">
+        <v>1</v>
+      </c>
+      <c r="D61" s="46">
+        <v>1</v>
+      </c>
+      <c r="E61" s="48">
         <v>3</v>
       </c>
-      <c r="F61" s="52">
-        <v>1</v>
-      </c>
-      <c r="G61" s="56"/>
-      <c r="H61" s="53"/>
-      <c r="I61" s="52"/>
-      <c r="J61" s="54">
+      <c r="F61" s="46">
+        <v>1</v>
+      </c>
+      <c r="G61" s="50"/>
+      <c r="H61" s="47"/>
+      <c r="I61" s="46"/>
+      <c r="J61" s="48">
         <v>3</v>
       </c>
-      <c r="K61" s="52">
-        <v>1</v>
-      </c>
-      <c r="L61" s="56"/>
-      <c r="M61" s="53"/>
-      <c r="N61" s="52"/>
-      <c r="O61" s="54">
+      <c r="K61" s="46">
+        <v>1</v>
+      </c>
+      <c r="L61" s="50"/>
+      <c r="M61" s="47"/>
+      <c r="N61" s="46"/>
+      <c r="O61" s="48">
         <v>3</v>
       </c>
-      <c r="P61" s="52">
-        <v>1</v>
-      </c>
-      <c r="Q61" s="56"/>
-      <c r="R61" s="53"/>
-      <c r="S61" s="52"/>
-      <c r="T61" s="54"/>
-      <c r="U61" s="52"/>
-      <c r="V61" s="57"/>
-      <c r="W61" s="53"/>
-      <c r="X61" s="52"/>
-      <c r="Y61" s="54"/>
-      <c r="Z61" s="55"/>
+      <c r="P61" s="46">
+        <v>1</v>
+      </c>
+      <c r="Q61" s="50"/>
+      <c r="R61" s="47"/>
+      <c r="S61" s="46"/>
+      <c r="T61" s="48"/>
+      <c r="U61" s="46"/>
+      <c r="V61" s="51"/>
+      <c r="W61" s="47"/>
+      <c r="X61" s="46"/>
+      <c r="Y61" s="48"/>
+      <c r="Z61" s="49"/>
     </row>
     <row r="62" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A62" s="33"/>
@@ -6187,7 +6187,7 @@
       <c r="D62" s="36"/>
       <c r="E62" s="8"/>
       <c r="F62" s="36"/>
-      <c r="G62" s="56"/>
+      <c r="G62" s="50"/>
       <c r="H62" s="7"/>
       <c r="I62" s="36"/>
       <c r="J62" s="8">
@@ -6196,17 +6196,17 @@
       <c r="K62" s="36">
         <v>1</v>
       </c>
-      <c r="L62" s="56"/>
+      <c r="L62" s="50"/>
       <c r="M62" s="7"/>
       <c r="N62" s="36"/>
       <c r="O62" s="8"/>
       <c r="P62" s="36"/>
-      <c r="Q62" s="56"/>
+      <c r="Q62" s="50"/>
       <c r="R62" s="7"/>
       <c r="S62" s="36"/>
       <c r="T62" s="8"/>
       <c r="U62" s="36"/>
-      <c r="V62" s="57"/>
+      <c r="V62" s="51"/>
       <c r="W62" s="7"/>
       <c r="X62" s="36"/>
       <c r="Y62" s="8"/>
@@ -6214,20 +6214,20 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="M42:P42"/>
+    <mergeCell ref="O43:P43"/>
     <mergeCell ref="W42:Z42"/>
     <mergeCell ref="W43:X43"/>
     <mergeCell ref="Y43:Z43"/>
     <mergeCell ref="H43:I43"/>
     <mergeCell ref="J43:K43"/>
     <mergeCell ref="H42:K42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="M42:P42"/>
     <mergeCell ref="R43:S43"/>
     <mergeCell ref="T43:U43"/>
-    <mergeCell ref="O43:P43"/>
     <mergeCell ref="R42:U42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/Findings.xlsx
+++ b/Findings.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17531"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17426"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Astrid\Dropbox\Laclau Mouffe\HA_RuG\"/>
@@ -525,6 +525,30 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -582,30 +606,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -2141,10 +2141,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozenSplit"/>
       <selection sqref="A1 C1:C1048576"/>
-      <selection pane="topRight" activeCell="A6" sqref="A6:XFD6"/>
+      <selection pane="topRight" activeCell="I55" sqref="I55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3859,7 +3859,7 @@
         <v>3</v>
       </c>
       <c r="AV23">
-        <f t="shared" ref="AV23:AV40" si="1">SUM(C2:BA2)</f>
+        <f>SUM(C2:BA2)</f>
         <v>3</v>
       </c>
       <c r="AW23">
@@ -3940,7 +3940,7 @@
         <v>7</v>
       </c>
       <c r="AV24">
-        <f t="shared" si="1"/>
+        <f>SUM(C3:BA3)</f>
         <v>10</v>
       </c>
       <c r="AW24">
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="AV25">
-        <f t="shared" si="1"/>
+        <f>SUM(C4:BA4)</f>
         <v>1</v>
       </c>
       <c r="AW25">
@@ -4072,7 +4072,7 @@
         <v>0</v>
       </c>
       <c r="AV26">
-        <f t="shared" si="1"/>
+        <f>SUM(C5:BA5)</f>
         <v>2</v>
       </c>
       <c r="AW26">
@@ -4145,7 +4145,7 @@
         <v>3</v>
       </c>
       <c r="AV27">
-        <f t="shared" si="1"/>
+        <f>SUM(C6:BA6)</f>
         <v>19</v>
       </c>
       <c r="AW27">
@@ -4216,7 +4216,7 @@
         <v>2</v>
       </c>
       <c r="AV28">
-        <f t="shared" si="1"/>
+        <f>SUM(C7:BA7)</f>
         <v>8</v>
       </c>
       <c r="AW28">
@@ -4303,7 +4303,7 @@
         <v>11</v>
       </c>
       <c r="AV29">
-        <f t="shared" si="1"/>
+        <f>SUM(C8:BA8)</f>
         <v>7</v>
       </c>
       <c r="AW29">
@@ -4378,7 +4378,7 @@
         <v>4</v>
       </c>
       <c r="AV30">
-        <f t="shared" si="1"/>
+        <f>SUM(C9:BA9)</f>
         <v>9</v>
       </c>
       <c r="AW30">
@@ -4473,7 +4473,7 @@
         <v>15</v>
       </c>
       <c r="AV31">
-        <f t="shared" si="1"/>
+        <f>SUM(C10:BA10)</f>
         <v>17</v>
       </c>
       <c r="AW31">
@@ -4539,7 +4539,7 @@
         <v>0</v>
       </c>
       <c r="AV32">
-        <f t="shared" si="1"/>
+        <f>SUM(C11:BA11)</f>
         <v>1</v>
       </c>
       <c r="AW32">
@@ -4607,7 +4607,7 @@
         <v>0</v>
       </c>
       <c r="AV33">
-        <f t="shared" si="1"/>
+        <f>SUM(C12:BA12)</f>
         <v>2</v>
       </c>
       <c r="AW33">
@@ -4685,14 +4685,14 @@
       <c r="AR34" s="5"/>
       <c r="AS34" s="6"/>
       <c r="AT34">
-        <f t="shared" ref="AT34:AT40" si="2">SUM(C34:AS34)</f>
+        <f>SUM(C34:AS34)</f>
         <v>9</v>
       </c>
       <c r="AU34">
         <v>9</v>
       </c>
       <c r="AV34">
-        <f t="shared" si="1"/>
+        <f>SUM(C13:BA13)</f>
         <v>13</v>
       </c>
       <c r="AW34">
@@ -4758,14 +4758,14 @@
       <c r="AR35" s="5"/>
       <c r="AS35" s="6"/>
       <c r="AT35">
-        <f t="shared" si="2"/>
+        <f>SUM(C35:AS35)</f>
         <v>2</v>
       </c>
       <c r="AU35">
         <v>2</v>
       </c>
       <c r="AV35">
-        <f t="shared" si="1"/>
+        <f>SUM(C14:BA14)</f>
         <v>1</v>
       </c>
       <c r="AW35">
@@ -4833,14 +4833,14 @@
       <c r="AR36" s="5"/>
       <c r="AS36" s="6"/>
       <c r="AT36">
-        <f t="shared" si="2"/>
+        <f>SUM(C36:AS36)</f>
         <v>4</v>
       </c>
       <c r="AU36">
         <v>4</v>
       </c>
       <c r="AV36">
-        <f t="shared" si="1"/>
+        <f>SUM(C15:BA15)</f>
         <v>5</v>
       </c>
       <c r="AW36">
@@ -4906,14 +4906,14 @@
       </c>
       <c r="AS37" s="6"/>
       <c r="AT37">
-        <f t="shared" si="2"/>
+        <f>SUM(C37:AS37)</f>
         <v>2</v>
       </c>
       <c r="AU37">
         <v>2</v>
       </c>
       <c r="AV37">
-        <f t="shared" si="1"/>
+        <f>SUM(C16:BA16)</f>
         <v>6</v>
       </c>
       <c r="AW37">
@@ -5003,14 +5003,14 @@
       </c>
       <c r="AS38" s="6"/>
       <c r="AT38">
-        <f t="shared" si="2"/>
+        <f>SUM(C38:AS38)</f>
         <v>16</v>
       </c>
       <c r="AU38">
         <v>16</v>
       </c>
       <c r="AV38">
-        <f t="shared" si="1"/>
+        <f>SUM(C17:BA17)</f>
         <v>4</v>
       </c>
       <c r="AW38">
@@ -5076,14 +5076,14 @@
       <c r="AR39" s="5"/>
       <c r="AS39" s="6"/>
       <c r="AT39">
-        <f t="shared" si="2"/>
+        <f>SUM(C39:AS39)</f>
         <v>3</v>
       </c>
       <c r="AU39">
         <v>3</v>
       </c>
       <c r="AV39">
-        <f t="shared" si="1"/>
+        <f>SUM(C18:BA18)</f>
         <v>1</v>
       </c>
       <c r="AW39">
@@ -5149,14 +5149,14 @@
       <c r="AR40" s="8"/>
       <c r="AS40" s="9"/>
       <c r="AT40">
-        <f t="shared" si="2"/>
+        <f>SUM(C40:AS40)</f>
         <v>3</v>
       </c>
       <c r="AU40">
         <v>3</v>
       </c>
       <c r="AV40">
-        <f t="shared" si="1"/>
+        <f>SUM(C19:BA19)</f>
         <v>0</v>
       </c>
       <c r="AW40">
@@ -5182,78 +5182,78 @@
       </c>
     </row>
     <row r="42" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="C42" s="66" t="s">
+      <c r="C42" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="D42" s="67"/>
-      <c r="E42" s="67"/>
-      <c r="F42" s="68"/>
-      <c r="H42" s="66" t="s">
+      <c r="D42" s="46"/>
+      <c r="E42" s="46"/>
+      <c r="F42" s="47"/>
+      <c r="H42" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="I42" s="67"/>
-      <c r="J42" s="67"/>
-      <c r="K42" s="68"/>
-      <c r="M42" s="66" t="s">
+      <c r="I42" s="46"/>
+      <c r="J42" s="46"/>
+      <c r="K42" s="47"/>
+      <c r="M42" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="N42" s="67"/>
-      <c r="O42" s="67"/>
-      <c r="P42" s="68"/>
-      <c r="R42" s="66" t="s">
+      <c r="N42" s="46"/>
+      <c r="O42" s="46"/>
+      <c r="P42" s="47"/>
+      <c r="R42" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="S42" s="67"/>
-      <c r="T42" s="67"/>
-      <c r="U42" s="68"/>
-      <c r="W42" s="66" t="s">
+      <c r="S42" s="46"/>
+      <c r="T42" s="46"/>
+      <c r="U42" s="47"/>
+      <c r="W42" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="X42" s="67"/>
-      <c r="Y42" s="67"/>
-      <c r="Z42" s="68"/>
+      <c r="X42" s="46"/>
+      <c r="Y42" s="46"/>
+      <c r="Z42" s="47"/>
     </row>
     <row r="43" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="C43" s="69">
+      <c r="C43" s="48">
         <v>36</v>
       </c>
-      <c r="D43" s="71"/>
-      <c r="E43" s="71">
+      <c r="D43" s="49"/>
+      <c r="E43" s="49">
         <v>41</v>
       </c>
-      <c r="F43" s="70"/>
-      <c r="H43" s="69">
+      <c r="F43" s="50"/>
+      <c r="H43" s="48">
         <v>36</v>
       </c>
-      <c r="I43" s="70"/>
-      <c r="J43" s="69">
+      <c r="I43" s="50"/>
+      <c r="J43" s="48">
         <v>41</v>
       </c>
-      <c r="K43" s="70"/>
-      <c r="M43" s="69">
+      <c r="K43" s="50"/>
+      <c r="M43" s="48">
         <v>36</v>
       </c>
-      <c r="N43" s="70"/>
-      <c r="O43" s="69">
+      <c r="N43" s="50"/>
+      <c r="O43" s="48">
         <v>41</v>
       </c>
-      <c r="P43" s="70"/>
-      <c r="R43" s="69">
+      <c r="P43" s="50"/>
+      <c r="R43" s="48">
         <v>36</v>
       </c>
-      <c r="S43" s="70"/>
-      <c r="T43" s="69">
+      <c r="S43" s="50"/>
+      <c r="T43" s="48">
         <v>41</v>
       </c>
-      <c r="U43" s="70"/>
-      <c r="W43" s="69">
+      <c r="U43" s="50"/>
+      <c r="W43" s="48">
         <v>36</v>
       </c>
-      <c r="X43" s="70"/>
-      <c r="Y43" s="69">
+      <c r="X43" s="50"/>
+      <c r="Y43" s="48">
         <v>41</v>
       </c>
-      <c r="Z43" s="70"/>
+      <c r="Z43" s="50"/>
     </row>
     <row r="44" spans="1:50" x14ac:dyDescent="0.35">
       <c r="B44" s="41"/>
@@ -5320,59 +5320,59 @@
     </row>
     <row r="45" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A45" s="14"/>
-      <c r="B45" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="C45" s="47">
+      <c r="B45" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" s="53">
         <v>3</v>
       </c>
-      <c r="D45" s="46">
-        <v>1</v>
-      </c>
-      <c r="E45" s="48">
+      <c r="D45" s="52">
+        <v>1</v>
+      </c>
+      <c r="E45" s="54">
         <v>3</v>
       </c>
-      <c r="F45" s="55">
-        <v>2</v>
-      </c>
-      <c r="G45" s="50"/>
-      <c r="H45" s="47">
+      <c r="F45" s="61">
+        <v>2</v>
+      </c>
+      <c r="G45" s="56"/>
+      <c r="H45" s="53">
         <v>3</v>
       </c>
-      <c r="I45" s="46">
-        <v>1</v>
-      </c>
-      <c r="J45" s="48">
+      <c r="I45" s="52">
+        <v>1</v>
+      </c>
+      <c r="J45" s="54">
         <v>3</v>
       </c>
-      <c r="K45" s="55">
-        <v>2</v>
-      </c>
-      <c r="L45" s="50"/>
-      <c r="M45" s="47"/>
-      <c r="N45" s="46"/>
-      <c r="O45" s="48"/>
-      <c r="P45" s="46"/>
-      <c r="Q45" s="50"/>
-      <c r="R45" s="47"/>
-      <c r="S45" s="46"/>
-      <c r="T45" s="48">
+      <c r="K45" s="61">
+        <v>2</v>
+      </c>
+      <c r="L45" s="56"/>
+      <c r="M45" s="53"/>
+      <c r="N45" s="52"/>
+      <c r="O45" s="54"/>
+      <c r="P45" s="52"/>
+      <c r="Q45" s="56"/>
+      <c r="R45" s="53"/>
+      <c r="S45" s="52"/>
+      <c r="T45" s="54">
         <v>3</v>
       </c>
-      <c r="U45" s="46">
-        <v>1</v>
-      </c>
-      <c r="V45" s="51"/>
-      <c r="W45" s="47">
+      <c r="U45" s="52">
+        <v>1</v>
+      </c>
+      <c r="V45" s="57"/>
+      <c r="W45" s="53">
         <v>3</v>
       </c>
-      <c r="X45" s="46">
-        <v>1</v>
-      </c>
-      <c r="Y45" s="48">
+      <c r="X45" s="52">
+        <v>1</v>
+      </c>
+      <c r="Y45" s="54">
         <v>3</v>
       </c>
-      <c r="Z45" s="49">
+      <c r="Z45" s="55">
         <v>1</v>
       </c>
     </row>
@@ -5393,7 +5393,7 @@
       <c r="F46" s="17">
         <v>2</v>
       </c>
-      <c r="G46" s="50"/>
+      <c r="G46" s="56"/>
       <c r="H46" s="4"/>
       <c r="I46" s="17"/>
       <c r="J46" s="5">
@@ -5402,7 +5402,7 @@
       <c r="K46" s="17">
         <v>1</v>
       </c>
-      <c r="L46" s="50"/>
+      <c r="L46" s="56"/>
       <c r="M46" s="4"/>
       <c r="N46" s="17"/>
       <c r="O46" s="5">
@@ -5411,62 +5411,62 @@
       <c r="P46" s="17">
         <v>2</v>
       </c>
-      <c r="Q46" s="50"/>
+      <c r="Q46" s="56"/>
       <c r="R46" s="4"/>
       <c r="S46" s="17"/>
       <c r="T46" s="5"/>
       <c r="U46" s="17"/>
-      <c r="V46" s="51"/>
-      <c r="W46" s="58" t="s">
+      <c r="V46" s="57"/>
+      <c r="W46" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="X46" s="53" t="s">
+      <c r="X46" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="Y46" s="57" t="s">
+      <c r="Y46" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="Z46" s="54" t="s">
+      <c r="Z46" s="60" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="47" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A47" s="19"/>
-      <c r="B47" s="45" t="s">
+      <c r="B47" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="C47" s="47">
-        <v>1</v>
-      </c>
-      <c r="D47" s="46">
-        <v>1</v>
-      </c>
-      <c r="E47" s="48"/>
-      <c r="F47" s="46"/>
-      <c r="G47" s="50"/>
-      <c r="H47" s="47"/>
-      <c r="I47" s="46"/>
-      <c r="J47" s="48"/>
-      <c r="K47" s="46"/>
-      <c r="L47" s="50"/>
-      <c r="M47" s="47"/>
-      <c r="N47" s="46"/>
-      <c r="O47" s="48"/>
-      <c r="P47" s="46"/>
-      <c r="Q47" s="50"/>
-      <c r="R47" s="47"/>
-      <c r="S47" s="46"/>
-      <c r="T47" s="48"/>
-      <c r="U47" s="46"/>
-      <c r="V47" s="51"/>
-      <c r="W47" s="47">
-        <v>1</v>
-      </c>
-      <c r="X47" s="46">
-        <v>1</v>
-      </c>
-      <c r="Y47" s="48"/>
-      <c r="Z47" s="49"/>
+      <c r="C47" s="53">
+        <v>1</v>
+      </c>
+      <c r="D47" s="52">
+        <v>1</v>
+      </c>
+      <c r="E47" s="54"/>
+      <c r="F47" s="52"/>
+      <c r="G47" s="56"/>
+      <c r="H47" s="53"/>
+      <c r="I47" s="52"/>
+      <c r="J47" s="54"/>
+      <c r="K47" s="52"/>
+      <c r="L47" s="56"/>
+      <c r="M47" s="53"/>
+      <c r="N47" s="52"/>
+      <c r="O47" s="54"/>
+      <c r="P47" s="52"/>
+      <c r="Q47" s="56"/>
+      <c r="R47" s="53"/>
+      <c r="S47" s="52"/>
+      <c r="T47" s="54"/>
+      <c r="U47" s="52"/>
+      <c r="V47" s="57"/>
+      <c r="W47" s="53">
+        <v>1</v>
+      </c>
+      <c r="X47" s="52">
+        <v>1</v>
+      </c>
+      <c r="Y47" s="54"/>
+      <c r="Z47" s="55"/>
     </row>
     <row r="48" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A48" s="20"/>
@@ -5477,22 +5477,22 @@
       <c r="D48" s="17"/>
       <c r="E48" s="5"/>
       <c r="F48" s="17"/>
-      <c r="G48" s="50"/>
+      <c r="G48" s="56"/>
       <c r="H48" s="4"/>
       <c r="I48" s="17"/>
       <c r="J48" s="5"/>
       <c r="K48" s="17"/>
-      <c r="L48" s="50"/>
+      <c r="L48" s="56"/>
       <c r="M48" s="4"/>
       <c r="N48" s="17"/>
       <c r="O48" s="5"/>
       <c r="P48" s="17"/>
-      <c r="Q48" s="50"/>
+      <c r="Q48" s="56"/>
       <c r="R48" s="4"/>
       <c r="S48" s="17"/>
       <c r="T48" s="5"/>
       <c r="U48" s="17"/>
-      <c r="V48" s="51"/>
+      <c r="V48" s="57"/>
       <c r="W48" s="4"/>
       <c r="X48" s="17"/>
       <c r="Y48" s="5"/>
@@ -5500,55 +5500,55 @@
     </row>
     <row r="49" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A49" s="21"/>
-      <c r="B49" s="45" t="s">
+      <c r="B49" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="C49" s="47">
+      <c r="C49" s="53">
         <v>19</v>
       </c>
-      <c r="D49" s="46">
+      <c r="D49" s="52">
         <v>4</v>
       </c>
-      <c r="E49" s="48"/>
-      <c r="F49" s="46"/>
-      <c r="G49" s="50"/>
-      <c r="H49" s="47">
+      <c r="E49" s="54"/>
+      <c r="F49" s="52"/>
+      <c r="G49" s="56"/>
+      <c r="H49" s="53">
         <v>19</v>
       </c>
-      <c r="I49" s="46">
+      <c r="I49" s="52">
         <v>4</v>
       </c>
-      <c r="J49" s="48"/>
-      <c r="K49" s="46"/>
-      <c r="L49" s="50"/>
-      <c r="M49" s="47"/>
-      <c r="N49" s="46"/>
-      <c r="O49" s="48">
+      <c r="J49" s="54"/>
+      <c r="K49" s="52"/>
+      <c r="L49" s="56"/>
+      <c r="M49" s="53"/>
+      <c r="N49" s="52"/>
+      <c r="O49" s="54">
         <v>3</v>
       </c>
-      <c r="P49" s="55">
-        <v>2</v>
-      </c>
-      <c r="Q49" s="50"/>
-      <c r="R49" s="47">
+      <c r="P49" s="61">
+        <v>2</v>
+      </c>
+      <c r="Q49" s="56"/>
+      <c r="R49" s="53">
         <v>19</v>
       </c>
-      <c r="S49" s="46">
+      <c r="S49" s="52">
         <v>4</v>
       </c>
-      <c r="T49" s="48"/>
-      <c r="U49" s="46"/>
-      <c r="V49" s="51"/>
-      <c r="W49" s="47">
+      <c r="T49" s="54"/>
+      <c r="U49" s="52"/>
+      <c r="V49" s="57"/>
+      <c r="W49" s="53">
         <v>19</v>
       </c>
-      <c r="X49" s="46">
-        <v>2</v>
-      </c>
-      <c r="Y49" s="48">
+      <c r="X49" s="52">
+        <v>2</v>
+      </c>
+      <c r="Y49" s="54">
         <v>3</v>
       </c>
-      <c r="Z49" s="56">
+      <c r="Z49" s="62">
         <v>2</v>
       </c>
     </row>
@@ -5560,30 +5560,30 @@
       <c r="C50" s="4">
         <v>8</v>
       </c>
-      <c r="D50" s="55">
+      <c r="D50" s="61">
         <v>4</v>
       </c>
       <c r="E50" s="5">
         <v>2</v>
       </c>
-      <c r="F50" s="55">
-        <v>1</v>
-      </c>
-      <c r="G50" s="50"/>
+      <c r="F50" s="61">
+        <v>1</v>
+      </c>
+      <c r="G50" s="56"/>
       <c r="H50" s="4"/>
       <c r="I50" s="17"/>
       <c r="J50" s="5">
         <v>2</v>
       </c>
-      <c r="K50" s="55">
-        <v>2</v>
-      </c>
-      <c r="L50" s="50"/>
+      <c r="K50" s="17">
+        <v>2</v>
+      </c>
+      <c r="L50" s="56"/>
       <c r="M50" s="4"/>
       <c r="N50" s="17"/>
       <c r="O50" s="5"/>
       <c r="P50" s="17"/>
-      <c r="Q50" s="50"/>
+      <c r="Q50" s="56"/>
       <c r="R50" s="4">
         <v>8</v>
       </c>
@@ -5593,10 +5593,10 @@
       <c r="T50" s="5">
         <v>2</v>
       </c>
-      <c r="U50" s="55">
-        <v>1</v>
-      </c>
-      <c r="V50" s="51"/>
+      <c r="U50" s="17">
+        <v>1</v>
+      </c>
+      <c r="V50" s="57"/>
       <c r="W50" s="4">
         <v>8</v>
       </c>
@@ -5608,61 +5608,61 @@
     </row>
     <row r="51" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A51" s="23"/>
-      <c r="B51" s="45" t="s">
+      <c r="B51" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="C51" s="47">
+      <c r="C51" s="53">
         <v>7</v>
       </c>
-      <c r="D51" s="55">
+      <c r="D51" s="61">
         <v>3</v>
       </c>
-      <c r="E51" s="48">
+      <c r="E51" s="54">
         <v>11</v>
       </c>
-      <c r="F51" s="46">
+      <c r="F51" s="52">
         <v>3</v>
       </c>
-      <c r="G51" s="50"/>
-      <c r="H51" s="47">
+      <c r="G51" s="56"/>
+      <c r="H51" s="53">
         <v>7</v>
       </c>
-      <c r="I51" s="55">
+      <c r="I51" s="61">
         <v>3</v>
       </c>
-      <c r="J51" s="48">
+      <c r="J51" s="54">
         <v>11</v>
       </c>
-      <c r="K51" s="63">
+      <c r="K51" s="69">
         <v>6</v>
       </c>
-      <c r="L51" s="50"/>
-      <c r="M51" s="47"/>
-      <c r="N51" s="46"/>
-      <c r="O51" s="48">
+      <c r="L51" s="56"/>
+      <c r="M51" s="53"/>
+      <c r="N51" s="52"/>
+      <c r="O51" s="54">
         <v>11</v>
       </c>
-      <c r="P51" s="62">
+      <c r="P51" s="68">
         <v>3</v>
       </c>
-      <c r="Q51" s="50"/>
-      <c r="R51" s="60" t="s">
+      <c r="Q51" s="56"/>
+      <c r="R51" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="S51" s="52" t="s">
+      <c r="S51" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="T51" s="59" t="s">
+      <c r="T51" s="65" t="s">
         <v>37</v>
       </c>
-      <c r="U51" s="52" t="s">
+      <c r="U51" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="V51" s="51"/>
-      <c r="W51" s="47"/>
-      <c r="X51" s="46"/>
-      <c r="Y51" s="48"/>
-      <c r="Z51" s="49"/>
+      <c r="V51" s="57"/>
+      <c r="W51" s="53"/>
+      <c r="X51" s="52"/>
+      <c r="Y51" s="54"/>
+      <c r="Z51" s="55"/>
     </row>
     <row r="52" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A52" s="39" t="s">
@@ -5683,25 +5683,25 @@
       <c r="F52" s="17">
         <v>1</v>
       </c>
-      <c r="G52" s="50"/>
+      <c r="G52" s="56"/>
       <c r="H52" s="4"/>
       <c r="I52" s="17"/>
       <c r="J52" s="5">
         <v>4</v>
       </c>
-      <c r="K52" s="55">
-        <v>2</v>
-      </c>
-      <c r="L52" s="50"/>
+      <c r="K52" s="61">
+        <v>2</v>
+      </c>
+      <c r="L52" s="56"/>
       <c r="M52" s="4"/>
       <c r="N52" s="17"/>
       <c r="O52" s="5">
         <v>4</v>
       </c>
-      <c r="P52" s="55">
+      <c r="P52" s="61">
         <v>3</v>
       </c>
-      <c r="Q52" s="50"/>
+      <c r="Q52" s="56"/>
       <c r="R52" s="4">
         <v>9</v>
       </c>
@@ -5711,10 +5711,10 @@
       <c r="T52" s="5">
         <v>4</v>
       </c>
-      <c r="U52" s="55">
+      <c r="U52" s="61">
         <v>3</v>
       </c>
-      <c r="V52" s="51"/>
+      <c r="V52" s="57"/>
       <c r="W52" s="4">
         <v>9</v>
       </c>
@@ -5727,67 +5727,67 @@
     </row>
     <row r="53" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A53" s="25"/>
-      <c r="B53" s="45" t="s">
+      <c r="B53" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="C53" s="59" t="s">
+      <c r="C53" s="65" t="s">
         <v>37</v>
       </c>
-      <c r="D53" s="52" t="s">
+      <c r="D53" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="E53" s="60" t="s">
+      <c r="E53" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="F53" s="52" t="s">
+      <c r="F53" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="G53" s="50"/>
-      <c r="H53" s="47">
+      <c r="G53" s="56"/>
+      <c r="H53" s="53">
         <v>17</v>
       </c>
-      <c r="I53" s="46">
+      <c r="I53" s="52">
         <v>3</v>
       </c>
-      <c r="J53" s="48">
+      <c r="J53" s="54">
         <v>15</v>
       </c>
-      <c r="K53" s="46">
-        <v>2</v>
-      </c>
-      <c r="L53" s="50"/>
-      <c r="M53" s="47">
+      <c r="K53" s="52">
+        <v>2</v>
+      </c>
+      <c r="L53" s="56"/>
+      <c r="M53" s="53">
         <v>17</v>
       </c>
-      <c r="N53" s="46">
-        <v>2</v>
-      </c>
-      <c r="O53" s="48">
+      <c r="N53" s="52">
+        <v>2</v>
+      </c>
+      <c r="O53" s="54">
         <v>15</v>
       </c>
-      <c r="P53" s="65">
+      <c r="P53" s="71">
         <v>5</v>
       </c>
-      <c r="Q53" s="50"/>
-      <c r="R53" s="47">
+      <c r="Q53" s="56"/>
+      <c r="R53" s="53">
         <v>17</v>
       </c>
-      <c r="S53" s="46">
+      <c r="S53" s="52">
         <v>3</v>
       </c>
-      <c r="T53" s="48"/>
-      <c r="U53" s="46"/>
-      <c r="V53" s="51"/>
-      <c r="W53" s="47">
+      <c r="T53" s="54"/>
+      <c r="U53" s="52"/>
+      <c r="V53" s="57"/>
+      <c r="W53" s="53">
         <v>17</v>
       </c>
-      <c r="X53" s="46">
-        <v>2</v>
-      </c>
-      <c r="Y53" s="48">
+      <c r="X53" s="52">
+        <v>2</v>
+      </c>
+      <c r="Y53" s="54">
         <v>15</v>
       </c>
-      <c r="Z53" s="49">
+      <c r="Z53" s="55">
         <v>2</v>
       </c>
     </row>
@@ -5802,22 +5802,22 @@
       <c r="D54" s="17"/>
       <c r="E54" s="5"/>
       <c r="F54" s="17"/>
-      <c r="G54" s="50"/>
+      <c r="G54" s="56"/>
       <c r="H54" s="4"/>
       <c r="I54" s="17"/>
       <c r="J54" s="5"/>
       <c r="K54" s="17"/>
-      <c r="L54" s="50"/>
+      <c r="L54" s="56"/>
       <c r="M54" s="4"/>
       <c r="N54" s="17"/>
       <c r="O54" s="5"/>
       <c r="P54" s="17"/>
-      <c r="Q54" s="50"/>
+      <c r="Q54" s="56"/>
       <c r="R54" s="4"/>
       <c r="S54" s="17"/>
       <c r="T54" s="5"/>
       <c r="U54" s="17"/>
-      <c r="V54" s="51"/>
+      <c r="V54" s="57"/>
       <c r="W54" s="4">
         <v>1</v>
       </c>
@@ -5831,41 +5831,41 @@
       <c r="A55" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B55" s="45" t="s">
+      <c r="B55" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="C55" s="47">
-        <v>2</v>
-      </c>
-      <c r="D55" s="46">
-        <v>1</v>
-      </c>
-      <c r="E55" s="48"/>
-      <c r="F55" s="46"/>
-      <c r="G55" s="50"/>
-      <c r="H55" s="47">
-        <v>2</v>
-      </c>
-      <c r="I55" s="46">
-        <v>2</v>
-      </c>
-      <c r="J55" s="48"/>
-      <c r="K55" s="46"/>
-      <c r="L55" s="50"/>
-      <c r="M55" s="47"/>
-      <c r="N55" s="46"/>
-      <c r="O55" s="48"/>
-      <c r="P55" s="46"/>
-      <c r="Q55" s="50"/>
-      <c r="R55" s="47"/>
-      <c r="S55" s="46"/>
-      <c r="T55" s="48"/>
-      <c r="U55" s="46"/>
-      <c r="V55" s="51"/>
-      <c r="W55" s="47"/>
-      <c r="X55" s="46"/>
-      <c r="Y55" s="48"/>
-      <c r="Z55" s="49"/>
+      <c r="C55" s="53">
+        <v>2</v>
+      </c>
+      <c r="D55" s="52">
+        <v>1</v>
+      </c>
+      <c r="E55" s="54"/>
+      <c r="F55" s="52"/>
+      <c r="G55" s="56"/>
+      <c r="H55" s="53">
+        <v>2</v>
+      </c>
+      <c r="I55" s="52">
+        <v>2</v>
+      </c>
+      <c r="J55" s="54"/>
+      <c r="K55" s="52"/>
+      <c r="L55" s="56"/>
+      <c r="M55" s="53"/>
+      <c r="N55" s="52"/>
+      <c r="O55" s="54"/>
+      <c r="P55" s="52"/>
+      <c r="Q55" s="56"/>
+      <c r="R55" s="53"/>
+      <c r="S55" s="52"/>
+      <c r="T55" s="54"/>
+      <c r="U55" s="52"/>
+      <c r="V55" s="57"/>
+      <c r="W55" s="53"/>
+      <c r="X55" s="52"/>
+      <c r="Y55" s="54"/>
+      <c r="Z55" s="55"/>
       <c r="AF55" s="5"/>
     </row>
     <row r="56" spans="1:32" x14ac:dyDescent="0.35">
@@ -5878,38 +5878,38 @@
       <c r="C56" s="4">
         <v>13</v>
       </c>
-      <c r="D56" s="61">
+      <c r="D56" s="67">
         <v>3</v>
       </c>
       <c r="E56" s="5">
         <v>9</v>
       </c>
-      <c r="F56" s="61">
-        <v>2</v>
-      </c>
-      <c r="G56" s="50"/>
-      <c r="H56" s="58" t="s">
+      <c r="F56" s="67">
+        <v>2</v>
+      </c>
+      <c r="G56" s="56"/>
+      <c r="H56" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="I56" s="53" t="s">
+      <c r="I56" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="J56" s="57" t="s">
+      <c r="J56" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="K56" s="53" t="s">
+      <c r="K56" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="L56" s="50"/>
+      <c r="L56" s="56"/>
       <c r="M56" s="4"/>
       <c r="N56" s="17"/>
       <c r="O56" s="5">
         <v>9</v>
       </c>
-      <c r="P56" s="62">
-        <v>2</v>
-      </c>
-      <c r="Q56" s="50"/>
+      <c r="P56" s="68">
+        <v>2</v>
+      </c>
+      <c r="Q56" s="56"/>
       <c r="R56" s="4">
         <v>13</v>
       </c>
@@ -5919,10 +5919,10 @@
       <c r="T56" s="5">
         <v>9</v>
       </c>
-      <c r="U56" s="64">
+      <c r="U56" s="70">
         <v>6</v>
       </c>
-      <c r="V56" s="51"/>
+      <c r="V56" s="57"/>
       <c r="W56" s="4"/>
       <c r="X56" s="17"/>
       <c r="Y56" s="5">
@@ -5936,45 +5936,45 @@
       <c r="A57" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B57" s="45" t="s">
+      <c r="B57" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="C57" s="47">
-        <v>1</v>
-      </c>
-      <c r="D57" s="46">
-        <v>1</v>
-      </c>
-      <c r="E57" s="48"/>
-      <c r="F57" s="46"/>
-      <c r="G57" s="50"/>
-      <c r="H57" s="47"/>
-      <c r="I57" s="46"/>
-      <c r="J57" s="48">
-        <v>2</v>
-      </c>
-      <c r="K57" s="46">
-        <v>1</v>
-      </c>
-      <c r="L57" s="50"/>
-      <c r="M57" s="47"/>
-      <c r="N57" s="46"/>
-      <c r="O57" s="48"/>
-      <c r="P57" s="46"/>
-      <c r="Q57" s="50"/>
-      <c r="R57" s="47"/>
-      <c r="S57" s="46"/>
-      <c r="T57" s="48"/>
-      <c r="U57" s="46"/>
-      <c r="V57" s="51"/>
-      <c r="W57" s="47">
-        <v>1</v>
-      </c>
-      <c r="X57" s="46">
-        <v>1</v>
-      </c>
-      <c r="Y57" s="48"/>
-      <c r="Z57" s="49"/>
+      <c r="C57" s="53">
+        <v>1</v>
+      </c>
+      <c r="D57" s="52">
+        <v>1</v>
+      </c>
+      <c r="E57" s="54"/>
+      <c r="F57" s="52"/>
+      <c r="G57" s="56"/>
+      <c r="H57" s="53"/>
+      <c r="I57" s="52"/>
+      <c r="J57" s="54">
+        <v>2</v>
+      </c>
+      <c r="K57" s="52">
+        <v>1</v>
+      </c>
+      <c r="L57" s="56"/>
+      <c r="M57" s="53"/>
+      <c r="N57" s="52"/>
+      <c r="O57" s="54"/>
+      <c r="P57" s="52"/>
+      <c r="Q57" s="56"/>
+      <c r="R57" s="53"/>
+      <c r="S57" s="52"/>
+      <c r="T57" s="54"/>
+      <c r="U57" s="52"/>
+      <c r="V57" s="57"/>
+      <c r="W57" s="53">
+        <v>1</v>
+      </c>
+      <c r="X57" s="52">
+        <v>1</v>
+      </c>
+      <c r="Y57" s="54"/>
+      <c r="Z57" s="55"/>
     </row>
     <row r="58" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A58" s="29"/>
@@ -5989,7 +5989,7 @@
       <c r="F58" s="17">
         <v>2</v>
       </c>
-      <c r="G58" s="50"/>
+      <c r="G58" s="56"/>
       <c r="H58" s="4">
         <v>5</v>
       </c>
@@ -5999,24 +5999,24 @@
       <c r="J58" s="5">
         <v>4</v>
       </c>
-      <c r="K58" s="64">
+      <c r="K58" s="70">
         <v>4</v>
       </c>
-      <c r="L58" s="50"/>
+      <c r="L58" s="56"/>
       <c r="M58" s="4"/>
       <c r="N58" s="17"/>
       <c r="O58" s="5"/>
       <c r="P58" s="17"/>
-      <c r="Q58" s="50"/>
+      <c r="Q58" s="56"/>
       <c r="R58" s="4"/>
       <c r="S58" s="17"/>
       <c r="T58" s="5">
         <v>4</v>
       </c>
-      <c r="U58" s="64">
+      <c r="U58" s="70">
         <v>3</v>
       </c>
-      <c r="V58" s="51"/>
+      <c r="V58" s="57"/>
       <c r="W58" s="4"/>
       <c r="X58" s="17"/>
       <c r="Y58" s="5"/>
@@ -6026,53 +6026,53 @@
       <c r="A59" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="B59" s="45" t="s">
+      <c r="B59" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="C59" s="47">
+      <c r="C59" s="53">
         <v>6</v>
       </c>
-      <c r="D59" s="46">
-        <v>2</v>
-      </c>
-      <c r="E59" s="48"/>
-      <c r="F59" s="46"/>
-      <c r="G59" s="50"/>
-      <c r="H59" s="47">
+      <c r="D59" s="52">
+        <v>2</v>
+      </c>
+      <c r="E59" s="54"/>
+      <c r="F59" s="52"/>
+      <c r="G59" s="56"/>
+      <c r="H59" s="53">
         <v>6</v>
       </c>
-      <c r="I59" s="46">
-        <v>1</v>
-      </c>
-      <c r="J59" s="48">
-        <v>2</v>
-      </c>
-      <c r="K59" s="46">
-        <v>1</v>
-      </c>
-      <c r="L59" s="50"/>
-      <c r="M59" s="47"/>
-      <c r="N59" s="46"/>
-      <c r="O59" s="48">
-        <v>2</v>
-      </c>
-      <c r="P59" s="55">
-        <v>2</v>
-      </c>
-      <c r="Q59" s="50"/>
-      <c r="R59" s="47"/>
-      <c r="S59" s="46"/>
-      <c r="T59" s="48"/>
-      <c r="U59" s="46"/>
-      <c r="V59" s="51"/>
-      <c r="W59" s="47">
+      <c r="I59" s="52">
+        <v>1</v>
+      </c>
+      <c r="J59" s="54">
+        <v>2</v>
+      </c>
+      <c r="K59" s="52">
+        <v>1</v>
+      </c>
+      <c r="L59" s="56"/>
+      <c r="M59" s="53"/>
+      <c r="N59" s="52"/>
+      <c r="O59" s="54">
+        <v>2</v>
+      </c>
+      <c r="P59" s="61">
+        <v>2</v>
+      </c>
+      <c r="Q59" s="56"/>
+      <c r="R59" s="53"/>
+      <c r="S59" s="52"/>
+      <c r="T59" s="54"/>
+      <c r="U59" s="52"/>
+      <c r="V59" s="57"/>
+      <c r="W59" s="53">
         <v>6</v>
       </c>
-      <c r="X59" s="55">
+      <c r="X59" s="61">
         <v>3</v>
       </c>
-      <c r="Y59" s="48"/>
-      <c r="Z59" s="49"/>
+      <c r="Y59" s="54"/>
+      <c r="Z59" s="55"/>
     </row>
     <row r="60" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A60" s="31"/>
@@ -6082,7 +6082,7 @@
       <c r="C60" s="4">
         <v>4</v>
       </c>
-      <c r="D60" s="65">
+      <c r="D60" s="71">
         <v>2</v>
       </c>
       <c r="E60" s="5">
@@ -6091,38 +6091,38 @@
       <c r="F60" s="17">
         <v>5</v>
       </c>
-      <c r="G60" s="50"/>
+      <c r="G60" s="56"/>
       <c r="H60" s="4"/>
       <c r="I60" s="17"/>
       <c r="J60" s="5">
         <v>16</v>
       </c>
-      <c r="K60" s="62">
-        <v>2</v>
-      </c>
-      <c r="L60" s="50"/>
-      <c r="M60" s="58" t="s">
+      <c r="K60" s="68">
+        <v>2</v>
+      </c>
+      <c r="L60" s="56"/>
+      <c r="M60" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="N60" s="53" t="s">
+      <c r="N60" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="O60" s="57" t="s">
+      <c r="O60" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="P60" s="53" t="s">
+      <c r="P60" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="Q60" s="50"/>
+      <c r="Q60" s="56"/>
       <c r="R60" s="4"/>
       <c r="S60" s="17"/>
       <c r="T60" s="5">
         <v>16</v>
       </c>
-      <c r="U60" s="62">
+      <c r="U60" s="68">
         <v>3</v>
       </c>
-      <c r="V60" s="51"/>
+      <c r="V60" s="57"/>
       <c r="W60" s="4"/>
       <c r="X60" s="17"/>
       <c r="Y60" s="5">
@@ -6134,49 +6134,49 @@
     </row>
     <row r="61" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A61" s="32"/>
-      <c r="B61" s="45" t="s">
+      <c r="B61" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="C61" s="47">
-        <v>1</v>
-      </c>
-      <c r="D61" s="46">
-        <v>1</v>
-      </c>
-      <c r="E61" s="48">
+      <c r="C61" s="53">
+        <v>1</v>
+      </c>
+      <c r="D61" s="52">
+        <v>1</v>
+      </c>
+      <c r="E61" s="54">
         <v>3</v>
       </c>
-      <c r="F61" s="46">
-        <v>1</v>
-      </c>
-      <c r="G61" s="50"/>
-      <c r="H61" s="47"/>
-      <c r="I61" s="46"/>
-      <c r="J61" s="48">
+      <c r="F61" s="52">
+        <v>1</v>
+      </c>
+      <c r="G61" s="56"/>
+      <c r="H61" s="53"/>
+      <c r="I61" s="52"/>
+      <c r="J61" s="54">
         <v>3</v>
       </c>
-      <c r="K61" s="46">
-        <v>1</v>
-      </c>
-      <c r="L61" s="50"/>
-      <c r="M61" s="47"/>
-      <c r="N61" s="46"/>
-      <c r="O61" s="48">
+      <c r="K61" s="52">
+        <v>1</v>
+      </c>
+      <c r="L61" s="56"/>
+      <c r="M61" s="53"/>
+      <c r="N61" s="52"/>
+      <c r="O61" s="54">
         <v>3</v>
       </c>
-      <c r="P61" s="46">
-        <v>1</v>
-      </c>
-      <c r="Q61" s="50"/>
-      <c r="R61" s="47"/>
-      <c r="S61" s="46"/>
-      <c r="T61" s="48"/>
-      <c r="U61" s="46"/>
-      <c r="V61" s="51"/>
-      <c r="W61" s="47"/>
-      <c r="X61" s="46"/>
-      <c r="Y61" s="48"/>
-      <c r="Z61" s="49"/>
+      <c r="P61" s="52">
+        <v>1</v>
+      </c>
+      <c r="Q61" s="56"/>
+      <c r="R61" s="53"/>
+      <c r="S61" s="52"/>
+      <c r="T61" s="54"/>
+      <c r="U61" s="52"/>
+      <c r="V61" s="57"/>
+      <c r="W61" s="53"/>
+      <c r="X61" s="52"/>
+      <c r="Y61" s="54"/>
+      <c r="Z61" s="55"/>
     </row>
     <row r="62" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A62" s="33"/>
@@ -6187,7 +6187,7 @@
       <c r="D62" s="36"/>
       <c r="E62" s="8"/>
       <c r="F62" s="36"/>
-      <c r="G62" s="50"/>
+      <c r="G62" s="56"/>
       <c r="H62" s="7"/>
       <c r="I62" s="36"/>
       <c r="J62" s="8">
@@ -6196,17 +6196,17 @@
       <c r="K62" s="36">
         <v>1</v>
       </c>
-      <c r="L62" s="50"/>
+      <c r="L62" s="56"/>
       <c r="M62" s="7"/>
       <c r="N62" s="36"/>
       <c r="O62" s="8"/>
       <c r="P62" s="36"/>
-      <c r="Q62" s="50"/>
+      <c r="Q62" s="56"/>
       <c r="R62" s="7"/>
       <c r="S62" s="36"/>
       <c r="T62" s="8"/>
       <c r="U62" s="36"/>
-      <c r="V62" s="51"/>
+      <c r="V62" s="57"/>
       <c r="W62" s="7"/>
       <c r="X62" s="36"/>
       <c r="Y62" s="8"/>
@@ -6214,20 +6214,20 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="M42:P42"/>
-    <mergeCell ref="O43:P43"/>
     <mergeCell ref="W42:Z42"/>
     <mergeCell ref="W43:X43"/>
     <mergeCell ref="Y43:Z43"/>
     <mergeCell ref="H43:I43"/>
     <mergeCell ref="J43:K43"/>
     <mergeCell ref="H42:K42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="M42:P42"/>
     <mergeCell ref="R43:S43"/>
     <mergeCell ref="T43:U43"/>
+    <mergeCell ref="O43:P43"/>
     <mergeCell ref="R42:U42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/Findings.xlsx
+++ b/Findings.xlsx
@@ -1,18 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17426"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17531"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Astrid\Dropbox\Laclau Mouffe\HA_RuG\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6950"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6950" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Diagramme" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="38">
   <si>
     <t>Farbe</t>
   </si>
@@ -525,30 +526,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -606,6 +583,30 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1207,7 +1208,649 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE" sz="1600" b="1">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="Adobe Fangsong Std R" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              </a:rPr>
+              <a:t>Absolute Vorkommen im Vergleich</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Diagramme!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1936</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Diagramme!$A$2:$A$19</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>Vorbildfunktion</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Pflichtbewusstsein gegenüber der Nation</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>schweigsam</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>nüchtern, sachlich</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>mutig, tapfer</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Organisation, Selbständigkeit</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Ehe</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>selbstlos, bescheiden</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sorge(arbeit), Hilfsbereit</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Frauenarbeitsdienst</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Gläubigkeit</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Mutter</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>instinktiv</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Häuslichkeit, Hausarbeit</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>"Natur der Frau"</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Berufstätigkeit</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Empathie</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>friedliebend</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Diagramme!$B$2:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-717F-40F9-88FB-F75F1F986EA5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Diagramme!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1941</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Diagramme!$A$2:$A$19</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>Vorbildfunktion</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Pflichtbewusstsein gegenüber der Nation</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>schweigsam</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>nüchtern, sachlich</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>mutig, tapfer</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Organisation, Selbständigkeit</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Ehe</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>selbstlos, bescheiden</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sorge(arbeit), Hilfsbereit</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Frauenarbeitsdienst</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Gläubigkeit</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Mutter</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>instinktiv</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Häuslichkeit, Hausarbeit</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>"Natur der Frau"</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Berufstätigkeit</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Empathie</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>friedliebend</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Diagramme!$C$2:$C$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-717F-40F9-88FB-F75F1F986EA5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="336086336"/>
+        <c:axId val="336087976"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="336086336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="336087976"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="336087976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="336086336"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="accent3">
+            <a:lumMod val="0"/>
+            <a:lumOff val="100000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="35000">
+          <a:schemeClr val="accent3">
+            <a:lumMod val="0"/>
+            <a:lumOff val="100000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="accent3">
+            <a:lumMod val="100000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1801,6 +2444,509 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1822,6 +2968,47 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6BD792B-F511-43D6-8906-735031434FF2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>231774</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>393699</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>6349</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A34B0B28-B461-4B83-974C-AC39F0F18F8B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2141,10 +3328,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozenSplit"/>
+    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="AV1" activePane="topRight" state="frozenSplit"/>
       <selection sqref="A1 C1:C1048576"/>
-      <selection pane="topRight" activeCell="I55" sqref="I55"/>
+      <selection pane="topRight" activeCell="AX23" sqref="AX23:AX41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3859,7 +5046,7 @@
         <v>3</v>
       </c>
       <c r="AV23">
-        <f>SUM(C2:BA2)</f>
+        <f t="shared" ref="AV23:AV40" si="1">SUM(C2:BA2)</f>
         <v>3</v>
       </c>
       <c r="AW23">
@@ -3940,7 +5127,7 @@
         <v>7</v>
       </c>
       <c r="AV24">
-        <f>SUM(C3:BA3)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="AW24">
@@ -4006,7 +5193,7 @@
         <v>0</v>
       </c>
       <c r="AV25">
-        <f>SUM(C4:BA4)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AW25">
@@ -4072,7 +5259,7 @@
         <v>0</v>
       </c>
       <c r="AV26">
-        <f>SUM(C5:BA5)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="AW26">
@@ -4145,7 +5332,7 @@
         <v>3</v>
       </c>
       <c r="AV27">
-        <f>SUM(C6:BA6)</f>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="AW27">
@@ -4216,7 +5403,7 @@
         <v>2</v>
       </c>
       <c r="AV28">
-        <f>SUM(C7:BA7)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="AW28">
@@ -4303,7 +5490,7 @@
         <v>11</v>
       </c>
       <c r="AV29">
-        <f>SUM(C8:BA8)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="AW29">
@@ -4378,7 +5565,7 @@
         <v>4</v>
       </c>
       <c r="AV30">
-        <f>SUM(C9:BA9)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="AW30">
@@ -4473,7 +5660,7 @@
         <v>15</v>
       </c>
       <c r="AV31">
-        <f>SUM(C10:BA10)</f>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="AW31">
@@ -4539,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="AV32">
-        <f>SUM(C11:BA11)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AW32">
@@ -4607,7 +5794,7 @@
         <v>0</v>
       </c>
       <c r="AV33">
-        <f>SUM(C12:BA12)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="AW33">
@@ -4685,14 +5872,14 @@
       <c r="AR34" s="5"/>
       <c r="AS34" s="6"/>
       <c r="AT34">
-        <f>SUM(C34:AS34)</f>
+        <f t="shared" ref="AT34:AT40" si="2">SUM(C34:AS34)</f>
         <v>9</v>
       </c>
       <c r="AU34">
         <v>9</v>
       </c>
       <c r="AV34">
-        <f>SUM(C13:BA13)</f>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="AW34">
@@ -4758,14 +5945,14 @@
       <c r="AR35" s="5"/>
       <c r="AS35" s="6"/>
       <c r="AT35">
-        <f>SUM(C35:AS35)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AU35">
         <v>2</v>
       </c>
       <c r="AV35">
-        <f>SUM(C14:BA14)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AW35">
@@ -4833,14 +6020,14 @@
       <c r="AR36" s="5"/>
       <c r="AS36" s="6"/>
       <c r="AT36">
-        <f>SUM(C36:AS36)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="AU36">
         <v>4</v>
       </c>
       <c r="AV36">
-        <f>SUM(C15:BA15)</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="AW36">
@@ -4906,14 +6093,14 @@
       </c>
       <c r="AS37" s="6"/>
       <c r="AT37">
-        <f>SUM(C37:AS37)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AU37">
         <v>2</v>
       </c>
       <c r="AV37">
-        <f>SUM(C16:BA16)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="AW37">
@@ -5003,14 +6190,14 @@
       </c>
       <c r="AS38" s="6"/>
       <c r="AT38">
-        <f>SUM(C38:AS38)</f>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="AU38">
         <v>16</v>
       </c>
       <c r="AV38">
-        <f>SUM(C17:BA17)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="AW38">
@@ -5076,14 +6263,14 @@
       <c r="AR39" s="5"/>
       <c r="AS39" s="6"/>
       <c r="AT39">
-        <f>SUM(C39:AS39)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="AU39">
         <v>3</v>
       </c>
       <c r="AV39">
-        <f>SUM(C18:BA18)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AW39">
@@ -5149,14 +6336,14 @@
       <c r="AR40" s="8"/>
       <c r="AS40" s="9"/>
       <c r="AT40">
-        <f>SUM(C40:AS40)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="AU40">
         <v>3</v>
       </c>
       <c r="AV40">
-        <f>SUM(C19:BA19)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AW40">
@@ -5182,78 +6369,78 @@
       </c>
     </row>
     <row r="42" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="C42" s="45" t="s">
+      <c r="C42" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="D42" s="46"/>
-      <c r="E42" s="46"/>
-      <c r="F42" s="47"/>
-      <c r="H42" s="45" t="s">
+      <c r="D42" s="67"/>
+      <c r="E42" s="67"/>
+      <c r="F42" s="68"/>
+      <c r="H42" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="I42" s="46"/>
-      <c r="J42" s="46"/>
-      <c r="K42" s="47"/>
-      <c r="M42" s="45" t="s">
+      <c r="I42" s="67"/>
+      <c r="J42" s="67"/>
+      <c r="K42" s="68"/>
+      <c r="M42" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="N42" s="46"/>
-      <c r="O42" s="46"/>
-      <c r="P42" s="47"/>
-      <c r="R42" s="45" t="s">
+      <c r="N42" s="67"/>
+      <c r="O42" s="67"/>
+      <c r="P42" s="68"/>
+      <c r="R42" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="S42" s="46"/>
-      <c r="T42" s="46"/>
-      <c r="U42" s="47"/>
-      <c r="W42" s="45" t="s">
+      <c r="S42" s="67"/>
+      <c r="T42" s="67"/>
+      <c r="U42" s="68"/>
+      <c r="W42" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="X42" s="46"/>
-      <c r="Y42" s="46"/>
-      <c r="Z42" s="47"/>
+      <c r="X42" s="67"/>
+      <c r="Y42" s="67"/>
+      <c r="Z42" s="68"/>
     </row>
     <row r="43" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="C43" s="48">
+      <c r="C43" s="69">
         <v>36</v>
       </c>
-      <c r="D43" s="49"/>
-      <c r="E43" s="49">
+      <c r="D43" s="71"/>
+      <c r="E43" s="71">
         <v>41</v>
       </c>
-      <c r="F43" s="50"/>
-      <c r="H43" s="48">
+      <c r="F43" s="70"/>
+      <c r="H43" s="69">
         <v>36</v>
       </c>
-      <c r="I43" s="50"/>
-      <c r="J43" s="48">
+      <c r="I43" s="70"/>
+      <c r="J43" s="69">
         <v>41</v>
       </c>
-      <c r="K43" s="50"/>
-      <c r="M43" s="48">
+      <c r="K43" s="70"/>
+      <c r="M43" s="69">
         <v>36</v>
       </c>
-      <c r="N43" s="50"/>
-      <c r="O43" s="48">
+      <c r="N43" s="70"/>
+      <c r="O43" s="69">
         <v>41</v>
       </c>
-      <c r="P43" s="50"/>
-      <c r="R43" s="48">
+      <c r="P43" s="70"/>
+      <c r="R43" s="69">
         <v>36</v>
       </c>
-      <c r="S43" s="50"/>
-      <c r="T43" s="48">
+      <c r="S43" s="70"/>
+      <c r="T43" s="69">
         <v>41</v>
       </c>
-      <c r="U43" s="50"/>
-      <c r="W43" s="48">
+      <c r="U43" s="70"/>
+      <c r="W43" s="69">
         <v>36</v>
       </c>
-      <c r="X43" s="50"/>
-      <c r="Y43" s="48">
+      <c r="X43" s="70"/>
+      <c r="Y43" s="69">
         <v>41</v>
       </c>
-      <c r="Z43" s="50"/>
+      <c r="Z43" s="70"/>
     </row>
     <row r="44" spans="1:50" x14ac:dyDescent="0.35">
       <c r="B44" s="41"/>
@@ -5320,59 +6507,59 @@
     </row>
     <row r="45" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A45" s="14"/>
-      <c r="B45" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="C45" s="53">
+      <c r="B45" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" s="47">
         <v>3</v>
       </c>
-      <c r="D45" s="52">
-        <v>1</v>
-      </c>
-      <c r="E45" s="54">
+      <c r="D45" s="46">
+        <v>1</v>
+      </c>
+      <c r="E45" s="48">
         <v>3</v>
       </c>
-      <c r="F45" s="61">
+      <c r="F45" s="55">
         <v>2</v>
       </c>
-      <c r="G45" s="56"/>
-      <c r="H45" s="53">
+      <c r="G45" s="50"/>
+      <c r="H45" s="47">
         <v>3</v>
       </c>
-      <c r="I45" s="52">
-        <v>1</v>
-      </c>
-      <c r="J45" s="54">
+      <c r="I45" s="46">
+        <v>1</v>
+      </c>
+      <c r="J45" s="48">
         <v>3</v>
       </c>
-      <c r="K45" s="61">
+      <c r="K45" s="55">
         <v>2</v>
       </c>
-      <c r="L45" s="56"/>
-      <c r="M45" s="53"/>
-      <c r="N45" s="52"/>
-      <c r="O45" s="54"/>
-      <c r="P45" s="52"/>
-      <c r="Q45" s="56"/>
-      <c r="R45" s="53"/>
-      <c r="S45" s="52"/>
-      <c r="T45" s="54">
+      <c r="L45" s="50"/>
+      <c r="M45" s="47"/>
+      <c r="N45" s="46"/>
+      <c r="O45" s="48"/>
+      <c r="P45" s="46"/>
+      <c r="Q45" s="50"/>
+      <c r="R45" s="47"/>
+      <c r="S45" s="46"/>
+      <c r="T45" s="48">
         <v>3</v>
       </c>
-      <c r="U45" s="52">
-        <v>1</v>
-      </c>
-      <c r="V45" s="57"/>
-      <c r="W45" s="53">
+      <c r="U45" s="46">
+        <v>1</v>
+      </c>
+      <c r="V45" s="51"/>
+      <c r="W45" s="47">
         <v>3</v>
       </c>
-      <c r="X45" s="52">
-        <v>1</v>
-      </c>
-      <c r="Y45" s="54">
+      <c r="X45" s="46">
+        <v>1</v>
+      </c>
+      <c r="Y45" s="48">
         <v>3</v>
       </c>
-      <c r="Z45" s="55">
+      <c r="Z45" s="49">
         <v>1</v>
       </c>
     </row>
@@ -5393,7 +6580,7 @@
       <c r="F46" s="17">
         <v>2</v>
       </c>
-      <c r="G46" s="56"/>
+      <c r="G46" s="50"/>
       <c r="H46" s="4"/>
       <c r="I46" s="17"/>
       <c r="J46" s="5">
@@ -5402,7 +6589,7 @@
       <c r="K46" s="17">
         <v>1</v>
       </c>
-      <c r="L46" s="56"/>
+      <c r="L46" s="50"/>
       <c r="M46" s="4"/>
       <c r="N46" s="17"/>
       <c r="O46" s="5">
@@ -5411,62 +6598,62 @@
       <c r="P46" s="17">
         <v>2</v>
       </c>
-      <c r="Q46" s="56"/>
+      <c r="Q46" s="50"/>
       <c r="R46" s="4"/>
       <c r="S46" s="17"/>
       <c r="T46" s="5"/>
       <c r="U46" s="17"/>
-      <c r="V46" s="57"/>
-      <c r="W46" s="64" t="s">
+      <c r="V46" s="51"/>
+      <c r="W46" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="X46" s="59" t="s">
+      <c r="X46" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="Y46" s="63" t="s">
+      <c r="Y46" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="Z46" s="60" t="s">
+      <c r="Z46" s="54" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="47" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A47" s="19"/>
-      <c r="B47" s="51" t="s">
+      <c r="B47" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="C47" s="53">
-        <v>1</v>
-      </c>
-      <c r="D47" s="52">
-        <v>1</v>
-      </c>
-      <c r="E47" s="54"/>
-      <c r="F47" s="52"/>
-      <c r="G47" s="56"/>
-      <c r="H47" s="53"/>
-      <c r="I47" s="52"/>
-      <c r="J47" s="54"/>
-      <c r="K47" s="52"/>
-      <c r="L47" s="56"/>
-      <c r="M47" s="53"/>
-      <c r="N47" s="52"/>
-      <c r="O47" s="54"/>
-      <c r="P47" s="52"/>
-      <c r="Q47" s="56"/>
-      <c r="R47" s="53"/>
-      <c r="S47" s="52"/>
-      <c r="T47" s="54"/>
-      <c r="U47" s="52"/>
-      <c r="V47" s="57"/>
-      <c r="W47" s="53">
-        <v>1</v>
-      </c>
-      <c r="X47" s="52">
-        <v>1</v>
-      </c>
-      <c r="Y47" s="54"/>
-      <c r="Z47" s="55"/>
+      <c r="C47" s="47">
+        <v>1</v>
+      </c>
+      <c r="D47" s="46">
+        <v>1</v>
+      </c>
+      <c r="E47" s="48"/>
+      <c r="F47" s="46"/>
+      <c r="G47" s="50"/>
+      <c r="H47" s="47"/>
+      <c r="I47" s="46"/>
+      <c r="J47" s="48"/>
+      <c r="K47" s="46"/>
+      <c r="L47" s="50"/>
+      <c r="M47" s="47"/>
+      <c r="N47" s="46"/>
+      <c r="O47" s="48"/>
+      <c r="P47" s="46"/>
+      <c r="Q47" s="50"/>
+      <c r="R47" s="47"/>
+      <c r="S47" s="46"/>
+      <c r="T47" s="48"/>
+      <c r="U47" s="46"/>
+      <c r="V47" s="51"/>
+      <c r="W47" s="47">
+        <v>1</v>
+      </c>
+      <c r="X47" s="46">
+        <v>1</v>
+      </c>
+      <c r="Y47" s="48"/>
+      <c r="Z47" s="49"/>
     </row>
     <row r="48" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A48" s="20"/>
@@ -5477,22 +6664,22 @@
       <c r="D48" s="17"/>
       <c r="E48" s="5"/>
       <c r="F48" s="17"/>
-      <c r="G48" s="56"/>
+      <c r="G48" s="50"/>
       <c r="H48" s="4"/>
       <c r="I48" s="17"/>
       <c r="J48" s="5"/>
       <c r="K48" s="17"/>
-      <c r="L48" s="56"/>
+      <c r="L48" s="50"/>
       <c r="M48" s="4"/>
       <c r="N48" s="17"/>
       <c r="O48" s="5"/>
       <c r="P48" s="17"/>
-      <c r="Q48" s="56"/>
+      <c r="Q48" s="50"/>
       <c r="R48" s="4"/>
       <c r="S48" s="17"/>
       <c r="T48" s="5"/>
       <c r="U48" s="17"/>
-      <c r="V48" s="57"/>
+      <c r="V48" s="51"/>
       <c r="W48" s="4"/>
       <c r="X48" s="17"/>
       <c r="Y48" s="5"/>
@@ -5500,55 +6687,55 @@
     </row>
     <row r="49" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A49" s="21"/>
-      <c r="B49" s="51" t="s">
+      <c r="B49" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="C49" s="53">
+      <c r="C49" s="47">
         <v>19</v>
       </c>
-      <c r="D49" s="52">
+      <c r="D49" s="46">
         <v>4</v>
       </c>
-      <c r="E49" s="54"/>
-      <c r="F49" s="52"/>
-      <c r="G49" s="56"/>
-      <c r="H49" s="53">
+      <c r="E49" s="48"/>
+      <c r="F49" s="46"/>
+      <c r="G49" s="50"/>
+      <c r="H49" s="47">
         <v>19</v>
       </c>
-      <c r="I49" s="52">
+      <c r="I49" s="46">
         <v>4</v>
       </c>
-      <c r="J49" s="54"/>
-      <c r="K49" s="52"/>
-      <c r="L49" s="56"/>
-      <c r="M49" s="53"/>
-      <c r="N49" s="52"/>
-      <c r="O49" s="54">
+      <c r="J49" s="48"/>
+      <c r="K49" s="46"/>
+      <c r="L49" s="50"/>
+      <c r="M49" s="47"/>
+      <c r="N49" s="46"/>
+      <c r="O49" s="48">
         <v>3</v>
       </c>
-      <c r="P49" s="61">
+      <c r="P49" s="55">
         <v>2</v>
       </c>
-      <c r="Q49" s="56"/>
-      <c r="R49" s="53">
+      <c r="Q49" s="50"/>
+      <c r="R49" s="47">
         <v>19</v>
       </c>
-      <c r="S49" s="52">
+      <c r="S49" s="46">
         <v>4</v>
       </c>
-      <c r="T49" s="54"/>
-      <c r="U49" s="52"/>
-      <c r="V49" s="57"/>
-      <c r="W49" s="53">
+      <c r="T49" s="48"/>
+      <c r="U49" s="46"/>
+      <c r="V49" s="51"/>
+      <c r="W49" s="47">
         <v>19</v>
       </c>
-      <c r="X49" s="52">
+      <c r="X49" s="46">
         <v>2</v>
       </c>
-      <c r="Y49" s="54">
+      <c r="Y49" s="48">
         <v>3</v>
       </c>
-      <c r="Z49" s="62">
+      <c r="Z49" s="56">
         <v>2</v>
       </c>
     </row>
@@ -5560,16 +6747,16 @@
       <c r="C50" s="4">
         <v>8</v>
       </c>
-      <c r="D50" s="61">
+      <c r="D50" s="55">
         <v>4</v>
       </c>
       <c r="E50" s="5">
         <v>2</v>
       </c>
-      <c r="F50" s="61">
-        <v>1</v>
-      </c>
-      <c r="G50" s="56"/>
+      <c r="F50" s="55">
+        <v>1</v>
+      </c>
+      <c r="G50" s="50"/>
       <c r="H50" s="4"/>
       <c r="I50" s="17"/>
       <c r="J50" s="5">
@@ -5578,12 +6765,12 @@
       <c r="K50" s="17">
         <v>2</v>
       </c>
-      <c r="L50" s="56"/>
+      <c r="L50" s="50"/>
       <c r="M50" s="4"/>
       <c r="N50" s="17"/>
       <c r="O50" s="5"/>
       <c r="P50" s="17"/>
-      <c r="Q50" s="56"/>
+      <c r="Q50" s="50"/>
       <c r="R50" s="4">
         <v>8</v>
       </c>
@@ -5596,7 +6783,7 @@
       <c r="U50" s="17">
         <v>1</v>
       </c>
-      <c r="V50" s="57"/>
+      <c r="V50" s="51"/>
       <c r="W50" s="4">
         <v>8</v>
       </c>
@@ -5608,61 +6795,61 @@
     </row>
     <row r="51" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A51" s="23"/>
-      <c r="B51" s="51" t="s">
+      <c r="B51" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="C51" s="53">
+      <c r="C51" s="47">
         <v>7</v>
       </c>
-      <c r="D51" s="61">
+      <c r="D51" s="55">
         <v>3</v>
       </c>
-      <c r="E51" s="54">
+      <c r="E51" s="48">
         <v>11</v>
       </c>
-      <c r="F51" s="52">
+      <c r="F51" s="46">
         <v>3</v>
       </c>
-      <c r="G51" s="56"/>
-      <c r="H51" s="53">
+      <c r="G51" s="50"/>
+      <c r="H51" s="47">
         <v>7</v>
       </c>
-      <c r="I51" s="61">
+      <c r="I51" s="55">
         <v>3</v>
       </c>
-      <c r="J51" s="54">
+      <c r="J51" s="48">
         <v>11</v>
       </c>
-      <c r="K51" s="69">
+      <c r="K51" s="63">
         <v>6</v>
       </c>
-      <c r="L51" s="56"/>
-      <c r="M51" s="53"/>
-      <c r="N51" s="52"/>
-      <c r="O51" s="54">
+      <c r="L51" s="50"/>
+      <c r="M51" s="47"/>
+      <c r="N51" s="46"/>
+      <c r="O51" s="48">
         <v>11</v>
       </c>
-      <c r="P51" s="68">
+      <c r="P51" s="62">
         <v>3</v>
       </c>
-      <c r="Q51" s="56"/>
-      <c r="R51" s="66" t="s">
+      <c r="Q51" s="50"/>
+      <c r="R51" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="S51" s="58" t="s">
+      <c r="S51" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="T51" s="65" t="s">
+      <c r="T51" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="U51" s="58" t="s">
+      <c r="U51" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="V51" s="57"/>
-      <c r="W51" s="53"/>
-      <c r="X51" s="52"/>
-      <c r="Y51" s="54"/>
-      <c r="Z51" s="55"/>
+      <c r="V51" s="51"/>
+      <c r="W51" s="47"/>
+      <c r="X51" s="46"/>
+      <c r="Y51" s="48"/>
+      <c r="Z51" s="49"/>
     </row>
     <row r="52" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A52" s="39" t="s">
@@ -5683,25 +6870,25 @@
       <c r="F52" s="17">
         <v>1</v>
       </c>
-      <c r="G52" s="56"/>
+      <c r="G52" s="50"/>
       <c r="H52" s="4"/>
       <c r="I52" s="17"/>
       <c r="J52" s="5">
         <v>4</v>
       </c>
-      <c r="K52" s="61">
+      <c r="K52" s="55">
         <v>2</v>
       </c>
-      <c r="L52" s="56"/>
+      <c r="L52" s="50"/>
       <c r="M52" s="4"/>
       <c r="N52" s="17"/>
       <c r="O52" s="5">
         <v>4</v>
       </c>
-      <c r="P52" s="61">
+      <c r="P52" s="55">
         <v>3</v>
       </c>
-      <c r="Q52" s="56"/>
+      <c r="Q52" s="50"/>
       <c r="R52" s="4">
         <v>9</v>
       </c>
@@ -5711,10 +6898,10 @@
       <c r="T52" s="5">
         <v>4</v>
       </c>
-      <c r="U52" s="61">
+      <c r="U52" s="55">
         <v>3</v>
       </c>
-      <c r="V52" s="57"/>
+      <c r="V52" s="51"/>
       <c r="W52" s="4">
         <v>9</v>
       </c>
@@ -5727,67 +6914,67 @@
     </row>
     <row r="53" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A53" s="25"/>
-      <c r="B53" s="51" t="s">
+      <c r="B53" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="C53" s="65" t="s">
+      <c r="C53" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="D53" s="58" t="s">
+      <c r="D53" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="E53" s="66" t="s">
+      <c r="E53" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="F53" s="58" t="s">
+      <c r="F53" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="G53" s="56"/>
-      <c r="H53" s="53">
+      <c r="G53" s="50"/>
+      <c r="H53" s="47">
         <v>17</v>
       </c>
-      <c r="I53" s="52">
+      <c r="I53" s="46">
         <v>3</v>
       </c>
-      <c r="J53" s="54">
+      <c r="J53" s="48">
         <v>15</v>
       </c>
-      <c r="K53" s="52">
+      <c r="K53" s="46">
         <v>2</v>
       </c>
-      <c r="L53" s="56"/>
-      <c r="M53" s="53">
+      <c r="L53" s="50"/>
+      <c r="M53" s="47">
         <v>17</v>
       </c>
-      <c r="N53" s="52">
+      <c r="N53" s="46">
         <v>2</v>
       </c>
-      <c r="O53" s="54">
+      <c r="O53" s="48">
         <v>15</v>
       </c>
-      <c r="P53" s="71">
+      <c r="P53" s="65">
         <v>5</v>
       </c>
-      <c r="Q53" s="56"/>
-      <c r="R53" s="53">
+      <c r="Q53" s="50"/>
+      <c r="R53" s="47">
         <v>17</v>
       </c>
-      <c r="S53" s="52">
+      <c r="S53" s="46">
         <v>3</v>
       </c>
-      <c r="T53" s="54"/>
-      <c r="U53" s="52"/>
-      <c r="V53" s="57"/>
-      <c r="W53" s="53">
+      <c r="T53" s="48"/>
+      <c r="U53" s="46"/>
+      <c r="V53" s="51"/>
+      <c r="W53" s="47">
         <v>17</v>
       </c>
-      <c r="X53" s="52">
+      <c r="X53" s="46">
         <v>2</v>
       </c>
-      <c r="Y53" s="54">
+      <c r="Y53" s="48">
         <v>15</v>
       </c>
-      <c r="Z53" s="55">
+      <c r="Z53" s="49">
         <v>2</v>
       </c>
     </row>
@@ -5802,22 +6989,22 @@
       <c r="D54" s="17"/>
       <c r="E54" s="5"/>
       <c r="F54" s="17"/>
-      <c r="G54" s="56"/>
+      <c r="G54" s="50"/>
       <c r="H54" s="4"/>
       <c r="I54" s="17"/>
       <c r="J54" s="5"/>
       <c r="K54" s="17"/>
-      <c r="L54" s="56"/>
+      <c r="L54" s="50"/>
       <c r="M54" s="4"/>
       <c r="N54" s="17"/>
       <c r="O54" s="5"/>
       <c r="P54" s="17"/>
-      <c r="Q54" s="56"/>
+      <c r="Q54" s="50"/>
       <c r="R54" s="4"/>
       <c r="S54" s="17"/>
       <c r="T54" s="5"/>
       <c r="U54" s="17"/>
-      <c r="V54" s="57"/>
+      <c r="V54" s="51"/>
       <c r="W54" s="4">
         <v>1</v>
       </c>
@@ -5831,41 +7018,41 @@
       <c r="A55" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B55" s="51" t="s">
+      <c r="B55" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="C55" s="53">
+      <c r="C55" s="47">
         <v>2</v>
       </c>
-      <c r="D55" s="52">
-        <v>1</v>
-      </c>
-      <c r="E55" s="54"/>
-      <c r="F55" s="52"/>
-      <c r="G55" s="56"/>
-      <c r="H55" s="53">
+      <c r="D55" s="46">
+        <v>1</v>
+      </c>
+      <c r="E55" s="48"/>
+      <c r="F55" s="46"/>
+      <c r="G55" s="50"/>
+      <c r="H55" s="47">
         <v>2</v>
       </c>
-      <c r="I55" s="52">
+      <c r="I55" s="46">
         <v>2</v>
       </c>
-      <c r="J55" s="54"/>
-      <c r="K55" s="52"/>
-      <c r="L55" s="56"/>
-      <c r="M55" s="53"/>
-      <c r="N55" s="52"/>
-      <c r="O55" s="54"/>
-      <c r="P55" s="52"/>
-      <c r="Q55" s="56"/>
-      <c r="R55" s="53"/>
-      <c r="S55" s="52"/>
-      <c r="T55" s="54"/>
-      <c r="U55" s="52"/>
-      <c r="V55" s="57"/>
-      <c r="W55" s="53"/>
-      <c r="X55" s="52"/>
-      <c r="Y55" s="54"/>
-      <c r="Z55" s="55"/>
+      <c r="J55" s="48"/>
+      <c r="K55" s="46"/>
+      <c r="L55" s="50"/>
+      <c r="M55" s="47"/>
+      <c r="N55" s="46"/>
+      <c r="O55" s="48"/>
+      <c r="P55" s="46"/>
+      <c r="Q55" s="50"/>
+      <c r="R55" s="47"/>
+      <c r="S55" s="46"/>
+      <c r="T55" s="48"/>
+      <c r="U55" s="46"/>
+      <c r="V55" s="51"/>
+      <c r="W55" s="47"/>
+      <c r="X55" s="46"/>
+      <c r="Y55" s="48"/>
+      <c r="Z55" s="49"/>
       <c r="AF55" s="5"/>
     </row>
     <row r="56" spans="1:32" x14ac:dyDescent="0.35">
@@ -5878,38 +7065,38 @@
       <c r="C56" s="4">
         <v>13</v>
       </c>
-      <c r="D56" s="67">
+      <c r="D56" s="61">
         <v>3</v>
       </c>
       <c r="E56" s="5">
         <v>9</v>
       </c>
-      <c r="F56" s="67">
+      <c r="F56" s="61">
         <v>2</v>
       </c>
-      <c r="G56" s="56"/>
-      <c r="H56" s="64" t="s">
+      <c r="G56" s="50"/>
+      <c r="H56" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="I56" s="59" t="s">
+      <c r="I56" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="J56" s="63" t="s">
+      <c r="J56" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="K56" s="59" t="s">
+      <c r="K56" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="L56" s="56"/>
+      <c r="L56" s="50"/>
       <c r="M56" s="4"/>
       <c r="N56" s="17"/>
       <c r="O56" s="5">
         <v>9</v>
       </c>
-      <c r="P56" s="68">
+      <c r="P56" s="62">
         <v>2</v>
       </c>
-      <c r="Q56" s="56"/>
+      <c r="Q56" s="50"/>
       <c r="R56" s="4">
         <v>13</v>
       </c>
@@ -5919,10 +7106,10 @@
       <c r="T56" s="5">
         <v>9</v>
       </c>
-      <c r="U56" s="70">
+      <c r="U56" s="64">
         <v>6</v>
       </c>
-      <c r="V56" s="57"/>
+      <c r="V56" s="51"/>
       <c r="W56" s="4"/>
       <c r="X56" s="17"/>
       <c r="Y56" s="5">
@@ -5936,45 +7123,45 @@
       <c r="A57" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B57" s="51" t="s">
+      <c r="B57" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="C57" s="53">
-        <v>1</v>
-      </c>
-      <c r="D57" s="52">
-        <v>1</v>
-      </c>
-      <c r="E57" s="54"/>
-      <c r="F57" s="52"/>
-      <c r="G57" s="56"/>
-      <c r="H57" s="53"/>
-      <c r="I57" s="52"/>
-      <c r="J57" s="54">
+      <c r="C57" s="47">
+        <v>1</v>
+      </c>
+      <c r="D57" s="46">
+        <v>1</v>
+      </c>
+      <c r="E57" s="48"/>
+      <c r="F57" s="46"/>
+      <c r="G57" s="50"/>
+      <c r="H57" s="47"/>
+      <c r="I57" s="46"/>
+      <c r="J57" s="48">
         <v>2</v>
       </c>
-      <c r="K57" s="52">
-        <v>1</v>
-      </c>
-      <c r="L57" s="56"/>
-      <c r="M57" s="53"/>
-      <c r="N57" s="52"/>
-      <c r="O57" s="54"/>
-      <c r="P57" s="52"/>
-      <c r="Q57" s="56"/>
-      <c r="R57" s="53"/>
-      <c r="S57" s="52"/>
-      <c r="T57" s="54"/>
-      <c r="U57" s="52"/>
-      <c r="V57" s="57"/>
-      <c r="W57" s="53">
-        <v>1</v>
-      </c>
-      <c r="X57" s="52">
-        <v>1</v>
-      </c>
-      <c r="Y57" s="54"/>
-      <c r="Z57" s="55"/>
+      <c r="K57" s="46">
+        <v>1</v>
+      </c>
+      <c r="L57" s="50"/>
+      <c r="M57" s="47"/>
+      <c r="N57" s="46"/>
+      <c r="O57" s="48"/>
+      <c r="P57" s="46"/>
+      <c r="Q57" s="50"/>
+      <c r="R57" s="47"/>
+      <c r="S57" s="46"/>
+      <c r="T57" s="48"/>
+      <c r="U57" s="46"/>
+      <c r="V57" s="51"/>
+      <c r="W57" s="47">
+        <v>1</v>
+      </c>
+      <c r="X57" s="46">
+        <v>1</v>
+      </c>
+      <c r="Y57" s="48"/>
+      <c r="Z57" s="49"/>
     </row>
     <row r="58" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A58" s="29"/>
@@ -5989,7 +7176,7 @@
       <c r="F58" s="17">
         <v>2</v>
       </c>
-      <c r="G58" s="56"/>
+      <c r="G58" s="50"/>
       <c r="H58" s="4">
         <v>5</v>
       </c>
@@ -5999,24 +7186,24 @@
       <c r="J58" s="5">
         <v>4</v>
       </c>
-      <c r="K58" s="70">
+      <c r="K58" s="64">
         <v>4</v>
       </c>
-      <c r="L58" s="56"/>
+      <c r="L58" s="50"/>
       <c r="M58" s="4"/>
       <c r="N58" s="17"/>
       <c r="O58" s="5"/>
       <c r="P58" s="17"/>
-      <c r="Q58" s="56"/>
+      <c r="Q58" s="50"/>
       <c r="R58" s="4"/>
       <c r="S58" s="17"/>
       <c r="T58" s="5">
         <v>4</v>
       </c>
-      <c r="U58" s="70">
+      <c r="U58" s="64">
         <v>3</v>
       </c>
-      <c r="V58" s="57"/>
+      <c r="V58" s="51"/>
       <c r="W58" s="4"/>
       <c r="X58" s="17"/>
       <c r="Y58" s="5"/>
@@ -6026,53 +7213,53 @@
       <c r="A59" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="B59" s="51" t="s">
+      <c r="B59" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="C59" s="53">
+      <c r="C59" s="47">
         <v>6</v>
       </c>
-      <c r="D59" s="52">
+      <c r="D59" s="46">
         <v>2</v>
       </c>
-      <c r="E59" s="54"/>
-      <c r="F59" s="52"/>
-      <c r="G59" s="56"/>
-      <c r="H59" s="53">
+      <c r="E59" s="48"/>
+      <c r="F59" s="46"/>
+      <c r="G59" s="50"/>
+      <c r="H59" s="47">
         <v>6</v>
       </c>
-      <c r="I59" s="52">
-        <v>1</v>
-      </c>
-      <c r="J59" s="54">
+      <c r="I59" s="46">
+        <v>1</v>
+      </c>
+      <c r="J59" s="48">
         <v>2</v>
       </c>
-      <c r="K59" s="52">
-        <v>1</v>
-      </c>
-      <c r="L59" s="56"/>
-      <c r="M59" s="53"/>
-      <c r="N59" s="52"/>
-      <c r="O59" s="54">
+      <c r="K59" s="46">
+        <v>1</v>
+      </c>
+      <c r="L59" s="50"/>
+      <c r="M59" s="47"/>
+      <c r="N59" s="46"/>
+      <c r="O59" s="48">
         <v>2</v>
       </c>
-      <c r="P59" s="61">
+      <c r="P59" s="55">
         <v>2</v>
       </c>
-      <c r="Q59" s="56"/>
-      <c r="R59" s="53"/>
-      <c r="S59" s="52"/>
-      <c r="T59" s="54"/>
-      <c r="U59" s="52"/>
-      <c r="V59" s="57"/>
-      <c r="W59" s="53">
+      <c r="Q59" s="50"/>
+      <c r="R59" s="47"/>
+      <c r="S59" s="46"/>
+      <c r="T59" s="48"/>
+      <c r="U59" s="46"/>
+      <c r="V59" s="51"/>
+      <c r="W59" s="47">
         <v>6</v>
       </c>
-      <c r="X59" s="61">
+      <c r="X59" s="55">
         <v>3</v>
       </c>
-      <c r="Y59" s="54"/>
-      <c r="Z59" s="55"/>
+      <c r="Y59" s="48"/>
+      <c r="Z59" s="49"/>
     </row>
     <row r="60" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A60" s="31"/>
@@ -6082,7 +7269,7 @@
       <c r="C60" s="4">
         <v>4</v>
       </c>
-      <c r="D60" s="71">
+      <c r="D60" s="65">
         <v>2</v>
       </c>
       <c r="E60" s="5">
@@ -6091,38 +7278,38 @@
       <c r="F60" s="17">
         <v>5</v>
       </c>
-      <c r="G60" s="56"/>
+      <c r="G60" s="50"/>
       <c r="H60" s="4"/>
       <c r="I60" s="17"/>
       <c r="J60" s="5">
         <v>16</v>
       </c>
-      <c r="K60" s="68">
+      <c r="K60" s="62">
         <v>2</v>
       </c>
-      <c r="L60" s="56"/>
-      <c r="M60" s="64" t="s">
+      <c r="L60" s="50"/>
+      <c r="M60" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="N60" s="59" t="s">
+      <c r="N60" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="O60" s="63" t="s">
+      <c r="O60" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="P60" s="59" t="s">
+      <c r="P60" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="Q60" s="56"/>
+      <c r="Q60" s="50"/>
       <c r="R60" s="4"/>
       <c r="S60" s="17"/>
       <c r="T60" s="5">
         <v>16</v>
       </c>
-      <c r="U60" s="68">
+      <c r="U60" s="62">
         <v>3</v>
       </c>
-      <c r="V60" s="57"/>
+      <c r="V60" s="51"/>
       <c r="W60" s="4"/>
       <c r="X60" s="17"/>
       <c r="Y60" s="5">
@@ -6134,49 +7321,49 @@
     </row>
     <row r="61" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A61" s="32"/>
-      <c r="B61" s="51" t="s">
+      <c r="B61" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="C61" s="53">
-        <v>1</v>
-      </c>
-      <c r="D61" s="52">
-        <v>1</v>
-      </c>
-      <c r="E61" s="54">
+      <c r="C61" s="47">
+        <v>1</v>
+      </c>
+      <c r="D61" s="46">
+        <v>1</v>
+      </c>
+      <c r="E61" s="48">
         <v>3</v>
       </c>
-      <c r="F61" s="52">
-        <v>1</v>
-      </c>
-      <c r="G61" s="56"/>
-      <c r="H61" s="53"/>
-      <c r="I61" s="52"/>
-      <c r="J61" s="54">
+      <c r="F61" s="46">
+        <v>1</v>
+      </c>
+      <c r="G61" s="50"/>
+      <c r="H61" s="47"/>
+      <c r="I61" s="46"/>
+      <c r="J61" s="48">
         <v>3</v>
       </c>
-      <c r="K61" s="52">
-        <v>1</v>
-      </c>
-      <c r="L61" s="56"/>
-      <c r="M61" s="53"/>
-      <c r="N61" s="52"/>
-      <c r="O61" s="54">
+      <c r="K61" s="46">
+        <v>1</v>
+      </c>
+      <c r="L61" s="50"/>
+      <c r="M61" s="47"/>
+      <c r="N61" s="46"/>
+      <c r="O61" s="48">
         <v>3</v>
       </c>
-      <c r="P61" s="52">
-        <v>1</v>
-      </c>
-      <c r="Q61" s="56"/>
-      <c r="R61" s="53"/>
-      <c r="S61" s="52"/>
-      <c r="T61" s="54"/>
-      <c r="U61" s="52"/>
-      <c r="V61" s="57"/>
-      <c r="W61" s="53"/>
-      <c r="X61" s="52"/>
-      <c r="Y61" s="54"/>
-      <c r="Z61" s="55"/>
+      <c r="P61" s="46">
+        <v>1</v>
+      </c>
+      <c r="Q61" s="50"/>
+      <c r="R61" s="47"/>
+      <c r="S61" s="46"/>
+      <c r="T61" s="48"/>
+      <c r="U61" s="46"/>
+      <c r="V61" s="51"/>
+      <c r="W61" s="47"/>
+      <c r="X61" s="46"/>
+      <c r="Y61" s="48"/>
+      <c r="Z61" s="49"/>
     </row>
     <row r="62" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A62" s="33"/>
@@ -6187,7 +7374,7 @@
       <c r="D62" s="36"/>
       <c r="E62" s="8"/>
       <c r="F62" s="36"/>
-      <c r="G62" s="56"/>
+      <c r="G62" s="50"/>
       <c r="H62" s="7"/>
       <c r="I62" s="36"/>
       <c r="J62" s="8">
@@ -6196,17 +7383,17 @@
       <c r="K62" s="36">
         <v>1</v>
       </c>
-      <c r="L62" s="56"/>
+      <c r="L62" s="50"/>
       <c r="M62" s="7"/>
       <c r="N62" s="36"/>
       <c r="O62" s="8"/>
       <c r="P62" s="36"/>
-      <c r="Q62" s="56"/>
+      <c r="Q62" s="50"/>
       <c r="R62" s="7"/>
       <c r="S62" s="36"/>
       <c r="T62" s="8"/>
       <c r="U62" s="36"/>
-      <c r="V62" s="57"/>
+      <c r="V62" s="51"/>
       <c r="W62" s="7"/>
       <c r="X62" s="36"/>
       <c r="Y62" s="8"/>
@@ -6214,24 +7401,250 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="M42:P42"/>
+    <mergeCell ref="O43:P43"/>
     <mergeCell ref="W42:Z42"/>
     <mergeCell ref="W43:X43"/>
     <mergeCell ref="Y43:Z43"/>
     <mergeCell ref="H43:I43"/>
     <mergeCell ref="J43:K43"/>
     <mergeCell ref="H42:K42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="M42:P42"/>
     <mergeCell ref="R43:S43"/>
     <mergeCell ref="T43:U43"/>
-    <mergeCell ref="O43:P43"/>
     <mergeCell ref="R42:U42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="35.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="4.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B1">
+        <v>1936</v>
+      </c>
+      <c r="C1">
+        <v>1941</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>19</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>17</v>
+      </c>
+      <c r="C10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15">
+        <v>5</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>6</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Findings.xlsx
+++ b/Findings.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6950" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6950" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
     <sheet name="Diagramme" sheetId="2" r:id="rId2"/>
+    <sheet name="Tabelle2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="40">
   <si>
     <t>Farbe</t>
   </si>
@@ -139,6 +140,12 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>Ausgangscodes</t>
+  </si>
+  <si>
+    <t>Vergleichscodes</t>
   </si>
 </sst>
 </file>
@@ -320,7 +327,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -408,11 +415,72 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -585,6 +653,18 @@
     <xf numFmtId="0" fontId="0" fillId="24" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -597,16 +677,44 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1727,6 +1835,52 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1763,26 +1917,19 @@
   <c:spPr>
     <a:gradFill flip="none" rotWithShape="1">
       <a:gsLst>
-        <a:gs pos="0">
-          <a:schemeClr val="accent3">
-            <a:lumMod val="0"/>
-            <a:lumOff val="100000"/>
+        <a:gs pos="20000">
+          <a:schemeClr val="bg1">
+            <a:lumMod val="75000"/>
           </a:schemeClr>
         </a:gs>
-        <a:gs pos="35000">
-          <a:schemeClr val="accent3">
-            <a:lumMod val="0"/>
-            <a:lumOff val="100000"/>
-          </a:schemeClr>
-        </a:gs>
-        <a:gs pos="100000">
-          <a:schemeClr val="accent3">
-            <a:lumMod val="100000"/>
+        <a:gs pos="80000">
+          <a:schemeClr val="bg1">
+            <a:lumMod val="65000"/>
           </a:schemeClr>
         </a:gs>
       </a:gsLst>
       <a:path path="circle">
-        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
       </a:path>
       <a:tileRect/>
     </a:gradFill>
@@ -1804,8 +1951,8 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageMargins b="0.78740157480314965" l="0.70866141732283472" r="0.70866141732283472" t="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
+    <c:pageSetup orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -3029,6 +3176,66 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>22412</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>14941</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>179295</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Gerader Verbinder 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64B96DD7-31E4-42DD-A6BC-05A17F2A3EFE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22412" y="14941"/>
+          <a:ext cx="2427941" cy="537883"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="6350">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
@@ -3328,10 +3535,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB62"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="AV1" activePane="topRight" state="frozenSplit"/>
+    <sheetView topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="G1" activePane="topRight" state="frozenSplit"/>
       <selection sqref="A1 C1:C1048576"/>
-      <selection pane="topRight" activeCell="AX23" sqref="AX23:AX41"/>
+      <selection pane="topRight" activeCell="B42" sqref="B42:Z62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6369,78 +6576,78 @@
       </c>
     </row>
     <row r="42" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="C42" s="66" t="s">
+      <c r="C42" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="D42" s="67"/>
-      <c r="E42" s="67"/>
-      <c r="F42" s="68"/>
-      <c r="H42" s="66" t="s">
+      <c r="D42" s="70"/>
+      <c r="E42" s="70"/>
+      <c r="F42" s="71"/>
+      <c r="H42" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="I42" s="67"/>
-      <c r="J42" s="67"/>
-      <c r="K42" s="68"/>
-      <c r="M42" s="66" t="s">
+      <c r="I42" s="70"/>
+      <c r="J42" s="70"/>
+      <c r="K42" s="71"/>
+      <c r="M42" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="N42" s="67"/>
-      <c r="O42" s="67"/>
-      <c r="P42" s="68"/>
-      <c r="R42" s="66" t="s">
+      <c r="N42" s="70"/>
+      <c r="O42" s="70"/>
+      <c r="P42" s="71"/>
+      <c r="R42" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="S42" s="67"/>
-      <c r="T42" s="67"/>
-      <c r="U42" s="68"/>
-      <c r="W42" s="66" t="s">
+      <c r="S42" s="70"/>
+      <c r="T42" s="70"/>
+      <c r="U42" s="71"/>
+      <c r="W42" s="69" t="s">
         <v>36</v>
       </c>
-      <c r="X42" s="67"/>
-      <c r="Y42" s="67"/>
-      <c r="Z42" s="68"/>
+      <c r="X42" s="70"/>
+      <c r="Y42" s="70"/>
+      <c r="Z42" s="71"/>
     </row>
     <row r="43" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="C43" s="69">
+      <c r="C43" s="66">
         <v>36</v>
       </c>
-      <c r="D43" s="71"/>
-      <c r="E43" s="71">
+      <c r="D43" s="67"/>
+      <c r="E43" s="67">
         <v>41</v>
       </c>
-      <c r="F43" s="70"/>
-      <c r="H43" s="69">
+      <c r="F43" s="68"/>
+      <c r="H43" s="66">
         <v>36</v>
       </c>
-      <c r="I43" s="70"/>
-      <c r="J43" s="69">
+      <c r="I43" s="68"/>
+      <c r="J43" s="66">
         <v>41</v>
       </c>
-      <c r="K43" s="70"/>
-      <c r="M43" s="69">
+      <c r="K43" s="68"/>
+      <c r="M43" s="66">
         <v>36</v>
       </c>
-      <c r="N43" s="70"/>
-      <c r="O43" s="69">
+      <c r="N43" s="68"/>
+      <c r="O43" s="66">
         <v>41</v>
       </c>
-      <c r="P43" s="70"/>
-      <c r="R43" s="69">
+      <c r="P43" s="68"/>
+      <c r="R43" s="66">
         <v>36</v>
       </c>
-      <c r="S43" s="70"/>
-      <c r="T43" s="69">
+      <c r="S43" s="68"/>
+      <c r="T43" s="66">
         <v>41</v>
       </c>
-      <c r="U43" s="70"/>
-      <c r="W43" s="69">
+      <c r="U43" s="68"/>
+      <c r="W43" s="66">
         <v>36</v>
       </c>
-      <c r="X43" s="70"/>
-      <c r="Y43" s="69">
+      <c r="X43" s="68"/>
+      <c r="Y43" s="66">
         <v>41</v>
       </c>
-      <c r="Z43" s="70"/>
+      <c r="Z43" s="68"/>
     </row>
     <row r="44" spans="1:50" x14ac:dyDescent="0.35">
       <c r="B44" s="41"/>
@@ -7401,12 +7608,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="M42:P42"/>
-    <mergeCell ref="O43:P43"/>
     <mergeCell ref="W42:Z42"/>
     <mergeCell ref="W43:X43"/>
     <mergeCell ref="Y43:Z43"/>
@@ -7416,6 +7617,12 @@
     <mergeCell ref="R43:S43"/>
     <mergeCell ref="T43:U43"/>
     <mergeCell ref="R42:U42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="M42:P42"/>
+    <mergeCell ref="O43:P43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -7427,8 +7634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7647,4 +7854,975 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="35.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="21" width="4.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A1" s="81" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="69" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="69" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="69" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="69" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="69" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" s="70"/>
+      <c r="T1" s="70"/>
+      <c r="U1" s="71"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A2" s="15"/>
+      <c r="B2" s="78">
+        <v>36</v>
+      </c>
+      <c r="C2" s="79"/>
+      <c r="D2" s="80">
+        <v>41</v>
+      </c>
+      <c r="E2" s="79"/>
+      <c r="F2" s="78">
+        <v>36</v>
+      </c>
+      <c r="G2" s="79"/>
+      <c r="H2" s="80">
+        <v>41</v>
+      </c>
+      <c r="I2" s="79"/>
+      <c r="J2" s="78">
+        <v>36</v>
+      </c>
+      <c r="K2" s="79"/>
+      <c r="L2" s="80">
+        <v>41</v>
+      </c>
+      <c r="M2" s="79"/>
+      <c r="N2" s="78">
+        <v>36</v>
+      </c>
+      <c r="O2" s="79"/>
+      <c r="P2" s="80">
+        <v>41</v>
+      </c>
+      <c r="Q2" s="79"/>
+      <c r="R2" s="78">
+        <v>36</v>
+      </c>
+      <c r="S2" s="79"/>
+      <c r="T2" s="80">
+        <v>41</v>
+      </c>
+      <c r="U2" s="79"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A3" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="72" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="73" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="74" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="73" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="72" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="73" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="74" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="73" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" s="72" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" s="73" t="s">
+        <v>35</v>
+      </c>
+      <c r="L3" s="74" t="s">
+        <v>34</v>
+      </c>
+      <c r="M3" s="73" t="s">
+        <v>35</v>
+      </c>
+      <c r="N3" s="72" t="s">
+        <v>34</v>
+      </c>
+      <c r="O3" s="73" t="s">
+        <v>35</v>
+      </c>
+      <c r="P3" s="74" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q3" s="73" t="s">
+        <v>35</v>
+      </c>
+      <c r="R3" s="72" t="s">
+        <v>34</v>
+      </c>
+      <c r="S3" s="73" t="s">
+        <v>35</v>
+      </c>
+      <c r="T3" s="74" t="s">
+        <v>34</v>
+      </c>
+      <c r="U3" s="73" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A4" s="76" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="47">
+        <v>3</v>
+      </c>
+      <c r="C4" s="46">
+        <v>1</v>
+      </c>
+      <c r="D4" s="48">
+        <v>3</v>
+      </c>
+      <c r="E4" s="55">
+        <v>2</v>
+      </c>
+      <c r="F4" s="47">
+        <v>3</v>
+      </c>
+      <c r="G4" s="46">
+        <v>1</v>
+      </c>
+      <c r="H4" s="48">
+        <v>3</v>
+      </c>
+      <c r="I4" s="55">
+        <v>2</v>
+      </c>
+      <c r="J4" s="47"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="46"/>
+      <c r="P4" s="48">
+        <v>3</v>
+      </c>
+      <c r="Q4" s="46">
+        <v>1</v>
+      </c>
+      <c r="R4" s="47">
+        <v>3</v>
+      </c>
+      <c r="S4" s="46">
+        <v>1</v>
+      </c>
+      <c r="T4" s="48">
+        <v>3</v>
+      </c>
+      <c r="U4" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A5" s="75" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="4">
+        <v>10</v>
+      </c>
+      <c r="C5" s="17">
+        <v>2</v>
+      </c>
+      <c r="D5" s="5">
+        <v>7</v>
+      </c>
+      <c r="E5" s="17">
+        <v>2</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="5">
+        <v>7</v>
+      </c>
+      <c r="I5" s="17">
+        <v>1</v>
+      </c>
+      <c r="J5" s="4"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="5">
+        <v>7</v>
+      </c>
+      <c r="M5" s="17">
+        <v>2</v>
+      </c>
+      <c r="N5" s="4"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="S5" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="T5" s="57" t="s">
+        <v>37</v>
+      </c>
+      <c r="U5" s="54" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A6" s="76" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="47">
+        <v>1</v>
+      </c>
+      <c r="C6" s="46">
+        <v>1</v>
+      </c>
+      <c r="D6" s="48"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="46"/>
+      <c r="N6" s="47"/>
+      <c r="O6" s="46"/>
+      <c r="P6" s="48"/>
+      <c r="Q6" s="46"/>
+      <c r="R6" s="47">
+        <v>1</v>
+      </c>
+      <c r="S6" s="46">
+        <v>1</v>
+      </c>
+      <c r="T6" s="48"/>
+      <c r="U6" s="49"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A7" s="75" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="17"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="6"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A8" s="76" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="47">
+        <v>19</v>
+      </c>
+      <c r="C8" s="46">
+        <v>4</v>
+      </c>
+      <c r="D8" s="48"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="47">
+        <v>19</v>
+      </c>
+      <c r="G8" s="46">
+        <v>4</v>
+      </c>
+      <c r="H8" s="48"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="48">
+        <v>3</v>
+      </c>
+      <c r="M8" s="55">
+        <v>2</v>
+      </c>
+      <c r="N8" s="47">
+        <v>19</v>
+      </c>
+      <c r="O8" s="46">
+        <v>4</v>
+      </c>
+      <c r="P8" s="48"/>
+      <c r="Q8" s="46"/>
+      <c r="R8" s="47">
+        <v>19</v>
+      </c>
+      <c r="S8" s="46">
+        <v>2</v>
+      </c>
+      <c r="T8" s="48">
+        <v>3</v>
+      </c>
+      <c r="U8" s="56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A9" s="75" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="4">
+        <v>8</v>
+      </c>
+      <c r="C9" s="55">
+        <v>4</v>
+      </c>
+      <c r="D9" s="5">
+        <v>2</v>
+      </c>
+      <c r="E9" s="55">
+        <v>1</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="5">
+        <v>2</v>
+      </c>
+      <c r="I9" s="17">
+        <v>2</v>
+      </c>
+      <c r="J9" s="4"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="4">
+        <v>8</v>
+      </c>
+      <c r="O9" s="17">
+        <v>2</v>
+      </c>
+      <c r="P9" s="5">
+        <v>2</v>
+      </c>
+      <c r="Q9" s="17">
+        <v>1</v>
+      </c>
+      <c r="R9" s="4">
+        <v>8</v>
+      </c>
+      <c r="S9" s="17">
+        <v>2</v>
+      </c>
+      <c r="T9" s="5"/>
+      <c r="U9" s="6"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A10" s="76" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="47">
+        <v>7</v>
+      </c>
+      <c r="C10" s="55">
+        <v>3</v>
+      </c>
+      <c r="D10" s="48">
+        <v>11</v>
+      </c>
+      <c r="E10" s="46">
+        <v>3</v>
+      </c>
+      <c r="F10" s="47">
+        <v>7</v>
+      </c>
+      <c r="G10" s="55">
+        <v>3</v>
+      </c>
+      <c r="H10" s="48">
+        <v>11</v>
+      </c>
+      <c r="I10" s="82">
+        <v>6</v>
+      </c>
+      <c r="J10" s="47"/>
+      <c r="K10" s="46"/>
+      <c r="L10" s="48">
+        <v>11</v>
+      </c>
+      <c r="M10" s="46">
+        <v>3</v>
+      </c>
+      <c r="N10" s="60" t="s">
+        <v>37</v>
+      </c>
+      <c r="O10" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="P10" s="59" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q10" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="R10" s="47"/>
+      <c r="S10" s="46"/>
+      <c r="T10" s="48"/>
+      <c r="U10" s="49"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A11" s="75" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="4">
+        <v>9</v>
+      </c>
+      <c r="C11" s="17">
+        <v>3</v>
+      </c>
+      <c r="D11" s="5">
+        <v>4</v>
+      </c>
+      <c r="E11" s="17">
+        <v>1</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="5">
+        <v>4</v>
+      </c>
+      <c r="I11" s="55">
+        <v>2</v>
+      </c>
+      <c r="J11" s="4"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="5">
+        <v>4</v>
+      </c>
+      <c r="M11" s="55">
+        <v>3</v>
+      </c>
+      <c r="N11" s="4">
+        <v>9</v>
+      </c>
+      <c r="O11" s="17">
+        <v>2</v>
+      </c>
+      <c r="P11" s="5">
+        <v>4</v>
+      </c>
+      <c r="Q11" s="55">
+        <v>3</v>
+      </c>
+      <c r="R11" s="4">
+        <v>9</v>
+      </c>
+      <c r="S11" s="17">
+        <v>3</v>
+      </c>
+      <c r="T11" s="5"/>
+      <c r="U11" s="6"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A12" s="76" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="59" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="60" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="47">
+        <v>17</v>
+      </c>
+      <c r="G12" s="46">
+        <v>3</v>
+      </c>
+      <c r="H12" s="48">
+        <v>15</v>
+      </c>
+      <c r="I12" s="46">
+        <v>2</v>
+      </c>
+      <c r="J12" s="47">
+        <v>17</v>
+      </c>
+      <c r="K12" s="46">
+        <v>2</v>
+      </c>
+      <c r="L12" s="48">
+        <v>15</v>
+      </c>
+      <c r="M12" s="46">
+        <v>5</v>
+      </c>
+      <c r="N12" s="47">
+        <v>17</v>
+      </c>
+      <c r="O12" s="46">
+        <v>3</v>
+      </c>
+      <c r="P12" s="48"/>
+      <c r="Q12" s="46"/>
+      <c r="R12" s="47">
+        <v>17</v>
+      </c>
+      <c r="S12" s="46">
+        <v>2</v>
+      </c>
+      <c r="T12" s="48">
+        <v>15</v>
+      </c>
+      <c r="U12" s="49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A13" s="75" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="4">
+        <v>1</v>
+      </c>
+      <c r="S13" s="17">
+        <v>1</v>
+      </c>
+      <c r="T13" s="5"/>
+      <c r="U13" s="6"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A14" s="76" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="47">
+        <v>2</v>
+      </c>
+      <c r="C14" s="46">
+        <v>1</v>
+      </c>
+      <c r="D14" s="48"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="47">
+        <v>2</v>
+      </c>
+      <c r="G14" s="46">
+        <v>2</v>
+      </c>
+      <c r="H14" s="48"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="47"/>
+      <c r="K14" s="46"/>
+      <c r="L14" s="48"/>
+      <c r="M14" s="46"/>
+      <c r="N14" s="47"/>
+      <c r="O14" s="46"/>
+      <c r="P14" s="48"/>
+      <c r="Q14" s="46"/>
+      <c r="R14" s="47"/>
+      <c r="S14" s="46"/>
+      <c r="T14" s="48"/>
+      <c r="U14" s="49"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A15" s="75" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="4">
+        <v>13</v>
+      </c>
+      <c r="C15" s="61">
+        <v>3</v>
+      </c>
+      <c r="D15" s="5">
+        <v>9</v>
+      </c>
+      <c r="E15" s="61">
+        <v>2</v>
+      </c>
+      <c r="F15" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="G15" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="H15" s="57" t="s">
+        <v>37</v>
+      </c>
+      <c r="I15" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="J15" s="4"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="5">
+        <v>9</v>
+      </c>
+      <c r="M15" s="61">
+        <v>2</v>
+      </c>
+      <c r="N15" s="4">
+        <v>13</v>
+      </c>
+      <c r="O15" s="17">
+        <v>3</v>
+      </c>
+      <c r="P15" s="5">
+        <v>9</v>
+      </c>
+      <c r="Q15" s="55">
+        <v>6</v>
+      </c>
+      <c r="R15" s="4"/>
+      <c r="S15" s="17"/>
+      <c r="T15" s="5">
+        <v>9</v>
+      </c>
+      <c r="U15" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A16" s="76" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="47">
+        <v>1</v>
+      </c>
+      <c r="C16" s="46">
+        <v>1</v>
+      </c>
+      <c r="D16" s="48"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="48">
+        <v>2</v>
+      </c>
+      <c r="I16" s="46">
+        <v>1</v>
+      </c>
+      <c r="J16" s="47"/>
+      <c r="K16" s="46"/>
+      <c r="L16" s="48"/>
+      <c r="M16" s="46"/>
+      <c r="N16" s="47"/>
+      <c r="O16" s="46"/>
+      <c r="P16" s="48"/>
+      <c r="Q16" s="46"/>
+      <c r="R16" s="47">
+        <v>1</v>
+      </c>
+      <c r="S16" s="46">
+        <v>1</v>
+      </c>
+      <c r="T16" s="48"/>
+      <c r="U16" s="49"/>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A17" s="75" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="5">
+        <v>4</v>
+      </c>
+      <c r="E17" s="17">
+        <v>2</v>
+      </c>
+      <c r="F17" s="4">
+        <v>5</v>
+      </c>
+      <c r="G17" s="17">
+        <v>1</v>
+      </c>
+      <c r="H17" s="5">
+        <v>4</v>
+      </c>
+      <c r="I17" s="55">
+        <v>4</v>
+      </c>
+      <c r="J17" s="4"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="5">
+        <v>4</v>
+      </c>
+      <c r="Q17" s="55">
+        <v>3</v>
+      </c>
+      <c r="R17" s="4"/>
+      <c r="S17" s="17"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="6"/>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A18" s="76" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="47">
+        <v>6</v>
+      </c>
+      <c r="C18" s="46">
+        <v>2</v>
+      </c>
+      <c r="D18" s="48"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="47">
+        <v>6</v>
+      </c>
+      <c r="G18" s="46">
+        <v>1</v>
+      </c>
+      <c r="H18" s="48">
+        <v>2</v>
+      </c>
+      <c r="I18" s="46">
+        <v>1</v>
+      </c>
+      <c r="J18" s="47"/>
+      <c r="K18" s="46"/>
+      <c r="L18" s="48">
+        <v>2</v>
+      </c>
+      <c r="M18" s="55">
+        <v>2</v>
+      </c>
+      <c r="N18" s="47"/>
+      <c r="O18" s="46"/>
+      <c r="P18" s="48"/>
+      <c r="Q18" s="46"/>
+      <c r="R18" s="47">
+        <v>6</v>
+      </c>
+      <c r="S18" s="55">
+        <v>3</v>
+      </c>
+      <c r="T18" s="48"/>
+      <c r="U18" s="49"/>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A19" s="75" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4">
+        <v>4</v>
+      </c>
+      <c r="C19" s="55">
+        <v>2</v>
+      </c>
+      <c r="D19" s="5">
+        <v>16</v>
+      </c>
+      <c r="E19" s="17">
+        <v>5</v>
+      </c>
+      <c r="F19" s="4"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="5">
+        <v>16</v>
+      </c>
+      <c r="I19" s="61">
+        <v>2</v>
+      </c>
+      <c r="J19" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="K19" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="L19" s="57" t="s">
+        <v>37</v>
+      </c>
+      <c r="M19" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="N19" s="4"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="5">
+        <v>16</v>
+      </c>
+      <c r="Q19" s="61">
+        <v>3</v>
+      </c>
+      <c r="R19" s="4"/>
+      <c r="S19" s="17"/>
+      <c r="T19" s="5">
+        <v>16</v>
+      </c>
+      <c r="U19" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A20" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="47">
+        <v>1</v>
+      </c>
+      <c r="C20" s="46">
+        <v>1</v>
+      </c>
+      <c r="D20" s="48">
+        <v>3</v>
+      </c>
+      <c r="E20" s="46">
+        <v>1</v>
+      </c>
+      <c r="F20" s="47"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="48">
+        <v>3</v>
+      </c>
+      <c r="I20" s="46">
+        <v>1</v>
+      </c>
+      <c r="J20" s="47"/>
+      <c r="K20" s="46"/>
+      <c r="L20" s="48">
+        <v>3</v>
+      </c>
+      <c r="M20" s="46">
+        <v>1</v>
+      </c>
+      <c r="N20" s="47"/>
+      <c r="O20" s="46"/>
+      <c r="P20" s="48"/>
+      <c r="Q20" s="46"/>
+      <c r="R20" s="47"/>
+      <c r="S20" s="46"/>
+      <c r="T20" s="48"/>
+      <c r="U20" s="49"/>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A21" s="77" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="8">
+        <v>3</v>
+      </c>
+      <c r="I21" s="36">
+        <v>1</v>
+      </c>
+      <c r="J21" s="7"/>
+      <c r="K21" s="36"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="36"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="36"/>
+      <c r="R21" s="7"/>
+      <c r="S21" s="36"/>
+      <c r="T21" s="8"/>
+      <c r="U21" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/Findings.xlsx
+++ b/Findings.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17531"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Astrid\Dropbox\Laclau Mouffe\HA_RuG\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fechner\Dropbox\Uni\Rechtsextremismus und Gender\Hausarbeit\HA_RuG\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6950" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6948" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
     <sheet name="Diagramme" sheetId="2" r:id="rId2"/>
     <sheet name="Tabelle2" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="47">
   <si>
     <t>Farbe</t>
   </si>
@@ -147,11 +147,32 @@
   <si>
     <t>Vergleichscodes</t>
   </si>
+  <si>
+    <t>sachlich</t>
+  </si>
+  <si>
+    <t>Tapferkeit</t>
+  </si>
+  <si>
+    <t>Selbständigkeit</t>
+  </si>
+  <si>
+    <t>selbstlos</t>
+  </si>
+  <si>
+    <t>instinktgeleitet</t>
+  </si>
+  <si>
+    <t>Häuslichkeit</t>
+  </si>
+  <si>
+    <t>empathisch</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -653,30 +674,6 @@
     <xf numFmtId="0" fontId="0" fillId="24" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -698,7 +695,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -706,15 +734,8 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -747,7 +768,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
@@ -786,6 +807,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -905,7 +927,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-D636-40C6-885E-E9B856DBB766}"/>
             </c:ext>
@@ -994,7 +1016,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-D636-40C6-885E-E9B856DBB766}"/>
             </c:ext>
@@ -1009,9 +1031,9 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="65"/>
-        <c:axId val="437742056"/>
-        <c:axId val="437742384"/>
-        <c:extLst>
+        <c:axId val="397882240"/>
+        <c:axId val="397884416"/>
+        <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
               <c15:ser>
@@ -1036,7 +1058,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Tabelle1!$AU$23:$AU$40</c15:sqref>
@@ -1103,7 +1125,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-D636-40C6-885E-E9B856DBB766}"/>
                   </c:ext>
@@ -1114,7 +1136,7 @@
         </c:extLst>
       </c:barChart>
       <c:catAx>
-        <c:axId val="437742056"/>
+        <c:axId val="397882240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1156,7 +1178,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="437742384"/>
+        <c:crossAx val="397884416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1164,7 +1186,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="437742384"/>
+        <c:axId val="397884416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1215,7 +1237,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="437742056"/>
+        <c:crossAx val="397882240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1229,6 +1251,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -1317,7 +1340,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
@@ -1359,6 +1382,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1434,22 +1458,22 @@
                   <c:v>schweigsam</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>nüchtern, sachlich</c:v>
+                  <c:v>sachlich</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>mutig, tapfer</c:v>
+                  <c:v>Tapferkeit</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Organisation, Selbständigkeit</c:v>
+                  <c:v>Selbständigkeit</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Ehe</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>selbstlos, bescheiden</c:v>
+                  <c:v>selbstlos</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Sorge(arbeit), Hilfsbereit</c:v>
+                  <c:v>Sorgearbeit</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>Frauenarbeitsdienst</c:v>
@@ -1461,10 +1485,10 @@
                   <c:v>Mutter</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>instinktiv</c:v>
+                  <c:v>instinktgeleitet</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>Häuslichkeit, Hausarbeit</c:v>
+                  <c:v>Häuslichkeit</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>"Natur der Frau"</c:v>
@@ -1473,7 +1497,7 @@
                   <c:v>Berufstätigkeit</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>Empathie</c:v>
+                  <c:v>empathisch</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>friedliebend</c:v>
@@ -1544,7 +1568,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-717F-40F9-88FB-F75F1F986EA5}"/>
             </c:ext>
@@ -1589,22 +1613,22 @@
                   <c:v>schweigsam</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>nüchtern, sachlich</c:v>
+                  <c:v>sachlich</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>mutig, tapfer</c:v>
+                  <c:v>Tapferkeit</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Organisation, Selbständigkeit</c:v>
+                  <c:v>Selbständigkeit</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Ehe</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>selbstlos, bescheiden</c:v>
+                  <c:v>selbstlos</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Sorge(arbeit), Hilfsbereit</c:v>
+                  <c:v>Sorgearbeit</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>Frauenarbeitsdienst</c:v>
@@ -1616,10 +1640,10 @@
                   <c:v>Mutter</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>instinktiv</c:v>
+                  <c:v>instinktgeleitet</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>Häuslichkeit, Hausarbeit</c:v>
+                  <c:v>Häuslichkeit</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>"Natur der Frau"</c:v>
@@ -1628,7 +1652,7 @@
                   <c:v>Berufstätigkeit</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>Empathie</c:v>
+                  <c:v>empathisch</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>friedliebend</c:v>
@@ -1699,7 +1723,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-717F-40F9-88FB-F75F1F986EA5}"/>
             </c:ext>
@@ -1715,11 +1739,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="336086336"/>
-        <c:axId val="336087976"/>
+        <c:axId val="580367424"/>
+        <c:axId val="580367968"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="336086336"/>
+        <c:axId val="580367424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1762,7 +1786,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="336087976"/>
+        <c:crossAx val="580367968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1770,7 +1794,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="336087976"/>
+        <c:axId val="580367968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1821,7 +1845,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="336086336"/>
+        <c:crossAx val="580367424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1881,6 +1905,7 @@
           </a:p>
         </c:txPr>
       </c:legendEntry>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3114,7 +3139,7 @@
         <xdr:cNvPr id="2" name="Diagramm 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6BD792B-F511-43D6-8906-735031434FF2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C6BD792B-F511-43D6-8906-735031434FF2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3155,7 +3180,7 @@
         <xdr:cNvPr id="2" name="Diagramm 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A34B0B28-B461-4B83-974C-AC39F0F18F8B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A34B0B28-B461-4B83-974C-AC39F0F18F8B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3196,7 +3221,7 @@
         <xdr:cNvPr id="3" name="Gerader Verbinder 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64B96DD7-31E4-42DD-A6BC-05A17F2A3EFE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{64B96DD7-31E4-42DD-A6BC-05A17F2A3EFE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3535,43 +3560,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB62"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="G1" activePane="topRight" state="frozenSplit"/>
+    <sheetView topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="AP1" activePane="topRight" state="frozenSplit"/>
       <selection sqref="A1 C1:C1048576"/>
       <selection pane="topRight" activeCell="B42" sqref="B42:Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="10.90625" style="10"/>
-    <col min="2" max="2" width="35.453125" style="10" customWidth="1"/>
-    <col min="3" max="4" width="4.81640625" style="10" customWidth="1"/>
-    <col min="5" max="7" width="5.26953125" style="10" customWidth="1"/>
-    <col min="8" max="8" width="4.81640625" style="10" customWidth="1"/>
-    <col min="9" max="9" width="5.26953125" style="10" customWidth="1"/>
-    <col min="10" max="10" width="5.7265625" style="10" customWidth="1"/>
-    <col min="11" max="14" width="4.81640625" style="10" customWidth="1"/>
-    <col min="15" max="20" width="4.1796875" style="10" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="4.81640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="22" max="28" width="4.1796875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="6.08984375" customWidth="1"/>
-    <col min="30" max="30" width="4.1796875" bestFit="1" customWidth="1"/>
-    <col min="31" max="37" width="5.1796875" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="4.1796875" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="4.81640625" customWidth="1"/>
-    <col min="40" max="45" width="5.1796875" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="5.1796875" customWidth="1"/>
-    <col min="48" max="53" width="5.1796875" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="55" max="71" width="3.81640625" customWidth="1"/>
-    <col min="72" max="72" width="3.90625" customWidth="1"/>
-    <col min="73" max="81" width="3.81640625" customWidth="1"/>
-    <col min="82" max="88" width="4.81640625" customWidth="1"/>
-    <col min="89" max="96" width="3.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.89453125" style="10"/>
+    <col min="2" max="2" width="35.47265625" style="10" customWidth="1"/>
+    <col min="3" max="4" width="4.7890625" style="10" customWidth="1"/>
+    <col min="5" max="7" width="5.26171875" style="10" customWidth="1"/>
+    <col min="8" max="8" width="4.7890625" style="10" customWidth="1"/>
+    <col min="9" max="9" width="5.26171875" style="10" customWidth="1"/>
+    <col min="10" max="10" width="5.734375" style="10" customWidth="1"/>
+    <col min="11" max="14" width="4.7890625" style="10" customWidth="1"/>
+    <col min="15" max="20" width="4.15625" style="10" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="4.7890625" style="10" bestFit="1" customWidth="1"/>
+    <col min="22" max="28" width="4.15625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="6.1015625" customWidth="1"/>
+    <col min="30" max="30" width="4.15625" bestFit="1" customWidth="1"/>
+    <col min="31" max="37" width="5.15625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="4.15625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="4.7890625" customWidth="1"/>
+    <col min="40" max="45" width="5.15625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="9.26171875" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="5.15625" customWidth="1"/>
+    <col min="48" max="53" width="5.15625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="9.26171875" bestFit="1" customWidth="1"/>
+    <col min="55" max="71" width="3.7890625" customWidth="1"/>
+    <col min="72" max="72" width="3.89453125" customWidth="1"/>
+    <col min="73" max="81" width="3.7890625" customWidth="1"/>
+    <col min="82" max="88" width="4.7890625" customWidth="1"/>
+    <col min="89" max="96" width="3.7890625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:54" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -3733,7 +3758,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:54" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="14"/>
       <c r="B2" s="10" t="s">
         <v>1</v>
@@ -3800,7 +3825,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:54" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="18"/>
       <c r="B3" s="10" t="s">
         <v>26</v>
@@ -3879,7 +3904,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:54" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="19"/>
       <c r="B4" s="10" t="s">
         <v>4</v>
@@ -3942,7 +3967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:54" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="20"/>
       <c r="B5" s="10" t="s">
         <v>2</v>
@@ -4007,7 +4032,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:54" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="21"/>
       <c r="B6" s="10" t="s">
         <v>5</v>
@@ -4100,7 +4125,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:54" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="22"/>
       <c r="B7" s="10" t="s">
         <v>30</v>
@@ -4177,7 +4202,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:54" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="23"/>
       <c r="B8" s="10" t="s">
         <v>11</v>
@@ -4250,7 +4275,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:54" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="24" t="s">
         <v>3</v>
       </c>
@@ -4327,7 +4352,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:54" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="25"/>
       <c r="B10" s="10" t="s">
         <v>6</v>
@@ -4418,7 +4443,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:54" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="10" t="s">
         <v>29</v>
       </c>
@@ -4483,7 +4508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:54" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="26" t="s">
         <v>7</v>
       </c>
@@ -4550,7 +4575,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:54" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="27" t="s">
         <v>9</v>
       </c>
@@ -4633,7 +4658,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:54" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="28" t="s">
         <v>14</v>
       </c>
@@ -4698,7 +4723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:54" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="29"/>
       <c r="B15" s="10" t="s">
         <v>19</v>
@@ -4769,7 +4794,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:54" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="30" t="s">
         <v>21</v>
       </c>
@@ -4842,7 +4867,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:54" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="31"/>
       <c r="B17" s="10" t="s">
         <v>18</v>
@@ -4909,7 +4934,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:54" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="32"/>
       <c r="B18" s="10" t="s">
         <v>22</v>
@@ -4972,7 +4997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:54" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="33"/>
       <c r="B19" s="10" t="s">
         <v>23</v>
@@ -5032,7 +5057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:54" x14ac:dyDescent="0.55000000000000004">
       <c r="C20" s="16"/>
       <c r="D20" s="16"/>
       <c r="U20" s="16"/>
@@ -5045,7 +5070,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="22" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:54" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="10" t="s">
         <v>0</v>
       </c>
@@ -5191,7 +5216,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:54" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="14"/>
       <c r="B23" s="10" t="s">
         <v>1</v>
@@ -5264,7 +5289,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:54" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="18"/>
       <c r="B24" s="10" t="s">
         <v>26</v>
@@ -5345,7 +5370,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:54" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="19"/>
       <c r="B25" s="10" t="s">
         <v>4</v>
@@ -5411,7 +5436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:54" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="20"/>
       <c r="B26" s="10" t="s">
         <v>2</v>
@@ -5477,7 +5502,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:54" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="21"/>
       <c r="B27" s="10" t="s">
         <v>5</v>
@@ -5550,7 +5575,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:54" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="22"/>
       <c r="B28" s="10" t="s">
         <v>30</v>
@@ -5621,7 +5646,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:54" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="23"/>
       <c r="B29" s="10" t="s">
         <v>11</v>
@@ -5708,7 +5733,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:54" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="39" t="s">
         <v>3</v>
       </c>
@@ -5783,7 +5808,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:54" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="25"/>
       <c r="B31" s="10" t="s">
         <v>6</v>
@@ -5878,7 +5903,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:54" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="10" t="s">
         <v>29</v>
       </c>
@@ -5944,7 +5969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:50" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="26" t="s">
         <v>7</v>
       </c>
@@ -6012,7 +6037,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:50" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="27" t="s">
         <v>9</v>
       </c>
@@ -6097,7 +6122,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:50" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="28" t="s">
         <v>14</v>
       </c>
@@ -6170,7 +6195,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:50" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="29"/>
       <c r="B36" s="10" t="s">
         <v>19</v>
@@ -6245,7 +6270,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:50" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="30" t="s">
         <v>21</v>
       </c>
@@ -6318,7 +6343,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:50" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="31"/>
       <c r="B38" s="10" t="s">
         <v>18</v>
@@ -6415,7 +6440,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:50" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="32"/>
       <c r="B39" s="10" t="s">
         <v>22</v>
@@ -6488,7 +6513,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:50" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="33"/>
       <c r="B40" s="10" t="s">
         <v>23</v>
@@ -6561,7 +6586,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:50" x14ac:dyDescent="0.55000000000000004">
       <c r="AT41">
         <f>SUM(AT23:AT40)</f>
         <v>84</v>
@@ -6575,81 +6600,81 @@
         <v>193</v>
       </c>
     </row>
-    <row r="42" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="C42" s="69" t="s">
+    <row r="42" spans="1:50" x14ac:dyDescent="0.55000000000000004">
+      <c r="C42" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="D42" s="70"/>
-      <c r="E42" s="70"/>
-      <c r="F42" s="71"/>
-      <c r="H42" s="69" t="s">
+      <c r="D42" s="75"/>
+      <c r="E42" s="75"/>
+      <c r="F42" s="76"/>
+      <c r="H42" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="I42" s="70"/>
-      <c r="J42" s="70"/>
-      <c r="K42" s="71"/>
-      <c r="M42" s="69" t="s">
+      <c r="I42" s="75"/>
+      <c r="J42" s="75"/>
+      <c r="K42" s="76"/>
+      <c r="M42" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="N42" s="70"/>
-      <c r="O42" s="70"/>
-      <c r="P42" s="71"/>
-      <c r="R42" s="69" t="s">
+      <c r="N42" s="75"/>
+      <c r="O42" s="75"/>
+      <c r="P42" s="76"/>
+      <c r="R42" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="S42" s="70"/>
-      <c r="T42" s="70"/>
-      <c r="U42" s="71"/>
-      <c r="W42" s="69" t="s">
+      <c r="S42" s="75"/>
+      <c r="T42" s="75"/>
+      <c r="U42" s="76"/>
+      <c r="W42" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="X42" s="70"/>
-      <c r="Y42" s="70"/>
-      <c r="Z42" s="71"/>
-    </row>
-    <row r="43" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="C43" s="66">
+      <c r="X42" s="75"/>
+      <c r="Y42" s="75"/>
+      <c r="Z42" s="76"/>
+    </row>
+    <row r="43" spans="1:50" x14ac:dyDescent="0.55000000000000004">
+      <c r="C43" s="77">
         <v>36</v>
       </c>
-      <c r="D43" s="67"/>
-      <c r="E43" s="67">
+      <c r="D43" s="79"/>
+      <c r="E43" s="79">
         <v>41</v>
       </c>
-      <c r="F43" s="68"/>
-      <c r="H43" s="66">
+      <c r="F43" s="78"/>
+      <c r="H43" s="77">
         <v>36</v>
       </c>
-      <c r="I43" s="68"/>
-      <c r="J43" s="66">
+      <c r="I43" s="78"/>
+      <c r="J43" s="77">
         <v>41</v>
       </c>
-      <c r="K43" s="68"/>
-      <c r="M43" s="66">
+      <c r="K43" s="78"/>
+      <c r="M43" s="77">
         <v>36</v>
       </c>
-      <c r="N43" s="68"/>
-      <c r="O43" s="66">
+      <c r="N43" s="78"/>
+      <c r="O43" s="77">
         <v>41</v>
       </c>
-      <c r="P43" s="68"/>
-      <c r="R43" s="66">
+      <c r="P43" s="78"/>
+      <c r="R43" s="77">
         <v>36</v>
       </c>
-      <c r="S43" s="68"/>
-      <c r="T43" s="66">
+      <c r="S43" s="78"/>
+      <c r="T43" s="77">
         <v>41</v>
       </c>
-      <c r="U43" s="68"/>
-      <c r="W43" s="66">
+      <c r="U43" s="78"/>
+      <c r="W43" s="77">
         <v>36</v>
       </c>
-      <c r="X43" s="68"/>
-      <c r="Y43" s="66">
+      <c r="X43" s="78"/>
+      <c r="Y43" s="77">
         <v>41</v>
       </c>
-      <c r="Z43" s="68"/>
-    </row>
-    <row r="44" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="Z43" s="78"/>
+    </row>
+    <row r="44" spans="1:50" x14ac:dyDescent="0.55000000000000004">
       <c r="B44" s="41"/>
       <c r="C44" s="42" t="s">
         <v>34</v>
@@ -6712,7 +6737,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="45" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:50" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="14"/>
       <c r="B45" s="45" t="s">
         <v>1</v>
@@ -6770,7 +6795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:50" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="18"/>
       <c r="B46" s="10" t="s">
         <v>26</v>
@@ -6824,7 +6849,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="47" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:50" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="19"/>
       <c r="B47" s="45" t="s">
         <v>4</v>
@@ -6862,7 +6887,7 @@
       <c r="Y47" s="48"/>
       <c r="Z47" s="49"/>
     </row>
-    <row r="48" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:50" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="20"/>
       <c r="B48" s="10" t="s">
         <v>2</v>
@@ -6892,7 +6917,7 @@
       <c r="Y48" s="5"/>
       <c r="Z48" s="6"/>
     </row>
-    <row r="49" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="21"/>
       <c r="B49" s="45" t="s">
         <v>5</v>
@@ -6946,7 +6971,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="22"/>
       <c r="B50" s="10" t="s">
         <v>30</v>
@@ -7000,7 +7025,7 @@
       <c r="Y50" s="5"/>
       <c r="Z50" s="6"/>
     </row>
-    <row r="51" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="23"/>
       <c r="B51" s="45" t="s">
         <v>11</v>
@@ -7058,7 +7083,7 @@
       <c r="Y51" s="48"/>
       <c r="Z51" s="49"/>
     </row>
-    <row r="52" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="39" t="s">
         <v>3</v>
       </c>
@@ -7119,7 +7144,7 @@
       <c r="Z52" s="6"/>
       <c r="AE52" s="5"/>
     </row>
-    <row r="53" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="25"/>
       <c r="B53" s="45" t="s">
         <v>6</v>
@@ -7185,7 +7210,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="10" t="s">
         <v>29</v>
       </c>
@@ -7221,7 +7246,7 @@
       <c r="Y54" s="5"/>
       <c r="Z54" s="6"/>
     </row>
-    <row r="55" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="26" t="s">
         <v>7</v>
       </c>
@@ -7262,7 +7287,7 @@
       <c r="Z55" s="49"/>
       <c r="AF55" s="5"/>
     </row>
-    <row r="56" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="27" t="s">
         <v>9</v>
       </c>
@@ -7326,7 +7351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="28" t="s">
         <v>14</v>
       </c>
@@ -7370,7 +7395,7 @@
       <c r="Y57" s="48"/>
       <c r="Z57" s="49"/>
     </row>
-    <row r="58" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="29"/>
       <c r="B58" s="10" t="s">
         <v>19</v>
@@ -7416,7 +7441,7 @@
       <c r="Y58" s="5"/>
       <c r="Z58" s="6"/>
     </row>
-    <row r="59" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="30" t="s">
         <v>21</v>
       </c>
@@ -7468,7 +7493,7 @@
       <c r="Y59" s="48"/>
       <c r="Z59" s="49"/>
     </row>
-    <row r="60" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="31"/>
       <c r="B60" s="10" t="s">
         <v>18</v>
@@ -7526,7 +7551,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="32"/>
       <c r="B61" s="45" t="s">
         <v>22</v>
@@ -7572,7 +7597,7 @@
       <c r="Y61" s="48"/>
       <c r="Z61" s="49"/>
     </row>
-    <row r="62" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="33"/>
       <c r="B62" s="10" t="s">
         <v>23</v>
@@ -7608,6 +7633,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="M42:P42"/>
+    <mergeCell ref="O43:P43"/>
     <mergeCell ref="W42:Z42"/>
     <mergeCell ref="W43:X43"/>
     <mergeCell ref="Y43:Z43"/>
@@ -7617,12 +7648,6 @@
     <mergeCell ref="R43:S43"/>
     <mergeCell ref="T43:U43"/>
     <mergeCell ref="R42:U42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="M42:P42"/>
-    <mergeCell ref="O43:P43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -7635,16 +7660,16 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="35.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.1015625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="4.7890625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B1">
         <v>1936</v>
       </c>
@@ -7652,7 +7677,7 @@
         <v>1941</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
@@ -7663,7 +7688,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="10" t="s">
         <v>26</v>
       </c>
@@ -7674,7 +7699,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="10" t="s">
         <v>4</v>
       </c>
@@ -7685,9 +7710,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="10" t="s">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -7696,9 +7721,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="10" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="B6">
         <v>19</v>
@@ -7707,9 +7732,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="10" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="B7">
         <v>8</v>
@@ -7718,7 +7743,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="10" t="s">
         <v>11</v>
       </c>
@@ -7729,9 +7754,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="10" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="B9">
         <v>9</v>
@@ -7740,9 +7765,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="10" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="B10">
         <v>17</v>
@@ -7751,7 +7776,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="10" t="s">
         <v>28</v>
       </c>
@@ -7762,7 +7787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="10" t="s">
         <v>8</v>
       </c>
@@ -7773,7 +7798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="10" t="s">
         <v>10</v>
       </c>
@@ -7784,9 +7809,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="10" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -7795,9 +7820,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="10" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="B15">
         <v>5</v>
@@ -7806,7 +7831,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="10" t="s">
         <v>16</v>
       </c>
@@ -7817,7 +7842,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="10" t="s">
         <v>18</v>
       </c>
@@ -7828,9 +7853,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="10" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -7839,7 +7864,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="10" t="s">
         <v>23</v>
       </c>
@@ -7861,160 +7886,160 @@
   <dimension ref="A1:U21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="35.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="21" width="4.6328125" customWidth="1"/>
+    <col min="1" max="1" width="35.1015625" bestFit="1" customWidth="1"/>
+    <col min="2" max="21" width="4.62890625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A1" s="81" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="72" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="69" t="s">
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="69" t="s">
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="69" t="s">
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="69" t="s">
+      <c r="O1" s="75"/>
+      <c r="P1" s="75"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="S1" s="70"/>
-      <c r="T1" s="70"/>
-      <c r="U1" s="71"/>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="S1" s="75"/>
+      <c r="T1" s="75"/>
+      <c r="U1" s="76"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="15"/>
-      <c r="B2" s="78">
+      <c r="B2" s="82">
         <v>36</v>
       </c>
-      <c r="C2" s="79"/>
+      <c r="C2" s="81"/>
       <c r="D2" s="80">
         <v>41</v>
       </c>
-      <c r="E2" s="79"/>
-      <c r="F2" s="78">
+      <c r="E2" s="81"/>
+      <c r="F2" s="82">
         <v>36</v>
       </c>
-      <c r="G2" s="79"/>
+      <c r="G2" s="81"/>
       <c r="H2" s="80">
         <v>41</v>
       </c>
-      <c r="I2" s="79"/>
-      <c r="J2" s="78">
+      <c r="I2" s="81"/>
+      <c r="J2" s="82">
         <v>36</v>
       </c>
-      <c r="K2" s="79"/>
+      <c r="K2" s="81"/>
       <c r="L2" s="80">
         <v>41</v>
       </c>
-      <c r="M2" s="79"/>
-      <c r="N2" s="78">
+      <c r="M2" s="81"/>
+      <c r="N2" s="82">
         <v>36</v>
       </c>
-      <c r="O2" s="79"/>
+      <c r="O2" s="81"/>
       <c r="P2" s="80">
         <v>41</v>
       </c>
-      <c r="Q2" s="79"/>
-      <c r="R2" s="78">
+      <c r="Q2" s="81"/>
+      <c r="R2" s="82">
         <v>36</v>
       </c>
-      <c r="S2" s="79"/>
+      <c r="S2" s="81"/>
       <c r="T2" s="80">
         <v>41</v>
       </c>
-      <c r="U2" s="79"/>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="U2" s="81"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="73" t="s">
+      <c r="C3" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="74" t="s">
+      <c r="D3" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="73" t="s">
+      <c r="E3" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="72" t="s">
+      <c r="F3" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="G3" s="73" t="s">
+      <c r="G3" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="H3" s="74" t="s">
+      <c r="H3" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="I3" s="73" t="s">
+      <c r="I3" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="J3" s="72" t="s">
+      <c r="J3" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="K3" s="73" t="s">
+      <c r="K3" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="L3" s="74" t="s">
+      <c r="L3" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="M3" s="73" t="s">
+      <c r="M3" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="N3" s="72" t="s">
+      <c r="N3" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="O3" s="73" t="s">
+      <c r="O3" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="P3" s="74" t="s">
+      <c r="P3" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="Q3" s="73" t="s">
+      <c r="Q3" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="R3" s="72" t="s">
+      <c r="R3" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="S3" s="73" t="s">
+      <c r="S3" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="T3" s="74" t="s">
+      <c r="T3" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="U3" s="73" t="s">
+      <c r="U3" s="67" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A4" s="76" t="s">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="70" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="47">
@@ -8066,8 +8091,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A5" s="75" t="s">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="69" t="s">
         <v>26</v>
       </c>
       <c r="B5" s="4">
@@ -8115,8 +8140,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A6" s="76" t="s">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="70" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="47">
@@ -8148,8 +8173,8 @@
       <c r="T6" s="48"/>
       <c r="U6" s="49"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A7" s="75" t="s">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="69" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="4"/>
@@ -8173,8 +8198,8 @@
       <c r="T7" s="5"/>
       <c r="U7" s="6"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A8" s="76" t="s">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="70" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="47">
@@ -8222,8 +8247,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A9" s="75" t="s">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="69" t="s">
         <v>30</v>
       </c>
       <c r="B9" s="4">
@@ -8271,8 +8296,8 @@
       <c r="T9" s="5"/>
       <c r="U9" s="6"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A10" s="76" t="s">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="70" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="47">
@@ -8296,7 +8321,7 @@
       <c r="H10" s="48">
         <v>11</v>
       </c>
-      <c r="I10" s="82">
+      <c r="I10" s="73">
         <v>6</v>
       </c>
       <c r="J10" s="47"/>
@@ -8324,8 +8349,8 @@
       <c r="T10" s="48"/>
       <c r="U10" s="49"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A11" s="75" t="s">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="69" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="4">
@@ -8377,8 +8402,8 @@
       <c r="T11" s="5"/>
       <c r="U11" s="6"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A12" s="76" t="s">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="70" t="s">
         <v>6</v>
       </c>
       <c r="B12" s="59" t="s">
@@ -8438,8 +8463,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A13" s="75" t="s">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="69" t="s">
         <v>28</v>
       </c>
       <c r="B13" s="4"/>
@@ -8467,8 +8492,8 @@
       <c r="T13" s="5"/>
       <c r="U13" s="6"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A14" s="76" t="s">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="70" t="s">
         <v>8</v>
       </c>
       <c r="B14" s="47">
@@ -8500,8 +8525,8 @@
       <c r="T14" s="48"/>
       <c r="U14" s="49"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A15" s="75" t="s">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="69" t="s">
         <v>10</v>
       </c>
       <c r="B15" s="4">
@@ -8557,8 +8582,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A16" s="76" t="s">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="70" t="s">
         <v>13</v>
       </c>
       <c r="B16" s="47">
@@ -8594,8 +8619,8 @@
       <c r="T16" s="48"/>
       <c r="U16" s="49"/>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A17" s="75" t="s">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="69" t="s">
         <v>19</v>
       </c>
       <c r="B17" s="4"/>
@@ -8635,8 +8660,8 @@
       <c r="T17" s="5"/>
       <c r="U17" s="6"/>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A18" s="76" t="s">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="70" t="s">
         <v>16</v>
       </c>
       <c r="B18" s="47">
@@ -8680,8 +8705,8 @@
       <c r="T18" s="48"/>
       <c r="U18" s="49"/>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A19" s="75" t="s">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="69" t="s">
         <v>18</v>
       </c>
       <c r="B19" s="4">
@@ -8733,8 +8758,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A20" s="76" t="s">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="70" t="s">
         <v>22</v>
       </c>
       <c r="B20" s="47">
@@ -8774,8 +8799,8 @@
       <c r="T20" s="48"/>
       <c r="U20" s="49"/>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A21" s="77" t="s">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="71" t="s">
         <v>23</v>
       </c>
       <c r="B21" s="7"/>
@@ -8805,21 +8830,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:U1"/>
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="N2:O2"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="R2:S2"/>
     <mergeCell ref="T2:U2"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="R1:U1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/Findings.xlsx
+++ b/Findings.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6948" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6948" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -151,12 +151,6 @@
     <t>sachlich</t>
   </si>
   <si>
-    <t>Tapferkeit</t>
-  </si>
-  <si>
-    <t>Selbständigkeit</t>
-  </si>
-  <si>
     <t>selbstlos</t>
   </si>
   <si>
@@ -167,6 +161,12 @@
   </si>
   <si>
     <t>empathisch</t>
+  </si>
+  <si>
+    <t>tapfer</t>
+  </si>
+  <si>
+    <t>selbständig</t>
   </si>
 </sst>
 </file>
@@ -1461,10 +1461,10 @@
                   <c:v>sachlich</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Tapferkeit</c:v>
+                  <c:v>tapfer</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Selbständigkeit</c:v>
+                  <c:v>selbständig</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Ehe</c:v>
@@ -1616,10 +1616,10 @@
                   <c:v>sachlich</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Tapferkeit</c:v>
+                  <c:v>tapfer</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Selbständigkeit</c:v>
+                  <c:v>selbständig</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Ehe</c:v>
@@ -3560,7 +3560,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB62"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" topLeftCell="AP1" activePane="topRight" state="frozenSplit"/>
       <selection sqref="A1 C1:C1048576"/>
       <selection pane="topRight" activeCell="B42" sqref="B42:Z62"/>
@@ -7659,8 +7659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -7723,7 +7723,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="10" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B6">
         <v>19</v>
@@ -7734,7 +7734,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="10" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B7">
         <v>8</v>
@@ -7756,7 +7756,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B9">
         <v>9</v>
@@ -7811,7 +7811,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -7822,7 +7822,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B15">
         <v>5</v>
@@ -7855,7 +7855,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -7885,7 +7885,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>

--- a/Findings.xlsx
+++ b/Findings.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fechner\Dropbox\Uni\Rechtsextremismus und Gender\Hausarbeit\HA_RuG\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Astrid\Dropbox\Laclau Mouffe\HA_RuG\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6948" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6950" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
     <sheet name="Diagramme" sheetId="2" r:id="rId2"/>
-    <sheet name="Tabelle2" sheetId="3" r:id="rId3"/>
+    <sheet name="Simultanzen" sheetId="3" r:id="rId3"/>
+    <sheet name="Finding insgesamt" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="40">
   <si>
     <t>Farbe</t>
   </si>
@@ -34,19 +35,10 @@
     <t>Vorbildfunktion</t>
   </si>
   <si>
-    <t>nüchtern, sachlich</t>
-  </si>
-  <si>
     <t>Neonorange</t>
   </si>
   <si>
     <t>schweigsam</t>
-  </si>
-  <si>
-    <t>mutig, tapfer</t>
-  </si>
-  <si>
-    <t>Sorge(arbeit), Hilfsbereit</t>
   </si>
   <si>
     <t>Neongrün</t>
@@ -64,12 +56,6 @@
     <t>Ehe</t>
   </si>
   <si>
-    <t>selbstlos, bescheiden</t>
-  </si>
-  <si>
-    <t>instinktiv</t>
-  </si>
-  <si>
     <t>Bleistift</t>
   </si>
   <si>
@@ -85,16 +71,10 @@
     <t>Berufstätigkeit</t>
   </si>
   <si>
-    <t>Häuslichkeit, Hausarbeit</t>
-  </si>
-  <si>
     <t>3,20.</t>
   </si>
   <si>
     <t>petrol</t>
-  </si>
-  <si>
-    <t>Empathie</t>
   </si>
   <si>
     <t>friedliebend</t>
@@ -116,9 +96,6 @@
   </si>
   <si>
     <t>grau gewellt</t>
-  </si>
-  <si>
-    <t>Organisation, Selbständigkeit</t>
   </si>
   <si>
     <t>beide</t>
@@ -151,12 +128,6 @@
     <t>sachlich</t>
   </si>
   <si>
-    <t>Tapferkeit</t>
-  </si>
-  <si>
-    <t>Selbständigkeit</t>
-  </si>
-  <si>
     <t>selbstlos</t>
   </si>
   <si>
@@ -168,11 +139,20 @@
   <si>
     <t>empathisch</t>
   </si>
+  <si>
+    <t>tapfer</t>
+  </si>
+  <si>
+    <t>selbständig</t>
+  </si>
+  <si>
+    <t>Kategorien</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -348,7 +328,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -497,11 +477,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -615,9 +608,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -695,12 +685,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -738,6 +738,70 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -768,7 +832,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
@@ -807,7 +871,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -927,7 +990,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-D636-40C6-885E-E9B856DBB766}"/>
             </c:ext>
@@ -1016,7 +1079,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-D636-40C6-885E-E9B856DBB766}"/>
             </c:ext>
@@ -1033,7 +1096,7 @@
         <c:gapWidth val="65"/>
         <c:axId val="397882240"/>
         <c:axId val="397884416"/>
-        <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+        <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
               <c15:ser>
@@ -1058,7 +1121,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Tabelle1!$AU$23:$AU$40</c15:sqref>
@@ -1125,7 +1188,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-D636-40C6-885E-E9B856DBB766}"/>
                   </c:ext>
@@ -1251,7 +1314,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -1340,7 +1402,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
@@ -1363,8 +1425,8 @@
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                    <a:lumMod val="85000"/>
+                    <a:lumOff val="15000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1374,6 +1436,12 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="de-DE" sz="1600" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="85000"/>
+                    <a:lumOff val="15000"/>
+                  </a:schemeClr>
+                </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="Adobe Fangsong Std R" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
               </a:rPr>
@@ -1382,7 +1450,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1399,8 +1466,8 @@
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -1449,58 +1516,58 @@
               <c:strCache>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
+                  <c:v>Sorgearbeit</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>tapfer</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mutter</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Berufstätigkeit</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Ehe</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Pflichtbewusstsein gegenüber der Nation</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>selbstlos</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>selbständig</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Häuslichkeit</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>"Natur der Frau"</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>Vorbildfunktion</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>Pflichtbewusstsein gegenüber der Nation</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>schweigsam</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>sachlich</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Tapferkeit</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Selbständigkeit</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Ehe</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>selbstlos</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Sorgearbeit</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Frauenarbeitsdienst</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Gläubigkeit</c:v>
-                </c:pt>
                 <c:pt idx="11">
-                  <c:v>Mutter</c:v>
+                  <c:v>empathisch</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>instinktgeleitet</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>Häuslichkeit</c:v>
+                  <c:v>friedliebend</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>"Natur der Frau"</c:v>
+                  <c:v>sachlich</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>Berufstätigkeit</c:v>
+                  <c:v>Gläubigkeit</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>empathisch</c:v>
+                  <c:v>schweigsam</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>friedliebend</c:v>
+                  <c:v>Frauenarbeitsdienst</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1512,63 +1579,63 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="11">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-717F-40F9-88FB-F75F1F986EA5}"/>
             </c:ext>
@@ -1604,58 +1671,58 @@
               <c:strCache>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
+                  <c:v>Sorgearbeit</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>tapfer</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mutter</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Berufstätigkeit</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Ehe</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Pflichtbewusstsein gegenüber der Nation</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>selbstlos</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>selbständig</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Häuslichkeit</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>"Natur der Frau"</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>Vorbildfunktion</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>Pflichtbewusstsein gegenüber der Nation</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>schweigsam</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>sachlich</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Tapferkeit</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Selbständigkeit</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Ehe</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>selbstlos</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Sorgearbeit</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Frauenarbeitsdienst</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Gläubigkeit</c:v>
-                </c:pt>
                 <c:pt idx="11">
-                  <c:v>Mutter</c:v>
+                  <c:v>empathisch</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>instinktgeleitet</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>Häuslichkeit</c:v>
+                  <c:v>friedliebend</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>"Natur der Frau"</c:v>
+                  <c:v>sachlich</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>Berufstätigkeit</c:v>
+                  <c:v>Gläubigkeit</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>empathisch</c:v>
+                  <c:v>schweigsam</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>friedliebend</c:v>
+                  <c:v>Frauenarbeitsdienst</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1667,63 +1734,63 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="11">
-                  <c:v>9</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-717F-40F9-88FB-F75F1F986EA5}"/>
             </c:ext>
@@ -1774,8 +1841,8 @@
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                    <a:lumMod val="85000"/>
+                    <a:lumOff val="15000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1869,8 +1936,8 @@
               <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                    <a:lumMod val="85000"/>
+                    <a:lumOff val="15000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1892,8 +1959,8 @@
               <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                    <a:lumMod val="85000"/>
+                    <a:lumOff val="15000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1905,7 +1972,6 @@
           </a:p>
         </c:txPr>
       </c:legendEntry>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1922,8 +1988,8 @@
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -3139,7 +3205,7 @@
         <xdr:cNvPr id="2" name="Diagramm 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C6BD792B-F511-43D6-8906-735031434FF2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6BD792B-F511-43D6-8906-735031434FF2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3164,23 +3230,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>231774</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>365124</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>123824</xdr:rowOff>
+      <xdr:rowOff>174624</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>393699</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>527049</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>6349</xdr:rowOff>
+      <xdr:rowOff>57149</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Diagramm 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A34B0B28-B461-4B83-974C-AC39F0F18F8B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A34B0B28-B461-4B83-974C-AC39F0F18F8B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3221,7 +3287,7 @@
         <xdr:cNvPr id="3" name="Gerader Verbinder 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{64B96DD7-31E4-42DD-A6BC-05A17F2A3EFE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64B96DD7-31E4-42DD-A6BC-05A17F2A3EFE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3560,48 +3626,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB62"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="AP1" activePane="topRight" state="frozenSplit"/>
+    <sheetView topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="AN1" activePane="topRight" state="frozenSplit"/>
       <selection sqref="A1 C1:C1048576"/>
-      <selection pane="topRight" activeCell="B42" sqref="B42:Z62"/>
+      <selection pane="topRight" activeCell="B2" sqref="B2:B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.89453125" style="10"/>
-    <col min="2" max="2" width="35.47265625" style="10" customWidth="1"/>
-    <col min="3" max="4" width="4.7890625" style="10" customWidth="1"/>
-    <col min="5" max="7" width="5.26171875" style="10" customWidth="1"/>
-    <col min="8" max="8" width="4.7890625" style="10" customWidth="1"/>
-    <col min="9" max="9" width="5.26171875" style="10" customWidth="1"/>
-    <col min="10" max="10" width="5.734375" style="10" customWidth="1"/>
-    <col min="11" max="14" width="4.7890625" style="10" customWidth="1"/>
-    <col min="15" max="20" width="4.15625" style="10" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="4.7890625" style="10" bestFit="1" customWidth="1"/>
-    <col min="22" max="28" width="4.15625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="6.1015625" customWidth="1"/>
-    <col min="30" max="30" width="4.15625" bestFit="1" customWidth="1"/>
-    <col min="31" max="37" width="5.15625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="4.15625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="4.7890625" customWidth="1"/>
-    <col min="40" max="45" width="5.15625" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="9.26171875" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="5.15625" customWidth="1"/>
-    <col min="48" max="53" width="5.15625" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="9.26171875" bestFit="1" customWidth="1"/>
-    <col min="55" max="71" width="3.7890625" customWidth="1"/>
-    <col min="72" max="72" width="3.89453125" customWidth="1"/>
-    <col min="73" max="81" width="3.7890625" customWidth="1"/>
-    <col min="82" max="88" width="4.7890625" customWidth="1"/>
-    <col min="89" max="96" width="3.7890625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.90625" style="10"/>
+    <col min="2" max="2" width="35.453125" style="10" customWidth="1"/>
+    <col min="3" max="4" width="4.81640625" style="10" customWidth="1"/>
+    <col min="5" max="7" width="5.26953125" style="10" customWidth="1"/>
+    <col min="8" max="8" width="4.81640625" style="10" customWidth="1"/>
+    <col min="9" max="9" width="5.26953125" style="10" customWidth="1"/>
+    <col min="10" max="10" width="5.7265625" style="10" customWidth="1"/>
+    <col min="11" max="14" width="4.81640625" style="10" customWidth="1"/>
+    <col min="15" max="20" width="4.1796875" style="10" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="4.81640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="22" max="28" width="4.1796875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="6.08984375" customWidth="1"/>
+    <col min="30" max="30" width="4.1796875" bestFit="1" customWidth="1"/>
+    <col min="31" max="37" width="5.1796875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="4.1796875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="4.81640625" customWidth="1"/>
+    <col min="40" max="45" width="5.1796875" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="5.1796875" customWidth="1"/>
+    <col min="48" max="53" width="5.1796875" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="55" max="71" width="3.81640625" customWidth="1"/>
+    <col min="72" max="72" width="3.90625" customWidth="1"/>
+    <col min="73" max="81" width="3.81640625" customWidth="1"/>
+    <col min="82" max="88" width="4.81640625" customWidth="1"/>
+    <col min="89" max="96" width="3.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C1" s="11">
         <v>1</v>
@@ -3680,7 +3746,7 @@
         <v>2.7</v>
       </c>
       <c r="AC1" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AD1" s="1">
         <v>3.1</v>
@@ -3710,7 +3776,7 @@
         <v>3.9</v>
       </c>
       <c r="AM1" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AN1" s="2">
         <v>3.11</v>
@@ -3740,7 +3806,7 @@
         <v>3.19</v>
       </c>
       <c r="AW1" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="AX1" s="2">
         <v>3.21</v>
@@ -3755,10 +3821,10 @@
         <v>3.24</v>
       </c>
       <c r="BB1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:54" x14ac:dyDescent="0.55000000000000004">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A2" s="14"/>
       <c r="B2" s="10" t="s">
         <v>1</v>
@@ -3825,10 +3891,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:54" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A3" s="18"/>
       <c r="B3" s="10" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C3" s="15"/>
       <c r="D3" s="16"/>
@@ -3904,10 +3970,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:54" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A4" s="19"/>
       <c r="B4" s="10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" s="15"/>
       <c r="D4" s="16"/>
@@ -3967,10 +4033,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:54" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A5" s="20"/>
       <c r="B5" s="10" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="C5" s="15"/>
       <c r="D5" s="16"/>
@@ -4032,10 +4098,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:54" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A6" s="21"/>
       <c r="B6" s="10" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="C6" s="15"/>
       <c r="D6" s="16"/>
@@ -4125,10 +4191,10 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:54" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A7" s="22"/>
       <c r="B7" s="10" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C7" s="15"/>
       <c r="D7" s="16"/>
@@ -4202,10 +4268,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:54" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A8" s="23"/>
       <c r="B8" s="10" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C8" s="15"/>
       <c r="D8" s="16"/>
@@ -4275,12 +4341,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:54" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A9" s="24" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="C9" s="15"/>
       <c r="D9" s="16"/>
@@ -4352,10 +4418,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:54" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A10" s="25"/>
       <c r="B10" s="10" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="C10" s="15"/>
       <c r="D10" s="16"/>
@@ -4443,12 +4509,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:54" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A11" s="10" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C11" s="15"/>
       <c r="D11" s="16"/>
@@ -4508,12 +4574,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:54" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A12" s="26" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="16"/>
@@ -4575,12 +4641,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:54" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A13" s="27" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="16"/>
@@ -4658,12 +4724,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:54" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A14" s="28" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="16"/>
@@ -4723,10 +4789,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:54" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A15" s="29"/>
       <c r="B15" s="10" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="C15" s="15"/>
       <c r="D15" s="16"/>
@@ -4794,12 +4860,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:54" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A16" s="30" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="16"/>
@@ -4867,10 +4933,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:54" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A17" s="31"/>
       <c r="B17" s="10" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="16"/>
@@ -4934,10 +5000,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:54" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A18" s="32"/>
       <c r="B18" s="10" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="16"/>
@@ -4997,10 +5063,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:54" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A19" s="33"/>
       <c r="B19" s="10" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C19" s="34"/>
       <c r="D19" s="35"/>
@@ -5057,7 +5123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:54" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:54" x14ac:dyDescent="0.35">
       <c r="C20" s="16"/>
       <c r="D20" s="16"/>
       <c r="U20" s="16"/>
@@ -5070,12 +5136,12 @@
         <v>109</v>
       </c>
     </row>
-    <row r="22" spans="1:54" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A22" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C22" s="11">
         <v>4.0999999999999996</v>
@@ -5132,7 +5198,7 @@
         <v>5.9</v>
       </c>
       <c r="U22" s="38" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="V22" s="2">
         <v>6.1</v>
@@ -5162,7 +5228,7 @@
         <v>6.9</v>
       </c>
       <c r="AE22" s="2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="AF22" s="2">
         <v>6.11</v>
@@ -5207,16 +5273,16 @@
         <v>7.8</v>
       </c>
       <c r="AT22" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="AV22" s="40">
         <v>36</v>
       </c>
       <c r="AX22" s="40" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="1:54" x14ac:dyDescent="0.55000000000000004">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A23" s="14"/>
       <c r="B23" s="10" t="s">
         <v>1</v>
@@ -5288,11 +5354,14 @@
         <f>SUM(BB2,AT23)</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="24" spans="1:54" x14ac:dyDescent="0.55000000000000004">
+      <c r="AY23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A24" s="18"/>
       <c r="B24" s="10" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C24" s="15"/>
       <c r="D24" s="16"/>
@@ -5369,11 +5438,14 @@
         <f>SUM(BB3,AT24)</f>
         <v>17</v>
       </c>
-    </row>
-    <row r="25" spans="1:54" x14ac:dyDescent="0.55000000000000004">
+      <c r="AY24">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A25" s="19"/>
       <c r="B25" s="10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C25" s="15"/>
       <c r="D25" s="16"/>
@@ -5435,11 +5507,14 @@
         <f>SUM(AT25,BB4)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:54" x14ac:dyDescent="0.55000000000000004">
+      <c r="AY25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A26" s="20"/>
       <c r="B26" s="10" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="C26" s="15"/>
       <c r="D26" s="16"/>
@@ -5501,11 +5576,14 @@
         <f>SUM(AT26,BB5)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="1:54" x14ac:dyDescent="0.55000000000000004">
+      <c r="AY26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A27" s="21"/>
       <c r="B27" s="10" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="C27" s="15"/>
       <c r="D27" s="16"/>
@@ -5574,11 +5652,14 @@
         <f>SUM(BB6,AT27)</f>
         <v>22</v>
       </c>
-    </row>
-    <row r="28" spans="1:54" x14ac:dyDescent="0.55000000000000004">
+      <c r="AY27">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A28" s="22"/>
       <c r="B28" s="10" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C28" s="15"/>
       <c r="D28" s="16"/>
@@ -5645,11 +5726,14 @@
         <f>SUM(BB7,AT28)</f>
         <v>10</v>
       </c>
-    </row>
-    <row r="29" spans="1:54" x14ac:dyDescent="0.55000000000000004">
+      <c r="AY28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A29" s="23"/>
       <c r="B29" s="10" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C29" s="15"/>
       <c r="D29" s="16">
@@ -5732,13 +5816,16 @@
         <f>SUM(AT29,BB8)</f>
         <v>18</v>
       </c>
-    </row>
-    <row r="30" spans="1:54" x14ac:dyDescent="0.55000000000000004">
+      <c r="AY29">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A30" s="39" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="C30" s="15"/>
       <c r="D30" s="16"/>
@@ -5807,11 +5894,14 @@
         <f>SUM(AT30,BB9)</f>
         <v>13</v>
       </c>
-    </row>
-    <row r="31" spans="1:54" x14ac:dyDescent="0.55000000000000004">
+      <c r="AY30">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A31" s="25"/>
       <c r="B31" s="10" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="C31" s="15"/>
       <c r="D31" s="16"/>
@@ -5902,13 +5992,16 @@
         <f>SUM(BB10,AT31)</f>
         <v>32</v>
       </c>
-    </row>
-    <row r="32" spans="1:54" x14ac:dyDescent="0.55000000000000004">
+      <c r="AY31">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A32" s="10" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E32" s="16"/>
       <c r="F32" s="16"/>
@@ -5968,13 +6061,16 @@
         <f>SUM(BB11,AT32)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:50" x14ac:dyDescent="0.55000000000000004">
+      <c r="AY32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A33" s="26" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C33" s="15"/>
       <c r="D33" s="16"/>
@@ -6036,13 +6132,16 @@
         <f>SUM(AT33,BB12)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="34" spans="1:50" x14ac:dyDescent="0.55000000000000004">
+      <c r="AY33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A34" s="27" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C34" s="15">
         <v>1</v>
@@ -6121,13 +6220,16 @@
         <f>SUM(AT34,BB13)</f>
         <v>22</v>
       </c>
-    </row>
-    <row r="35" spans="1:50" x14ac:dyDescent="0.55000000000000004">
+      <c r="AY34">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A35" s="28" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="C35" s="15">
         <v>1</v>
@@ -6194,11 +6296,14 @@
         <f>SUM(BB14,AT35)</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="36" spans="1:50" x14ac:dyDescent="0.55000000000000004">
+      <c r="AY35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A36" s="29"/>
       <c r="B36" s="10" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="C36" s="15">
         <v>1</v>
@@ -6269,13 +6374,16 @@
         <f>SUM(BB15,AT36)</f>
         <v>9</v>
       </c>
-    </row>
-    <row r="37" spans="1:50" x14ac:dyDescent="0.55000000000000004">
+      <c r="AY36">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A37" s="30" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C37" s="15">
         <v>1</v>
@@ -6342,11 +6450,14 @@
         <f>SUM(AT37,BB16)</f>
         <v>8</v>
       </c>
-    </row>
-    <row r="38" spans="1:50" x14ac:dyDescent="0.55000000000000004">
+      <c r="AY37">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A38" s="31"/>
       <c r="B38" s="10" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C38" s="15"/>
       <c r="D38" s="16"/>
@@ -6439,11 +6550,14 @@
         <f>SUM(AT38,BB17)</f>
         <v>20</v>
       </c>
-    </row>
-    <row r="39" spans="1:50" x14ac:dyDescent="0.55000000000000004">
+      <c r="AY38">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A39" s="32"/>
       <c r="B39" s="10" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="C39" s="15">
         <v>1</v>
@@ -6512,11 +6626,14 @@
         <f>SUM(BB18,AT39)</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="40" spans="1:50" x14ac:dyDescent="0.55000000000000004">
+      <c r="AY39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A40" s="33"/>
       <c r="B40" s="10" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C40" s="34">
         <v>1</v>
@@ -6585,8 +6702,11 @@
         <f>SUM(BB19,AT40)</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="41" spans="1:50" x14ac:dyDescent="0.55000000000000004">
+      <c r="AY40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:51" x14ac:dyDescent="0.35">
       <c r="AT41">
         <f>SUM(AT23:AT40)</f>
         <v>84</v>
@@ -6600,205 +6720,205 @@
         <v>193</v>
       </c>
     </row>
-    <row r="42" spans="1:50" x14ac:dyDescent="0.55000000000000004">
-      <c r="C42" s="74" t="s">
-        <v>32</v>
-      </c>
-      <c r="D42" s="75"/>
-      <c r="E42" s="75"/>
-      <c r="F42" s="76"/>
-      <c r="H42" s="74" t="s">
-        <v>10</v>
-      </c>
-      <c r="I42" s="75"/>
-      <c r="J42" s="75"/>
-      <c r="K42" s="76"/>
-      <c r="M42" s="74" t="s">
-        <v>18</v>
-      </c>
-      <c r="N42" s="75"/>
-      <c r="O42" s="75"/>
-      <c r="P42" s="76"/>
-      <c r="R42" s="74" t="s">
-        <v>11</v>
-      </c>
-      <c r="S42" s="75"/>
-      <c r="T42" s="75"/>
-      <c r="U42" s="76"/>
-      <c r="W42" s="74" t="s">
+    <row r="42" spans="1:51" x14ac:dyDescent="0.35">
+      <c r="C42" s="79" t="s">
+        <v>24</v>
+      </c>
+      <c r="D42" s="80"/>
+      <c r="E42" s="80"/>
+      <c r="F42" s="81"/>
+      <c r="H42" s="79" t="s">
+        <v>7</v>
+      </c>
+      <c r="I42" s="80"/>
+      <c r="J42" s="80"/>
+      <c r="K42" s="81"/>
+      <c r="M42" s="79" t="s">
+        <v>13</v>
+      </c>
+      <c r="N42" s="80"/>
+      <c r="O42" s="80"/>
+      <c r="P42" s="81"/>
+      <c r="R42" s="79" t="s">
+        <v>8</v>
+      </c>
+      <c r="S42" s="80"/>
+      <c r="T42" s="80"/>
+      <c r="U42" s="81"/>
+      <c r="W42" s="79" t="s">
+        <v>28</v>
+      </c>
+      <c r="X42" s="80"/>
+      <c r="Y42" s="80"/>
+      <c r="Z42" s="81"/>
+    </row>
+    <row r="43" spans="1:51" x14ac:dyDescent="0.35">
+      <c r="C43" s="82">
         <v>36</v>
       </c>
-      <c r="X42" s="75"/>
-      <c r="Y42" s="75"/>
-      <c r="Z42" s="76"/>
-    </row>
-    <row r="43" spans="1:50" x14ac:dyDescent="0.55000000000000004">
-      <c r="C43" s="77">
+      <c r="D43" s="84"/>
+      <c r="E43" s="84">
+        <v>41</v>
+      </c>
+      <c r="F43" s="83"/>
+      <c r="H43" s="82">
         <v>36</v>
       </c>
-      <c r="D43" s="79"/>
-      <c r="E43" s="79">
+      <c r="I43" s="83"/>
+      <c r="J43" s="82">
         <v>41</v>
       </c>
-      <c r="F43" s="78"/>
-      <c r="H43" s="77">
+      <c r="K43" s="83"/>
+      <c r="M43" s="82">
         <v>36</v>
       </c>
-      <c r="I43" s="78"/>
-      <c r="J43" s="77">
+      <c r="N43" s="83"/>
+      <c r="O43" s="82">
         <v>41</v>
       </c>
-      <c r="K43" s="78"/>
-      <c r="M43" s="77">
+      <c r="P43" s="83"/>
+      <c r="R43" s="82">
         <v>36</v>
       </c>
-      <c r="N43" s="78"/>
-      <c r="O43" s="77">
+      <c r="S43" s="83"/>
+      <c r="T43" s="82">
         <v>41</v>
       </c>
-      <c r="P43" s="78"/>
-      <c r="R43" s="77">
+      <c r="U43" s="83"/>
+      <c r="W43" s="82">
         <v>36</v>
       </c>
-      <c r="S43" s="78"/>
-      <c r="T43" s="77">
+      <c r="X43" s="83"/>
+      <c r="Y43" s="82">
         <v>41</v>
       </c>
-      <c r="U43" s="78"/>
-      <c r="W43" s="77">
-        <v>36</v>
-      </c>
-      <c r="X43" s="78"/>
-      <c r="Y43" s="77">
-        <v>41</v>
-      </c>
-      <c r="Z43" s="78"/>
-    </row>
-    <row r="44" spans="1:50" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z43" s="83"/>
+    </row>
+    <row r="44" spans="1:51" x14ac:dyDescent="0.35">
       <c r="B44" s="41"/>
       <c r="C44" s="42" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D44" s="43" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E44" s="43" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="F44" s="44" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="H44" s="42" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="I44" s="43" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="J44" s="43" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="K44" s="44" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="M44" s="42" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="N44" s="43" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="O44" s="43" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="P44" s="44" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="R44" s="42" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="S44" s="43" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="T44" s="43" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="U44" s="44" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="W44" s="42" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="X44" s="43" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="Y44" s="43" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="Z44" s="44" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="45" spans="1:50" x14ac:dyDescent="0.55000000000000004">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="45" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A45" s="14"/>
-      <c r="B45" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="C45" s="47">
+      <c r="B45" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" s="46">
         <v>3</v>
       </c>
-      <c r="D45" s="46">
-        <v>1</v>
-      </c>
-      <c r="E45" s="48">
+      <c r="D45" s="45">
+        <v>1</v>
+      </c>
+      <c r="E45" s="47">
         <v>3</v>
       </c>
-      <c r="F45" s="55">
-        <v>2</v>
-      </c>
-      <c r="G45" s="50"/>
-      <c r="H45" s="47">
+      <c r="F45" s="54">
+        <v>2</v>
+      </c>
+      <c r="G45" s="49"/>
+      <c r="H45" s="46">
         <v>3</v>
       </c>
-      <c r="I45" s="46">
-        <v>1</v>
-      </c>
-      <c r="J45" s="48">
+      <c r="I45" s="45">
+        <v>1</v>
+      </c>
+      <c r="J45" s="47">
         <v>3</v>
       </c>
-      <c r="K45" s="55">
-        <v>2</v>
-      </c>
-      <c r="L45" s="50"/>
-      <c r="M45" s="47"/>
-      <c r="N45" s="46"/>
-      <c r="O45" s="48"/>
-      <c r="P45" s="46"/>
-      <c r="Q45" s="50"/>
-      <c r="R45" s="47"/>
-      <c r="S45" s="46"/>
-      <c r="T45" s="48">
+      <c r="K45" s="54">
+        <v>2</v>
+      </c>
+      <c r="L45" s="49"/>
+      <c r="M45" s="46"/>
+      <c r="N45" s="45"/>
+      <c r="O45" s="47"/>
+      <c r="P45" s="45"/>
+      <c r="Q45" s="49"/>
+      <c r="R45" s="46"/>
+      <c r="S45" s="45"/>
+      <c r="T45" s="47">
         <v>3</v>
       </c>
-      <c r="U45" s="46">
-        <v>1</v>
-      </c>
-      <c r="V45" s="51"/>
-      <c r="W45" s="47">
+      <c r="U45" s="45">
+        <v>1</v>
+      </c>
+      <c r="V45" s="50"/>
+      <c r="W45" s="46">
         <v>3</v>
       </c>
-      <c r="X45" s="46">
-        <v>1</v>
-      </c>
-      <c r="Y45" s="48">
+      <c r="X45" s="45">
+        <v>1</v>
+      </c>
+      <c r="Y45" s="47">
         <v>3</v>
       </c>
-      <c r="Z45" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:50" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z45" s="48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A46" s="18"/>
       <c r="B46" s="10" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C46" s="4">
         <v>10</v>
@@ -6812,7 +6932,7 @@
       <c r="F46" s="17">
         <v>2</v>
       </c>
-      <c r="G46" s="50"/>
+      <c r="G46" s="49"/>
       <c r="H46" s="4"/>
       <c r="I46" s="17"/>
       <c r="J46" s="5">
@@ -6821,7 +6941,7 @@
       <c r="K46" s="17">
         <v>1</v>
       </c>
-      <c r="L46" s="50"/>
+      <c r="L46" s="49"/>
       <c r="M46" s="4"/>
       <c r="N46" s="17"/>
       <c r="O46" s="5">
@@ -6830,165 +6950,165 @@
       <c r="P46" s="17">
         <v>2</v>
       </c>
-      <c r="Q46" s="50"/>
+      <c r="Q46" s="49"/>
       <c r="R46" s="4"/>
       <c r="S46" s="17"/>
       <c r="T46" s="5"/>
       <c r="U46" s="17"/>
-      <c r="V46" s="51"/>
-      <c r="W46" s="58" t="s">
-        <v>37</v>
-      </c>
-      <c r="X46" s="53" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y46" s="57" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z46" s="54" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="47" spans="1:50" x14ac:dyDescent="0.55000000000000004">
+      <c r="V46" s="50"/>
+      <c r="W46" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="X46" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y46" s="56" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z46" s="53" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="47" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A47" s="19"/>
-      <c r="B47" s="45" t="s">
-        <v>4</v>
-      </c>
-      <c r="C47" s="47">
-        <v>1</v>
-      </c>
-      <c r="D47" s="46">
-        <v>1</v>
-      </c>
-      <c r="E47" s="48"/>
-      <c r="F47" s="46"/>
-      <c r="G47" s="50"/>
-      <c r="H47" s="47"/>
-      <c r="I47" s="46"/>
-      <c r="J47" s="48"/>
-      <c r="K47" s="46"/>
-      <c r="L47" s="50"/>
-      <c r="M47" s="47"/>
-      <c r="N47" s="46"/>
-      <c r="O47" s="48"/>
-      <c r="P47" s="46"/>
-      <c r="Q47" s="50"/>
-      <c r="R47" s="47"/>
-      <c r="S47" s="46"/>
-      <c r="T47" s="48"/>
-      <c r="U47" s="46"/>
-      <c r="V47" s="51"/>
-      <c r="W47" s="47">
-        <v>1</v>
-      </c>
-      <c r="X47" s="46">
-        <v>1</v>
-      </c>
-      <c r="Y47" s="48"/>
-      <c r="Z47" s="49"/>
-    </row>
-    <row r="48" spans="1:50" x14ac:dyDescent="0.55000000000000004">
+      <c r="B47" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C47" s="46">
+        <v>1</v>
+      </c>
+      <c r="D47" s="45">
+        <v>1</v>
+      </c>
+      <c r="E47" s="47"/>
+      <c r="F47" s="45"/>
+      <c r="G47" s="49"/>
+      <c r="H47" s="46"/>
+      <c r="I47" s="45"/>
+      <c r="J47" s="47"/>
+      <c r="K47" s="45"/>
+      <c r="L47" s="49"/>
+      <c r="M47" s="46"/>
+      <c r="N47" s="45"/>
+      <c r="O47" s="47"/>
+      <c r="P47" s="45"/>
+      <c r="Q47" s="49"/>
+      <c r="R47" s="46"/>
+      <c r="S47" s="45"/>
+      <c r="T47" s="47"/>
+      <c r="U47" s="45"/>
+      <c r="V47" s="50"/>
+      <c r="W47" s="46">
+        <v>1</v>
+      </c>
+      <c r="X47" s="45">
+        <v>1</v>
+      </c>
+      <c r="Y47" s="47"/>
+      <c r="Z47" s="48"/>
+    </row>
+    <row r="48" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A48" s="20"/>
       <c r="B48" s="10" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="17"/>
       <c r="E48" s="5"/>
       <c r="F48" s="17"/>
-      <c r="G48" s="50"/>
+      <c r="G48" s="49"/>
       <c r="H48" s="4"/>
       <c r="I48" s="17"/>
       <c r="J48" s="5"/>
       <c r="K48" s="17"/>
-      <c r="L48" s="50"/>
+      <c r="L48" s="49"/>
       <c r="M48" s="4"/>
       <c r="N48" s="17"/>
       <c r="O48" s="5"/>
       <c r="P48" s="17"/>
-      <c r="Q48" s="50"/>
+      <c r="Q48" s="49"/>
       <c r="R48" s="4"/>
       <c r="S48" s="17"/>
       <c r="T48" s="5"/>
       <c r="U48" s="17"/>
-      <c r="V48" s="51"/>
+      <c r="V48" s="50"/>
       <c r="W48" s="4"/>
       <c r="X48" s="17"/>
       <c r="Y48" s="5"/>
       <c r="Z48" s="6"/>
     </row>
-    <row r="49" spans="1:32" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A49" s="21"/>
-      <c r="B49" s="45" t="s">
-        <v>5</v>
-      </c>
-      <c r="C49" s="47">
+      <c r="B49" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C49" s="46">
         <v>19</v>
       </c>
-      <c r="D49" s="46">
+      <c r="D49" s="45">
         <v>4</v>
       </c>
-      <c r="E49" s="48"/>
-      <c r="F49" s="46"/>
-      <c r="G49" s="50"/>
-      <c r="H49" s="47">
+      <c r="E49" s="47"/>
+      <c r="F49" s="45"/>
+      <c r="G49" s="49"/>
+      <c r="H49" s="46">
         <v>19</v>
       </c>
-      <c r="I49" s="46">
+      <c r="I49" s="45">
         <v>4</v>
       </c>
-      <c r="J49" s="48"/>
-      <c r="K49" s="46"/>
-      <c r="L49" s="50"/>
-      <c r="M49" s="47"/>
-      <c r="N49" s="46"/>
-      <c r="O49" s="48">
+      <c r="J49" s="47"/>
+      <c r="K49" s="45"/>
+      <c r="L49" s="49"/>
+      <c r="M49" s="46"/>
+      <c r="N49" s="45"/>
+      <c r="O49" s="47">
         <v>3</v>
       </c>
-      <c r="P49" s="55">
-        <v>2</v>
-      </c>
-      <c r="Q49" s="50"/>
-      <c r="R49" s="47">
+      <c r="P49" s="54">
+        <v>2</v>
+      </c>
+      <c r="Q49" s="49"/>
+      <c r="R49" s="46">
         <v>19</v>
       </c>
-      <c r="S49" s="46">
+      <c r="S49" s="45">
         <v>4</v>
       </c>
-      <c r="T49" s="48"/>
-      <c r="U49" s="46"/>
-      <c r="V49" s="51"/>
-      <c r="W49" s="47">
+      <c r="T49" s="47"/>
+      <c r="U49" s="45"/>
+      <c r="V49" s="50"/>
+      <c r="W49" s="46">
         <v>19</v>
       </c>
-      <c r="X49" s="46">
-        <v>2</v>
-      </c>
-      <c r="Y49" s="48">
+      <c r="X49" s="45">
+        <v>2</v>
+      </c>
+      <c r="Y49" s="47">
         <v>3</v>
       </c>
-      <c r="Z49" s="56">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:32" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z49" s="55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A50" s="22"/>
       <c r="B50" s="10" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C50" s="4">
         <v>8</v>
       </c>
-      <c r="D50" s="55">
+      <c r="D50" s="54">
         <v>4</v>
       </c>
       <c r="E50" s="5">
         <v>2</v>
       </c>
-      <c r="F50" s="55">
-        <v>1</v>
-      </c>
-      <c r="G50" s="50"/>
+      <c r="F50" s="54">
+        <v>1</v>
+      </c>
+      <c r="G50" s="49"/>
       <c r="H50" s="4"/>
       <c r="I50" s="17"/>
       <c r="J50" s="5">
@@ -6997,12 +7117,12 @@
       <c r="K50" s="17">
         <v>2</v>
       </c>
-      <c r="L50" s="50"/>
+      <c r="L50" s="49"/>
       <c r="M50" s="4"/>
       <c r="N50" s="17"/>
       <c r="O50" s="5"/>
       <c r="P50" s="17"/>
-      <c r="Q50" s="50"/>
+      <c r="Q50" s="49"/>
       <c r="R50" s="4">
         <v>8</v>
       </c>
@@ -7015,7 +7135,7 @@
       <c r="U50" s="17">
         <v>1</v>
       </c>
-      <c r="V50" s="51"/>
+      <c r="V50" s="50"/>
       <c r="W50" s="4">
         <v>8</v>
       </c>
@@ -7025,70 +7145,70 @@
       <c r="Y50" s="5"/>
       <c r="Z50" s="6"/>
     </row>
-    <row r="51" spans="1:32" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A51" s="23"/>
-      <c r="B51" s="45" t="s">
+      <c r="B51" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="46">
+        <v>7</v>
+      </c>
+      <c r="D51" s="54">
+        <v>3</v>
+      </c>
+      <c r="E51" s="47">
         <v>11</v>
       </c>
-      <c r="C51" s="47">
+      <c r="F51" s="45">
+        <v>3</v>
+      </c>
+      <c r="G51" s="49"/>
+      <c r="H51" s="46">
         <v>7</v>
       </c>
-      <c r="D51" s="55">
+      <c r="I51" s="54">
         <v>3</v>
       </c>
-      <c r="E51" s="48">
+      <c r="J51" s="47">
         <v>11</v>
       </c>
-      <c r="F51" s="46">
+      <c r="K51" s="62">
+        <v>6</v>
+      </c>
+      <c r="L51" s="49"/>
+      <c r="M51" s="46"/>
+      <c r="N51" s="45"/>
+      <c r="O51" s="47">
+        <v>11</v>
+      </c>
+      <c r="P51" s="61">
         <v>3</v>
       </c>
-      <c r="G51" s="50"/>
-      <c r="H51" s="47">
-        <v>7</v>
-      </c>
-      <c r="I51" s="55">
-        <v>3</v>
-      </c>
-      <c r="J51" s="48">
-        <v>11</v>
-      </c>
-      <c r="K51" s="63">
-        <v>6</v>
-      </c>
-      <c r="L51" s="50"/>
-      <c r="M51" s="47"/>
-      <c r="N51" s="46"/>
-      <c r="O51" s="48">
-        <v>11</v>
-      </c>
-      <c r="P51" s="62">
-        <v>3</v>
-      </c>
-      <c r="Q51" s="50"/>
-      <c r="R51" s="60" t="s">
-        <v>37</v>
-      </c>
-      <c r="S51" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="T51" s="59" t="s">
-        <v>37</v>
-      </c>
-      <c r="U51" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="V51" s="51"/>
-      <c r="W51" s="47"/>
-      <c r="X51" s="46"/>
-      <c r="Y51" s="48"/>
-      <c r="Z51" s="49"/>
-    </row>
-    <row r="52" spans="1:32" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q51" s="49"/>
+      <c r="R51" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="S51" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="T51" s="58" t="s">
+        <v>29</v>
+      </c>
+      <c r="U51" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="V51" s="50"/>
+      <c r="W51" s="46"/>
+      <c r="X51" s="45"/>
+      <c r="Y51" s="47"/>
+      <c r="Z51" s="48"/>
+    </row>
+    <row r="52" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A52" s="39" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="C52" s="4">
         <v>9</v>
@@ -7102,25 +7222,25 @@
       <c r="F52" s="17">
         <v>1</v>
       </c>
-      <c r="G52" s="50"/>
+      <c r="G52" s="49"/>
       <c r="H52" s="4"/>
       <c r="I52" s="17"/>
       <c r="J52" s="5">
         <v>4</v>
       </c>
-      <c r="K52" s="55">
-        <v>2</v>
-      </c>
-      <c r="L52" s="50"/>
+      <c r="K52" s="54">
+        <v>2</v>
+      </c>
+      <c r="L52" s="49"/>
       <c r="M52" s="4"/>
       <c r="N52" s="17"/>
       <c r="O52" s="5">
         <v>4</v>
       </c>
-      <c r="P52" s="55">
+      <c r="P52" s="54">
         <v>3</v>
       </c>
-      <c r="Q52" s="50"/>
+      <c r="Q52" s="49"/>
       <c r="R52" s="4">
         <v>9</v>
       </c>
@@ -7130,10 +7250,10 @@
       <c r="T52" s="5">
         <v>4</v>
       </c>
-      <c r="U52" s="55">
+      <c r="U52" s="54">
         <v>3</v>
       </c>
-      <c r="V52" s="51"/>
+      <c r="V52" s="50"/>
       <c r="W52" s="4">
         <v>9</v>
       </c>
@@ -7144,99 +7264,99 @@
       <c r="Z52" s="6"/>
       <c r="AE52" s="5"/>
     </row>
-    <row r="53" spans="1:32" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A53" s="25"/>
-      <c r="B53" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="C53" s="59" t="s">
-        <v>37</v>
-      </c>
-      <c r="D53" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="E53" s="60" t="s">
-        <v>37</v>
-      </c>
-      <c r="F53" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="G53" s="50"/>
-      <c r="H53" s="47">
+      <c r="B53" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C53" s="58" t="s">
+        <v>29</v>
+      </c>
+      <c r="D53" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="E53" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="F53" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="G53" s="49"/>
+      <c r="H53" s="46">
         <v>17</v>
       </c>
-      <c r="I53" s="46">
+      <c r="I53" s="45">
         <v>3</v>
       </c>
-      <c r="J53" s="48">
+      <c r="J53" s="47">
         <v>15</v>
       </c>
-      <c r="K53" s="46">
-        <v>2</v>
-      </c>
-      <c r="L53" s="50"/>
-      <c r="M53" s="47">
+      <c r="K53" s="45">
+        <v>2</v>
+      </c>
+      <c r="L53" s="49"/>
+      <c r="M53" s="46">
         <v>17</v>
       </c>
-      <c r="N53" s="46">
-        <v>2</v>
-      </c>
-      <c r="O53" s="48">
+      <c r="N53" s="45">
+        <v>2</v>
+      </c>
+      <c r="O53" s="47">
         <v>15</v>
       </c>
-      <c r="P53" s="65">
+      <c r="P53" s="64">
         <v>5</v>
       </c>
-      <c r="Q53" s="50"/>
-      <c r="R53" s="47">
+      <c r="Q53" s="49"/>
+      <c r="R53" s="46">
         <v>17</v>
       </c>
-      <c r="S53" s="46">
+      <c r="S53" s="45">
         <v>3</v>
       </c>
-      <c r="T53" s="48"/>
-      <c r="U53" s="46"/>
-      <c r="V53" s="51"/>
-      <c r="W53" s="47">
+      <c r="T53" s="47"/>
+      <c r="U53" s="45"/>
+      <c r="V53" s="50"/>
+      <c r="W53" s="46">
         <v>17</v>
       </c>
-      <c r="X53" s="46">
-        <v>2</v>
-      </c>
-      <c r="Y53" s="48">
+      <c r="X53" s="45">
+        <v>2</v>
+      </c>
+      <c r="Y53" s="47">
         <v>15</v>
       </c>
-      <c r="Z53" s="49">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:32" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z53" s="48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A54" s="10" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C54" s="4"/>
       <c r="D54" s="17"/>
       <c r="E54" s="5"/>
       <c r="F54" s="17"/>
-      <c r="G54" s="50"/>
+      <c r="G54" s="49"/>
       <c r="H54" s="4"/>
       <c r="I54" s="17"/>
       <c r="J54" s="5"/>
       <c r="K54" s="17"/>
-      <c r="L54" s="50"/>
+      <c r="L54" s="49"/>
       <c r="M54" s="4"/>
       <c r="N54" s="17"/>
       <c r="O54" s="5"/>
       <c r="P54" s="17"/>
-      <c r="Q54" s="50"/>
+      <c r="Q54" s="49"/>
       <c r="R54" s="4"/>
       <c r="S54" s="17"/>
       <c r="T54" s="5"/>
       <c r="U54" s="17"/>
-      <c r="V54" s="51"/>
+      <c r="V54" s="50"/>
       <c r="W54" s="4">
         <v>1</v>
       </c>
@@ -7246,89 +7366,89 @@
       <c r="Y54" s="5"/>
       <c r="Z54" s="6"/>
     </row>
-    <row r="55" spans="1:32" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A55" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55" s="46">
+        <v>2</v>
+      </c>
+      <c r="D55" s="45">
+        <v>1</v>
+      </c>
+      <c r="E55" s="47"/>
+      <c r="F55" s="45"/>
+      <c r="G55" s="49"/>
+      <c r="H55" s="46">
+        <v>2</v>
+      </c>
+      <c r="I55" s="45">
+        <v>2</v>
+      </c>
+      <c r="J55" s="47"/>
+      <c r="K55" s="45"/>
+      <c r="L55" s="49"/>
+      <c r="M55" s="46"/>
+      <c r="N55" s="45"/>
+      <c r="O55" s="47"/>
+      <c r="P55" s="45"/>
+      <c r="Q55" s="49"/>
+      <c r="R55" s="46"/>
+      <c r="S55" s="45"/>
+      <c r="T55" s="47"/>
+      <c r="U55" s="45"/>
+      <c r="V55" s="50"/>
+      <c r="W55" s="46"/>
+      <c r="X55" s="45"/>
+      <c r="Y55" s="47"/>
+      <c r="Z55" s="48"/>
+      <c r="AF55" s="5"/>
+    </row>
+    <row r="56" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A56" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B56" s="10" t="s">
         <v>7</v>
-      </c>
-      <c r="B55" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="C55" s="47">
-        <v>2</v>
-      </c>
-      <c r="D55" s="46">
-        <v>1</v>
-      </c>
-      <c r="E55" s="48"/>
-      <c r="F55" s="46"/>
-      <c r="G55" s="50"/>
-      <c r="H55" s="47">
-        <v>2</v>
-      </c>
-      <c r="I55" s="46">
-        <v>2</v>
-      </c>
-      <c r="J55" s="48"/>
-      <c r="K55" s="46"/>
-      <c r="L55" s="50"/>
-      <c r="M55" s="47"/>
-      <c r="N55" s="46"/>
-      <c r="O55" s="48"/>
-      <c r="P55" s="46"/>
-      <c r="Q55" s="50"/>
-      <c r="R55" s="47"/>
-      <c r="S55" s="46"/>
-      <c r="T55" s="48"/>
-      <c r="U55" s="46"/>
-      <c r="V55" s="51"/>
-      <c r="W55" s="47"/>
-      <c r="X55" s="46"/>
-      <c r="Y55" s="48"/>
-      <c r="Z55" s="49"/>
-      <c r="AF55" s="5"/>
-    </row>
-    <row r="56" spans="1:32" x14ac:dyDescent="0.55000000000000004">
-      <c r="A56" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="B56" s="10" t="s">
-        <v>10</v>
       </c>
       <c r="C56" s="4">
         <v>13</v>
       </c>
-      <c r="D56" s="61">
+      <c r="D56" s="60">
         <v>3</v>
       </c>
       <c r="E56" s="5">
         <v>9</v>
       </c>
-      <c r="F56" s="61">
-        <v>2</v>
-      </c>
-      <c r="G56" s="50"/>
-      <c r="H56" s="58" t="s">
-        <v>37</v>
-      </c>
-      <c r="I56" s="53" t="s">
-        <v>37</v>
-      </c>
-      <c r="J56" s="57" t="s">
-        <v>37</v>
-      </c>
-      <c r="K56" s="53" t="s">
-        <v>37</v>
-      </c>
-      <c r="L56" s="50"/>
+      <c r="F56" s="60">
+        <v>2</v>
+      </c>
+      <c r="G56" s="49"/>
+      <c r="H56" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="I56" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="J56" s="56" t="s">
+        <v>29</v>
+      </c>
+      <c r="K56" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="L56" s="49"/>
       <c r="M56" s="4"/>
       <c r="N56" s="17"/>
       <c r="O56" s="5">
         <v>9</v>
       </c>
-      <c r="P56" s="62">
-        <v>2</v>
-      </c>
-      <c r="Q56" s="50"/>
+      <c r="P56" s="61">
+        <v>2</v>
+      </c>
+      <c r="Q56" s="49"/>
       <c r="R56" s="4">
         <v>13</v>
       </c>
@@ -7338,10 +7458,10 @@
       <c r="T56" s="5">
         <v>9</v>
       </c>
-      <c r="U56" s="64">
+      <c r="U56" s="63">
         <v>6</v>
       </c>
-      <c r="V56" s="51"/>
+      <c r="V56" s="50"/>
       <c r="W56" s="4"/>
       <c r="X56" s="17"/>
       <c r="Y56" s="5">
@@ -7351,54 +7471,54 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:32" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A57" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="B57" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="C57" s="47">
-        <v>1</v>
-      </c>
-      <c r="D57" s="46">
-        <v>1</v>
-      </c>
-      <c r="E57" s="48"/>
-      <c r="F57" s="46"/>
-      <c r="G57" s="50"/>
-      <c r="H57" s="47"/>
-      <c r="I57" s="46"/>
-      <c r="J57" s="48">
-        <v>2</v>
-      </c>
-      <c r="K57" s="46">
-        <v>1</v>
-      </c>
-      <c r="L57" s="50"/>
-      <c r="M57" s="47"/>
-      <c r="N57" s="46"/>
-      <c r="O57" s="48"/>
-      <c r="P57" s="46"/>
-      <c r="Q57" s="50"/>
-      <c r="R57" s="47"/>
-      <c r="S57" s="46"/>
-      <c r="T57" s="48"/>
-      <c r="U57" s="46"/>
-      <c r="V57" s="51"/>
-      <c r="W57" s="47">
-        <v>1</v>
-      </c>
-      <c r="X57" s="46">
-        <v>1</v>
-      </c>
-      <c r="Y57" s="48"/>
-      <c r="Z57" s="49"/>
-    </row>
-    <row r="58" spans="1:32" x14ac:dyDescent="0.55000000000000004">
+        <v>9</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C57" s="46">
+        <v>1</v>
+      </c>
+      <c r="D57" s="45">
+        <v>1</v>
+      </c>
+      <c r="E57" s="47"/>
+      <c r="F57" s="45"/>
+      <c r="G57" s="49"/>
+      <c r="H57" s="46"/>
+      <c r="I57" s="45"/>
+      <c r="J57" s="47">
+        <v>2</v>
+      </c>
+      <c r="K57" s="45">
+        <v>1</v>
+      </c>
+      <c r="L57" s="49"/>
+      <c r="M57" s="46"/>
+      <c r="N57" s="45"/>
+      <c r="O57" s="47"/>
+      <c r="P57" s="45"/>
+      <c r="Q57" s="49"/>
+      <c r="R57" s="46"/>
+      <c r="S57" s="45"/>
+      <c r="T57" s="47"/>
+      <c r="U57" s="45"/>
+      <c r="V57" s="50"/>
+      <c r="W57" s="46">
+        <v>1</v>
+      </c>
+      <c r="X57" s="45">
+        <v>1</v>
+      </c>
+      <c r="Y57" s="47"/>
+      <c r="Z57" s="48"/>
+    </row>
+    <row r="58" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A58" s="29"/>
       <c r="B58" s="10" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="C58" s="4"/>
       <c r="D58" s="17"/>
@@ -7408,7 +7528,7 @@
       <c r="F58" s="17">
         <v>2</v>
       </c>
-      <c r="G58" s="50"/>
+      <c r="G58" s="49"/>
       <c r="H58" s="4">
         <v>5</v>
       </c>
@@ -7418,90 +7538,90 @@
       <c r="J58" s="5">
         <v>4</v>
       </c>
-      <c r="K58" s="64">
+      <c r="K58" s="63">
         <v>4</v>
       </c>
-      <c r="L58" s="50"/>
+      <c r="L58" s="49"/>
       <c r="M58" s="4"/>
       <c r="N58" s="17"/>
       <c r="O58" s="5"/>
       <c r="P58" s="17"/>
-      <c r="Q58" s="50"/>
+      <c r="Q58" s="49"/>
       <c r="R58" s="4"/>
       <c r="S58" s="17"/>
       <c r="T58" s="5">
         <v>4</v>
       </c>
-      <c r="U58" s="64">
+      <c r="U58" s="63">
         <v>3</v>
       </c>
-      <c r="V58" s="51"/>
+      <c r="V58" s="50"/>
       <c r="W58" s="4"/>
       <c r="X58" s="17"/>
       <c r="Y58" s="5"/>
       <c r="Z58" s="6"/>
     </row>
-    <row r="59" spans="1:32" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A59" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="B59" s="45" t="s">
-        <v>16</v>
-      </c>
-      <c r="C59" s="47">
+        <v>15</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C59" s="46">
         <v>6</v>
       </c>
-      <c r="D59" s="46">
-        <v>2</v>
-      </c>
-      <c r="E59" s="48"/>
-      <c r="F59" s="46"/>
-      <c r="G59" s="50"/>
-      <c r="H59" s="47">
+      <c r="D59" s="45">
+        <v>2</v>
+      </c>
+      <c r="E59" s="47"/>
+      <c r="F59" s="45"/>
+      <c r="G59" s="49"/>
+      <c r="H59" s="46">
         <v>6</v>
       </c>
-      <c r="I59" s="46">
-        <v>1</v>
-      </c>
-      <c r="J59" s="48">
-        <v>2</v>
-      </c>
-      <c r="K59" s="46">
-        <v>1</v>
-      </c>
-      <c r="L59" s="50"/>
-      <c r="M59" s="47"/>
-      <c r="N59" s="46"/>
-      <c r="O59" s="48">
-        <v>2</v>
-      </c>
-      <c r="P59" s="55">
-        <v>2</v>
-      </c>
-      <c r="Q59" s="50"/>
-      <c r="R59" s="47"/>
-      <c r="S59" s="46"/>
-      <c r="T59" s="48"/>
-      <c r="U59" s="46"/>
-      <c r="V59" s="51"/>
-      <c r="W59" s="47">
+      <c r="I59" s="45">
+        <v>1</v>
+      </c>
+      <c r="J59" s="47">
+        <v>2</v>
+      </c>
+      <c r="K59" s="45">
+        <v>1</v>
+      </c>
+      <c r="L59" s="49"/>
+      <c r="M59" s="46"/>
+      <c r="N59" s="45"/>
+      <c r="O59" s="47">
+        <v>2</v>
+      </c>
+      <c r="P59" s="54">
+        <v>2</v>
+      </c>
+      <c r="Q59" s="49"/>
+      <c r="R59" s="46"/>
+      <c r="S59" s="45"/>
+      <c r="T59" s="47"/>
+      <c r="U59" s="45"/>
+      <c r="V59" s="50"/>
+      <c r="W59" s="46">
         <v>6</v>
       </c>
-      <c r="X59" s="55">
+      <c r="X59" s="54">
         <v>3</v>
       </c>
-      <c r="Y59" s="48"/>
-      <c r="Z59" s="49"/>
-    </row>
-    <row r="60" spans="1:32" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y59" s="47"/>
+      <c r="Z59" s="48"/>
+    </row>
+    <row r="60" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A60" s="31"/>
       <c r="B60" s="10" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C60" s="4">
         <v>4</v>
       </c>
-      <c r="D60" s="65">
+      <c r="D60" s="64">
         <v>2</v>
       </c>
       <c r="E60" s="5">
@@ -7510,38 +7630,38 @@
       <c r="F60" s="17">
         <v>5</v>
       </c>
-      <c r="G60" s="50"/>
+      <c r="G60" s="49"/>
       <c r="H60" s="4"/>
       <c r="I60" s="17"/>
       <c r="J60" s="5">
         <v>16</v>
       </c>
-      <c r="K60" s="62">
-        <v>2</v>
-      </c>
-      <c r="L60" s="50"/>
-      <c r="M60" s="58" t="s">
-        <v>37</v>
-      </c>
-      <c r="N60" s="53" t="s">
-        <v>37</v>
-      </c>
-      <c r="O60" s="57" t="s">
-        <v>37</v>
-      </c>
-      <c r="P60" s="53" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q60" s="50"/>
+      <c r="K60" s="61">
+        <v>2</v>
+      </c>
+      <c r="L60" s="49"/>
+      <c r="M60" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="N60" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="O60" s="56" t="s">
+        <v>29</v>
+      </c>
+      <c r="P60" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q60" s="49"/>
       <c r="R60" s="4"/>
       <c r="S60" s="17"/>
       <c r="T60" s="5">
         <v>16</v>
       </c>
-      <c r="U60" s="62">
+      <c r="U60" s="61">
         <v>3</v>
       </c>
-      <c r="V60" s="51"/>
+      <c r="V60" s="50"/>
       <c r="W60" s="4"/>
       <c r="X60" s="17"/>
       <c r="Y60" s="5">
@@ -7551,62 +7671,62 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:32" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A61" s="32"/>
-      <c r="B61" s="45" t="s">
-        <v>22</v>
-      </c>
-      <c r="C61" s="47">
-        <v>1</v>
-      </c>
-      <c r="D61" s="46">
-        <v>1</v>
-      </c>
-      <c r="E61" s="48">
+      <c r="B61" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C61" s="46">
+        <v>1</v>
+      </c>
+      <c r="D61" s="45">
+        <v>1</v>
+      </c>
+      <c r="E61" s="47">
         <v>3</v>
       </c>
-      <c r="F61" s="46">
-        <v>1</v>
-      </c>
-      <c r="G61" s="50"/>
-      <c r="H61" s="47"/>
-      <c r="I61" s="46"/>
-      <c r="J61" s="48">
+      <c r="F61" s="45">
+        <v>1</v>
+      </c>
+      <c r="G61" s="49"/>
+      <c r="H61" s="46"/>
+      <c r="I61" s="45"/>
+      <c r="J61" s="47">
         <v>3</v>
       </c>
-      <c r="K61" s="46">
-        <v>1</v>
-      </c>
-      <c r="L61" s="50"/>
-      <c r="M61" s="47"/>
-      <c r="N61" s="46"/>
-      <c r="O61" s="48">
+      <c r="K61" s="45">
+        <v>1</v>
+      </c>
+      <c r="L61" s="49"/>
+      <c r="M61" s="46"/>
+      <c r="N61" s="45"/>
+      <c r="O61" s="47">
         <v>3</v>
       </c>
-      <c r="P61" s="46">
-        <v>1</v>
-      </c>
-      <c r="Q61" s="50"/>
-      <c r="R61" s="47"/>
-      <c r="S61" s="46"/>
-      <c r="T61" s="48"/>
-      <c r="U61" s="46"/>
-      <c r="V61" s="51"/>
-      <c r="W61" s="47"/>
-      <c r="X61" s="46"/>
-      <c r="Y61" s="48"/>
-      <c r="Z61" s="49"/>
-    </row>
-    <row r="62" spans="1:32" x14ac:dyDescent="0.55000000000000004">
+      <c r="P61" s="45">
+        <v>1</v>
+      </c>
+      <c r="Q61" s="49"/>
+      <c r="R61" s="46"/>
+      <c r="S61" s="45"/>
+      <c r="T61" s="47"/>
+      <c r="U61" s="45"/>
+      <c r="V61" s="50"/>
+      <c r="W61" s="46"/>
+      <c r="X61" s="45"/>
+      <c r="Y61" s="47"/>
+      <c r="Z61" s="48"/>
+    </row>
+    <row r="62" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A62" s="33"/>
       <c r="B62" s="10" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="36"/>
       <c r="E62" s="8"/>
       <c r="F62" s="36"/>
-      <c r="G62" s="50"/>
+      <c r="G62" s="49"/>
       <c r="H62" s="7"/>
       <c r="I62" s="36"/>
       <c r="J62" s="8">
@@ -7615,17 +7735,17 @@
       <c r="K62" s="36">
         <v>1</v>
       </c>
-      <c r="L62" s="50"/>
+      <c r="L62" s="49"/>
       <c r="M62" s="7"/>
       <c r="N62" s="36"/>
       <c r="O62" s="8"/>
       <c r="P62" s="36"/>
-      <c r="Q62" s="50"/>
+      <c r="Q62" s="49"/>
       <c r="R62" s="7"/>
       <c r="S62" s="36"/>
       <c r="T62" s="8"/>
       <c r="U62" s="36"/>
-      <c r="V62" s="51"/>
+      <c r="V62" s="50"/>
       <c r="W62" s="7"/>
       <c r="X62" s="36"/>
       <c r="Y62" s="8"/>
@@ -7657,19 +7777,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="35.1015625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="4.7890625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1">
         <v>1936</v>
       </c>
@@ -7677,205 +7798,262 @@
         <v>1941</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="B2">
+        <v>17</v>
+      </c>
+      <c r="C2">
+        <v>15</v>
+      </c>
+      <c r="D2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3">
+        <v>19</v>
+      </c>
+      <c r="C3">
         <v>3</v>
       </c>
-      <c r="C2">
+      <c r="D3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>13</v>
+      </c>
+      <c r="C4">
+        <v>9</v>
+      </c>
+      <c r="D4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>16</v>
+      </c>
+      <c r="D5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>7</v>
+      </c>
+      <c r="C6">
+        <v>11</v>
+      </c>
+      <c r="D6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>7</v>
+      </c>
+      <c r="D7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>6</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3">
-        <v>10</v>
-      </c>
-      <c r="C3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="10" t="s">
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13">
         <v>4</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5">
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6">
-        <v>19</v>
-      </c>
-      <c r="C6">
+      <c r="D16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="10" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7">
-        <v>8</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8">
-        <v>7</v>
-      </c>
-      <c r="C8">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9">
-        <v>9</v>
-      </c>
-      <c r="C9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10">
-        <v>17</v>
-      </c>
-      <c r="C10">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="C12">
+      <c r="D18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13">
-        <v>13</v>
-      </c>
-      <c r="C13">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B15">
-        <v>5</v>
-      </c>
-      <c r="C15">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16">
-        <v>6</v>
-      </c>
-      <c r="C16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17">
-        <v>4</v>
-      </c>
-      <c r="C17">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19">
-        <v>3</v>
+      <c r="D19">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:D19">
+    <sortCondition descending="1" ref="D19"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -7883,950 +8061,968 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U21"/>
+  <dimension ref="A1:W21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U21" sqref="A1:U21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="35.1015625" bestFit="1" customWidth="1"/>
-    <col min="2" max="21" width="4.62890625" customWidth="1"/>
+    <col min="1" max="1" width="35.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="21" width="4.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A1" s="72" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="79" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="79" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="79" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="79" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="79" t="s">
+        <v>28</v>
+      </c>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="81"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A2" s="68"/>
+      <c r="B2" s="87">
+        <v>36</v>
+      </c>
+      <c r="C2" s="86"/>
+      <c r="D2" s="85">
+        <v>41</v>
+      </c>
+      <c r="E2" s="86"/>
+      <c r="F2" s="87">
+        <v>36</v>
+      </c>
+      <c r="G2" s="86"/>
+      <c r="H2" s="85">
+        <v>41</v>
+      </c>
+      <c r="I2" s="86"/>
+      <c r="J2" s="87">
+        <v>36</v>
+      </c>
+      <c r="K2" s="86"/>
+      <c r="L2" s="85">
+        <v>41</v>
+      </c>
+      <c r="M2" s="86"/>
+      <c r="N2" s="87">
+        <v>36</v>
+      </c>
+      <c r="O2" s="86"/>
+      <c r="P2" s="85">
+        <v>41</v>
+      </c>
+      <c r="Q2" s="86"/>
+      <c r="R2" s="87">
+        <v>36</v>
+      </c>
+      <c r="S2" s="86"/>
+      <c r="T2" s="85">
+        <v>41</v>
+      </c>
+      <c r="U2" s="86"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A3" s="73" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="65" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="66" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="67" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="66" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="65" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="66" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="67" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="66" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="65" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="66" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="67" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" s="66" t="s">
+        <v>27</v>
+      </c>
+      <c r="N3" s="65" t="s">
+        <v>26</v>
+      </c>
+      <c r="O3" s="66" t="s">
+        <v>27</v>
+      </c>
+      <c r="P3" s="67" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q3" s="66" t="s">
+        <v>27</v>
+      </c>
+      <c r="R3" s="65" t="s">
+        <v>26</v>
+      </c>
+      <c r="S3" s="66" t="s">
+        <v>27</v>
+      </c>
+      <c r="T3" s="67" t="s">
+        <v>26</v>
+      </c>
+      <c r="U3" s="66" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A4" s="88" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="89" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="90" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="89" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="90" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="91">
+        <v>17</v>
+      </c>
+      <c r="G4" s="92">
+        <v>3</v>
+      </c>
+      <c r="H4" s="93">
+        <v>15</v>
+      </c>
+      <c r="I4" s="92">
+        <v>2</v>
+      </c>
+      <c r="J4" s="91">
+        <v>17</v>
+      </c>
+      <c r="K4" s="92">
+        <v>2</v>
+      </c>
+      <c r="L4" s="93">
+        <v>15</v>
+      </c>
+      <c r="M4" s="92">
+        <v>5</v>
+      </c>
+      <c r="N4" s="91">
+        <v>17</v>
+      </c>
+      <c r="O4" s="92">
+        <v>3</v>
+      </c>
+      <c r="P4" s="93"/>
+      <c r="Q4" s="92"/>
+      <c r="R4" s="91">
+        <v>17</v>
+      </c>
+      <c r="S4" s="92">
+        <v>2</v>
+      </c>
+      <c r="T4" s="93">
+        <v>15</v>
+      </c>
+      <c r="U4" s="94">
+        <v>2</v>
+      </c>
+      <c r="W4" s="10"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A5" s="95" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="96">
+        <v>19</v>
+      </c>
+      <c r="C5" s="97">
+        <v>4</v>
+      </c>
+      <c r="D5" s="98"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="96">
+        <v>19</v>
+      </c>
+      <c r="G5" s="97">
+        <v>4</v>
+      </c>
+      <c r="H5" s="98"/>
+      <c r="I5" s="97"/>
+      <c r="J5" s="96"/>
+      <c r="K5" s="97"/>
+      <c r="L5" s="98">
+        <v>3</v>
+      </c>
+      <c r="M5" s="99">
+        <v>2</v>
+      </c>
+      <c r="N5" s="96">
+        <v>19</v>
+      </c>
+      <c r="O5" s="97">
+        <v>4</v>
+      </c>
+      <c r="P5" s="98"/>
+      <c r="Q5" s="97"/>
+      <c r="R5" s="96">
+        <v>19</v>
+      </c>
+      <c r="S5" s="97">
+        <v>2</v>
+      </c>
+      <c r="T5" s="98">
+        <v>3</v>
+      </c>
+      <c r="U5" s="100">
+        <v>2</v>
+      </c>
+      <c r="W5" s="10"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A6" s="88" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="91">
+        <v>13</v>
+      </c>
+      <c r="C6" s="92">
+        <v>3</v>
+      </c>
+      <c r="D6" s="93">
+        <v>9</v>
+      </c>
+      <c r="E6" s="92">
+        <v>2</v>
+      </c>
+      <c r="F6" s="89" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="90" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="101" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="90" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" s="91"/>
+      <c r="K6" s="92"/>
+      <c r="L6" s="93">
+        <v>9</v>
+      </c>
+      <c r="M6" s="92">
+        <v>2</v>
+      </c>
+      <c r="N6" s="91">
+        <v>13</v>
+      </c>
+      <c r="O6" s="92">
+        <v>3</v>
+      </c>
+      <c r="P6" s="93">
+        <v>9</v>
+      </c>
+      <c r="Q6" s="99">
+        <v>6</v>
+      </c>
+      <c r="R6" s="91"/>
+      <c r="S6" s="92"/>
+      <c r="T6" s="93">
+        <v>9</v>
+      </c>
+      <c r="U6" s="94">
+        <v>1</v>
+      </c>
+      <c r="W6" s="10"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A7" s="95" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="102">
+        <v>4</v>
+      </c>
+      <c r="C7" s="99">
+        <v>2</v>
+      </c>
+      <c r="D7" s="103">
+        <v>16</v>
+      </c>
+      <c r="E7" s="104">
+        <v>5</v>
+      </c>
+      <c r="F7" s="102"/>
+      <c r="G7" s="104"/>
+      <c r="H7" s="103">
+        <v>16</v>
+      </c>
+      <c r="I7" s="97">
+        <v>2</v>
+      </c>
+      <c r="J7" s="105" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" s="106" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7" s="107" t="s">
+        <v>29</v>
+      </c>
+      <c r="M7" s="106" t="s">
+        <v>29</v>
+      </c>
+      <c r="N7" s="102"/>
+      <c r="O7" s="104"/>
+      <c r="P7" s="103">
+        <v>16</v>
+      </c>
+      <c r="Q7" s="97">
+        <v>3</v>
+      </c>
+      <c r="R7" s="102"/>
+      <c r="S7" s="104"/>
+      <c r="T7" s="103">
+        <v>16</v>
+      </c>
+      <c r="U7" s="108">
+        <v>2</v>
+      </c>
+      <c r="W7" s="10"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A8" s="88" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="91">
+        <v>7</v>
+      </c>
+      <c r="C8" s="92">
+        <v>3</v>
+      </c>
+      <c r="D8" s="93">
+        <v>11</v>
+      </c>
+      <c r="E8" s="92">
+        <v>3</v>
+      </c>
+      <c r="F8" s="91">
+        <v>7</v>
+      </c>
+      <c r="G8" s="92">
+        <v>3</v>
+      </c>
+      <c r="H8" s="93">
+        <v>11</v>
+      </c>
+      <c r="I8" s="71">
+        <v>6</v>
+      </c>
+      <c r="J8" s="91"/>
+      <c r="K8" s="92"/>
+      <c r="L8" s="93">
+        <v>11</v>
+      </c>
+      <c r="M8" s="92">
+        <v>3</v>
+      </c>
+      <c r="N8" s="89" t="s">
+        <v>29</v>
+      </c>
+      <c r="O8" s="90" t="s">
+        <v>29</v>
+      </c>
+      <c r="P8" s="101" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q8" s="90" t="s">
+        <v>29</v>
+      </c>
+      <c r="R8" s="91"/>
+      <c r="S8" s="92"/>
+      <c r="T8" s="93"/>
+      <c r="U8" s="94"/>
+      <c r="W8" s="10"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A9" s="95" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="102">
+        <v>10</v>
+      </c>
+      <c r="C9" s="104">
+        <v>2</v>
+      </c>
+      <c r="D9" s="103">
+        <v>7</v>
+      </c>
+      <c r="E9" s="104">
+        <v>2</v>
+      </c>
+      <c r="F9" s="102"/>
+      <c r="G9" s="104"/>
+      <c r="H9" s="103">
+        <v>7</v>
+      </c>
+      <c r="I9" s="104">
+        <v>1</v>
+      </c>
+      <c r="J9" s="102"/>
+      <c r="K9" s="104"/>
+      <c r="L9" s="103">
+        <v>7</v>
+      </c>
+      <c r="M9" s="104">
+        <v>2</v>
+      </c>
+      <c r="N9" s="102"/>
+      <c r="O9" s="104"/>
+      <c r="P9" s="103"/>
+      <c r="Q9" s="104"/>
+      <c r="R9" s="105" t="s">
+        <v>29</v>
+      </c>
+      <c r="S9" s="106" t="s">
+        <v>29</v>
+      </c>
+      <c r="T9" s="107" t="s">
+        <v>29</v>
+      </c>
+      <c r="U9" s="109" t="s">
+        <v>29</v>
+      </c>
+      <c r="W9" s="10"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A10" s="88" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="91">
+        <v>9</v>
+      </c>
+      <c r="C10" s="92">
+        <v>3</v>
+      </c>
+      <c r="D10" s="93">
+        <v>4</v>
+      </c>
+      <c r="E10" s="92">
+        <v>1</v>
+      </c>
+      <c r="F10" s="91"/>
+      <c r="G10" s="92"/>
+      <c r="H10" s="93">
+        <v>4</v>
+      </c>
+      <c r="I10" s="99">
+        <v>2</v>
+      </c>
+      <c r="J10" s="91"/>
+      <c r="K10" s="92"/>
+      <c r="L10" s="93">
+        <v>4</v>
+      </c>
+      <c r="M10" s="99">
+        <v>3</v>
+      </c>
+      <c r="N10" s="91">
+        <v>9</v>
+      </c>
+      <c r="O10" s="92">
+        <v>2</v>
+      </c>
+      <c r="P10" s="93">
+        <v>4</v>
+      </c>
+      <c r="Q10" s="99">
+        <v>3</v>
+      </c>
+      <c r="R10" s="91">
+        <v>9</v>
+      </c>
+      <c r="S10" s="92">
+        <v>3</v>
+      </c>
+      <c r="T10" s="93"/>
+      <c r="U10" s="94"/>
+      <c r="W10" s="10"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A11" s="95" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="74" t="s">
+      <c r="B11" s="102">
+        <v>8</v>
+      </c>
+      <c r="C11" s="99">
+        <v>4</v>
+      </c>
+      <c r="D11" s="103">
+        <v>2</v>
+      </c>
+      <c r="E11" s="97">
+        <v>1</v>
+      </c>
+      <c r="F11" s="102"/>
+      <c r="G11" s="104"/>
+      <c r="H11" s="103">
+        <v>2</v>
+      </c>
+      <c r="I11" s="104">
+        <v>2</v>
+      </c>
+      <c r="J11" s="102"/>
+      <c r="K11" s="104"/>
+      <c r="L11" s="103"/>
+      <c r="M11" s="104"/>
+      <c r="N11" s="102">
+        <v>8</v>
+      </c>
+      <c r="O11" s="104">
+        <v>2</v>
+      </c>
+      <c r="P11" s="103">
+        <v>2</v>
+      </c>
+      <c r="Q11" s="104">
+        <v>1</v>
+      </c>
+      <c r="R11" s="102">
+        <v>8</v>
+      </c>
+      <c r="S11" s="104">
+        <v>2</v>
+      </c>
+      <c r="T11" s="103"/>
+      <c r="U11" s="108"/>
+      <c r="W11" s="10"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A12" s="88" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="91"/>
+      <c r="C12" s="92"/>
+      <c r="D12" s="93">
+        <v>4</v>
+      </c>
+      <c r="E12" s="92">
+        <v>2</v>
+      </c>
+      <c r="F12" s="91">
+        <v>5</v>
+      </c>
+      <c r="G12" s="92">
+        <v>1</v>
+      </c>
+      <c r="H12" s="93">
+        <v>4</v>
+      </c>
+      <c r="I12" s="99">
+        <v>4</v>
+      </c>
+      <c r="J12" s="91"/>
+      <c r="K12" s="92"/>
+      <c r="L12" s="93"/>
+      <c r="M12" s="92"/>
+      <c r="N12" s="91"/>
+      <c r="O12" s="92"/>
+      <c r="P12" s="93">
+        <v>4</v>
+      </c>
+      <c r="Q12" s="99">
+        <v>3</v>
+      </c>
+      <c r="R12" s="91"/>
+      <c r="S12" s="92"/>
+      <c r="T12" s="93"/>
+      <c r="U12" s="94"/>
+      <c r="W12" s="10"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A13" s="95" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="96">
+        <v>6</v>
+      </c>
+      <c r="C13" s="97">
+        <v>2</v>
+      </c>
+      <c r="D13" s="98"/>
+      <c r="E13" s="97"/>
+      <c r="F13" s="96">
+        <v>6</v>
+      </c>
+      <c r="G13" s="97">
+        <v>1</v>
+      </c>
+      <c r="H13" s="98">
+        <v>2</v>
+      </c>
+      <c r="I13" s="97">
+        <v>1</v>
+      </c>
+      <c r="J13" s="96"/>
+      <c r="K13" s="97"/>
+      <c r="L13" s="98">
+        <v>2</v>
+      </c>
+      <c r="M13" s="97">
+        <v>2</v>
+      </c>
+      <c r="N13" s="96"/>
+      <c r="O13" s="97"/>
+      <c r="P13" s="98"/>
+      <c r="Q13" s="97"/>
+      <c r="R13" s="96">
+        <v>6</v>
+      </c>
+      <c r="S13" s="99">
+        <v>3</v>
+      </c>
+      <c r="T13" s="98"/>
+      <c r="U13" s="110"/>
+      <c r="W13" s="10"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A14" s="88" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="91">
+        <v>3</v>
+      </c>
+      <c r="C14" s="92">
+        <v>1</v>
+      </c>
+      <c r="D14" s="93">
+        <v>3</v>
+      </c>
+      <c r="E14" s="99">
+        <v>2</v>
+      </c>
+      <c r="F14" s="91">
+        <v>3</v>
+      </c>
+      <c r="G14" s="92">
+        <v>1</v>
+      </c>
+      <c r="H14" s="93">
+        <v>3</v>
+      </c>
+      <c r="I14" s="99">
+        <v>2</v>
+      </c>
+      <c r="J14" s="91"/>
+      <c r="K14" s="92"/>
+      <c r="L14" s="93"/>
+      <c r="M14" s="92"/>
+      <c r="N14" s="91"/>
+      <c r="O14" s="92"/>
+      <c r="P14" s="93">
+        <v>3</v>
+      </c>
+      <c r="Q14" s="92">
+        <v>1</v>
+      </c>
+      <c r="R14" s="91">
+        <v>3</v>
+      </c>
+      <c r="S14" s="92">
+        <v>1</v>
+      </c>
+      <c r="T14" s="93">
+        <v>3</v>
+      </c>
+      <c r="U14" s="94">
+        <v>1</v>
+      </c>
+      <c r="W14" s="10"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A15" s="95" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="96">
+        <v>1</v>
+      </c>
+      <c r="C15" s="97">
+        <v>1</v>
+      </c>
+      <c r="D15" s="98">
+        <v>3</v>
+      </c>
+      <c r="E15" s="97">
+        <v>1</v>
+      </c>
+      <c r="F15" s="96"/>
+      <c r="G15" s="97"/>
+      <c r="H15" s="98">
+        <v>3</v>
+      </c>
+      <c r="I15" s="97">
+        <v>1</v>
+      </c>
+      <c r="J15" s="96"/>
+      <c r="K15" s="97"/>
+      <c r="L15" s="98">
+        <v>3</v>
+      </c>
+      <c r="M15" s="97">
+        <v>1</v>
+      </c>
+      <c r="N15" s="96"/>
+      <c r="O15" s="97"/>
+      <c r="P15" s="98"/>
+      <c r="Q15" s="97"/>
+      <c r="R15" s="96"/>
+      <c r="S15" s="97"/>
+      <c r="T15" s="98"/>
+      <c r="U15" s="110"/>
+      <c r="W15" s="10"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A16" s="88" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="91">
+        <v>1</v>
+      </c>
+      <c r="C16" s="92">
+        <v>1</v>
+      </c>
+      <c r="D16" s="93"/>
+      <c r="E16" s="92"/>
+      <c r="F16" s="91"/>
+      <c r="G16" s="92"/>
+      <c r="H16" s="93">
+        <v>2</v>
+      </c>
+      <c r="I16" s="92">
+        <v>1</v>
+      </c>
+      <c r="J16" s="91"/>
+      <c r="K16" s="92"/>
+      <c r="L16" s="93"/>
+      <c r="M16" s="92"/>
+      <c r="N16" s="91"/>
+      <c r="O16" s="92"/>
+      <c r="P16" s="93"/>
+      <c r="Q16" s="92"/>
+      <c r="R16" s="91">
+        <v>1</v>
+      </c>
+      <c r="S16" s="92">
+        <v>1</v>
+      </c>
+      <c r="T16" s="93"/>
+      <c r="U16" s="94"/>
+      <c r="W16" s="10"/>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A17" s="95" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="102"/>
+      <c r="C17" s="104"/>
+      <c r="D17" s="103"/>
+      <c r="E17" s="104"/>
+      <c r="F17" s="102"/>
+      <c r="G17" s="104"/>
+      <c r="H17" s="103">
+        <v>3</v>
+      </c>
+      <c r="I17" s="104">
+        <v>1</v>
+      </c>
+      <c r="J17" s="102"/>
+      <c r="K17" s="104"/>
+      <c r="L17" s="103"/>
+      <c r="M17" s="104"/>
+      <c r="N17" s="102"/>
+      <c r="O17" s="104"/>
+      <c r="P17" s="103"/>
+      <c r="Q17" s="104"/>
+      <c r="R17" s="102"/>
+      <c r="S17" s="104"/>
+      <c r="T17" s="103"/>
+      <c r="U17" s="108"/>
+      <c r="W17" s="10"/>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A18" s="88" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="74" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="74" t="s">
-        <v>18</v>
-      </c>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="74" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" s="75"/>
-      <c r="P1" s="75"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="74" t="s">
-        <v>36</v>
-      </c>
-      <c r="S1" s="75"/>
-      <c r="T1" s="75"/>
-      <c r="U1" s="76"/>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="15"/>
-      <c r="B2" s="82">
-        <v>36</v>
-      </c>
-      <c r="C2" s="81"/>
-      <c r="D2" s="80">
-        <v>41</v>
-      </c>
-      <c r="E2" s="81"/>
-      <c r="F2" s="82">
-        <v>36</v>
-      </c>
-      <c r="G2" s="81"/>
-      <c r="H2" s="80">
-        <v>41</v>
-      </c>
-      <c r="I2" s="81"/>
-      <c r="J2" s="82">
-        <v>36</v>
-      </c>
-      <c r="K2" s="81"/>
-      <c r="L2" s="80">
-        <v>41</v>
-      </c>
-      <c r="M2" s="81"/>
-      <c r="N2" s="82">
-        <v>36</v>
-      </c>
-      <c r="O2" s="81"/>
-      <c r="P2" s="80">
-        <v>41</v>
-      </c>
-      <c r="Q2" s="81"/>
-      <c r="R2" s="82">
-        <v>36</v>
-      </c>
-      <c r="S2" s="81"/>
-      <c r="T2" s="80">
-        <v>41</v>
-      </c>
-      <c r="U2" s="81"/>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="42" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" s="66" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="67" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="68" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="67" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" s="66" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3" s="67" t="s">
-        <v>35</v>
-      </c>
-      <c r="H3" s="68" t="s">
-        <v>34</v>
-      </c>
-      <c r="I3" s="67" t="s">
-        <v>35</v>
-      </c>
-      <c r="J3" s="66" t="s">
-        <v>34</v>
-      </c>
-      <c r="K3" s="67" t="s">
-        <v>35</v>
-      </c>
-      <c r="L3" s="68" t="s">
-        <v>34</v>
-      </c>
-      <c r="M3" s="67" t="s">
-        <v>35</v>
-      </c>
-      <c r="N3" s="66" t="s">
-        <v>34</v>
-      </c>
-      <c r="O3" s="67" t="s">
-        <v>35</v>
-      </c>
-      <c r="P3" s="68" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q3" s="67" t="s">
-        <v>35</v>
-      </c>
-      <c r="R3" s="66" t="s">
-        <v>34</v>
-      </c>
-      <c r="S3" s="67" t="s">
-        <v>35</v>
-      </c>
-      <c r="T3" s="68" t="s">
-        <v>34</v>
-      </c>
-      <c r="U3" s="67" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="70" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="47">
+      <c r="B18" s="91"/>
+      <c r="C18" s="92"/>
+      <c r="D18" s="93"/>
+      <c r="E18" s="92"/>
+      <c r="F18" s="91"/>
+      <c r="G18" s="92"/>
+      <c r="H18" s="93"/>
+      <c r="I18" s="92"/>
+      <c r="J18" s="91"/>
+      <c r="K18" s="92"/>
+      <c r="L18" s="93"/>
+      <c r="M18" s="92"/>
+      <c r="N18" s="91"/>
+      <c r="O18" s="92"/>
+      <c r="P18" s="93"/>
+      <c r="Q18" s="92"/>
+      <c r="R18" s="91"/>
+      <c r="S18" s="92"/>
+      <c r="T18" s="93"/>
+      <c r="U18" s="94"/>
+      <c r="W18" s="10"/>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A19" s="95" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="96">
+        <v>2</v>
+      </c>
+      <c r="C19" s="97">
+        <v>1</v>
+      </c>
+      <c r="D19" s="98"/>
+      <c r="E19" s="97"/>
+      <c r="F19" s="96">
+        <v>2</v>
+      </c>
+      <c r="G19" s="97">
+        <v>2</v>
+      </c>
+      <c r="H19" s="98"/>
+      <c r="I19" s="97"/>
+      <c r="J19" s="96"/>
+      <c r="K19" s="97"/>
+      <c r="L19" s="98"/>
+      <c r="M19" s="97"/>
+      <c r="N19" s="96"/>
+      <c r="O19" s="97"/>
+      <c r="P19" s="98"/>
+      <c r="Q19" s="97"/>
+      <c r="R19" s="96"/>
+      <c r="S19" s="97"/>
+      <c r="T19" s="98"/>
+      <c r="U19" s="110"/>
+      <c r="W19" s="10"/>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A20" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="46">
-        <v>1</v>
-      </c>
-      <c r="D4" s="48">
-        <v>3</v>
-      </c>
-      <c r="E4" s="55">
-        <v>2</v>
-      </c>
-      <c r="F4" s="47">
-        <v>3</v>
-      </c>
-      <c r="G4" s="46">
-        <v>1</v>
-      </c>
-      <c r="H4" s="48">
-        <v>3</v>
-      </c>
-      <c r="I4" s="55">
-        <v>2</v>
-      </c>
-      <c r="J4" s="47"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="47"/>
-      <c r="O4" s="46"/>
-      <c r="P4" s="48">
-        <v>3</v>
-      </c>
-      <c r="Q4" s="46">
-        <v>1</v>
-      </c>
-      <c r="R4" s="47">
-        <v>3</v>
-      </c>
-      <c r="S4" s="46">
-        <v>1</v>
-      </c>
-      <c r="T4" s="48">
-        <v>3</v>
-      </c>
-      <c r="U4" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="69" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="4">
-        <v>10</v>
-      </c>
-      <c r="C5" s="17">
-        <v>2</v>
-      </c>
-      <c r="D5" s="5">
-        <v>7</v>
-      </c>
-      <c r="E5" s="17">
-        <v>2</v>
-      </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="5">
-        <v>7</v>
-      </c>
-      <c r="I5" s="17">
-        <v>1</v>
-      </c>
-      <c r="J5" s="4"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="5">
-        <v>7</v>
-      </c>
-      <c r="M5" s="17">
-        <v>2</v>
-      </c>
-      <c r="N5" s="4"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="58" t="s">
-        <v>37</v>
-      </c>
-      <c r="S5" s="53" t="s">
-        <v>37</v>
-      </c>
-      <c r="T5" s="57" t="s">
-        <v>37</v>
-      </c>
-      <c r="U5" s="54" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="70" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="47">
-        <v>1</v>
-      </c>
-      <c r="C6" s="46">
-        <v>1</v>
-      </c>
-      <c r="D6" s="48"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="46"/>
-      <c r="N6" s="47"/>
-      <c r="O6" s="46"/>
-      <c r="P6" s="48"/>
-      <c r="Q6" s="46"/>
-      <c r="R6" s="47">
-        <v>1</v>
-      </c>
-      <c r="S6" s="46">
-        <v>1</v>
-      </c>
-      <c r="T6" s="48"/>
-      <c r="U6" s="49"/>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="69" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="17"/>
-      <c r="T7" s="5"/>
-      <c r="U7" s="6"/>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="70" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="47">
-        <v>19</v>
-      </c>
-      <c r="C8" s="46">
-        <v>4</v>
-      </c>
-      <c r="D8" s="48"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="47">
-        <v>19</v>
-      </c>
-      <c r="G8" s="46">
-        <v>4</v>
-      </c>
-      <c r="H8" s="48"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="48">
-        <v>3</v>
-      </c>
-      <c r="M8" s="55">
-        <v>2</v>
-      </c>
-      <c r="N8" s="47">
-        <v>19</v>
-      </c>
-      <c r="O8" s="46">
-        <v>4</v>
-      </c>
-      <c r="P8" s="48"/>
-      <c r="Q8" s="46"/>
-      <c r="R8" s="47">
-        <v>19</v>
-      </c>
-      <c r="S8" s="46">
-        <v>2</v>
-      </c>
-      <c r="T8" s="48">
-        <v>3</v>
-      </c>
-      <c r="U8" s="56">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="69" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="4">
-        <v>8</v>
-      </c>
-      <c r="C9" s="55">
-        <v>4</v>
-      </c>
-      <c r="D9" s="5">
-        <v>2</v>
-      </c>
-      <c r="E9" s="55">
-        <v>1</v>
-      </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="5">
-        <v>2</v>
-      </c>
-      <c r="I9" s="17">
-        <v>2</v>
-      </c>
-      <c r="J9" s="4"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="4">
-        <v>8</v>
-      </c>
-      <c r="O9" s="17">
-        <v>2</v>
-      </c>
-      <c r="P9" s="5">
-        <v>2</v>
-      </c>
-      <c r="Q9" s="17">
-        <v>1</v>
-      </c>
-      <c r="R9" s="4">
-        <v>8</v>
-      </c>
-      <c r="S9" s="17">
-        <v>2</v>
-      </c>
-      <c r="T9" s="5"/>
-      <c r="U9" s="6"/>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="70" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="47">
-        <v>7</v>
-      </c>
-      <c r="C10" s="55">
-        <v>3</v>
-      </c>
-      <c r="D10" s="48">
-        <v>11</v>
-      </c>
-      <c r="E10" s="46">
-        <v>3</v>
-      </c>
-      <c r="F10" s="47">
-        <v>7</v>
-      </c>
-      <c r="G10" s="55">
-        <v>3</v>
-      </c>
-      <c r="H10" s="48">
-        <v>11</v>
-      </c>
-      <c r="I10" s="73">
-        <v>6</v>
-      </c>
-      <c r="J10" s="47"/>
-      <c r="K10" s="46"/>
-      <c r="L10" s="48">
-        <v>11</v>
-      </c>
-      <c r="M10" s="46">
-        <v>3</v>
-      </c>
-      <c r="N10" s="60" t="s">
-        <v>37</v>
-      </c>
-      <c r="O10" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="P10" s="59" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q10" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="R10" s="47"/>
-      <c r="S10" s="46"/>
-      <c r="T10" s="48"/>
-      <c r="U10" s="49"/>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="69" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="4">
-        <v>9</v>
-      </c>
-      <c r="C11" s="17">
-        <v>3</v>
-      </c>
-      <c r="D11" s="5">
-        <v>4</v>
-      </c>
-      <c r="E11" s="17">
-        <v>1</v>
-      </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="5">
-        <v>4</v>
-      </c>
-      <c r="I11" s="55">
-        <v>2</v>
-      </c>
-      <c r="J11" s="4"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="5">
-        <v>4</v>
-      </c>
-      <c r="M11" s="55">
-        <v>3</v>
-      </c>
-      <c r="N11" s="4">
-        <v>9</v>
-      </c>
-      <c r="O11" s="17">
-        <v>2</v>
-      </c>
-      <c r="P11" s="5">
-        <v>4</v>
-      </c>
-      <c r="Q11" s="55">
-        <v>3</v>
-      </c>
-      <c r="R11" s="4">
-        <v>9</v>
-      </c>
-      <c r="S11" s="17">
-        <v>3</v>
-      </c>
-      <c r="T11" s="5"/>
-      <c r="U11" s="6"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="70" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="59" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="60" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="F12" s="47">
-        <v>17</v>
-      </c>
-      <c r="G12" s="46">
-        <v>3</v>
-      </c>
-      <c r="H12" s="48">
-        <v>15</v>
-      </c>
-      <c r="I12" s="46">
-        <v>2</v>
-      </c>
-      <c r="J12" s="47">
-        <v>17</v>
-      </c>
-      <c r="K12" s="46">
-        <v>2</v>
-      </c>
-      <c r="L12" s="48">
-        <v>15</v>
-      </c>
-      <c r="M12" s="46">
-        <v>5</v>
-      </c>
-      <c r="N12" s="47">
-        <v>17</v>
-      </c>
-      <c r="O12" s="46">
-        <v>3</v>
-      </c>
-      <c r="P12" s="48"/>
-      <c r="Q12" s="46"/>
-      <c r="R12" s="47">
-        <v>17</v>
-      </c>
-      <c r="S12" s="46">
-        <v>2</v>
-      </c>
-      <c r="T12" s="48">
-        <v>15</v>
-      </c>
-      <c r="U12" s="49">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="69" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="17"/>
-      <c r="R13" s="4">
-        <v>1</v>
-      </c>
-      <c r="S13" s="17">
-        <v>1</v>
-      </c>
-      <c r="T13" s="5"/>
-      <c r="U13" s="6"/>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="70" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="47">
-        <v>2</v>
-      </c>
-      <c r="C14" s="46">
-        <v>1</v>
-      </c>
-      <c r="D14" s="48"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="47">
-        <v>2</v>
-      </c>
-      <c r="G14" s="46">
-        <v>2</v>
-      </c>
-      <c r="H14" s="48"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="47"/>
-      <c r="K14" s="46"/>
-      <c r="L14" s="48"/>
-      <c r="M14" s="46"/>
-      <c r="N14" s="47"/>
-      <c r="O14" s="46"/>
-      <c r="P14" s="48"/>
-      <c r="Q14" s="46"/>
-      <c r="R14" s="47"/>
-      <c r="S14" s="46"/>
-      <c r="T14" s="48"/>
-      <c r="U14" s="49"/>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="69" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="4">
-        <v>13</v>
-      </c>
-      <c r="C15" s="61">
-        <v>3</v>
-      </c>
-      <c r="D15" s="5">
-        <v>9</v>
-      </c>
-      <c r="E15" s="61">
-        <v>2</v>
-      </c>
-      <c r="F15" s="58" t="s">
-        <v>37</v>
-      </c>
-      <c r="G15" s="53" t="s">
-        <v>37</v>
-      </c>
-      <c r="H15" s="57" t="s">
-        <v>37</v>
-      </c>
-      <c r="I15" s="53" t="s">
-        <v>37</v>
-      </c>
-      <c r="J15" s="4"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="5">
-        <v>9</v>
-      </c>
-      <c r="M15" s="61">
-        <v>2</v>
-      </c>
-      <c r="N15" s="4">
-        <v>13</v>
-      </c>
-      <c r="O15" s="17">
-        <v>3</v>
-      </c>
-      <c r="P15" s="5">
-        <v>9</v>
-      </c>
-      <c r="Q15" s="55">
-        <v>6</v>
-      </c>
-      <c r="R15" s="4"/>
-      <c r="S15" s="17"/>
-      <c r="T15" s="5">
-        <v>9</v>
-      </c>
-      <c r="U15" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="70" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="47">
-        <v>1</v>
-      </c>
-      <c r="C16" s="46">
-        <v>1</v>
-      </c>
-      <c r="D16" s="48"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="48">
-        <v>2</v>
-      </c>
-      <c r="I16" s="46">
-        <v>1</v>
-      </c>
-      <c r="J16" s="47"/>
-      <c r="K16" s="46"/>
-      <c r="L16" s="48"/>
-      <c r="M16" s="46"/>
-      <c r="N16" s="47"/>
-      <c r="O16" s="46"/>
-      <c r="P16" s="48"/>
-      <c r="Q16" s="46"/>
-      <c r="R16" s="47">
-        <v>1</v>
-      </c>
-      <c r="S16" s="46">
-        <v>1</v>
-      </c>
-      <c r="T16" s="48"/>
-      <c r="U16" s="49"/>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="69" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="5">
-        <v>4</v>
-      </c>
-      <c r="E17" s="17">
-        <v>2</v>
-      </c>
-      <c r="F17" s="4">
-        <v>5</v>
-      </c>
-      <c r="G17" s="17">
-        <v>1</v>
-      </c>
-      <c r="H17" s="5">
-        <v>4</v>
-      </c>
-      <c r="I17" s="55">
-        <v>4</v>
-      </c>
-      <c r="J17" s="4"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="5">
-        <v>4</v>
-      </c>
-      <c r="Q17" s="55">
-        <v>3</v>
-      </c>
-      <c r="R17" s="4"/>
-      <c r="S17" s="17"/>
-      <c r="T17" s="5"/>
-      <c r="U17" s="6"/>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="70" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="47">
-        <v>6</v>
-      </c>
-      <c r="C18" s="46">
-        <v>2</v>
-      </c>
-      <c r="D18" s="48"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="47">
-        <v>6</v>
-      </c>
-      <c r="G18" s="46">
-        <v>1</v>
-      </c>
-      <c r="H18" s="48">
-        <v>2</v>
-      </c>
-      <c r="I18" s="46">
-        <v>1</v>
-      </c>
-      <c r="J18" s="47"/>
-      <c r="K18" s="46"/>
-      <c r="L18" s="48">
-        <v>2</v>
-      </c>
-      <c r="M18" s="55">
-        <v>2</v>
-      </c>
-      <c r="N18" s="47"/>
-      <c r="O18" s="46"/>
-      <c r="P18" s="48"/>
-      <c r="Q18" s="46"/>
-      <c r="R18" s="47">
-        <v>6</v>
-      </c>
-      <c r="S18" s="55">
-        <v>3</v>
-      </c>
-      <c r="T18" s="48"/>
-      <c r="U18" s="49"/>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="69" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="4">
-        <v>4</v>
-      </c>
-      <c r="C19" s="55">
-        <v>2</v>
-      </c>
-      <c r="D19" s="5">
-        <v>16</v>
-      </c>
-      <c r="E19" s="17">
-        <v>5</v>
-      </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="5">
-        <v>16</v>
-      </c>
-      <c r="I19" s="61">
-        <v>2</v>
-      </c>
-      <c r="J19" s="58" t="s">
-        <v>37</v>
-      </c>
-      <c r="K19" s="53" t="s">
-        <v>37</v>
-      </c>
-      <c r="L19" s="57" t="s">
-        <v>37</v>
-      </c>
-      <c r="M19" s="53" t="s">
-        <v>37</v>
-      </c>
-      <c r="N19" s="4"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="5">
-        <v>16</v>
-      </c>
-      <c r="Q19" s="61">
-        <v>3</v>
-      </c>
-      <c r="R19" s="4"/>
-      <c r="S19" s="17"/>
-      <c r="T19" s="5">
-        <v>16</v>
-      </c>
-      <c r="U19" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="70" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="47">
-        <v>1</v>
-      </c>
-      <c r="C20" s="46">
-        <v>1</v>
-      </c>
-      <c r="D20" s="48">
-        <v>3</v>
-      </c>
-      <c r="E20" s="46">
-        <v>1</v>
-      </c>
-      <c r="F20" s="47"/>
-      <c r="G20" s="46"/>
-      <c r="H20" s="48">
-        <v>3</v>
-      </c>
-      <c r="I20" s="46">
-        <v>1</v>
-      </c>
-      <c r="J20" s="47"/>
-      <c r="K20" s="46"/>
-      <c r="L20" s="48">
-        <v>3</v>
-      </c>
-      <c r="M20" s="46">
-        <v>1</v>
-      </c>
-      <c r="N20" s="47"/>
-      <c r="O20" s="46"/>
-      <c r="P20" s="48"/>
-      <c r="Q20" s="46"/>
-      <c r="R20" s="47"/>
-      <c r="S20" s="46"/>
-      <c r="T20" s="48"/>
-      <c r="U20" s="49"/>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="71" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="8">
-        <v>3</v>
-      </c>
-      <c r="I21" s="36">
-        <v>1</v>
-      </c>
-      <c r="J21" s="7"/>
-      <c r="K21" s="36"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="36"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="36"/>
-      <c r="P21" s="8"/>
-      <c r="Q21" s="36"/>
-      <c r="R21" s="7"/>
-      <c r="S21" s="36"/>
-      <c r="T21" s="8"/>
-      <c r="U21" s="9"/>
+      <c r="B20" s="91">
+        <v>1</v>
+      </c>
+      <c r="C20" s="92">
+        <v>1</v>
+      </c>
+      <c r="D20" s="93"/>
+      <c r="E20" s="92"/>
+      <c r="F20" s="91"/>
+      <c r="G20" s="92"/>
+      <c r="H20" s="93"/>
+      <c r="I20" s="92"/>
+      <c r="J20" s="91"/>
+      <c r="K20" s="92"/>
+      <c r="L20" s="93"/>
+      <c r="M20" s="92"/>
+      <c r="N20" s="91"/>
+      <c r="O20" s="92"/>
+      <c r="P20" s="93"/>
+      <c r="Q20" s="92"/>
+      <c r="R20" s="91">
+        <v>1</v>
+      </c>
+      <c r="S20" s="92">
+        <v>1</v>
+      </c>
+      <c r="T20" s="93"/>
+      <c r="U20" s="94"/>
+      <c r="W20" s="10"/>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A21" s="111" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="112"/>
+      <c r="C21" s="113"/>
+      <c r="D21" s="114"/>
+      <c r="E21" s="113"/>
+      <c r="F21" s="112"/>
+      <c r="G21" s="113"/>
+      <c r="H21" s="114"/>
+      <c r="I21" s="113"/>
+      <c r="J21" s="112"/>
+      <c r="K21" s="113"/>
+      <c r="L21" s="114"/>
+      <c r="M21" s="113"/>
+      <c r="N21" s="112"/>
+      <c r="O21" s="113"/>
+      <c r="P21" s="114"/>
+      <c r="Q21" s="113"/>
+      <c r="R21" s="112">
+        <v>1</v>
+      </c>
+      <c r="S21" s="113">
+        <v>1</v>
+      </c>
+      <c r="T21" s="114"/>
+      <c r="U21" s="115"/>
+      <c r="W21" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -8850,4 +9046,290 @@
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="35.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="9.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="78" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="78">
+        <v>1936</v>
+      </c>
+      <c r="C1" s="78">
+        <v>1941</v>
+      </c>
+      <c r="D1" s="74" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="69" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="75">
+        <v>17</v>
+      </c>
+      <c r="C2" s="75">
+        <v>15</v>
+      </c>
+      <c r="D2" s="48">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="68" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="76">
+        <v>19</v>
+      </c>
+      <c r="C3" s="76">
+        <v>3</v>
+      </c>
+      <c r="D3" s="6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="69" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="75">
+        <v>13</v>
+      </c>
+      <c r="C4" s="75">
+        <v>9</v>
+      </c>
+      <c r="D4" s="48">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="68" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="76">
+        <v>4</v>
+      </c>
+      <c r="C5" s="76">
+        <v>16</v>
+      </c>
+      <c r="D5" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="69" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="75">
+        <v>7</v>
+      </c>
+      <c r="C6" s="75">
+        <v>11</v>
+      </c>
+      <c r="D6" s="48">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="68" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="76">
+        <v>10</v>
+      </c>
+      <c r="C7" s="76">
+        <v>7</v>
+      </c>
+      <c r="D7" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="69" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="75">
+        <v>9</v>
+      </c>
+      <c r="C8" s="75">
+        <v>4</v>
+      </c>
+      <c r="D8" s="48">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="68" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="76">
+        <v>8</v>
+      </c>
+      <c r="C9" s="76">
+        <v>2</v>
+      </c>
+      <c r="D9" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="69" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="75">
+        <v>5</v>
+      </c>
+      <c r="C10" s="75">
+        <v>4</v>
+      </c>
+      <c r="D10" s="48">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="76">
+        <v>6</v>
+      </c>
+      <c r="C11" s="76">
+        <v>2</v>
+      </c>
+      <c r="D11" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="69" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="75">
+        <v>3</v>
+      </c>
+      <c r="C12" s="75">
+        <v>3</v>
+      </c>
+      <c r="D12" s="48">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="68" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="76">
+        <v>1</v>
+      </c>
+      <c r="C13" s="76">
+        <v>3</v>
+      </c>
+      <c r="D13" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="75">
+        <v>1</v>
+      </c>
+      <c r="C14" s="75">
+        <v>2</v>
+      </c>
+      <c r="D14" s="48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="68" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="76">
+        <v>0</v>
+      </c>
+      <c r="C15" s="76">
+        <v>3</v>
+      </c>
+      <c r="D15" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="69" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="75">
+        <v>2</v>
+      </c>
+      <c r="C16" s="75">
+        <v>0</v>
+      </c>
+      <c r="D16" s="48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="68" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="76">
+        <v>2</v>
+      </c>
+      <c r="C17" s="76">
+        <v>0</v>
+      </c>
+      <c r="D17" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="69" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="75">
+        <v>1</v>
+      </c>
+      <c r="C18" s="75">
+        <v>0</v>
+      </c>
+      <c r="D18" s="48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="70" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="77">
+        <v>1</v>
+      </c>
+      <c r="C19" s="77">
+        <v>0</v>
+      </c>
+      <c r="D19" s="9">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Findings.xlsx
+++ b/Findings.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6950" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6950" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -702,42 +702,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -802,6 +766,42 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -6721,78 +6721,78 @@
       </c>
     </row>
     <row r="42" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="C42" s="79" t="s">
+      <c r="C42" s="110" t="s">
         <v>24</v>
       </c>
-      <c r="D42" s="80"/>
-      <c r="E42" s="80"/>
-      <c r="F42" s="81"/>
-      <c r="H42" s="79" t="s">
+      <c r="D42" s="111"/>
+      <c r="E42" s="111"/>
+      <c r="F42" s="112"/>
+      <c r="H42" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="I42" s="80"/>
-      <c r="J42" s="80"/>
-      <c r="K42" s="81"/>
-      <c r="M42" s="79" t="s">
+      <c r="I42" s="111"/>
+      <c r="J42" s="111"/>
+      <c r="K42" s="112"/>
+      <c r="M42" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="N42" s="80"/>
-      <c r="O42" s="80"/>
-      <c r="P42" s="81"/>
-      <c r="R42" s="79" t="s">
+      <c r="N42" s="111"/>
+      <c r="O42" s="111"/>
+      <c r="P42" s="112"/>
+      <c r="R42" s="110" t="s">
         <v>8</v>
       </c>
-      <c r="S42" s="80"/>
-      <c r="T42" s="80"/>
-      <c r="U42" s="81"/>
-      <c r="W42" s="79" t="s">
+      <c r="S42" s="111"/>
+      <c r="T42" s="111"/>
+      <c r="U42" s="112"/>
+      <c r="W42" s="110" t="s">
         <v>28</v>
       </c>
-      <c r="X42" s="80"/>
-      <c r="Y42" s="80"/>
-      <c r="Z42" s="81"/>
+      <c r="X42" s="111"/>
+      <c r="Y42" s="111"/>
+      <c r="Z42" s="112"/>
     </row>
     <row r="43" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="C43" s="82">
+      <c r="C43" s="107">
         <v>36</v>
       </c>
-      <c r="D43" s="84"/>
-      <c r="E43" s="84">
+      <c r="D43" s="108"/>
+      <c r="E43" s="108">
         <v>41</v>
       </c>
-      <c r="F43" s="83"/>
-      <c r="H43" s="82">
+      <c r="F43" s="109"/>
+      <c r="H43" s="107">
         <v>36</v>
       </c>
-      <c r="I43" s="83"/>
-      <c r="J43" s="82">
+      <c r="I43" s="109"/>
+      <c r="J43" s="107">
         <v>41</v>
       </c>
-      <c r="K43" s="83"/>
-      <c r="M43" s="82">
+      <c r="K43" s="109"/>
+      <c r="M43" s="107">
         <v>36</v>
       </c>
-      <c r="N43" s="83"/>
-      <c r="O43" s="82">
+      <c r="N43" s="109"/>
+      <c r="O43" s="107">
         <v>41</v>
       </c>
-      <c r="P43" s="83"/>
-      <c r="R43" s="82">
+      <c r="P43" s="109"/>
+      <c r="R43" s="107">
         <v>36</v>
       </c>
-      <c r="S43" s="83"/>
-      <c r="T43" s="82">
+      <c r="S43" s="109"/>
+      <c r="T43" s="107">
         <v>41</v>
       </c>
-      <c r="U43" s="83"/>
-      <c r="W43" s="82">
+      <c r="U43" s="109"/>
+      <c r="W43" s="107">
         <v>36</v>
       </c>
-      <c r="X43" s="83"/>
-      <c r="Y43" s="82">
+      <c r="X43" s="109"/>
+      <c r="Y43" s="107">
         <v>41</v>
       </c>
-      <c r="Z43" s="83"/>
+      <c r="Z43" s="109"/>
     </row>
     <row r="44" spans="1:51" x14ac:dyDescent="0.35">
       <c r="B44" s="41"/>
@@ -7753,12 +7753,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="M42:P42"/>
-    <mergeCell ref="O43:P43"/>
     <mergeCell ref="W42:Z42"/>
     <mergeCell ref="W43:X43"/>
     <mergeCell ref="Y43:Z43"/>
@@ -7768,6 +7762,12 @@
     <mergeCell ref="R43:S43"/>
     <mergeCell ref="T43:U43"/>
     <mergeCell ref="R42:U42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="M42:P42"/>
+    <mergeCell ref="O43:P43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -8061,10 +8061,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W21"/>
+  <dimension ref="A1:U21"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U21" sqref="A1:U21"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="X13" sqref="X13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8073,85 +8073,85 @@
     <col min="2" max="21" width="4.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A1" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="79" t="s">
+      <c r="B1" s="110" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="79" t="s">
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="79" t="s">
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="110" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="112"/>
+      <c r="N1" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="79" t="s">
-        <v>8</v>
-      </c>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="79" t="s">
+      <c r="O1" s="111"/>
+      <c r="P1" s="111"/>
+      <c r="Q1" s="112"/>
+      <c r="R1" s="110" t="s">
         <v>28</v>
       </c>
-      <c r="S1" s="80"/>
-      <c r="T1" s="80"/>
-      <c r="U1" s="81"/>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="S1" s="111"/>
+      <c r="T1" s="111"/>
+      <c r="U1" s="112"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A2" s="68"/>
-      <c r="B2" s="87">
+      <c r="B2" s="113">
         <v>36</v>
       </c>
-      <c r="C2" s="86"/>
-      <c r="D2" s="85">
+      <c r="C2" s="114"/>
+      <c r="D2" s="115">
         <v>41</v>
       </c>
-      <c r="E2" s="86"/>
-      <c r="F2" s="87">
+      <c r="E2" s="114"/>
+      <c r="F2" s="113">
         <v>36</v>
       </c>
-      <c r="G2" s="86"/>
-      <c r="H2" s="85">
+      <c r="G2" s="114"/>
+      <c r="H2" s="115">
         <v>41</v>
       </c>
-      <c r="I2" s="86"/>
-      <c r="J2" s="87">
+      <c r="I2" s="114"/>
+      <c r="J2" s="113">
         <v>36</v>
       </c>
-      <c r="K2" s="86"/>
-      <c r="L2" s="85">
+      <c r="K2" s="114"/>
+      <c r="L2" s="115">
         <v>41</v>
       </c>
-      <c r="M2" s="86"/>
-      <c r="N2" s="87">
+      <c r="M2" s="114"/>
+      <c r="N2" s="113">
         <v>36</v>
       </c>
-      <c r="O2" s="86"/>
-      <c r="P2" s="85">
+      <c r="O2" s="114"/>
+      <c r="P2" s="115">
         <v>41</v>
       </c>
-      <c r="Q2" s="86"/>
-      <c r="R2" s="87">
+      <c r="Q2" s="114"/>
+      <c r="R2" s="113">
         <v>36</v>
       </c>
-      <c r="S2" s="86"/>
-      <c r="T2" s="85">
+      <c r="S2" s="114"/>
+      <c r="T2" s="115">
         <v>41</v>
       </c>
-      <c r="U2" s="86"/>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="U2" s="114"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3" s="73" t="s">
         <v>31</v>
       </c>
@@ -8216,831 +8216,813 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A4" s="88" t="s">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A4" s="79" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="89" t="s">
+      <c r="B4" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="90" t="s">
+      <c r="C4" s="81" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="89" t="s">
+      <c r="D4" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="90" t="s">
+      <c r="E4" s="81" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="91">
+      <c r="F4" s="82">
         <v>17</v>
       </c>
-      <c r="G4" s="92">
+      <c r="G4" s="83">
         <v>3</v>
       </c>
-      <c r="H4" s="93">
+      <c r="H4" s="84">
         <v>15</v>
       </c>
-      <c r="I4" s="92">
-        <v>2</v>
-      </c>
-      <c r="J4" s="91">
+      <c r="I4" s="83">
+        <v>2</v>
+      </c>
+      <c r="J4" s="82">
         <v>17</v>
       </c>
-      <c r="K4" s="92">
-        <v>2</v>
-      </c>
-      <c r="L4" s="93">
+      <c r="K4" s="83">
+        <v>3</v>
+      </c>
+      <c r="L4" s="84"/>
+      <c r="M4" s="83"/>
+      <c r="N4" s="82">
+        <v>17</v>
+      </c>
+      <c r="O4" s="83">
+        <v>2</v>
+      </c>
+      <c r="P4" s="84">
         <v>15</v>
       </c>
-      <c r="M4" s="92">
+      <c r="Q4" s="83">
         <v>5</v>
       </c>
-      <c r="N4" s="91">
+      <c r="R4" s="82">
         <v>17</v>
       </c>
-      <c r="O4" s="92">
+      <c r="S4" s="83">
+        <v>2</v>
+      </c>
+      <c r="T4" s="84">
+        <v>15</v>
+      </c>
+      <c r="U4" s="85">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A5" s="86" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="87">
+        <v>19</v>
+      </c>
+      <c r="C5" s="88">
+        <v>4</v>
+      </c>
+      <c r="D5" s="89"/>
+      <c r="E5" s="88"/>
+      <c r="F5" s="87">
+        <v>19</v>
+      </c>
+      <c r="G5" s="88">
+        <v>4</v>
+      </c>
+      <c r="H5" s="89"/>
+      <c r="I5" s="88"/>
+      <c r="J5" s="87">
+        <v>19</v>
+      </c>
+      <c r="K5" s="88">
+        <v>4</v>
+      </c>
+      <c r="L5" s="89"/>
+      <c r="M5" s="88"/>
+      <c r="N5" s="87"/>
+      <c r="O5" s="88"/>
+      <c r="P5" s="89">
         <v>3</v>
       </c>
-      <c r="P4" s="93"/>
-      <c r="Q4" s="92"/>
-      <c r="R4" s="91">
-        <v>17</v>
-      </c>
-      <c r="S4" s="92">
-        <v>2</v>
-      </c>
-      <c r="T4" s="93">
-        <v>15</v>
-      </c>
-      <c r="U4" s="94">
-        <v>2</v>
-      </c>
-      <c r="W4" s="10"/>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A5" s="95" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" s="96">
+      <c r="Q5" s="90">
+        <v>2</v>
+      </c>
+      <c r="R5" s="87">
         <v>19</v>
       </c>
-      <c r="C5" s="97">
+      <c r="S5" s="88">
+        <v>2</v>
+      </c>
+      <c r="T5" s="89">
+        <v>3</v>
+      </c>
+      <c r="U5" s="91">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A6" s="79" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="82">
+        <v>13</v>
+      </c>
+      <c r="C6" s="83">
+        <v>3</v>
+      </c>
+      <c r="D6" s="84">
+        <v>9</v>
+      </c>
+      <c r="E6" s="83">
+        <v>2</v>
+      </c>
+      <c r="F6" s="80" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="81" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="92" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="81" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" s="82">
+        <v>13</v>
+      </c>
+      <c r="K6" s="83">
+        <v>3</v>
+      </c>
+      <c r="L6" s="84">
+        <v>9</v>
+      </c>
+      <c r="M6" s="90">
+        <v>6</v>
+      </c>
+      <c r="N6" s="82"/>
+      <c r="O6" s="83"/>
+      <c r="P6" s="84">
+        <v>9</v>
+      </c>
+      <c r="Q6" s="83">
+        <v>2</v>
+      </c>
+      <c r="R6" s="82"/>
+      <c r="S6" s="83"/>
+      <c r="T6" s="84">
+        <v>9</v>
+      </c>
+      <c r="U6" s="85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A7" s="86" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="93">
         <v>4</v>
       </c>
-      <c r="D5" s="98"/>
-      <c r="E5" s="97"/>
-      <c r="F5" s="96">
-        <v>19</v>
-      </c>
-      <c r="G5" s="97">
-        <v>4</v>
-      </c>
-      <c r="H5" s="98"/>
-      <c r="I5" s="97"/>
-      <c r="J5" s="96"/>
-      <c r="K5" s="97"/>
-      <c r="L5" s="98">
+      <c r="C7" s="90">
+        <v>2</v>
+      </c>
+      <c r="D7" s="94">
+        <v>16</v>
+      </c>
+      <c r="E7" s="95">
+        <v>5</v>
+      </c>
+      <c r="F7" s="93"/>
+      <c r="G7" s="95"/>
+      <c r="H7" s="94">
+        <v>16</v>
+      </c>
+      <c r="I7" s="88">
+        <v>2</v>
+      </c>
+      <c r="J7" s="93"/>
+      <c r="K7" s="95"/>
+      <c r="L7" s="94">
+        <v>16</v>
+      </c>
+      <c r="M7" s="88">
         <v>3</v>
       </c>
-      <c r="M5" s="99">
-        <v>2</v>
-      </c>
-      <c r="N5" s="96">
-        <v>19</v>
-      </c>
-      <c r="O5" s="97">
-        <v>4</v>
-      </c>
-      <c r="P5" s="98"/>
-      <c r="Q5" s="97"/>
-      <c r="R5" s="96">
-        <v>19</v>
-      </c>
-      <c r="S5" s="97">
-        <v>2</v>
-      </c>
-      <c r="T5" s="98">
+      <c r="N7" s="96" t="s">
+        <v>29</v>
+      </c>
+      <c r="O7" s="97" t="s">
+        <v>29</v>
+      </c>
+      <c r="P7" s="98" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q7" s="97" t="s">
+        <v>29</v>
+      </c>
+      <c r="R7" s="93"/>
+      <c r="S7" s="95"/>
+      <c r="T7" s="94">
+        <v>16</v>
+      </c>
+      <c r="U7" s="99">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A8" s="79" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="82">
+        <v>7</v>
+      </c>
+      <c r="C8" s="83">
         <v>3</v>
       </c>
-      <c r="U5" s="100">
-        <v>2</v>
-      </c>
-      <c r="W5" s="10"/>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A6" s="88" t="s">
+      <c r="D8" s="84">
+        <v>11</v>
+      </c>
+      <c r="E8" s="83">
+        <v>3</v>
+      </c>
+      <c r="F8" s="82">
         <v>7</v>
       </c>
-      <c r="B6" s="91">
-        <v>13</v>
-      </c>
-      <c r="C6" s="92">
+      <c r="G8" s="83">
         <v>3</v>
       </c>
-      <c r="D6" s="93">
-        <v>9</v>
-      </c>
-      <c r="E6" s="92">
-        <v>2</v>
-      </c>
-      <c r="F6" s="89" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" s="90" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" s="101" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6" s="90" t="s">
-        <v>29</v>
-      </c>
-      <c r="J6" s="91"/>
-      <c r="K6" s="92"/>
-      <c r="L6" s="93">
-        <v>9</v>
-      </c>
-      <c r="M6" s="92">
-        <v>2</v>
-      </c>
-      <c r="N6" s="91">
-        <v>13</v>
-      </c>
-      <c r="O6" s="92">
-        <v>3</v>
-      </c>
-      <c r="P6" s="93">
-        <v>9</v>
-      </c>
-      <c r="Q6" s="99">
-        <v>6</v>
-      </c>
-      <c r="R6" s="91"/>
-      <c r="S6" s="92"/>
-      <c r="T6" s="93">
-        <v>9</v>
-      </c>
-      <c r="U6" s="94">
-        <v>1</v>
-      </c>
-      <c r="W6" s="10"/>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A7" s="95" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="102">
-        <v>4</v>
-      </c>
-      <c r="C7" s="99">
-        <v>2</v>
-      </c>
-      <c r="D7" s="103">
-        <v>16</v>
-      </c>
-      <c r="E7" s="104">
-        <v>5</v>
-      </c>
-      <c r="F7" s="102"/>
-      <c r="G7" s="104"/>
-      <c r="H7" s="103">
-        <v>16</v>
-      </c>
-      <c r="I7" s="97">
-        <v>2</v>
-      </c>
-      <c r="J7" s="105" t="s">
-        <v>29</v>
-      </c>
-      <c r="K7" s="106" t="s">
-        <v>29</v>
-      </c>
-      <c r="L7" s="107" t="s">
-        <v>29</v>
-      </c>
-      <c r="M7" s="106" t="s">
-        <v>29</v>
-      </c>
-      <c r="N7" s="102"/>
-      <c r="O7" s="104"/>
-      <c r="P7" s="103">
-        <v>16</v>
-      </c>
-      <c r="Q7" s="97">
-        <v>3</v>
-      </c>
-      <c r="R7" s="102"/>
-      <c r="S7" s="104"/>
-      <c r="T7" s="103">
-        <v>16</v>
-      </c>
-      <c r="U7" s="108">
-        <v>2</v>
-      </c>
-      <c r="W7" s="10"/>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A8" s="88" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="91">
-        <v>7</v>
-      </c>
-      <c r="C8" s="92">
-        <v>3</v>
-      </c>
-      <c r="D8" s="93">
-        <v>11</v>
-      </c>
-      <c r="E8" s="92">
-        <v>3</v>
-      </c>
-      <c r="F8" s="91">
-        <v>7</v>
-      </c>
-      <c r="G8" s="92">
-        <v>3</v>
-      </c>
-      <c r="H8" s="93">
+      <c r="H8" s="84">
         <v>11</v>
       </c>
       <c r="I8" s="71">
         <v>6</v>
       </c>
-      <c r="J8" s="91"/>
-      <c r="K8" s="92"/>
-      <c r="L8" s="93">
+      <c r="J8" s="80" t="s">
+        <v>29</v>
+      </c>
+      <c r="K8" s="81" t="s">
+        <v>29</v>
+      </c>
+      <c r="L8" s="92" t="s">
+        <v>29</v>
+      </c>
+      <c r="M8" s="81" t="s">
+        <v>29</v>
+      </c>
+      <c r="N8" s="82"/>
+      <c r="O8" s="83"/>
+      <c r="P8" s="84">
         <v>11</v>
       </c>
-      <c r="M8" s="92">
+      <c r="Q8" s="83">
         <v>3</v>
       </c>
-      <c r="N8" s="89" t="s">
+      <c r="R8" s="82"/>
+      <c r="S8" s="83"/>
+      <c r="T8" s="84"/>
+      <c r="U8" s="85"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A9" s="86" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="93">
+        <v>10</v>
+      </c>
+      <c r="C9" s="95">
+        <v>2</v>
+      </c>
+      <c r="D9" s="94">
+        <v>7</v>
+      </c>
+      <c r="E9" s="95">
+        <v>2</v>
+      </c>
+      <c r="F9" s="93"/>
+      <c r="G9" s="95"/>
+      <c r="H9" s="94">
+        <v>7</v>
+      </c>
+      <c r="I9" s="95">
+        <v>1</v>
+      </c>
+      <c r="J9" s="93"/>
+      <c r="K9" s="95"/>
+      <c r="L9" s="94"/>
+      <c r="M9" s="95"/>
+      <c r="N9" s="93"/>
+      <c r="O9" s="95"/>
+      <c r="P9" s="94">
+        <v>7</v>
+      </c>
+      <c r="Q9" s="95">
+        <v>2</v>
+      </c>
+      <c r="R9" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="O8" s="90" t="s">
+      <c r="S9" s="97" t="s">
         <v>29</v>
       </c>
-      <c r="P8" s="101" t="s">
+      <c r="T9" s="98" t="s">
         <v>29</v>
       </c>
-      <c r="Q8" s="90" t="s">
+      <c r="U9" s="100" t="s">
         <v>29</v>
       </c>
-      <c r="R8" s="91"/>
-      <c r="S8" s="92"/>
-      <c r="T8" s="93"/>
-      <c r="U8" s="94"/>
-      <c r="W8" s="10"/>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A9" s="95" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="102">
-        <v>10</v>
-      </c>
-      <c r="C9" s="104">
-        <v>2</v>
-      </c>
-      <c r="D9" s="103">
-        <v>7</v>
-      </c>
-      <c r="E9" s="104">
-        <v>2</v>
-      </c>
-      <c r="F9" s="102"/>
-      <c r="G9" s="104"/>
-      <c r="H9" s="103">
-        <v>7</v>
-      </c>
-      <c r="I9" s="104">
-        <v>1</v>
-      </c>
-      <c r="J9" s="102"/>
-      <c r="K9" s="104"/>
-      <c r="L9" s="103">
-        <v>7</v>
-      </c>
-      <c r="M9" s="104">
-        <v>2</v>
-      </c>
-      <c r="N9" s="102"/>
-      <c r="O9" s="104"/>
-      <c r="P9" s="103"/>
-      <c r="Q9" s="104"/>
-      <c r="R9" s="105" t="s">
-        <v>29</v>
-      </c>
-      <c r="S9" s="106" t="s">
-        <v>29</v>
-      </c>
-      <c r="T9" s="107" t="s">
-        <v>29</v>
-      </c>
-      <c r="U9" s="109" t="s">
-        <v>29</v>
-      </c>
-      <c r="W9" s="10"/>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A10" s="88" t="s">
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A10" s="79" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="91">
+      <c r="B10" s="82">
         <v>9</v>
       </c>
-      <c r="C10" s="92">
+      <c r="C10" s="83">
         <v>3</v>
       </c>
-      <c r="D10" s="93">
+      <c r="D10" s="84">
         <v>4</v>
       </c>
-      <c r="E10" s="92">
-        <v>1</v>
-      </c>
-      <c r="F10" s="91"/>
-      <c r="G10" s="92"/>
-      <c r="H10" s="93">
+      <c r="E10" s="83">
+        <v>1</v>
+      </c>
+      <c r="F10" s="82"/>
+      <c r="G10" s="83"/>
+      <c r="H10" s="84">
         <v>4</v>
       </c>
-      <c r="I10" s="99">
-        <v>2</v>
-      </c>
-      <c r="J10" s="91"/>
-      <c r="K10" s="92"/>
-      <c r="L10" s="93">
+      <c r="I10" s="90">
+        <v>2</v>
+      </c>
+      <c r="J10" s="82">
+        <v>9</v>
+      </c>
+      <c r="K10" s="83">
+        <v>2</v>
+      </c>
+      <c r="L10" s="84">
         <v>4</v>
       </c>
-      <c r="M10" s="99">
+      <c r="M10" s="90">
         <v>3</v>
       </c>
-      <c r="N10" s="91">
+      <c r="N10" s="82"/>
+      <c r="O10" s="83"/>
+      <c r="P10" s="84">
+        <v>4</v>
+      </c>
+      <c r="Q10" s="90">
+        <v>3</v>
+      </c>
+      <c r="R10" s="82">
         <v>9</v>
       </c>
-      <c r="O10" s="92">
-        <v>2</v>
-      </c>
-      <c r="P10" s="93">
+      <c r="S10" s="83">
+        <v>3</v>
+      </c>
+      <c r="T10" s="84"/>
+      <c r="U10" s="85"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A11" s="86" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="93">
+        <v>8</v>
+      </c>
+      <c r="C11" s="90">
         <v>4</v>
       </c>
-      <c r="Q10" s="99">
+      <c r="D11" s="94">
+        <v>2</v>
+      </c>
+      <c r="E11" s="88">
+        <v>1</v>
+      </c>
+      <c r="F11" s="93"/>
+      <c r="G11" s="95"/>
+      <c r="H11" s="94">
+        <v>2</v>
+      </c>
+      <c r="I11" s="95">
+        <v>2</v>
+      </c>
+      <c r="J11" s="93">
+        <v>8</v>
+      </c>
+      <c r="K11" s="95">
+        <v>2</v>
+      </c>
+      <c r="L11" s="94">
+        <v>2</v>
+      </c>
+      <c r="M11" s="95">
+        <v>1</v>
+      </c>
+      <c r="N11" s="93"/>
+      <c r="O11" s="95"/>
+      <c r="P11" s="94"/>
+      <c r="Q11" s="95"/>
+      <c r="R11" s="93">
+        <v>8</v>
+      </c>
+      <c r="S11" s="95">
+        <v>2</v>
+      </c>
+      <c r="T11" s="94"/>
+      <c r="U11" s="99"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A12" s="79" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="82"/>
+      <c r="C12" s="83"/>
+      <c r="D12" s="84">
+        <v>4</v>
+      </c>
+      <c r="E12" s="83">
+        <v>2</v>
+      </c>
+      <c r="F12" s="82">
+        <v>5</v>
+      </c>
+      <c r="G12" s="83">
+        <v>1</v>
+      </c>
+      <c r="H12" s="84">
+        <v>4</v>
+      </c>
+      <c r="I12" s="90">
+        <v>4</v>
+      </c>
+      <c r="J12" s="82"/>
+      <c r="K12" s="83"/>
+      <c r="L12" s="84">
+        <v>4</v>
+      </c>
+      <c r="M12" s="90">
         <v>3</v>
       </c>
-      <c r="R10" s="91">
-        <v>9</v>
-      </c>
-      <c r="S10" s="92">
+      <c r="N12" s="82"/>
+      <c r="O12" s="83"/>
+      <c r="P12" s="84"/>
+      <c r="Q12" s="83"/>
+      <c r="R12" s="82"/>
+      <c r="S12" s="83"/>
+      <c r="T12" s="84"/>
+      <c r="U12" s="85"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A13" s="86" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="87">
+        <v>6</v>
+      </c>
+      <c r="C13" s="88">
+        <v>2</v>
+      </c>
+      <c r="D13" s="89"/>
+      <c r="E13" s="88"/>
+      <c r="F13" s="87">
+        <v>6</v>
+      </c>
+      <c r="G13" s="88">
+        <v>1</v>
+      </c>
+      <c r="H13" s="89">
+        <v>2</v>
+      </c>
+      <c r="I13" s="88">
+        <v>1</v>
+      </c>
+      <c r="J13" s="87"/>
+      <c r="K13" s="88"/>
+      <c r="L13" s="89"/>
+      <c r="M13" s="88"/>
+      <c r="N13" s="87"/>
+      <c r="O13" s="88"/>
+      <c r="P13" s="89">
+        <v>2</v>
+      </c>
+      <c r="Q13" s="88">
+        <v>2</v>
+      </c>
+      <c r="R13" s="87">
+        <v>6</v>
+      </c>
+      <c r="S13" s="90">
         <v>3</v>
       </c>
-      <c r="T10" s="93"/>
-      <c r="U10" s="94"/>
-      <c r="W10" s="10"/>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A11" s="95" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" s="102">
-        <v>8</v>
-      </c>
-      <c r="C11" s="99">
-        <v>4</v>
-      </c>
-      <c r="D11" s="103">
-        <v>2</v>
-      </c>
-      <c r="E11" s="97">
-        <v>1</v>
-      </c>
-      <c r="F11" s="102"/>
-      <c r="G11" s="104"/>
-      <c r="H11" s="103">
-        <v>2</v>
-      </c>
-      <c r="I11" s="104">
-        <v>2</v>
-      </c>
-      <c r="J11" s="102"/>
-      <c r="K11" s="104"/>
-      <c r="L11" s="103"/>
-      <c r="M11" s="104"/>
-      <c r="N11" s="102">
-        <v>8</v>
-      </c>
-      <c r="O11" s="104">
-        <v>2</v>
-      </c>
-      <c r="P11" s="103">
-        <v>2</v>
-      </c>
-      <c r="Q11" s="104">
-        <v>1</v>
-      </c>
-      <c r="R11" s="102">
-        <v>8</v>
-      </c>
-      <c r="S11" s="104">
-        <v>2</v>
-      </c>
-      <c r="T11" s="103"/>
-      <c r="U11" s="108"/>
-      <c r="W11" s="10"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A12" s="88" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" s="91"/>
-      <c r="C12" s="92"/>
-      <c r="D12" s="93">
-        <v>4</v>
-      </c>
-      <c r="E12" s="92">
-        <v>2</v>
-      </c>
-      <c r="F12" s="91">
+      <c r="T13" s="89"/>
+      <c r="U13" s="101"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A14" s="79" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="82">
+        <v>3</v>
+      </c>
+      <c r="C14" s="83">
+        <v>1</v>
+      </c>
+      <c r="D14" s="84">
+        <v>3</v>
+      </c>
+      <c r="E14" s="90">
+        <v>2</v>
+      </c>
+      <c r="F14" s="82">
+        <v>3</v>
+      </c>
+      <c r="G14" s="83">
+        <v>1</v>
+      </c>
+      <c r="H14" s="84">
+        <v>3</v>
+      </c>
+      <c r="I14" s="90">
+        <v>2</v>
+      </c>
+      <c r="J14" s="82"/>
+      <c r="K14" s="83"/>
+      <c r="L14" s="84">
+        <v>3</v>
+      </c>
+      <c r="M14" s="83">
+        <v>1</v>
+      </c>
+      <c r="N14" s="82"/>
+      <c r="O14" s="83"/>
+      <c r="P14" s="84"/>
+      <c r="Q14" s="83"/>
+      <c r="R14" s="82">
+        <v>3</v>
+      </c>
+      <c r="S14" s="83">
+        <v>1</v>
+      </c>
+      <c r="T14" s="84">
+        <v>3</v>
+      </c>
+      <c r="U14" s="85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A15" s="86" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="87">
+        <v>1</v>
+      </c>
+      <c r="C15" s="88">
+        <v>1</v>
+      </c>
+      <c r="D15" s="89">
+        <v>3</v>
+      </c>
+      <c r="E15" s="88">
+        <v>1</v>
+      </c>
+      <c r="F15" s="87"/>
+      <c r="G15" s="88"/>
+      <c r="H15" s="89">
+        <v>3</v>
+      </c>
+      <c r="I15" s="88">
+        <v>1</v>
+      </c>
+      <c r="J15" s="87"/>
+      <c r="K15" s="88"/>
+      <c r="L15" s="89"/>
+      <c r="M15" s="88"/>
+      <c r="N15" s="87"/>
+      <c r="O15" s="88"/>
+      <c r="P15" s="89">
+        <v>3</v>
+      </c>
+      <c r="Q15" s="88">
+        <v>1</v>
+      </c>
+      <c r="R15" s="87"/>
+      <c r="S15" s="88"/>
+      <c r="T15" s="89"/>
+      <c r="U15" s="101"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A16" s="79" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="82">
+        <v>1</v>
+      </c>
+      <c r="C16" s="83">
+        <v>1</v>
+      </c>
+      <c r="D16" s="84"/>
+      <c r="E16" s="83"/>
+      <c r="F16" s="82"/>
+      <c r="G16" s="83"/>
+      <c r="H16" s="84">
+        <v>2</v>
+      </c>
+      <c r="I16" s="83">
+        <v>1</v>
+      </c>
+      <c r="J16" s="82"/>
+      <c r="K16" s="83"/>
+      <c r="L16" s="84"/>
+      <c r="M16" s="83"/>
+      <c r="N16" s="82"/>
+      <c r="O16" s="83"/>
+      <c r="P16" s="84"/>
+      <c r="Q16" s="83"/>
+      <c r="R16" s="82">
+        <v>1</v>
+      </c>
+      <c r="S16" s="83">
+        <v>1</v>
+      </c>
+      <c r="T16" s="84"/>
+      <c r="U16" s="85"/>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A17" s="86" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="93"/>
+      <c r="C17" s="95"/>
+      <c r="D17" s="94"/>
+      <c r="E17" s="95"/>
+      <c r="F17" s="93"/>
+      <c r="G17" s="95"/>
+      <c r="H17" s="94">
+        <v>3</v>
+      </c>
+      <c r="I17" s="95">
+        <v>1</v>
+      </c>
+      <c r="J17" s="93"/>
+      <c r="K17" s="95"/>
+      <c r="L17" s="94"/>
+      <c r="M17" s="95"/>
+      <c r="N17" s="93"/>
+      <c r="O17" s="95"/>
+      <c r="P17" s="94"/>
+      <c r="Q17" s="95"/>
+      <c r="R17" s="93"/>
+      <c r="S17" s="95"/>
+      <c r="T17" s="94"/>
+      <c r="U17" s="99"/>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A18" s="79" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="82"/>
+      <c r="C18" s="83"/>
+      <c r="D18" s="84"/>
+      <c r="E18" s="83"/>
+      <c r="F18" s="82"/>
+      <c r="G18" s="83"/>
+      <c r="H18" s="84"/>
+      <c r="I18" s="83"/>
+      <c r="J18" s="82"/>
+      <c r="K18" s="83"/>
+      <c r="L18" s="84"/>
+      <c r="M18" s="83"/>
+      <c r="N18" s="82"/>
+      <c r="O18" s="83"/>
+      <c r="P18" s="84"/>
+      <c r="Q18" s="83"/>
+      <c r="R18" s="82"/>
+      <c r="S18" s="83"/>
+      <c r="T18" s="84"/>
+      <c r="U18" s="85"/>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A19" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="G12" s="92">
-        <v>1</v>
-      </c>
-      <c r="H12" s="93">
-        <v>4</v>
-      </c>
-      <c r="I12" s="99">
-        <v>4</v>
-      </c>
-      <c r="J12" s="91"/>
-      <c r="K12" s="92"/>
-      <c r="L12" s="93"/>
-      <c r="M12" s="92"/>
-      <c r="N12" s="91"/>
-      <c r="O12" s="92"/>
-      <c r="P12" s="93">
-        <v>4</v>
-      </c>
-      <c r="Q12" s="99">
+      <c r="B19" s="87">
+        <v>2</v>
+      </c>
+      <c r="C19" s="88">
+        <v>1</v>
+      </c>
+      <c r="D19" s="89"/>
+      <c r="E19" s="88"/>
+      <c r="F19" s="87">
+        <v>2</v>
+      </c>
+      <c r="G19" s="88">
+        <v>2</v>
+      </c>
+      <c r="H19" s="89"/>
+      <c r="I19" s="88"/>
+      <c r="J19" s="87"/>
+      <c r="K19" s="88"/>
+      <c r="L19" s="89"/>
+      <c r="M19" s="88"/>
+      <c r="N19" s="87"/>
+      <c r="O19" s="88"/>
+      <c r="P19" s="89"/>
+      <c r="Q19" s="88"/>
+      <c r="R19" s="87"/>
+      <c r="S19" s="88"/>
+      <c r="T19" s="89"/>
+      <c r="U19" s="101"/>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A20" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="R12" s="91"/>
-      <c r="S12" s="92"/>
-      <c r="T12" s="93"/>
-      <c r="U12" s="94"/>
-      <c r="W12" s="10"/>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A13" s="95" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="96">
-        <v>6</v>
-      </c>
-      <c r="C13" s="97">
-        <v>2</v>
-      </c>
-      <c r="D13" s="98"/>
-      <c r="E13" s="97"/>
-      <c r="F13" s="96">
-        <v>6</v>
-      </c>
-      <c r="G13" s="97">
-        <v>1</v>
-      </c>
-      <c r="H13" s="98">
-        <v>2</v>
-      </c>
-      <c r="I13" s="97">
-        <v>1</v>
-      </c>
-      <c r="J13" s="96"/>
-      <c r="K13" s="97"/>
-      <c r="L13" s="98">
-        <v>2</v>
-      </c>
-      <c r="M13" s="97">
-        <v>2</v>
-      </c>
-      <c r="N13" s="96"/>
-      <c r="O13" s="97"/>
-      <c r="P13" s="98"/>
-      <c r="Q13" s="97"/>
-      <c r="R13" s="96">
-        <v>6</v>
-      </c>
-      <c r="S13" s="99">
-        <v>3</v>
-      </c>
-      <c r="T13" s="98"/>
-      <c r="U13" s="110"/>
-      <c r="W13" s="10"/>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A14" s="88" t="s">
-        <v>1</v>
-      </c>
-      <c r="B14" s="91">
-        <v>3</v>
-      </c>
-      <c r="C14" s="92">
-        <v>1</v>
-      </c>
-      <c r="D14" s="93">
-        <v>3</v>
-      </c>
-      <c r="E14" s="99">
-        <v>2</v>
-      </c>
-      <c r="F14" s="91">
-        <v>3</v>
-      </c>
-      <c r="G14" s="92">
-        <v>1</v>
-      </c>
-      <c r="H14" s="93">
-        <v>3</v>
-      </c>
-      <c r="I14" s="99">
-        <v>2</v>
-      </c>
-      <c r="J14" s="91"/>
-      <c r="K14" s="92"/>
-      <c r="L14" s="93"/>
-      <c r="M14" s="92"/>
-      <c r="N14" s="91"/>
-      <c r="O14" s="92"/>
-      <c r="P14" s="93">
-        <v>3</v>
-      </c>
-      <c r="Q14" s="92">
-        <v>1</v>
-      </c>
-      <c r="R14" s="91">
-        <v>3</v>
-      </c>
-      <c r="S14" s="92">
-        <v>1</v>
-      </c>
-      <c r="T14" s="93">
-        <v>3</v>
-      </c>
-      <c r="U14" s="94">
-        <v>1</v>
-      </c>
-      <c r="W14" s="10"/>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A15" s="95" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="96">
-        <v>1</v>
-      </c>
-      <c r="C15" s="97">
-        <v>1</v>
-      </c>
-      <c r="D15" s="98">
-        <v>3</v>
-      </c>
-      <c r="E15" s="97">
-        <v>1</v>
-      </c>
-      <c r="F15" s="96"/>
-      <c r="G15" s="97"/>
-      <c r="H15" s="98">
-        <v>3</v>
-      </c>
-      <c r="I15" s="97">
-        <v>1</v>
-      </c>
-      <c r="J15" s="96"/>
-      <c r="K15" s="97"/>
-      <c r="L15" s="98">
-        <v>3</v>
-      </c>
-      <c r="M15" s="97">
-        <v>1</v>
-      </c>
-      <c r="N15" s="96"/>
-      <c r="O15" s="97"/>
-      <c r="P15" s="98"/>
-      <c r="Q15" s="97"/>
-      <c r="R15" s="96"/>
-      <c r="S15" s="97"/>
-      <c r="T15" s="98"/>
-      <c r="U15" s="110"/>
-      <c r="W15" s="10"/>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A16" s="88" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" s="91">
-        <v>1</v>
-      </c>
-      <c r="C16" s="92">
-        <v>1</v>
-      </c>
-      <c r="D16" s="93"/>
-      <c r="E16" s="92"/>
-      <c r="F16" s="91"/>
-      <c r="G16" s="92"/>
-      <c r="H16" s="93">
-        <v>2</v>
-      </c>
-      <c r="I16" s="92">
-        <v>1</v>
-      </c>
-      <c r="J16" s="91"/>
-      <c r="K16" s="92"/>
-      <c r="L16" s="93"/>
-      <c r="M16" s="92"/>
-      <c r="N16" s="91"/>
-      <c r="O16" s="92"/>
-      <c r="P16" s="93"/>
-      <c r="Q16" s="92"/>
-      <c r="R16" s="91">
-        <v>1</v>
-      </c>
-      <c r="S16" s="92">
-        <v>1</v>
-      </c>
-      <c r="T16" s="93"/>
-      <c r="U16" s="94"/>
-      <c r="W16" s="10"/>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A17" s="95" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="102"/>
-      <c r="C17" s="104"/>
-      <c r="D17" s="103"/>
-      <c r="E17" s="104"/>
-      <c r="F17" s="102"/>
-      <c r="G17" s="104"/>
-      <c r="H17" s="103">
-        <v>3</v>
-      </c>
-      <c r="I17" s="104">
-        <v>1</v>
-      </c>
-      <c r="J17" s="102"/>
-      <c r="K17" s="104"/>
-      <c r="L17" s="103"/>
-      <c r="M17" s="104"/>
-      <c r="N17" s="102"/>
-      <c r="O17" s="104"/>
-      <c r="P17" s="103"/>
-      <c r="Q17" s="104"/>
-      <c r="R17" s="102"/>
-      <c r="S17" s="104"/>
-      <c r="T17" s="103"/>
-      <c r="U17" s="108"/>
-      <c r="W17" s="10"/>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A18" s="88" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" s="91"/>
-      <c r="C18" s="92"/>
-      <c r="D18" s="93"/>
-      <c r="E18" s="92"/>
-      <c r="F18" s="91"/>
-      <c r="G18" s="92"/>
-      <c r="H18" s="93"/>
-      <c r="I18" s="92"/>
-      <c r="J18" s="91"/>
-      <c r="K18" s="92"/>
-      <c r="L18" s="93"/>
-      <c r="M18" s="92"/>
-      <c r="N18" s="91"/>
-      <c r="O18" s="92"/>
-      <c r="P18" s="93"/>
-      <c r="Q18" s="92"/>
-      <c r="R18" s="91"/>
-      <c r="S18" s="92"/>
-      <c r="T18" s="93"/>
-      <c r="U18" s="94"/>
-      <c r="W18" s="10"/>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A19" s="95" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="96">
-        <v>2</v>
-      </c>
-      <c r="C19" s="97">
-        <v>1</v>
-      </c>
-      <c r="D19" s="98"/>
-      <c r="E19" s="97"/>
-      <c r="F19" s="96">
-        <v>2</v>
-      </c>
-      <c r="G19" s="97">
-        <v>2</v>
-      </c>
-      <c r="H19" s="98"/>
-      <c r="I19" s="97"/>
-      <c r="J19" s="96"/>
-      <c r="K19" s="97"/>
-      <c r="L19" s="98"/>
-      <c r="M19" s="97"/>
-      <c r="N19" s="96"/>
-      <c r="O19" s="97"/>
-      <c r="P19" s="98"/>
-      <c r="Q19" s="97"/>
-      <c r="R19" s="96"/>
-      <c r="S19" s="97"/>
-      <c r="T19" s="98"/>
-      <c r="U19" s="110"/>
-      <c r="W19" s="10"/>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A20" s="88" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" s="91">
-        <v>1</v>
-      </c>
-      <c r="C20" s="92">
-        <v>1</v>
-      </c>
-      <c r="D20" s="93"/>
-      <c r="E20" s="92"/>
-      <c r="F20" s="91"/>
-      <c r="G20" s="92"/>
-      <c r="H20" s="93"/>
-      <c r="I20" s="92"/>
-      <c r="J20" s="91"/>
-      <c r="K20" s="92"/>
-      <c r="L20" s="93"/>
-      <c r="M20" s="92"/>
-      <c r="N20" s="91"/>
-      <c r="O20" s="92"/>
-      <c r="P20" s="93"/>
-      <c r="Q20" s="92"/>
-      <c r="R20" s="91">
-        <v>1</v>
-      </c>
-      <c r="S20" s="92">
-        <v>1</v>
-      </c>
-      <c r="T20" s="93"/>
-      <c r="U20" s="94"/>
-      <c r="W20" s="10"/>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A21" s="111" t="s">
+      <c r="B20" s="82">
+        <v>1</v>
+      </c>
+      <c r="C20" s="83">
+        <v>1</v>
+      </c>
+      <c r="D20" s="84"/>
+      <c r="E20" s="83"/>
+      <c r="F20" s="82"/>
+      <c r="G20" s="83"/>
+      <c r="H20" s="84"/>
+      <c r="I20" s="83"/>
+      <c r="J20" s="82"/>
+      <c r="K20" s="83"/>
+      <c r="L20" s="84"/>
+      <c r="M20" s="83"/>
+      <c r="N20" s="82"/>
+      <c r="O20" s="83"/>
+      <c r="P20" s="84"/>
+      <c r="Q20" s="83"/>
+      <c r="R20" s="82">
+        <v>1</v>
+      </c>
+      <c r="S20" s="83">
+        <v>1</v>
+      </c>
+      <c r="T20" s="84"/>
+      <c r="U20" s="85"/>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A21" s="102" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="112"/>
-      <c r="C21" s="113"/>
-      <c r="D21" s="114"/>
-      <c r="E21" s="113"/>
-      <c r="F21" s="112"/>
-      <c r="G21" s="113"/>
-      <c r="H21" s="114"/>
-      <c r="I21" s="113"/>
-      <c r="J21" s="112"/>
-      <c r="K21" s="113"/>
-      <c r="L21" s="114"/>
-      <c r="M21" s="113"/>
-      <c r="N21" s="112"/>
-      <c r="O21" s="113"/>
-      <c r="P21" s="114"/>
-      <c r="Q21" s="113"/>
-      <c r="R21" s="112">
-        <v>1</v>
-      </c>
-      <c r="S21" s="113">
-        <v>1</v>
-      </c>
-      <c r="T21" s="114"/>
-      <c r="U21" s="115"/>
-      <c r="W21" s="10"/>
+      <c r="B21" s="103"/>
+      <c r="C21" s="104"/>
+      <c r="D21" s="105"/>
+      <c r="E21" s="104"/>
+      <c r="F21" s="103"/>
+      <c r="G21" s="104"/>
+      <c r="H21" s="105"/>
+      <c r="I21" s="104"/>
+      <c r="J21" s="103"/>
+      <c r="K21" s="104"/>
+      <c r="L21" s="105"/>
+      <c r="M21" s="104"/>
+      <c r="N21" s="103"/>
+      <c r="O21" s="104"/>
+      <c r="P21" s="105"/>
+      <c r="Q21" s="104"/>
+      <c r="R21" s="103">
+        <v>1</v>
+      </c>
+      <c r="S21" s="104">
+        <v>1</v>
+      </c>
+      <c r="T21" s="105"/>
+      <c r="U21" s="106"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="R1:U1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="R1:U1"/>
-    <mergeCell ref="L2:M2"/>
     <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="T2:U2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -9052,7 +9034,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:D19"/>
     </sheetView>
   </sheetViews>

--- a/Findings.xlsx
+++ b/Findings.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="41">
   <si>
     <t>Farbe</t>
   </si>
@@ -148,12 +148,15 @@
   <si>
     <t>Kategorien</t>
   </si>
+  <si>
+    <t>Simultanzen</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -171,6 +174,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -494,7 +505,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -766,18 +777,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -790,7 +789,19 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -798,9 +809,37 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3273,13 +3312,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>22412</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>14941</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>179295</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6721,78 +6760,78 @@
       </c>
     </row>
     <row r="42" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="C42" s="110" t="s">
+      <c r="C42" s="107" t="s">
         <v>24</v>
       </c>
-      <c r="D42" s="111"/>
-      <c r="E42" s="111"/>
-      <c r="F42" s="112"/>
-      <c r="H42" s="110" t="s">
+      <c r="D42" s="108"/>
+      <c r="E42" s="108"/>
+      <c r="F42" s="109"/>
+      <c r="H42" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="I42" s="111"/>
-      <c r="J42" s="111"/>
-      <c r="K42" s="112"/>
-      <c r="M42" s="110" t="s">
+      <c r="I42" s="108"/>
+      <c r="J42" s="108"/>
+      <c r="K42" s="109"/>
+      <c r="M42" s="107" t="s">
         <v>13</v>
       </c>
-      <c r="N42" s="111"/>
-      <c r="O42" s="111"/>
-      <c r="P42" s="112"/>
-      <c r="R42" s="110" t="s">
+      <c r="N42" s="108"/>
+      <c r="O42" s="108"/>
+      <c r="P42" s="109"/>
+      <c r="R42" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="S42" s="111"/>
-      <c r="T42" s="111"/>
-      <c r="U42" s="112"/>
-      <c r="W42" s="110" t="s">
+      <c r="S42" s="108"/>
+      <c r="T42" s="108"/>
+      <c r="U42" s="109"/>
+      <c r="W42" s="107" t="s">
         <v>28</v>
       </c>
-      <c r="X42" s="111"/>
-      <c r="Y42" s="111"/>
-      <c r="Z42" s="112"/>
+      <c r="X42" s="108"/>
+      <c r="Y42" s="108"/>
+      <c r="Z42" s="109"/>
     </row>
     <row r="43" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="C43" s="107">
+      <c r="C43" s="110">
         <v>36</v>
       </c>
-      <c r="D43" s="108"/>
-      <c r="E43" s="108">
+      <c r="D43" s="112"/>
+      <c r="E43" s="112">
         <v>41</v>
       </c>
-      <c r="F43" s="109"/>
-      <c r="H43" s="107">
+      <c r="F43" s="111"/>
+      <c r="H43" s="110">
         <v>36</v>
       </c>
-      <c r="I43" s="109"/>
-      <c r="J43" s="107">
+      <c r="I43" s="111"/>
+      <c r="J43" s="110">
         <v>41</v>
       </c>
-      <c r="K43" s="109"/>
-      <c r="M43" s="107">
+      <c r="K43" s="111"/>
+      <c r="M43" s="110">
         <v>36</v>
       </c>
-      <c r="N43" s="109"/>
-      <c r="O43" s="107">
+      <c r="N43" s="111"/>
+      <c r="O43" s="110">
         <v>41</v>
       </c>
-      <c r="P43" s="109"/>
-      <c r="R43" s="107">
+      <c r="P43" s="111"/>
+      <c r="R43" s="110">
         <v>36</v>
       </c>
-      <c r="S43" s="109"/>
-      <c r="T43" s="107">
+      <c r="S43" s="111"/>
+      <c r="T43" s="110">
         <v>41</v>
       </c>
-      <c r="U43" s="109"/>
-      <c r="W43" s="107">
+      <c r="U43" s="111"/>
+      <c r="W43" s="110">
         <v>36</v>
       </c>
-      <c r="X43" s="109"/>
-      <c r="Y43" s="107">
+      <c r="X43" s="111"/>
+      <c r="Y43" s="110">
         <v>41</v>
       </c>
-      <c r="Z43" s="109"/>
+      <c r="Z43" s="111"/>
     </row>
     <row r="44" spans="1:51" x14ac:dyDescent="0.35">
       <c r="B44" s="41"/>
@@ -7753,6 +7792,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="M42:P42"/>
+    <mergeCell ref="O43:P43"/>
     <mergeCell ref="W42:Z42"/>
     <mergeCell ref="W43:X43"/>
     <mergeCell ref="Y43:Z43"/>
@@ -7762,12 +7807,6 @@
     <mergeCell ref="R43:S43"/>
     <mergeCell ref="T43:U43"/>
     <mergeCell ref="R42:U42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="M42:P42"/>
-    <mergeCell ref="O43:P43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -7780,7 +7819,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8061,10 +8100,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U21"/>
+  <dimension ref="A1:U25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="X13" sqref="X13"/>
+      <selection activeCell="Z16" sqref="Z16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8073,609 +8112,511 @@
     <col min="2" max="21" width="4.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A1" s="72" t="s">
+    <row r="1" spans="1:21" ht="14.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A1" s="116"/>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="116"/>
+      <c r="J1" s="116"/>
+      <c r="K1" s="116"/>
+      <c r="L1" s="116"/>
+      <c r="M1" s="116"/>
+      <c r="N1" s="116"/>
+      <c r="O1" s="116"/>
+      <c r="P1" s="116"/>
+      <c r="Q1" s="116"/>
+      <c r="R1" s="116"/>
+      <c r="S1" s="116"/>
+      <c r="T1" s="116"/>
+      <c r="U1" s="116"/>
+    </row>
+    <row r="2" spans="1:21" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="117" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="118"/>
+      <c r="C2" s="118"/>
+      <c r="D2" s="118"/>
+      <c r="E2" s="118"/>
+      <c r="F2" s="118"/>
+      <c r="G2" s="118"/>
+      <c r="H2" s="118"/>
+      <c r="I2" s="118"/>
+      <c r="J2" s="118"/>
+      <c r="K2" s="118"/>
+      <c r="L2" s="118"/>
+      <c r="M2" s="118"/>
+      <c r="N2" s="118"/>
+      <c r="O2" s="118"/>
+      <c r="P2" s="118"/>
+      <c r="Q2" s="118"/>
+      <c r="R2" s="118"/>
+      <c r="S2" s="118"/>
+      <c r="T2" s="118"/>
+      <c r="U2" s="119"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A3" s="120"/>
+      <c r="B3" s="121"/>
+      <c r="C3" s="121"/>
+      <c r="D3" s="121"/>
+      <c r="E3" s="121"/>
+      <c r="F3" s="121"/>
+      <c r="G3" s="121"/>
+      <c r="H3" s="121"/>
+      <c r="I3" s="121"/>
+      <c r="J3" s="121"/>
+      <c r="K3" s="121"/>
+      <c r="L3" s="121"/>
+      <c r="M3" s="121"/>
+      <c r="N3" s="121"/>
+      <c r="O3" s="121"/>
+      <c r="P3" s="121"/>
+      <c r="Q3" s="121"/>
+      <c r="R3" s="121"/>
+      <c r="S3" s="121"/>
+      <c r="T3" s="121"/>
+      <c r="U3" s="122"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A4" s="123"/>
+      <c r="B4" s="124"/>
+      <c r="C4" s="124"/>
+      <c r="D4" s="124"/>
+      <c r="E4" s="124"/>
+      <c r="F4" s="124"/>
+      <c r="G4" s="124"/>
+      <c r="H4" s="124"/>
+      <c r="I4" s="124"/>
+      <c r="J4" s="124"/>
+      <c r="K4" s="124"/>
+      <c r="L4" s="124"/>
+      <c r="M4" s="124"/>
+      <c r="N4" s="124"/>
+      <c r="O4" s="124"/>
+      <c r="P4" s="124"/>
+      <c r="Q4" s="124"/>
+      <c r="R4" s="124"/>
+      <c r="S4" s="124"/>
+      <c r="T4" s="124"/>
+      <c r="U4" s="125"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A5" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="110" t="s">
+      <c r="B5" s="107" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="110" t="s">
+      <c r="C5" s="108"/>
+      <c r="D5" s="108"/>
+      <c r="E5" s="109"/>
+      <c r="F5" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="112"/>
-      <c r="J1" s="110" t="s">
+      <c r="G5" s="108"/>
+      <c r="H5" s="108"/>
+      <c r="I5" s="109"/>
+      <c r="J5" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="111"/>
-      <c r="L1" s="111"/>
-      <c r="M1" s="112"/>
-      <c r="N1" s="110" t="s">
+      <c r="K5" s="108"/>
+      <c r="L5" s="108"/>
+      <c r="M5" s="109"/>
+      <c r="N5" s="107" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="111"/>
-      <c r="P1" s="111"/>
-      <c r="Q1" s="112"/>
-      <c r="R1" s="110" t="s">
+      <c r="O5" s="108"/>
+      <c r="P5" s="108"/>
+      <c r="Q5" s="109"/>
+      <c r="R5" s="107" t="s">
         <v>28</v>
       </c>
-      <c r="S1" s="111"/>
-      <c r="T1" s="111"/>
-      <c r="U1" s="112"/>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A2" s="68"/>
-      <c r="B2" s="113">
+      <c r="S5" s="108"/>
+      <c r="T5" s="108"/>
+      <c r="U5" s="109"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A6" s="68"/>
+      <c r="B6" s="115">
         <v>36</v>
       </c>
-      <c r="C2" s="114"/>
-      <c r="D2" s="115">
+      <c r="C6" s="114"/>
+      <c r="D6" s="113">
         <v>41</v>
       </c>
-      <c r="E2" s="114"/>
-      <c r="F2" s="113">
+      <c r="E6" s="114"/>
+      <c r="F6" s="115">
         <v>36</v>
       </c>
-      <c r="G2" s="114"/>
-      <c r="H2" s="115">
+      <c r="G6" s="114"/>
+      <c r="H6" s="113">
         <v>41</v>
       </c>
-      <c r="I2" s="114"/>
-      <c r="J2" s="113">
+      <c r="I6" s="114"/>
+      <c r="J6" s="115">
         <v>36</v>
       </c>
-      <c r="K2" s="114"/>
-      <c r="L2" s="115">
+      <c r="K6" s="114"/>
+      <c r="L6" s="113">
         <v>41</v>
       </c>
-      <c r="M2" s="114"/>
-      <c r="N2" s="113">
+      <c r="M6" s="114"/>
+      <c r="N6" s="115">
         <v>36</v>
       </c>
-      <c r="O2" s="114"/>
-      <c r="P2" s="115">
+      <c r="O6" s="114"/>
+      <c r="P6" s="113">
         <v>41</v>
       </c>
-      <c r="Q2" s="114"/>
-      <c r="R2" s="113">
+      <c r="Q6" s="114"/>
+      <c r="R6" s="115">
         <v>36</v>
       </c>
-      <c r="S2" s="114"/>
-      <c r="T2" s="115">
+      <c r="S6" s="114"/>
+      <c r="T6" s="113">
         <v>41</v>
       </c>
-      <c r="U2" s="114"/>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A3" s="73" t="s">
+      <c r="U6" s="114"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A7" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="65" t="s">
+      <c r="B7" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="66" t="s">
+      <c r="C7" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="67" t="s">
+      <c r="D7" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="66" t="s">
+      <c r="E7" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="65" t="s">
+      <c r="F7" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="66" t="s">
+      <c r="G7" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="67" t="s">
+      <c r="H7" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="66" t="s">
+      <c r="I7" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="65" t="s">
+      <c r="J7" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="K3" s="66" t="s">
+      <c r="K7" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="L3" s="67" t="s">
+      <c r="L7" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="M3" s="66" t="s">
+      <c r="M7" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="N3" s="65" t="s">
+      <c r="N7" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="O3" s="66" t="s">
+      <c r="O7" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="P3" s="67" t="s">
+      <c r="P7" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="Q3" s="66" t="s">
+      <c r="Q7" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="R3" s="65" t="s">
+      <c r="R7" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="S3" s="66" t="s">
+      <c r="S7" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="T3" s="67" t="s">
+      <c r="T7" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="U3" s="66" t="s">
+      <c r="U7" s="66" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A4" s="79" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="80" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="81" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="80" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="81" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="82">
-        <v>17</v>
-      </c>
-      <c r="G4" s="83">
-        <v>3</v>
-      </c>
-      <c r="H4" s="84">
-        <v>15</v>
-      </c>
-      <c r="I4" s="83">
-        <v>2</v>
-      </c>
-      <c r="J4" s="82">
-        <v>17</v>
-      </c>
-      <c r="K4" s="83">
-        <v>3</v>
-      </c>
-      <c r="L4" s="84"/>
-      <c r="M4" s="83"/>
-      <c r="N4" s="82">
-        <v>17</v>
-      </c>
-      <c r="O4" s="83">
-        <v>2</v>
-      </c>
-      <c r="P4" s="84">
-        <v>15</v>
-      </c>
-      <c r="Q4" s="83">
-        <v>5</v>
-      </c>
-      <c r="R4" s="82">
-        <v>17</v>
-      </c>
-      <c r="S4" s="83">
-        <v>2</v>
-      </c>
-      <c r="T4" s="84">
-        <v>15</v>
-      </c>
-      <c r="U4" s="85">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A5" s="86" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" s="87">
-        <v>19</v>
-      </c>
-      <c r="C5" s="88">
-        <v>4</v>
-      </c>
-      <c r="D5" s="89"/>
-      <c r="E5" s="88"/>
-      <c r="F5" s="87">
-        <v>19</v>
-      </c>
-      <c r="G5" s="88">
-        <v>4</v>
-      </c>
-      <c r="H5" s="89"/>
-      <c r="I5" s="88"/>
-      <c r="J5" s="87">
-        <v>19</v>
-      </c>
-      <c r="K5" s="88">
-        <v>4</v>
-      </c>
-      <c r="L5" s="89"/>
-      <c r="M5" s="88"/>
-      <c r="N5" s="87"/>
-      <c r="O5" s="88"/>
-      <c r="P5" s="89">
-        <v>3</v>
-      </c>
-      <c r="Q5" s="90">
-        <v>2</v>
-      </c>
-      <c r="R5" s="87">
-        <v>19</v>
-      </c>
-      <c r="S5" s="88">
-        <v>2</v>
-      </c>
-      <c r="T5" s="89">
-        <v>3</v>
-      </c>
-      <c r="U5" s="91">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A6" s="79" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="82">
-        <v>13</v>
-      </c>
-      <c r="C6" s="83">
-        <v>3</v>
-      </c>
-      <c r="D6" s="84">
-        <v>9</v>
-      </c>
-      <c r="E6" s="83">
-        <v>2</v>
-      </c>
-      <c r="F6" s="80" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" s="81" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" s="92" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6" s="81" t="s">
-        <v>29</v>
-      </c>
-      <c r="J6" s="82">
-        <v>13</v>
-      </c>
-      <c r="K6" s="83">
-        <v>3</v>
-      </c>
-      <c r="L6" s="84">
-        <v>9</v>
-      </c>
-      <c r="M6" s="90">
-        <v>6</v>
-      </c>
-      <c r="N6" s="82"/>
-      <c r="O6" s="83"/>
-      <c r="P6" s="84">
-        <v>9</v>
-      </c>
-      <c r="Q6" s="83">
-        <v>2</v>
-      </c>
-      <c r="R6" s="82"/>
-      <c r="S6" s="83"/>
-      <c r="T6" s="84">
-        <v>9</v>
-      </c>
-      <c r="U6" s="85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A7" s="86" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="93">
-        <v>4</v>
-      </c>
-      <c r="C7" s="90">
-        <v>2</v>
-      </c>
-      <c r="D7" s="94">
-        <v>16</v>
-      </c>
-      <c r="E7" s="95">
-        <v>5</v>
-      </c>
-      <c r="F7" s="93"/>
-      <c r="G7" s="95"/>
-      <c r="H7" s="94">
-        <v>16</v>
-      </c>
-      <c r="I7" s="88">
-        <v>2</v>
-      </c>
-      <c r="J7" s="93"/>
-      <c r="K7" s="95"/>
-      <c r="L7" s="94">
-        <v>16</v>
-      </c>
-      <c r="M7" s="88">
-        <v>3</v>
-      </c>
-      <c r="N7" s="96" t="s">
-        <v>29</v>
-      </c>
-      <c r="O7" s="97" t="s">
-        <v>29</v>
-      </c>
-      <c r="P7" s="98" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q7" s="97" t="s">
-        <v>29</v>
-      </c>
-      <c r="R7" s="93"/>
-      <c r="S7" s="95"/>
-      <c r="T7" s="94">
-        <v>16</v>
-      </c>
-      <c r="U7" s="99">
-        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A8" s="79" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="82">
-        <v>7</v>
-      </c>
-      <c r="C8" s="83">
-        <v>3</v>
-      </c>
-      <c r="D8" s="84">
-        <v>11</v>
-      </c>
-      <c r="E8" s="83">
-        <v>3</v>
+        <v>24</v>
+      </c>
+      <c r="B8" s="80" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="81" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="80" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="81" t="s">
+        <v>29</v>
       </c>
       <c r="F8" s="82">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="G8" s="83">
         <v>3</v>
       </c>
       <c r="H8" s="84">
-        <v>11</v>
-      </c>
-      <c r="I8" s="71">
-        <v>6</v>
-      </c>
-      <c r="J8" s="80" t="s">
-        <v>29</v>
-      </c>
-      <c r="K8" s="81" t="s">
-        <v>29</v>
-      </c>
-      <c r="L8" s="92" t="s">
-        <v>29</v>
-      </c>
-      <c r="M8" s="81" t="s">
-        <v>29</v>
-      </c>
-      <c r="N8" s="82"/>
-      <c r="O8" s="83"/>
+        <v>15</v>
+      </c>
+      <c r="I8" s="83">
+        <v>2</v>
+      </c>
+      <c r="J8" s="82">
+        <v>17</v>
+      </c>
+      <c r="K8" s="83">
+        <v>3</v>
+      </c>
+      <c r="L8" s="84"/>
+      <c r="M8" s="83"/>
+      <c r="N8" s="82">
+        <v>17</v>
+      </c>
+      <c r="O8" s="83">
+        <v>2</v>
+      </c>
       <c r="P8" s="84">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="Q8" s="83">
-        <v>3</v>
-      </c>
-      <c r="R8" s="82"/>
-      <c r="S8" s="83"/>
-      <c r="T8" s="84"/>
-      <c r="U8" s="85"/>
+        <v>5</v>
+      </c>
+      <c r="R8" s="82">
+        <v>17</v>
+      </c>
+      <c r="S8" s="83">
+        <v>2</v>
+      </c>
+      <c r="T8" s="84">
+        <v>15</v>
+      </c>
+      <c r="U8" s="85">
+        <v>2</v>
+      </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A9" s="86" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="87">
         <v>19</v>
       </c>
-      <c r="B9" s="93">
-        <v>10</v>
-      </c>
-      <c r="C9" s="95">
-        <v>2</v>
-      </c>
-      <c r="D9" s="94">
-        <v>7</v>
-      </c>
-      <c r="E9" s="95">
-        <v>2</v>
-      </c>
-      <c r="F9" s="93"/>
-      <c r="G9" s="95"/>
-      <c r="H9" s="94">
-        <v>7</v>
-      </c>
-      <c r="I9" s="95">
-        <v>1</v>
-      </c>
-      <c r="J9" s="93"/>
-      <c r="K9" s="95"/>
-      <c r="L9" s="94"/>
-      <c r="M9" s="95"/>
-      <c r="N9" s="93"/>
-      <c r="O9" s="95"/>
-      <c r="P9" s="94">
-        <v>7</v>
-      </c>
-      <c r="Q9" s="95">
-        <v>2</v>
-      </c>
-      <c r="R9" s="96" t="s">
-        <v>29</v>
-      </c>
-      <c r="S9" s="97" t="s">
-        <v>29</v>
-      </c>
-      <c r="T9" s="98" t="s">
-        <v>29</v>
-      </c>
-      <c r="U9" s="100" t="s">
-        <v>29</v>
+      <c r="C9" s="88">
+        <v>4</v>
+      </c>
+      <c r="D9" s="89"/>
+      <c r="E9" s="88"/>
+      <c r="F9" s="87">
+        <v>19</v>
+      </c>
+      <c r="G9" s="88">
+        <v>4</v>
+      </c>
+      <c r="H9" s="89"/>
+      <c r="I9" s="88"/>
+      <c r="J9" s="87">
+        <v>19</v>
+      </c>
+      <c r="K9" s="88">
+        <v>4</v>
+      </c>
+      <c r="L9" s="89"/>
+      <c r="M9" s="88"/>
+      <c r="N9" s="87"/>
+      <c r="O9" s="88"/>
+      <c r="P9" s="89">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="90">
+        <v>2</v>
+      </c>
+      <c r="R9" s="87">
+        <v>19</v>
+      </c>
+      <c r="S9" s="88">
+        <v>2</v>
+      </c>
+      <c r="T9" s="89">
+        <v>3</v>
+      </c>
+      <c r="U9" s="91">
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A10" s="79" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="B10" s="82">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C10" s="83">
         <v>3</v>
       </c>
       <c r="D10" s="84">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E10" s="83">
-        <v>1</v>
-      </c>
-      <c r="F10" s="82"/>
-      <c r="G10" s="83"/>
-      <c r="H10" s="84">
-        <v>4</v>
-      </c>
-      <c r="I10" s="90">
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="F10" s="80" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="81" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" s="92" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" s="81" t="s">
+        <v>29</v>
       </c>
       <c r="J10" s="82">
+        <v>13</v>
+      </c>
+      <c r="K10" s="83">
+        <v>3</v>
+      </c>
+      <c r="L10" s="84">
         <v>9</v>
       </c>
-      <c r="K10" s="83">
-        <v>2</v>
-      </c>
-      <c r="L10" s="84">
-        <v>4</v>
-      </c>
       <c r="M10" s="90">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N10" s="82"/>
       <c r="O10" s="83"/>
       <c r="P10" s="84">
-        <v>4</v>
-      </c>
-      <c r="Q10" s="90">
-        <v>3</v>
-      </c>
-      <c r="R10" s="82">
         <v>9</v>
       </c>
-      <c r="S10" s="83">
-        <v>3</v>
-      </c>
-      <c r="T10" s="84"/>
-      <c r="U10" s="85"/>
+      <c r="Q10" s="83">
+        <v>2</v>
+      </c>
+      <c r="R10" s="82"/>
+      <c r="S10" s="83"/>
+      <c r="T10" s="84">
+        <v>9</v>
+      </c>
+      <c r="U10" s="85">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A11" s="86" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="B11" s="93">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C11" s="90">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D11" s="94">
-        <v>2</v>
-      </c>
-      <c r="E11" s="88">
-        <v>1</v>
+        <v>16</v>
+      </c>
+      <c r="E11" s="95">
+        <v>5</v>
       </c>
       <c r="F11" s="93"/>
       <c r="G11" s="95"/>
       <c r="H11" s="94">
-        <v>2</v>
-      </c>
-      <c r="I11" s="95">
-        <v>2</v>
-      </c>
-      <c r="J11" s="93">
-        <v>8</v>
-      </c>
-      <c r="K11" s="95">
-        <v>2</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="I11" s="88">
+        <v>2</v>
+      </c>
+      <c r="J11" s="93"/>
+      <c r="K11" s="95"/>
       <c r="L11" s="94">
-        <v>2</v>
-      </c>
-      <c r="M11" s="95">
-        <v>1</v>
-      </c>
-      <c r="N11" s="93"/>
-      <c r="O11" s="95"/>
-      <c r="P11" s="94"/>
-      <c r="Q11" s="95"/>
-      <c r="R11" s="93">
-        <v>8</v>
-      </c>
-      <c r="S11" s="95">
-        <v>2</v>
-      </c>
-      <c r="T11" s="94"/>
-      <c r="U11" s="99"/>
+        <v>16</v>
+      </c>
+      <c r="M11" s="88">
+        <v>3</v>
+      </c>
+      <c r="N11" s="96" t="s">
+        <v>29</v>
+      </c>
+      <c r="O11" s="97" t="s">
+        <v>29</v>
+      </c>
+      <c r="P11" s="98" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q11" s="97" t="s">
+        <v>29</v>
+      </c>
+      <c r="R11" s="93"/>
+      <c r="S11" s="95"/>
+      <c r="T11" s="94">
+        <v>16</v>
+      </c>
+      <c r="U11" s="99">
+        <v>2</v>
+      </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A12" s="79" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" s="82"/>
-      <c r="C12" s="83"/>
+        <v>8</v>
+      </c>
+      <c r="B12" s="82">
+        <v>7</v>
+      </c>
+      <c r="C12" s="83">
+        <v>3</v>
+      </c>
       <c r="D12" s="84">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E12" s="83">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12" s="82">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G12" s="83">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H12" s="84">
-        <v>4</v>
-      </c>
-      <c r="I12" s="90">
-        <v>4</v>
-      </c>
-      <c r="J12" s="82"/>
-      <c r="K12" s="83"/>
-      <c r="L12" s="84">
-        <v>4</v>
-      </c>
-      <c r="M12" s="90">
-        <v>3</v>
+        <v>11</v>
+      </c>
+      <c r="I12" s="71">
+        <v>6</v>
+      </c>
+      <c r="J12" s="80" t="s">
+        <v>29</v>
+      </c>
+      <c r="K12" s="81" t="s">
+        <v>29</v>
+      </c>
+      <c r="L12" s="92" t="s">
+        <v>29</v>
+      </c>
+      <c r="M12" s="81" t="s">
+        <v>29</v>
       </c>
       <c r="N12" s="82"/>
       <c r="O12" s="83"/>
-      <c r="P12" s="84"/>
-      <c r="Q12" s="83"/>
+      <c r="P12" s="84">
+        <v>11</v>
+      </c>
+      <c r="Q12" s="83">
+        <v>3</v>
+      </c>
       <c r="R12" s="82"/>
       <c r="S12" s="83"/>
       <c r="T12" s="84"/>
@@ -8683,262 +8624,330 @@
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A13" s="86" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="87">
-        <v>6</v>
-      </c>
-      <c r="C13" s="88">
-        <v>2</v>
-      </c>
-      <c r="D13" s="89"/>
-      <c r="E13" s="88"/>
-      <c r="F13" s="87">
-        <v>6</v>
-      </c>
-      <c r="G13" s="88">
-        <v>1</v>
-      </c>
-      <c r="H13" s="89">
-        <v>2</v>
-      </c>
-      <c r="I13" s="88">
-        <v>1</v>
-      </c>
-      <c r="J13" s="87"/>
-      <c r="K13" s="88"/>
-      <c r="L13" s="89"/>
-      <c r="M13" s="88"/>
-      <c r="N13" s="87"/>
-      <c r="O13" s="88"/>
-      <c r="P13" s="89">
-        <v>2</v>
-      </c>
-      <c r="Q13" s="88">
-        <v>2</v>
-      </c>
-      <c r="R13" s="87">
-        <v>6</v>
-      </c>
-      <c r="S13" s="90">
-        <v>3</v>
-      </c>
-      <c r="T13" s="89"/>
-      <c r="U13" s="101"/>
+        <v>19</v>
+      </c>
+      <c r="B13" s="93">
+        <v>10</v>
+      </c>
+      <c r="C13" s="95">
+        <v>2</v>
+      </c>
+      <c r="D13" s="94">
+        <v>7</v>
+      </c>
+      <c r="E13" s="95">
+        <v>2</v>
+      </c>
+      <c r="F13" s="93"/>
+      <c r="G13" s="95"/>
+      <c r="H13" s="94">
+        <v>7</v>
+      </c>
+      <c r="I13" s="95">
+        <v>1</v>
+      </c>
+      <c r="J13" s="93"/>
+      <c r="K13" s="95"/>
+      <c r="L13" s="94"/>
+      <c r="M13" s="95"/>
+      <c r="N13" s="93"/>
+      <c r="O13" s="95"/>
+      <c r="P13" s="94">
+        <v>7</v>
+      </c>
+      <c r="Q13" s="95">
+        <v>2</v>
+      </c>
+      <c r="R13" s="96" t="s">
+        <v>29</v>
+      </c>
+      <c r="S13" s="97" t="s">
+        <v>29</v>
+      </c>
+      <c r="T13" s="98" t="s">
+        <v>29</v>
+      </c>
+      <c r="U13" s="100" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A14" s="79" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="B14" s="82">
+        <v>9</v>
+      </c>
+      <c r="C14" s="83">
         <v>3</v>
       </c>
-      <c r="C14" s="83">
-        <v>1</v>
-      </c>
       <c r="D14" s="84">
+        <v>4</v>
+      </c>
+      <c r="E14" s="83">
+        <v>1</v>
+      </c>
+      <c r="F14" s="82"/>
+      <c r="G14" s="83"/>
+      <c r="H14" s="84">
+        <v>4</v>
+      </c>
+      <c r="I14" s="90">
+        <v>2</v>
+      </c>
+      <c r="J14" s="82">
+        <v>9</v>
+      </c>
+      <c r="K14" s="83">
+        <v>2</v>
+      </c>
+      <c r="L14" s="84">
+        <v>4</v>
+      </c>
+      <c r="M14" s="90">
         <v>3</v>
-      </c>
-      <c r="E14" s="90">
-        <v>2</v>
-      </c>
-      <c r="F14" s="82">
-        <v>3</v>
-      </c>
-      <c r="G14" s="83">
-        <v>1</v>
-      </c>
-      <c r="H14" s="84">
-        <v>3</v>
-      </c>
-      <c r="I14" s="90">
-        <v>2</v>
-      </c>
-      <c r="J14" s="82"/>
-      <c r="K14" s="83"/>
-      <c r="L14" s="84">
-        <v>3</v>
-      </c>
-      <c r="M14" s="83">
-        <v>1</v>
       </c>
       <c r="N14" s="82"/>
       <c r="O14" s="83"/>
-      <c r="P14" s="84"/>
-      <c r="Q14" s="83"/>
+      <c r="P14" s="84">
+        <v>4</v>
+      </c>
+      <c r="Q14" s="90">
+        <v>3</v>
+      </c>
       <c r="R14" s="82">
+        <v>9</v>
+      </c>
+      <c r="S14" s="83">
         <v>3</v>
       </c>
-      <c r="S14" s="83">
-        <v>1</v>
-      </c>
-      <c r="T14" s="84">
-        <v>3</v>
-      </c>
-      <c r="U14" s="85">
-        <v>1</v>
-      </c>
+      <c r="T14" s="84"/>
+      <c r="U14" s="85"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A15" s="86" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="87">
-        <v>1</v>
-      </c>
-      <c r="C15" s="88">
-        <v>1</v>
-      </c>
-      <c r="D15" s="89">
-        <v>3</v>
+        <v>38</v>
+      </c>
+      <c r="B15" s="93">
+        <v>8</v>
+      </c>
+      <c r="C15" s="90">
+        <v>4</v>
+      </c>
+      <c r="D15" s="94">
+        <v>2</v>
       </c>
       <c r="E15" s="88">
         <v>1</v>
       </c>
-      <c r="F15" s="87"/>
-      <c r="G15" s="88"/>
-      <c r="H15" s="89">
-        <v>3</v>
-      </c>
-      <c r="I15" s="88">
-        <v>1</v>
-      </c>
-      <c r="J15" s="87"/>
-      <c r="K15" s="88"/>
-      <c r="L15" s="89"/>
-      <c r="M15" s="88"/>
-      <c r="N15" s="87"/>
-      <c r="O15" s="88"/>
-      <c r="P15" s="89">
-        <v>3</v>
-      </c>
-      <c r="Q15" s="88">
-        <v>1</v>
-      </c>
-      <c r="R15" s="87"/>
-      <c r="S15" s="88"/>
-      <c r="T15" s="89"/>
-      <c r="U15" s="101"/>
+      <c r="F15" s="93"/>
+      <c r="G15" s="95"/>
+      <c r="H15" s="94">
+        <v>2</v>
+      </c>
+      <c r="I15" s="95">
+        <v>2</v>
+      </c>
+      <c r="J15" s="93">
+        <v>8</v>
+      </c>
+      <c r="K15" s="95">
+        <v>2</v>
+      </c>
+      <c r="L15" s="94">
+        <v>2</v>
+      </c>
+      <c r="M15" s="95">
+        <v>1</v>
+      </c>
+      <c r="N15" s="93"/>
+      <c r="O15" s="95"/>
+      <c r="P15" s="94"/>
+      <c r="Q15" s="95"/>
+      <c r="R15" s="93">
+        <v>8</v>
+      </c>
+      <c r="S15" s="95">
+        <v>2</v>
+      </c>
+      <c r="T15" s="94"/>
+      <c r="U15" s="99"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A16" s="79" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" s="82">
-        <v>1</v>
-      </c>
-      <c r="C16" s="83">
-        <v>1</v>
-      </c>
-      <c r="D16" s="84"/>
-      <c r="E16" s="83"/>
-      <c r="F16" s="82"/>
-      <c r="G16" s="83"/>
+        <v>35</v>
+      </c>
+      <c r="B16" s="82"/>
+      <c r="C16" s="83"/>
+      <c r="D16" s="84">
+        <v>4</v>
+      </c>
+      <c r="E16" s="83">
+        <v>2</v>
+      </c>
+      <c r="F16" s="82">
+        <v>5</v>
+      </c>
+      <c r="G16" s="83">
+        <v>1</v>
+      </c>
       <c r="H16" s="84">
-        <v>2</v>
-      </c>
-      <c r="I16" s="83">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="I16" s="90">
+        <v>4</v>
       </c>
       <c r="J16" s="82"/>
       <c r="K16" s="83"/>
-      <c r="L16" s="84"/>
-      <c r="M16" s="83"/>
+      <c r="L16" s="84">
+        <v>4</v>
+      </c>
+      <c r="M16" s="90">
+        <v>3</v>
+      </c>
       <c r="N16" s="82"/>
       <c r="O16" s="83"/>
       <c r="P16" s="84"/>
       <c r="Q16" s="83"/>
-      <c r="R16" s="82">
-        <v>1</v>
-      </c>
-      <c r="S16" s="83">
-        <v>1</v>
-      </c>
+      <c r="R16" s="82"/>
+      <c r="S16" s="83"/>
       <c r="T16" s="84"/>
       <c r="U16" s="85"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A17" s="86" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="93"/>
-      <c r="C17" s="95"/>
-      <c r="D17" s="94"/>
-      <c r="E17" s="95"/>
-      <c r="F17" s="93"/>
-      <c r="G17" s="95"/>
-      <c r="H17" s="94">
+        <v>11</v>
+      </c>
+      <c r="B17" s="87">
+        <v>6</v>
+      </c>
+      <c r="C17" s="88">
+        <v>2</v>
+      </c>
+      <c r="D17" s="89"/>
+      <c r="E17" s="88"/>
+      <c r="F17" s="87">
+        <v>6</v>
+      </c>
+      <c r="G17" s="88">
+        <v>1</v>
+      </c>
+      <c r="H17" s="89">
+        <v>2</v>
+      </c>
+      <c r="I17" s="88">
+        <v>1</v>
+      </c>
+      <c r="J17" s="87"/>
+      <c r="K17" s="88"/>
+      <c r="L17" s="89"/>
+      <c r="M17" s="88"/>
+      <c r="N17" s="87"/>
+      <c r="O17" s="88"/>
+      <c r="P17" s="89">
+        <v>2</v>
+      </c>
+      <c r="Q17" s="88">
+        <v>2</v>
+      </c>
+      <c r="R17" s="87">
+        <v>6</v>
+      </c>
+      <c r="S17" s="90">
         <v>3</v>
       </c>
-      <c r="I17" s="95">
-        <v>1</v>
-      </c>
-      <c r="J17" s="93"/>
-      <c r="K17" s="95"/>
-      <c r="L17" s="94"/>
-      <c r="M17" s="95"/>
-      <c r="N17" s="93"/>
-      <c r="O17" s="95"/>
-      <c r="P17" s="94"/>
-      <c r="Q17" s="95"/>
-      <c r="R17" s="93"/>
-      <c r="S17" s="95"/>
-      <c r="T17" s="94"/>
-      <c r="U17" s="99"/>
+      <c r="T17" s="89"/>
+      <c r="U17" s="101"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A18" s="79" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" s="82"/>
-      <c r="C18" s="83"/>
-      <c r="D18" s="84"/>
-      <c r="E18" s="83"/>
-      <c r="F18" s="82"/>
-      <c r="G18" s="83"/>
-      <c r="H18" s="84"/>
-      <c r="I18" s="83"/>
+        <v>1</v>
+      </c>
+      <c r="B18" s="82">
+        <v>3</v>
+      </c>
+      <c r="C18" s="83">
+        <v>1</v>
+      </c>
+      <c r="D18" s="84">
+        <v>3</v>
+      </c>
+      <c r="E18" s="90">
+        <v>2</v>
+      </c>
+      <c r="F18" s="82">
+        <v>3</v>
+      </c>
+      <c r="G18" s="83">
+        <v>1</v>
+      </c>
+      <c r="H18" s="84">
+        <v>3</v>
+      </c>
+      <c r="I18" s="90">
+        <v>2</v>
+      </c>
       <c r="J18" s="82"/>
       <c r="K18" s="83"/>
-      <c r="L18" s="84"/>
-      <c r="M18" s="83"/>
+      <c r="L18" s="84">
+        <v>3</v>
+      </c>
+      <c r="M18" s="83">
+        <v>1</v>
+      </c>
       <c r="N18" s="82"/>
       <c r="O18" s="83"/>
       <c r="P18" s="84"/>
       <c r="Q18" s="83"/>
-      <c r="R18" s="82"/>
-      <c r="S18" s="83"/>
-      <c r="T18" s="84"/>
-      <c r="U18" s="85"/>
+      <c r="R18" s="82">
+        <v>3</v>
+      </c>
+      <c r="S18" s="83">
+        <v>1</v>
+      </c>
+      <c r="T18" s="84">
+        <v>3</v>
+      </c>
+      <c r="U18" s="85">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A19" s="86" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="B19" s="87">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C19" s="88">
         <v>1</v>
       </c>
-      <c r="D19" s="89"/>
-      <c r="E19" s="88"/>
-      <c r="F19" s="87">
-        <v>2</v>
-      </c>
-      <c r="G19" s="88">
-        <v>2</v>
-      </c>
-      <c r="H19" s="89"/>
-      <c r="I19" s="88"/>
+      <c r="D19" s="89">
+        <v>3</v>
+      </c>
+      <c r="E19" s="88">
+        <v>1</v>
+      </c>
+      <c r="F19" s="87"/>
+      <c r="G19" s="88"/>
+      <c r="H19" s="89">
+        <v>3</v>
+      </c>
+      <c r="I19" s="88">
+        <v>1</v>
+      </c>
       <c r="J19" s="87"/>
       <c r="K19" s="88"/>
       <c r="L19" s="89"/>
       <c r="M19" s="88"/>
       <c r="N19" s="87"/>
       <c r="O19" s="88"/>
-      <c r="P19" s="89"/>
-      <c r="Q19" s="88"/>
+      <c r="P19" s="89">
+        <v>3</v>
+      </c>
+      <c r="Q19" s="88">
+        <v>1</v>
+      </c>
       <c r="R19" s="87"/>
       <c r="S19" s="88"/>
       <c r="T19" s="89"/>
@@ -8946,7 +8955,7 @@
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A20" s="79" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="B20" s="82">
         <v>1</v>
@@ -8958,8 +8967,12 @@
       <c r="E20" s="83"/>
       <c r="F20" s="82"/>
       <c r="G20" s="83"/>
-      <c r="H20" s="84"/>
-      <c r="I20" s="83"/>
+      <c r="H20" s="84">
+        <v>2</v>
+      </c>
+      <c r="I20" s="83">
+        <v>1</v>
+      </c>
       <c r="J20" s="82"/>
       <c r="K20" s="83"/>
       <c r="L20" s="84"/>
@@ -8978,51 +8991,172 @@
       <c r="U20" s="85"/>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A21" s="102" t="s">
+      <c r="A21" s="86" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="93"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="94"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="95"/>
+      <c r="H21" s="94">
+        <v>3</v>
+      </c>
+      <c r="I21" s="95">
+        <v>1</v>
+      </c>
+      <c r="J21" s="93"/>
+      <c r="K21" s="95"/>
+      <c r="L21" s="94"/>
+      <c r="M21" s="95"/>
+      <c r="N21" s="93"/>
+      <c r="O21" s="95"/>
+      <c r="P21" s="94"/>
+      <c r="Q21" s="95"/>
+      <c r="R21" s="93"/>
+      <c r="S21" s="95"/>
+      <c r="T21" s="94"/>
+      <c r="U21" s="99"/>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A22" s="79" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="82"/>
+      <c r="C22" s="83"/>
+      <c r="D22" s="84"/>
+      <c r="E22" s="83"/>
+      <c r="F22" s="82"/>
+      <c r="G22" s="83"/>
+      <c r="H22" s="84"/>
+      <c r="I22" s="83"/>
+      <c r="J22" s="82"/>
+      <c r="K22" s="83"/>
+      <c r="L22" s="84"/>
+      <c r="M22" s="83"/>
+      <c r="N22" s="82"/>
+      <c r="O22" s="83"/>
+      <c r="P22" s="84"/>
+      <c r="Q22" s="83"/>
+      <c r="R22" s="82"/>
+      <c r="S22" s="83"/>
+      <c r="T22" s="84"/>
+      <c r="U22" s="85"/>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A23" s="86" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="87">
+        <v>2</v>
+      </c>
+      <c r="C23" s="88">
+        <v>1</v>
+      </c>
+      <c r="D23" s="89"/>
+      <c r="E23" s="88"/>
+      <c r="F23" s="87">
+        <v>2</v>
+      </c>
+      <c r="G23" s="88">
+        <v>2</v>
+      </c>
+      <c r="H23" s="89"/>
+      <c r="I23" s="88"/>
+      <c r="J23" s="87"/>
+      <c r="K23" s="88"/>
+      <c r="L23" s="89"/>
+      <c r="M23" s="88"/>
+      <c r="N23" s="87"/>
+      <c r="O23" s="88"/>
+      <c r="P23" s="89"/>
+      <c r="Q23" s="88"/>
+      <c r="R23" s="87"/>
+      <c r="S23" s="88"/>
+      <c r="T23" s="89"/>
+      <c r="U23" s="101"/>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A24" s="79" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="82">
+        <v>1</v>
+      </c>
+      <c r="C24" s="83">
+        <v>1</v>
+      </c>
+      <c r="D24" s="84"/>
+      <c r="E24" s="83"/>
+      <c r="F24" s="82"/>
+      <c r="G24" s="83"/>
+      <c r="H24" s="84"/>
+      <c r="I24" s="83"/>
+      <c r="J24" s="82"/>
+      <c r="K24" s="83"/>
+      <c r="L24" s="84"/>
+      <c r="M24" s="83"/>
+      <c r="N24" s="82"/>
+      <c r="O24" s="83"/>
+      <c r="P24" s="84"/>
+      <c r="Q24" s="83"/>
+      <c r="R24" s="82">
+        <v>1</v>
+      </c>
+      <c r="S24" s="83">
+        <v>1</v>
+      </c>
+      <c r="T24" s="84"/>
+      <c r="U24" s="85"/>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A25" s="102" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="103"/>
-      <c r="C21" s="104"/>
-      <c r="D21" s="105"/>
-      <c r="E21" s="104"/>
-      <c r="F21" s="103"/>
-      <c r="G21" s="104"/>
-      <c r="H21" s="105"/>
-      <c r="I21" s="104"/>
-      <c r="J21" s="103"/>
-      <c r="K21" s="104"/>
-      <c r="L21" s="105"/>
-      <c r="M21" s="104"/>
-      <c r="N21" s="103"/>
-      <c r="O21" s="104"/>
-      <c r="P21" s="105"/>
-      <c r="Q21" s="104"/>
-      <c r="R21" s="103">
-        <v>1</v>
-      </c>
-      <c r="S21" s="104">
-        <v>1</v>
-      </c>
-      <c r="T21" s="105"/>
-      <c r="U21" s="106"/>
+      <c r="B25" s="103"/>
+      <c r="C25" s="104"/>
+      <c r="D25" s="105"/>
+      <c r="E25" s="104"/>
+      <c r="F25" s="103"/>
+      <c r="G25" s="104"/>
+      <c r="H25" s="105"/>
+      <c r="I25" s="104"/>
+      <c r="J25" s="103"/>
+      <c r="K25" s="104"/>
+      <c r="L25" s="105"/>
+      <c r="M25" s="104"/>
+      <c r="N25" s="103"/>
+      <c r="O25" s="104"/>
+      <c r="P25" s="105"/>
+      <c r="Q25" s="104"/>
+      <c r="R25" s="103">
+        <v>1</v>
+      </c>
+      <c r="S25" s="104">
+        <v>1</v>
+      </c>
+      <c r="T25" s="105"/>
+      <c r="U25" s="106"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="R1:U1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="N2:O2"/>
+  <mergeCells count="16">
+    <mergeCell ref="A2:U4"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="N5:Q5"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="R5:U5"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="T6:U6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -9035,7 +9169,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D19"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
